--- a/Sample_Project/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(Webサービス)_B10102_顧客詳細取得.xlsx
+++ b/Sample_Project/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(Webサービス)_B10102_顧客詳細取得.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552811D6-79A1-4839-A746-BF39512B2EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C0BFB5-1267-46C2-BE0E-62072FB94446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="1770" windowWidth="33090" windowHeight="18225" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" r:id="rId1"/>
@@ -57,8 +57,8 @@
           </rPr>
           <t>ケースNoは数値で以下の形式で付与する.
 　A-B-C
-A：確認観点2の項目が変わったらインクリメント
-B：確認観点3の項目が変わったらインクリメント
+A：詳細が変わったらインクリメント
+B：観点が変わったらインクリメント
 C：テスト内容が変わったらインクリメント</t>
         </r>
       </text>
@@ -85,8 +85,8 @@
           </rPr>
           <t>ケースNoは数値で以下の形式で付与する.
 　A-B-C
-A：確認観点2の項目が変わったらインクリメント
-B：確認観点3の項目が変わったらインクリメント
+A：詳細が変わったらインクリメント
+B：観点が変わったらインクリメント
 C：テスト内容が変わったらインクリメント</t>
         </r>
       </text>
@@ -8394,72 +8394,6 @@
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -8566,6 +8500,72 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8697,8 +8697,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7953375" y="285750"/>
-          <a:ext cx="1400175" cy="590550"/>
+          <a:off x="7905750" y="285750"/>
+          <a:ext cx="1390650" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -9109,9 +9109,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9149,9 +9149,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9184,26 +9184,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9236,26 +9219,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9436,9 +9402,9 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="6.58203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="16384" width="6.625" style="1"/>
+    <col min="1" max="16384" width="6.58203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1">
@@ -9524,7 +9490,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="6:11" ht="18.75">
+    <row r="32" spans="6:11" ht="19">
       <c r="F32" s="5"/>
       <c r="G32" s="8"/>
       <c r="H32" s="5"/>
@@ -9532,12 +9498,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="6:10" ht="18.75">
+    <row r="33" spans="6:10" ht="19">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" spans="6:10" ht="18.75">
+    <row r="34" spans="6:10" ht="19">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="J34" s="9" t="s">
@@ -10047,63 +10013,63 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="11"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="22"/>
+    <col min="1" max="16384" width="3.58203125" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="182" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="207" t="s">
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="185" t="s">
         <v>462</v>
       </c>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="208"/>
-      <c r="L1" s="208"/>
-      <c r="M1" s="208"/>
-      <c r="N1" s="209"/>
-      <c r="O1" s="213" t="s">
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="187"/>
+      <c r="O1" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="214"/>
-      <c r="Q1" s="214"/>
-      <c r="R1" s="215"/>
-      <c r="S1" s="222" t="s">
+      <c r="P1" s="192"/>
+      <c r="Q1" s="192"/>
+      <c r="R1" s="193"/>
+      <c r="S1" s="200" t="s">
         <v>558</v>
       </c>
-      <c r="T1" s="223"/>
-      <c r="U1" s="223"/>
-      <c r="V1" s="223"/>
-      <c r="W1" s="223"/>
-      <c r="X1" s="223"/>
-      <c r="Y1" s="223"/>
-      <c r="Z1" s="224"/>
-      <c r="AA1" s="204" t="s">
+      <c r="T1" s="201"/>
+      <c r="U1" s="201"/>
+      <c r="V1" s="201"/>
+      <c r="W1" s="201"/>
+      <c r="X1" s="201"/>
+      <c r="Y1" s="201"/>
+      <c r="Z1" s="202"/>
+      <c r="AA1" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="206"/>
-      <c r="AC1" s="231" t="str">
+      <c r="AB1" s="184"/>
+      <c r="AC1" s="209" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="232"/>
-      <c r="AE1" s="232"/>
-      <c r="AF1" s="233"/>
-      <c r="AG1" s="198" t="str">
+      <c r="AD1" s="210"/>
+      <c r="AE1" s="210"/>
+      <c r="AF1" s="211"/>
+      <c r="AG1" s="176" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="199"/>
-      <c r="AI1" s="200"/>
+      <c r="AH1" s="177"/>
+      <c r="AI1" s="178"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -10111,53 +10077,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="205"/>
-      <c r="C2" s="205"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="207" t="s">
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="185" t="s">
         <v>463</v>
       </c>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="209"/>
-      <c r="O2" s="216"/>
-      <c r="P2" s="217"/>
-      <c r="Q2" s="217"/>
-      <c r="R2" s="218"/>
-      <c r="S2" s="225"/>
-      <c r="T2" s="226"/>
-      <c r="U2" s="226"/>
-      <c r="V2" s="226"/>
-      <c r="W2" s="226"/>
-      <c r="X2" s="226"/>
-      <c r="Y2" s="226"/>
-      <c r="Z2" s="227"/>
-      <c r="AA2" s="204" t="s">
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="187"/>
+      <c r="O2" s="194"/>
+      <c r="P2" s="195"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="203"/>
+      <c r="T2" s="204"/>
+      <c r="U2" s="204"/>
+      <c r="V2" s="204"/>
+      <c r="W2" s="204"/>
+      <c r="X2" s="204"/>
+      <c r="Y2" s="204"/>
+      <c r="Z2" s="205"/>
+      <c r="AA2" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="206"/>
-      <c r="AC2" s="210" t="str">
+      <c r="AB2" s="184"/>
+      <c r="AC2" s="188" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="211"/>
-      <c r="AE2" s="211"/>
-      <c r="AF2" s="212"/>
-      <c r="AG2" s="198" t="str">
+      <c r="AD2" s="189"/>
+      <c r="AE2" s="189"/>
+      <c r="AF2" s="190"/>
+      <c r="AG2" s="176" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="199"/>
-      <c r="AI2" s="200"/>
+      <c r="AH2" s="177"/>
+      <c r="AI2" s="178"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -10165,45 +10131,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="205"/>
-      <c r="C3" s="205"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="207" t="s">
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="185" t="s">
         <v>464</v>
       </c>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="208"/>
-      <c r="K3" s="208"/>
-      <c r="L3" s="208"/>
-      <c r="M3" s="208"/>
-      <c r="N3" s="209"/>
-      <c r="O3" s="219"/>
-      <c r="P3" s="220"/>
-      <c r="Q3" s="220"/>
-      <c r="R3" s="221"/>
-      <c r="S3" s="228"/>
-      <c r="T3" s="229"/>
-      <c r="U3" s="229"/>
-      <c r="V3" s="229"/>
-      <c r="W3" s="229"/>
-      <c r="X3" s="229"/>
-      <c r="Y3" s="229"/>
-      <c r="Z3" s="230"/>
-      <c r="AA3" s="204"/>
-      <c r="AB3" s="206"/>
-      <c r="AC3" s="231"/>
-      <c r="AD3" s="232"/>
-      <c r="AE3" s="232"/>
-      <c r="AF3" s="233"/>
-      <c r="AG3" s="198"/>
-      <c r="AH3" s="199"/>
-      <c r="AI3" s="200"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="186"/>
+      <c r="N3" s="187"/>
+      <c r="O3" s="197"/>
+      <c r="P3" s="198"/>
+      <c r="Q3" s="198"/>
+      <c r="R3" s="199"/>
+      <c r="S3" s="206"/>
+      <c r="T3" s="207"/>
+      <c r="U3" s="207"/>
+      <c r="V3" s="207"/>
+      <c r="W3" s="207"/>
+      <c r="X3" s="207"/>
+      <c r="Y3" s="207"/>
+      <c r="Z3" s="208"/>
+      <c r="AA3" s="182"/>
+      <c r="AB3" s="184"/>
+      <c r="AC3" s="209"/>
+      <c r="AD3" s="210"/>
+      <c r="AE3" s="210"/>
+      <c r="AF3" s="211"/>
+      <c r="AG3" s="176"/>
+      <c r="AH3" s="177"/>
+      <c r="AI3" s="178"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -10240,85 +10206,85 @@
       <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="201" t="s">
+      <c r="B7" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="202"/>
-      <c r="D7" s="201" t="s">
+      <c r="C7" s="180"/>
+      <c r="D7" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="203"/>
-      <c r="F7" s="202"/>
-      <c r="G7" s="201" t="s">
+      <c r="E7" s="181"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="203"/>
-      <c r="I7" s="202"/>
-      <c r="J7" s="201" t="s">
+      <c r="H7" s="181"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="179" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="203"/>
-      <c r="L7" s="203"/>
-      <c r="M7" s="203"/>
-      <c r="N7" s="203"/>
-      <c r="O7" s="203"/>
-      <c r="P7" s="202"/>
-      <c r="Q7" s="201" t="s">
+      <c r="K7" s="181"/>
+      <c r="L7" s="181"/>
+      <c r="M7" s="181"/>
+      <c r="N7" s="181"/>
+      <c r="O7" s="181"/>
+      <c r="P7" s="180"/>
+      <c r="Q7" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="203"/>
-      <c r="S7" s="203"/>
-      <c r="T7" s="203"/>
-      <c r="U7" s="203"/>
-      <c r="V7" s="203"/>
-      <c r="W7" s="203"/>
-      <c r="X7" s="203"/>
-      <c r="Y7" s="203"/>
-      <c r="Z7" s="203"/>
-      <c r="AA7" s="203"/>
-      <c r="AB7" s="203"/>
-      <c r="AC7" s="203"/>
-      <c r="AD7" s="203"/>
-      <c r="AE7" s="202"/>
-      <c r="AF7" s="201" t="s">
+      <c r="R7" s="181"/>
+      <c r="S7" s="181"/>
+      <c r="T7" s="181"/>
+      <c r="U7" s="181"/>
+      <c r="V7" s="181"/>
+      <c r="W7" s="181"/>
+      <c r="X7" s="181"/>
+      <c r="Y7" s="181"/>
+      <c r="Z7" s="181"/>
+      <c r="AA7" s="181"/>
+      <c r="AB7" s="181"/>
+      <c r="AC7" s="181"/>
+      <c r="AD7" s="181"/>
+      <c r="AE7" s="180"/>
+      <c r="AF7" s="179" t="s">
         <v>25</v>
       </c>
-      <c r="AG7" s="203"/>
-      <c r="AH7" s="203"/>
-      <c r="AI7" s="202"/>
+      <c r="AG7" s="181"/>
+      <c r="AH7" s="181"/>
+      <c r="AI7" s="180"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="189"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="191"/>
-      <c r="E8" s="192"/>
-      <c r="F8" s="193"/>
-      <c r="G8" s="189"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="190"/>
-      <c r="J8" s="195"/>
-      <c r="K8" s="196"/>
-      <c r="L8" s="196"/>
-      <c r="M8" s="196"/>
-      <c r="N8" s="196"/>
-      <c r="O8" s="196"/>
-      <c r="P8" s="197"/>
-      <c r="Q8" s="195"/>
-      <c r="R8" s="196"/>
-      <c r="S8" s="196"/>
-      <c r="T8" s="196"/>
-      <c r="U8" s="196"/>
-      <c r="V8" s="196"/>
-      <c r="W8" s="196"/>
-      <c r="X8" s="196"/>
-      <c r="Y8" s="196"/>
-      <c r="Z8" s="196"/>
-      <c r="AA8" s="196"/>
-      <c r="AB8" s="196"/>
-      <c r="AC8" s="196"/>
-      <c r="AD8" s="196"/>
-      <c r="AE8" s="197"/>
+      <c r="B8" s="224"/>
+      <c r="C8" s="225"/>
+      <c r="D8" s="226"/>
+      <c r="E8" s="227"/>
+      <c r="F8" s="228"/>
+      <c r="G8" s="224"/>
+      <c r="H8" s="229"/>
+      <c r="I8" s="225"/>
+      <c r="J8" s="230"/>
+      <c r="K8" s="231"/>
+      <c r="L8" s="231"/>
+      <c r="M8" s="231"/>
+      <c r="N8" s="231"/>
+      <c r="O8" s="231"/>
+      <c r="P8" s="232"/>
+      <c r="Q8" s="230"/>
+      <c r="R8" s="231"/>
+      <c r="S8" s="231"/>
+      <c r="T8" s="231"/>
+      <c r="U8" s="231"/>
+      <c r="V8" s="231"/>
+      <c r="W8" s="231"/>
+      <c r="X8" s="231"/>
+      <c r="Y8" s="231"/>
+      <c r="Z8" s="231"/>
+      <c r="AA8" s="231"/>
+      <c r="AB8" s="231"/>
+      <c r="AC8" s="231"/>
+      <c r="AD8" s="231"/>
+      <c r="AE8" s="232"/>
       <c r="AF8" s="25"/>
       <c r="AG8" s="26"/>
       <c r="AH8" s="26"/>
@@ -10326,934 +10292,1089 @@
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="176"/>
-      <c r="C9" s="177"/>
-      <c r="D9" s="178"/>
-      <c r="E9" s="179"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="181"/>
-      <c r="I9" s="177"/>
-      <c r="J9" s="182"/>
-      <c r="K9" s="183"/>
-      <c r="L9" s="183"/>
-      <c r="M9" s="183"/>
-      <c r="N9" s="183"/>
-      <c r="O9" s="183"/>
-      <c r="P9" s="184"/>
-      <c r="Q9" s="185"/>
-      <c r="R9" s="186"/>
-      <c r="S9" s="186"/>
-      <c r="T9" s="186"/>
-      <c r="U9" s="186"/>
-      <c r="V9" s="186"/>
-      <c r="W9" s="186"/>
-      <c r="X9" s="186"/>
-      <c r="Y9" s="186"/>
-      <c r="Z9" s="186"/>
-      <c r="AA9" s="186"/>
-      <c r="AB9" s="186"/>
-      <c r="AC9" s="186"/>
-      <c r="AD9" s="186"/>
-      <c r="AE9" s="187"/>
-      <c r="AF9" s="182"/>
-      <c r="AG9" s="183"/>
-      <c r="AH9" s="183"/>
-      <c r="AI9" s="184"/>
+      <c r="B9" s="212"/>
+      <c r="C9" s="213"/>
+      <c r="D9" s="214"/>
+      <c r="E9" s="215"/>
+      <c r="F9" s="216"/>
+      <c r="G9" s="214"/>
+      <c r="H9" s="217"/>
+      <c r="I9" s="213"/>
+      <c r="J9" s="218"/>
+      <c r="K9" s="219"/>
+      <c r="L9" s="219"/>
+      <c r="M9" s="219"/>
+      <c r="N9" s="219"/>
+      <c r="O9" s="219"/>
+      <c r="P9" s="220"/>
+      <c r="Q9" s="221"/>
+      <c r="R9" s="222"/>
+      <c r="S9" s="222"/>
+      <c r="T9" s="222"/>
+      <c r="U9" s="222"/>
+      <c r="V9" s="222"/>
+      <c r="W9" s="222"/>
+      <c r="X9" s="222"/>
+      <c r="Y9" s="222"/>
+      <c r="Z9" s="222"/>
+      <c r="AA9" s="222"/>
+      <c r="AB9" s="222"/>
+      <c r="AC9" s="222"/>
+      <c r="AD9" s="222"/>
+      <c r="AE9" s="223"/>
+      <c r="AF9" s="218"/>
+      <c r="AG9" s="219"/>
+      <c r="AH9" s="219"/>
+      <c r="AI9" s="220"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="176"/>
-      <c r="C10" s="177"/>
-      <c r="D10" s="178"/>
-      <c r="E10" s="179"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="176"/>
-      <c r="H10" s="181"/>
-      <c r="I10" s="177"/>
-      <c r="J10" s="182"/>
-      <c r="K10" s="183"/>
-      <c r="L10" s="183"/>
-      <c r="M10" s="183"/>
-      <c r="N10" s="183"/>
-      <c r="O10" s="183"/>
-      <c r="P10" s="184"/>
-      <c r="Q10" s="185"/>
-      <c r="R10" s="186"/>
-      <c r="S10" s="186"/>
-      <c r="T10" s="186"/>
-      <c r="U10" s="186"/>
-      <c r="V10" s="186"/>
-      <c r="W10" s="186"/>
-      <c r="X10" s="186"/>
-      <c r="Y10" s="186"/>
-      <c r="Z10" s="186"/>
-      <c r="AA10" s="186"/>
-      <c r="AB10" s="186"/>
-      <c r="AC10" s="186"/>
-      <c r="AD10" s="186"/>
-      <c r="AE10" s="187"/>
-      <c r="AF10" s="182"/>
-      <c r="AG10" s="183"/>
-      <c r="AH10" s="183"/>
-      <c r="AI10" s="184"/>
+      <c r="B10" s="212"/>
+      <c r="C10" s="213"/>
+      <c r="D10" s="214"/>
+      <c r="E10" s="215"/>
+      <c r="F10" s="216"/>
+      <c r="G10" s="212"/>
+      <c r="H10" s="217"/>
+      <c r="I10" s="213"/>
+      <c r="J10" s="218"/>
+      <c r="K10" s="219"/>
+      <c r="L10" s="219"/>
+      <c r="M10" s="219"/>
+      <c r="N10" s="219"/>
+      <c r="O10" s="219"/>
+      <c r="P10" s="220"/>
+      <c r="Q10" s="221"/>
+      <c r="R10" s="222"/>
+      <c r="S10" s="222"/>
+      <c r="T10" s="222"/>
+      <c r="U10" s="222"/>
+      <c r="V10" s="222"/>
+      <c r="W10" s="222"/>
+      <c r="X10" s="222"/>
+      <c r="Y10" s="222"/>
+      <c r="Z10" s="222"/>
+      <c r="AA10" s="222"/>
+      <c r="AB10" s="222"/>
+      <c r="AC10" s="222"/>
+      <c r="AD10" s="222"/>
+      <c r="AE10" s="223"/>
+      <c r="AF10" s="218"/>
+      <c r="AG10" s="219"/>
+      <c r="AH10" s="219"/>
+      <c r="AI10" s="220"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="176"/>
-      <c r="C11" s="177"/>
-      <c r="D11" s="178"/>
-      <c r="E11" s="179"/>
-      <c r="F11" s="180"/>
-      <c r="G11" s="176"/>
-      <c r="H11" s="181"/>
-      <c r="I11" s="177"/>
-      <c r="J11" s="182"/>
-      <c r="K11" s="183"/>
-      <c r="L11" s="183"/>
-      <c r="M11" s="183"/>
-      <c r="N11" s="183"/>
-      <c r="O11" s="183"/>
-      <c r="P11" s="184"/>
-      <c r="Q11" s="185"/>
-      <c r="R11" s="186"/>
-      <c r="S11" s="186"/>
-      <c r="T11" s="186"/>
-      <c r="U11" s="186"/>
-      <c r="V11" s="186"/>
-      <c r="W11" s="186"/>
-      <c r="X11" s="186"/>
-      <c r="Y11" s="186"/>
-      <c r="Z11" s="186"/>
-      <c r="AA11" s="186"/>
-      <c r="AB11" s="186"/>
-      <c r="AC11" s="186"/>
-      <c r="AD11" s="186"/>
-      <c r="AE11" s="187"/>
-      <c r="AF11" s="182"/>
-      <c r="AG11" s="183"/>
-      <c r="AH11" s="183"/>
-      <c r="AI11" s="184"/>
+      <c r="B11" s="212"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="214"/>
+      <c r="E11" s="215"/>
+      <c r="F11" s="216"/>
+      <c r="G11" s="212"/>
+      <c r="H11" s="217"/>
+      <c r="I11" s="213"/>
+      <c r="J11" s="218"/>
+      <c r="K11" s="219"/>
+      <c r="L11" s="219"/>
+      <c r="M11" s="219"/>
+      <c r="N11" s="219"/>
+      <c r="O11" s="219"/>
+      <c r="P11" s="220"/>
+      <c r="Q11" s="221"/>
+      <c r="R11" s="222"/>
+      <c r="S11" s="222"/>
+      <c r="T11" s="222"/>
+      <c r="U11" s="222"/>
+      <c r="V11" s="222"/>
+      <c r="W11" s="222"/>
+      <c r="X11" s="222"/>
+      <c r="Y11" s="222"/>
+      <c r="Z11" s="222"/>
+      <c r="AA11" s="222"/>
+      <c r="AB11" s="222"/>
+      <c r="AC11" s="222"/>
+      <c r="AD11" s="222"/>
+      <c r="AE11" s="223"/>
+      <c r="AF11" s="218"/>
+      <c r="AG11" s="219"/>
+      <c r="AH11" s="219"/>
+      <c r="AI11" s="220"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="176"/>
-      <c r="C12" s="177"/>
-      <c r="D12" s="178"/>
-      <c r="E12" s="179"/>
-      <c r="F12" s="180"/>
-      <c r="G12" s="176"/>
-      <c r="H12" s="181"/>
-      <c r="I12" s="177"/>
-      <c r="J12" s="182"/>
-      <c r="K12" s="183"/>
-      <c r="L12" s="183"/>
-      <c r="M12" s="183"/>
-      <c r="N12" s="183"/>
-      <c r="O12" s="183"/>
-      <c r="P12" s="184"/>
-      <c r="Q12" s="185"/>
-      <c r="R12" s="186"/>
-      <c r="S12" s="186"/>
-      <c r="T12" s="186"/>
-      <c r="U12" s="186"/>
-      <c r="V12" s="186"/>
-      <c r="W12" s="186"/>
-      <c r="X12" s="186"/>
-      <c r="Y12" s="186"/>
-      <c r="Z12" s="186"/>
-      <c r="AA12" s="186"/>
-      <c r="AB12" s="186"/>
-      <c r="AC12" s="186"/>
-      <c r="AD12" s="186"/>
-      <c r="AE12" s="187"/>
-      <c r="AF12" s="182"/>
-      <c r="AG12" s="183"/>
-      <c r="AH12" s="183"/>
-      <c r="AI12" s="184"/>
+      <c r="B12" s="212"/>
+      <c r="C12" s="213"/>
+      <c r="D12" s="214"/>
+      <c r="E12" s="215"/>
+      <c r="F12" s="216"/>
+      <c r="G12" s="212"/>
+      <c r="H12" s="217"/>
+      <c r="I12" s="213"/>
+      <c r="J12" s="218"/>
+      <c r="K12" s="219"/>
+      <c r="L12" s="219"/>
+      <c r="M12" s="219"/>
+      <c r="N12" s="219"/>
+      <c r="O12" s="219"/>
+      <c r="P12" s="220"/>
+      <c r="Q12" s="221"/>
+      <c r="R12" s="222"/>
+      <c r="S12" s="222"/>
+      <c r="T12" s="222"/>
+      <c r="U12" s="222"/>
+      <c r="V12" s="222"/>
+      <c r="W12" s="222"/>
+      <c r="X12" s="222"/>
+      <c r="Y12" s="222"/>
+      <c r="Z12" s="222"/>
+      <c r="AA12" s="222"/>
+      <c r="AB12" s="222"/>
+      <c r="AC12" s="222"/>
+      <c r="AD12" s="222"/>
+      <c r="AE12" s="223"/>
+      <c r="AF12" s="218"/>
+      <c r="AG12" s="219"/>
+      <c r="AH12" s="219"/>
+      <c r="AI12" s="220"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="176"/>
-      <c r="C13" s="177"/>
-      <c r="D13" s="178"/>
-      <c r="E13" s="179"/>
-      <c r="F13" s="180"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="181"/>
-      <c r="I13" s="177"/>
-      <c r="J13" s="182"/>
-      <c r="K13" s="183"/>
-      <c r="L13" s="183"/>
-      <c r="M13" s="183"/>
-      <c r="N13" s="183"/>
-      <c r="O13" s="183"/>
-      <c r="P13" s="184"/>
-      <c r="Q13" s="185"/>
-      <c r="R13" s="186"/>
-      <c r="S13" s="186"/>
-      <c r="T13" s="186"/>
-      <c r="U13" s="186"/>
-      <c r="V13" s="186"/>
-      <c r="W13" s="186"/>
-      <c r="X13" s="186"/>
-      <c r="Y13" s="186"/>
-      <c r="Z13" s="186"/>
-      <c r="AA13" s="186"/>
-      <c r="AB13" s="186"/>
-      <c r="AC13" s="186"/>
-      <c r="AD13" s="186"/>
-      <c r="AE13" s="187"/>
-      <c r="AF13" s="182"/>
-      <c r="AG13" s="183"/>
-      <c r="AH13" s="183"/>
-      <c r="AI13" s="184"/>
+      <c r="B13" s="212"/>
+      <c r="C13" s="213"/>
+      <c r="D13" s="214"/>
+      <c r="E13" s="215"/>
+      <c r="F13" s="216"/>
+      <c r="G13" s="212"/>
+      <c r="H13" s="217"/>
+      <c r="I13" s="213"/>
+      <c r="J13" s="218"/>
+      <c r="K13" s="219"/>
+      <c r="L13" s="219"/>
+      <c r="M13" s="219"/>
+      <c r="N13" s="219"/>
+      <c r="O13" s="219"/>
+      <c r="P13" s="220"/>
+      <c r="Q13" s="221"/>
+      <c r="R13" s="222"/>
+      <c r="S13" s="222"/>
+      <c r="T13" s="222"/>
+      <c r="U13" s="222"/>
+      <c r="V13" s="222"/>
+      <c r="W13" s="222"/>
+      <c r="X13" s="222"/>
+      <c r="Y13" s="222"/>
+      <c r="Z13" s="222"/>
+      <c r="AA13" s="222"/>
+      <c r="AB13" s="222"/>
+      <c r="AC13" s="222"/>
+      <c r="AD13" s="222"/>
+      <c r="AE13" s="223"/>
+      <c r="AF13" s="218"/>
+      <c r="AG13" s="219"/>
+      <c r="AH13" s="219"/>
+      <c r="AI13" s="220"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="176"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="178"/>
-      <c r="E14" s="179"/>
-      <c r="F14" s="180"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="181"/>
-      <c r="I14" s="177"/>
-      <c r="J14" s="182"/>
-      <c r="K14" s="183"/>
-      <c r="L14" s="183"/>
-      <c r="M14" s="183"/>
-      <c r="N14" s="183"/>
-      <c r="O14" s="183"/>
-      <c r="P14" s="184"/>
-      <c r="Q14" s="185"/>
-      <c r="R14" s="186"/>
-      <c r="S14" s="186"/>
-      <c r="T14" s="186"/>
-      <c r="U14" s="186"/>
-      <c r="V14" s="186"/>
-      <c r="W14" s="186"/>
-      <c r="X14" s="186"/>
-      <c r="Y14" s="186"/>
-      <c r="Z14" s="186"/>
-      <c r="AA14" s="186"/>
-      <c r="AB14" s="186"/>
-      <c r="AC14" s="186"/>
-      <c r="AD14" s="186"/>
-      <c r="AE14" s="187"/>
-      <c r="AF14" s="182"/>
-      <c r="AG14" s="183"/>
-      <c r="AH14" s="183"/>
-      <c r="AI14" s="184"/>
+      <c r="B14" s="212"/>
+      <c r="C14" s="213"/>
+      <c r="D14" s="214"/>
+      <c r="E14" s="215"/>
+      <c r="F14" s="216"/>
+      <c r="G14" s="212"/>
+      <c r="H14" s="217"/>
+      <c r="I14" s="213"/>
+      <c r="J14" s="218"/>
+      <c r="K14" s="219"/>
+      <c r="L14" s="219"/>
+      <c r="M14" s="219"/>
+      <c r="N14" s="219"/>
+      <c r="O14" s="219"/>
+      <c r="P14" s="220"/>
+      <c r="Q14" s="221"/>
+      <c r="R14" s="222"/>
+      <c r="S14" s="222"/>
+      <c r="T14" s="222"/>
+      <c r="U14" s="222"/>
+      <c r="V14" s="222"/>
+      <c r="W14" s="222"/>
+      <c r="X14" s="222"/>
+      <c r="Y14" s="222"/>
+      <c r="Z14" s="222"/>
+      <c r="AA14" s="222"/>
+      <c r="AB14" s="222"/>
+      <c r="AC14" s="222"/>
+      <c r="AD14" s="222"/>
+      <c r="AE14" s="223"/>
+      <c r="AF14" s="218"/>
+      <c r="AG14" s="219"/>
+      <c r="AH14" s="219"/>
+      <c r="AI14" s="220"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="176"/>
-      <c r="C15" s="177"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="179"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="181"/>
-      <c r="I15" s="177"/>
-      <c r="J15" s="182"/>
-      <c r="K15" s="183"/>
-      <c r="L15" s="183"/>
-      <c r="M15" s="183"/>
-      <c r="N15" s="183"/>
-      <c r="O15" s="183"/>
-      <c r="P15" s="184"/>
-      <c r="Q15" s="185"/>
-      <c r="R15" s="186"/>
-      <c r="S15" s="186"/>
-      <c r="T15" s="186"/>
-      <c r="U15" s="186"/>
-      <c r="V15" s="186"/>
-      <c r="W15" s="186"/>
-      <c r="X15" s="186"/>
-      <c r="Y15" s="186"/>
-      <c r="Z15" s="186"/>
-      <c r="AA15" s="186"/>
-      <c r="AB15" s="186"/>
-      <c r="AC15" s="186"/>
-      <c r="AD15" s="186"/>
-      <c r="AE15" s="187"/>
-      <c r="AF15" s="182"/>
-      <c r="AG15" s="183"/>
-      <c r="AH15" s="183"/>
-      <c r="AI15" s="184"/>
+      <c r="B15" s="212"/>
+      <c r="C15" s="213"/>
+      <c r="D15" s="214"/>
+      <c r="E15" s="215"/>
+      <c r="F15" s="216"/>
+      <c r="G15" s="212"/>
+      <c r="H15" s="217"/>
+      <c r="I15" s="213"/>
+      <c r="J15" s="218"/>
+      <c r="K15" s="219"/>
+      <c r="L15" s="219"/>
+      <c r="M15" s="219"/>
+      <c r="N15" s="219"/>
+      <c r="O15" s="219"/>
+      <c r="P15" s="220"/>
+      <c r="Q15" s="221"/>
+      <c r="R15" s="222"/>
+      <c r="S15" s="222"/>
+      <c r="T15" s="222"/>
+      <c r="U15" s="222"/>
+      <c r="V15" s="222"/>
+      <c r="W15" s="222"/>
+      <c r="X15" s="222"/>
+      <c r="Y15" s="222"/>
+      <c r="Z15" s="222"/>
+      <c r="AA15" s="222"/>
+      <c r="AB15" s="222"/>
+      <c r="AC15" s="222"/>
+      <c r="AD15" s="222"/>
+      <c r="AE15" s="223"/>
+      <c r="AF15" s="218"/>
+      <c r="AG15" s="219"/>
+      <c r="AH15" s="219"/>
+      <c r="AI15" s="220"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="176"/>
-      <c r="C16" s="177"/>
-      <c r="D16" s="178"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="180"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="181"/>
-      <c r="I16" s="177"/>
-      <c r="J16" s="182"/>
-      <c r="K16" s="183"/>
-      <c r="L16" s="183"/>
-      <c r="M16" s="183"/>
-      <c r="N16" s="183"/>
-      <c r="O16" s="183"/>
-      <c r="P16" s="184"/>
-      <c r="Q16" s="185"/>
-      <c r="R16" s="186"/>
-      <c r="S16" s="186"/>
-      <c r="T16" s="186"/>
-      <c r="U16" s="186"/>
-      <c r="V16" s="186"/>
-      <c r="W16" s="186"/>
-      <c r="X16" s="186"/>
-      <c r="Y16" s="186"/>
-      <c r="Z16" s="186"/>
-      <c r="AA16" s="186"/>
-      <c r="AB16" s="186"/>
-      <c r="AC16" s="186"/>
-      <c r="AD16" s="186"/>
-      <c r="AE16" s="187"/>
-      <c r="AF16" s="182"/>
-      <c r="AG16" s="183"/>
-      <c r="AH16" s="183"/>
-      <c r="AI16" s="184"/>
+      <c r="B16" s="212"/>
+      <c r="C16" s="213"/>
+      <c r="D16" s="214"/>
+      <c r="E16" s="215"/>
+      <c r="F16" s="216"/>
+      <c r="G16" s="212"/>
+      <c r="H16" s="217"/>
+      <c r="I16" s="213"/>
+      <c r="J16" s="218"/>
+      <c r="K16" s="219"/>
+      <c r="L16" s="219"/>
+      <c r="M16" s="219"/>
+      <c r="N16" s="219"/>
+      <c r="O16" s="219"/>
+      <c r="P16" s="220"/>
+      <c r="Q16" s="221"/>
+      <c r="R16" s="222"/>
+      <c r="S16" s="222"/>
+      <c r="T16" s="222"/>
+      <c r="U16" s="222"/>
+      <c r="V16" s="222"/>
+      <c r="W16" s="222"/>
+      <c r="X16" s="222"/>
+      <c r="Y16" s="222"/>
+      <c r="Z16" s="222"/>
+      <c r="AA16" s="222"/>
+      <c r="AB16" s="222"/>
+      <c r="AC16" s="222"/>
+      <c r="AD16" s="222"/>
+      <c r="AE16" s="223"/>
+      <c r="AF16" s="218"/>
+      <c r="AG16" s="219"/>
+      <c r="AH16" s="219"/>
+      <c r="AI16" s="220"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="176"/>
-      <c r="C17" s="177"/>
-      <c r="D17" s="178"/>
-      <c r="E17" s="179"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="181"/>
-      <c r="I17" s="177"/>
-      <c r="J17" s="182"/>
-      <c r="K17" s="183"/>
-      <c r="L17" s="183"/>
-      <c r="M17" s="183"/>
-      <c r="N17" s="183"/>
-      <c r="O17" s="183"/>
-      <c r="P17" s="184"/>
-      <c r="Q17" s="185"/>
-      <c r="R17" s="186"/>
-      <c r="S17" s="186"/>
-      <c r="T17" s="186"/>
-      <c r="U17" s="186"/>
-      <c r="V17" s="186"/>
-      <c r="W17" s="186"/>
-      <c r="X17" s="186"/>
-      <c r="Y17" s="186"/>
-      <c r="Z17" s="186"/>
-      <c r="AA17" s="186"/>
-      <c r="AB17" s="186"/>
-      <c r="AC17" s="186"/>
-      <c r="AD17" s="186"/>
-      <c r="AE17" s="187"/>
-      <c r="AF17" s="182"/>
-      <c r="AG17" s="183"/>
-      <c r="AH17" s="183"/>
-      <c r="AI17" s="184"/>
+      <c r="B17" s="212"/>
+      <c r="C17" s="213"/>
+      <c r="D17" s="214"/>
+      <c r="E17" s="215"/>
+      <c r="F17" s="216"/>
+      <c r="G17" s="212"/>
+      <c r="H17" s="217"/>
+      <c r="I17" s="213"/>
+      <c r="J17" s="218"/>
+      <c r="K17" s="219"/>
+      <c r="L17" s="219"/>
+      <c r="M17" s="219"/>
+      <c r="N17" s="219"/>
+      <c r="O17" s="219"/>
+      <c r="P17" s="220"/>
+      <c r="Q17" s="221"/>
+      <c r="R17" s="222"/>
+      <c r="S17" s="222"/>
+      <c r="T17" s="222"/>
+      <c r="U17" s="222"/>
+      <c r="V17" s="222"/>
+      <c r="W17" s="222"/>
+      <c r="X17" s="222"/>
+      <c r="Y17" s="222"/>
+      <c r="Z17" s="222"/>
+      <c r="AA17" s="222"/>
+      <c r="AB17" s="222"/>
+      <c r="AC17" s="222"/>
+      <c r="AD17" s="222"/>
+      <c r="AE17" s="223"/>
+      <c r="AF17" s="218"/>
+      <c r="AG17" s="219"/>
+      <c r="AH17" s="219"/>
+      <c r="AI17" s="220"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="176"/>
-      <c r="C18" s="177"/>
-      <c r="D18" s="178"/>
-      <c r="E18" s="179"/>
-      <c r="F18" s="180"/>
-      <c r="G18" s="176"/>
-      <c r="H18" s="181"/>
-      <c r="I18" s="177"/>
-      <c r="J18" s="182"/>
-      <c r="K18" s="183"/>
-      <c r="L18" s="183"/>
-      <c r="M18" s="183"/>
-      <c r="N18" s="183"/>
-      <c r="O18" s="183"/>
-      <c r="P18" s="184"/>
-      <c r="Q18" s="185"/>
-      <c r="R18" s="186"/>
-      <c r="S18" s="186"/>
-      <c r="T18" s="186"/>
-      <c r="U18" s="186"/>
-      <c r="V18" s="186"/>
-      <c r="W18" s="186"/>
-      <c r="X18" s="186"/>
-      <c r="Y18" s="186"/>
-      <c r="Z18" s="186"/>
-      <c r="AA18" s="186"/>
-      <c r="AB18" s="186"/>
-      <c r="AC18" s="186"/>
-      <c r="AD18" s="186"/>
-      <c r="AE18" s="187"/>
-      <c r="AF18" s="182"/>
-      <c r="AG18" s="183"/>
-      <c r="AH18" s="183"/>
-      <c r="AI18" s="184"/>
+      <c r="B18" s="212"/>
+      <c r="C18" s="213"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="215"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="212"/>
+      <c r="H18" s="217"/>
+      <c r="I18" s="213"/>
+      <c r="J18" s="218"/>
+      <c r="K18" s="219"/>
+      <c r="L18" s="219"/>
+      <c r="M18" s="219"/>
+      <c r="N18" s="219"/>
+      <c r="O18" s="219"/>
+      <c r="P18" s="220"/>
+      <c r="Q18" s="221"/>
+      <c r="R18" s="222"/>
+      <c r="S18" s="222"/>
+      <c r="T18" s="222"/>
+      <c r="U18" s="222"/>
+      <c r="V18" s="222"/>
+      <c r="W18" s="222"/>
+      <c r="X18" s="222"/>
+      <c r="Y18" s="222"/>
+      <c r="Z18" s="222"/>
+      <c r="AA18" s="222"/>
+      <c r="AB18" s="222"/>
+      <c r="AC18" s="222"/>
+      <c r="AD18" s="222"/>
+      <c r="AE18" s="223"/>
+      <c r="AF18" s="218"/>
+      <c r="AG18" s="219"/>
+      <c r="AH18" s="219"/>
+      <c r="AI18" s="220"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="176"/>
-      <c r="C19" s="177"/>
-      <c r="D19" s="178"/>
-      <c r="E19" s="179"/>
-      <c r="F19" s="180"/>
-      <c r="G19" s="176"/>
-      <c r="H19" s="181"/>
-      <c r="I19" s="177"/>
-      <c r="J19" s="182"/>
-      <c r="K19" s="183"/>
-      <c r="L19" s="183"/>
-      <c r="M19" s="183"/>
-      <c r="N19" s="183"/>
-      <c r="O19" s="183"/>
-      <c r="P19" s="184"/>
-      <c r="Q19" s="185"/>
-      <c r="R19" s="186"/>
-      <c r="S19" s="186"/>
-      <c r="T19" s="186"/>
-      <c r="U19" s="186"/>
-      <c r="V19" s="186"/>
-      <c r="W19" s="186"/>
-      <c r="X19" s="186"/>
-      <c r="Y19" s="186"/>
-      <c r="Z19" s="186"/>
-      <c r="AA19" s="186"/>
-      <c r="AB19" s="186"/>
-      <c r="AC19" s="186"/>
-      <c r="AD19" s="186"/>
-      <c r="AE19" s="187"/>
-      <c r="AF19" s="182"/>
-      <c r="AG19" s="183"/>
-      <c r="AH19" s="183"/>
-      <c r="AI19" s="184"/>
+      <c r="B19" s="212"/>
+      <c r="C19" s="213"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="215"/>
+      <c r="F19" s="216"/>
+      <c r="G19" s="212"/>
+      <c r="H19" s="217"/>
+      <c r="I19" s="213"/>
+      <c r="J19" s="218"/>
+      <c r="K19" s="219"/>
+      <c r="L19" s="219"/>
+      <c r="M19" s="219"/>
+      <c r="N19" s="219"/>
+      <c r="O19" s="219"/>
+      <c r="P19" s="220"/>
+      <c r="Q19" s="221"/>
+      <c r="R19" s="222"/>
+      <c r="S19" s="222"/>
+      <c r="T19" s="222"/>
+      <c r="U19" s="222"/>
+      <c r="V19" s="222"/>
+      <c r="W19" s="222"/>
+      <c r="X19" s="222"/>
+      <c r="Y19" s="222"/>
+      <c r="Z19" s="222"/>
+      <c r="AA19" s="222"/>
+      <c r="AB19" s="222"/>
+      <c r="AC19" s="222"/>
+      <c r="AD19" s="222"/>
+      <c r="AE19" s="223"/>
+      <c r="AF19" s="218"/>
+      <c r="AG19" s="219"/>
+      <c r="AH19" s="219"/>
+      <c r="AI19" s="220"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="176"/>
-      <c r="C20" s="177"/>
-      <c r="D20" s="178"/>
-      <c r="E20" s="179"/>
-      <c r="F20" s="180"/>
-      <c r="G20" s="176"/>
-      <c r="H20" s="181"/>
-      <c r="I20" s="177"/>
-      <c r="J20" s="182"/>
-      <c r="K20" s="183"/>
-      <c r="L20" s="183"/>
-      <c r="M20" s="183"/>
-      <c r="N20" s="183"/>
-      <c r="O20" s="183"/>
-      <c r="P20" s="184"/>
-      <c r="Q20" s="185"/>
-      <c r="R20" s="186"/>
-      <c r="S20" s="186"/>
-      <c r="T20" s="186"/>
-      <c r="U20" s="186"/>
-      <c r="V20" s="186"/>
-      <c r="W20" s="186"/>
-      <c r="X20" s="186"/>
-      <c r="Y20" s="186"/>
-      <c r="Z20" s="186"/>
-      <c r="AA20" s="186"/>
-      <c r="AB20" s="186"/>
-      <c r="AC20" s="186"/>
-      <c r="AD20" s="186"/>
-      <c r="AE20" s="187"/>
-      <c r="AF20" s="182"/>
-      <c r="AG20" s="183"/>
-      <c r="AH20" s="183"/>
-      <c r="AI20" s="184"/>
+      <c r="B20" s="212"/>
+      <c r="C20" s="213"/>
+      <c r="D20" s="214"/>
+      <c r="E20" s="215"/>
+      <c r="F20" s="216"/>
+      <c r="G20" s="212"/>
+      <c r="H20" s="217"/>
+      <c r="I20" s="213"/>
+      <c r="J20" s="218"/>
+      <c r="K20" s="219"/>
+      <c r="L20" s="219"/>
+      <c r="M20" s="219"/>
+      <c r="N20" s="219"/>
+      <c r="O20" s="219"/>
+      <c r="P20" s="220"/>
+      <c r="Q20" s="221"/>
+      <c r="R20" s="222"/>
+      <c r="S20" s="222"/>
+      <c r="T20" s="222"/>
+      <c r="U20" s="222"/>
+      <c r="V20" s="222"/>
+      <c r="W20" s="222"/>
+      <c r="X20" s="222"/>
+      <c r="Y20" s="222"/>
+      <c r="Z20" s="222"/>
+      <c r="AA20" s="222"/>
+      <c r="AB20" s="222"/>
+      <c r="AC20" s="222"/>
+      <c r="AD20" s="222"/>
+      <c r="AE20" s="223"/>
+      <c r="AF20" s="218"/>
+      <c r="AG20" s="219"/>
+      <c r="AH20" s="219"/>
+      <c r="AI20" s="220"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="176"/>
-      <c r="C21" s="177"/>
-      <c r="D21" s="178"/>
-      <c r="E21" s="179"/>
-      <c r="F21" s="180"/>
-      <c r="G21" s="176"/>
-      <c r="H21" s="181"/>
-      <c r="I21" s="177"/>
-      <c r="J21" s="182"/>
-      <c r="K21" s="183"/>
-      <c r="L21" s="183"/>
-      <c r="M21" s="183"/>
-      <c r="N21" s="183"/>
-      <c r="O21" s="183"/>
-      <c r="P21" s="184"/>
-      <c r="Q21" s="185"/>
-      <c r="R21" s="186"/>
-      <c r="S21" s="186"/>
-      <c r="T21" s="186"/>
-      <c r="U21" s="186"/>
-      <c r="V21" s="186"/>
-      <c r="W21" s="186"/>
-      <c r="X21" s="186"/>
-      <c r="Y21" s="186"/>
-      <c r="Z21" s="186"/>
-      <c r="AA21" s="186"/>
-      <c r="AB21" s="186"/>
-      <c r="AC21" s="186"/>
-      <c r="AD21" s="186"/>
-      <c r="AE21" s="187"/>
-      <c r="AF21" s="182"/>
-      <c r="AG21" s="183"/>
-      <c r="AH21" s="183"/>
-      <c r="AI21" s="184"/>
+      <c r="B21" s="212"/>
+      <c r="C21" s="213"/>
+      <c r="D21" s="214"/>
+      <c r="E21" s="215"/>
+      <c r="F21" s="216"/>
+      <c r="G21" s="212"/>
+      <c r="H21" s="217"/>
+      <c r="I21" s="213"/>
+      <c r="J21" s="218"/>
+      <c r="K21" s="219"/>
+      <c r="L21" s="219"/>
+      <c r="M21" s="219"/>
+      <c r="N21" s="219"/>
+      <c r="O21" s="219"/>
+      <c r="P21" s="220"/>
+      <c r="Q21" s="221"/>
+      <c r="R21" s="222"/>
+      <c r="S21" s="222"/>
+      <c r="T21" s="222"/>
+      <c r="U21" s="222"/>
+      <c r="V21" s="222"/>
+      <c r="W21" s="222"/>
+      <c r="X21" s="222"/>
+      <c r="Y21" s="222"/>
+      <c r="Z21" s="222"/>
+      <c r="AA21" s="222"/>
+      <c r="AB21" s="222"/>
+      <c r="AC21" s="222"/>
+      <c r="AD21" s="222"/>
+      <c r="AE21" s="223"/>
+      <c r="AF21" s="218"/>
+      <c r="AG21" s="219"/>
+      <c r="AH21" s="219"/>
+      <c r="AI21" s="220"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="176"/>
-      <c r="C22" s="177"/>
-      <c r="D22" s="178"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="180"/>
-      <c r="G22" s="176"/>
-      <c r="H22" s="181"/>
-      <c r="I22" s="177"/>
-      <c r="J22" s="182"/>
-      <c r="K22" s="183"/>
-      <c r="L22" s="183"/>
-      <c r="M22" s="183"/>
-      <c r="N22" s="183"/>
-      <c r="O22" s="183"/>
-      <c r="P22" s="184"/>
-      <c r="Q22" s="185"/>
-      <c r="R22" s="186"/>
-      <c r="S22" s="186"/>
-      <c r="T22" s="186"/>
-      <c r="U22" s="186"/>
-      <c r="V22" s="186"/>
-      <c r="W22" s="186"/>
-      <c r="X22" s="186"/>
-      <c r="Y22" s="186"/>
-      <c r="Z22" s="186"/>
-      <c r="AA22" s="186"/>
-      <c r="AB22" s="186"/>
-      <c r="AC22" s="186"/>
-      <c r="AD22" s="186"/>
-      <c r="AE22" s="187"/>
-      <c r="AF22" s="182"/>
-      <c r="AG22" s="183"/>
-      <c r="AH22" s="183"/>
-      <c r="AI22" s="184"/>
+      <c r="B22" s="212"/>
+      <c r="C22" s="213"/>
+      <c r="D22" s="214"/>
+      <c r="E22" s="215"/>
+      <c r="F22" s="216"/>
+      <c r="G22" s="212"/>
+      <c r="H22" s="217"/>
+      <c r="I22" s="213"/>
+      <c r="J22" s="218"/>
+      <c r="K22" s="219"/>
+      <c r="L22" s="219"/>
+      <c r="M22" s="219"/>
+      <c r="N22" s="219"/>
+      <c r="O22" s="219"/>
+      <c r="P22" s="220"/>
+      <c r="Q22" s="221"/>
+      <c r="R22" s="222"/>
+      <c r="S22" s="222"/>
+      <c r="T22" s="222"/>
+      <c r="U22" s="222"/>
+      <c r="V22" s="222"/>
+      <c r="W22" s="222"/>
+      <c r="X22" s="222"/>
+      <c r="Y22" s="222"/>
+      <c r="Z22" s="222"/>
+      <c r="AA22" s="222"/>
+      <c r="AB22" s="222"/>
+      <c r="AC22" s="222"/>
+      <c r="AD22" s="222"/>
+      <c r="AE22" s="223"/>
+      <c r="AF22" s="218"/>
+      <c r="AG22" s="219"/>
+      <c r="AH22" s="219"/>
+      <c r="AI22" s="220"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="176"/>
-      <c r="C23" s="177"/>
-      <c r="D23" s="178"/>
-      <c r="E23" s="179"/>
-      <c r="F23" s="180"/>
-      <c r="G23" s="176"/>
-      <c r="H23" s="181"/>
-      <c r="I23" s="177"/>
-      <c r="J23" s="182"/>
-      <c r="K23" s="183"/>
-      <c r="L23" s="183"/>
-      <c r="M23" s="183"/>
-      <c r="N23" s="183"/>
-      <c r="O23" s="183"/>
-      <c r="P23" s="184"/>
-      <c r="Q23" s="185"/>
-      <c r="R23" s="186"/>
-      <c r="S23" s="186"/>
-      <c r="T23" s="186"/>
-      <c r="U23" s="186"/>
-      <c r="V23" s="186"/>
-      <c r="W23" s="186"/>
-      <c r="X23" s="186"/>
-      <c r="Y23" s="186"/>
-      <c r="Z23" s="186"/>
-      <c r="AA23" s="186"/>
-      <c r="AB23" s="186"/>
-      <c r="AC23" s="186"/>
-      <c r="AD23" s="186"/>
-      <c r="AE23" s="187"/>
-      <c r="AF23" s="182"/>
-      <c r="AG23" s="183"/>
-      <c r="AH23" s="183"/>
-      <c r="AI23" s="184"/>
+      <c r="B23" s="212"/>
+      <c r="C23" s="213"/>
+      <c r="D23" s="214"/>
+      <c r="E23" s="215"/>
+      <c r="F23" s="216"/>
+      <c r="G23" s="212"/>
+      <c r="H23" s="217"/>
+      <c r="I23" s="213"/>
+      <c r="J23" s="218"/>
+      <c r="K23" s="219"/>
+      <c r="L23" s="219"/>
+      <c r="M23" s="219"/>
+      <c r="N23" s="219"/>
+      <c r="O23" s="219"/>
+      <c r="P23" s="220"/>
+      <c r="Q23" s="221"/>
+      <c r="R23" s="222"/>
+      <c r="S23" s="222"/>
+      <c r="T23" s="222"/>
+      <c r="U23" s="222"/>
+      <c r="V23" s="222"/>
+      <c r="W23" s="222"/>
+      <c r="X23" s="222"/>
+      <c r="Y23" s="222"/>
+      <c r="Z23" s="222"/>
+      <c r="AA23" s="222"/>
+      <c r="AB23" s="222"/>
+      <c r="AC23" s="222"/>
+      <c r="AD23" s="222"/>
+      <c r="AE23" s="223"/>
+      <c r="AF23" s="218"/>
+      <c r="AG23" s="219"/>
+      <c r="AH23" s="219"/>
+      <c r="AI23" s="220"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="176"/>
-      <c r="C24" s="177"/>
-      <c r="D24" s="178"/>
-      <c r="E24" s="179"/>
-      <c r="F24" s="180"/>
-      <c r="G24" s="176"/>
-      <c r="H24" s="181"/>
-      <c r="I24" s="177"/>
-      <c r="J24" s="182"/>
-      <c r="K24" s="183"/>
-      <c r="L24" s="183"/>
-      <c r="M24" s="183"/>
-      <c r="N24" s="183"/>
-      <c r="O24" s="183"/>
-      <c r="P24" s="184"/>
-      <c r="Q24" s="185"/>
-      <c r="R24" s="186"/>
-      <c r="S24" s="186"/>
-      <c r="T24" s="186"/>
-      <c r="U24" s="186"/>
-      <c r="V24" s="186"/>
-      <c r="W24" s="186"/>
-      <c r="X24" s="186"/>
-      <c r="Y24" s="186"/>
-      <c r="Z24" s="186"/>
-      <c r="AA24" s="186"/>
-      <c r="AB24" s="186"/>
-      <c r="AC24" s="186"/>
-      <c r="AD24" s="186"/>
-      <c r="AE24" s="187"/>
-      <c r="AF24" s="182"/>
-      <c r="AG24" s="183"/>
-      <c r="AH24" s="183"/>
-      <c r="AI24" s="184"/>
+      <c r="B24" s="212"/>
+      <c r="C24" s="213"/>
+      <c r="D24" s="214"/>
+      <c r="E24" s="215"/>
+      <c r="F24" s="216"/>
+      <c r="G24" s="212"/>
+      <c r="H24" s="217"/>
+      <c r="I24" s="213"/>
+      <c r="J24" s="218"/>
+      <c r="K24" s="219"/>
+      <c r="L24" s="219"/>
+      <c r="M24" s="219"/>
+      <c r="N24" s="219"/>
+      <c r="O24" s="219"/>
+      <c r="P24" s="220"/>
+      <c r="Q24" s="221"/>
+      <c r="R24" s="222"/>
+      <c r="S24" s="222"/>
+      <c r="T24" s="222"/>
+      <c r="U24" s="222"/>
+      <c r="V24" s="222"/>
+      <c r="W24" s="222"/>
+      <c r="X24" s="222"/>
+      <c r="Y24" s="222"/>
+      <c r="Z24" s="222"/>
+      <c r="AA24" s="222"/>
+      <c r="AB24" s="222"/>
+      <c r="AC24" s="222"/>
+      <c r="AD24" s="222"/>
+      <c r="AE24" s="223"/>
+      <c r="AF24" s="218"/>
+      <c r="AG24" s="219"/>
+      <c r="AH24" s="219"/>
+      <c r="AI24" s="220"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="176"/>
-      <c r="C25" s="177"/>
-      <c r="D25" s="178"/>
-      <c r="E25" s="179"/>
-      <c r="F25" s="180"/>
-      <c r="G25" s="176"/>
-      <c r="H25" s="181"/>
-      <c r="I25" s="177"/>
-      <c r="J25" s="182"/>
-      <c r="K25" s="183"/>
-      <c r="L25" s="183"/>
-      <c r="M25" s="183"/>
-      <c r="N25" s="183"/>
-      <c r="O25" s="183"/>
-      <c r="P25" s="184"/>
-      <c r="Q25" s="185"/>
-      <c r="R25" s="186"/>
-      <c r="S25" s="186"/>
-      <c r="T25" s="186"/>
-      <c r="U25" s="186"/>
-      <c r="V25" s="186"/>
-      <c r="W25" s="186"/>
-      <c r="X25" s="186"/>
-      <c r="Y25" s="186"/>
-      <c r="Z25" s="186"/>
-      <c r="AA25" s="186"/>
-      <c r="AB25" s="186"/>
-      <c r="AC25" s="186"/>
-      <c r="AD25" s="186"/>
-      <c r="AE25" s="187"/>
-      <c r="AF25" s="182"/>
-      <c r="AG25" s="183"/>
-      <c r="AH25" s="183"/>
-      <c r="AI25" s="184"/>
+      <c r="B25" s="212"/>
+      <c r="C25" s="213"/>
+      <c r="D25" s="214"/>
+      <c r="E25" s="215"/>
+      <c r="F25" s="216"/>
+      <c r="G25" s="212"/>
+      <c r="H25" s="217"/>
+      <c r="I25" s="213"/>
+      <c r="J25" s="218"/>
+      <c r="K25" s="219"/>
+      <c r="L25" s="219"/>
+      <c r="M25" s="219"/>
+      <c r="N25" s="219"/>
+      <c r="O25" s="219"/>
+      <c r="P25" s="220"/>
+      <c r="Q25" s="221"/>
+      <c r="R25" s="222"/>
+      <c r="S25" s="222"/>
+      <c r="T25" s="222"/>
+      <c r="U25" s="222"/>
+      <c r="V25" s="222"/>
+      <c r="W25" s="222"/>
+      <c r="X25" s="222"/>
+      <c r="Y25" s="222"/>
+      <c r="Z25" s="222"/>
+      <c r="AA25" s="222"/>
+      <c r="AB25" s="222"/>
+      <c r="AC25" s="222"/>
+      <c r="AD25" s="222"/>
+      <c r="AE25" s="223"/>
+      <c r="AF25" s="218"/>
+      <c r="AG25" s="219"/>
+      <c r="AH25" s="219"/>
+      <c r="AI25" s="220"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="176"/>
-      <c r="C26" s="177"/>
-      <c r="D26" s="178"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="180"/>
-      <c r="G26" s="176"/>
-      <c r="H26" s="181"/>
-      <c r="I26" s="177"/>
-      <c r="J26" s="182"/>
-      <c r="K26" s="183"/>
-      <c r="L26" s="183"/>
-      <c r="M26" s="183"/>
-      <c r="N26" s="183"/>
-      <c r="O26" s="183"/>
-      <c r="P26" s="184"/>
-      <c r="Q26" s="185"/>
-      <c r="R26" s="186"/>
-      <c r="S26" s="186"/>
-      <c r="T26" s="186"/>
-      <c r="U26" s="186"/>
-      <c r="V26" s="186"/>
-      <c r="W26" s="186"/>
-      <c r="X26" s="186"/>
-      <c r="Y26" s="186"/>
-      <c r="Z26" s="186"/>
-      <c r="AA26" s="186"/>
-      <c r="AB26" s="186"/>
-      <c r="AC26" s="186"/>
-      <c r="AD26" s="186"/>
-      <c r="AE26" s="187"/>
-      <c r="AF26" s="182"/>
-      <c r="AG26" s="183"/>
-      <c r="AH26" s="183"/>
-      <c r="AI26" s="184"/>
+      <c r="B26" s="212"/>
+      <c r="C26" s="213"/>
+      <c r="D26" s="214"/>
+      <c r="E26" s="215"/>
+      <c r="F26" s="216"/>
+      <c r="G26" s="212"/>
+      <c r="H26" s="217"/>
+      <c r="I26" s="213"/>
+      <c r="J26" s="218"/>
+      <c r="K26" s="219"/>
+      <c r="L26" s="219"/>
+      <c r="M26" s="219"/>
+      <c r="N26" s="219"/>
+      <c r="O26" s="219"/>
+      <c r="P26" s="220"/>
+      <c r="Q26" s="221"/>
+      <c r="R26" s="222"/>
+      <c r="S26" s="222"/>
+      <c r="T26" s="222"/>
+      <c r="U26" s="222"/>
+      <c r="V26" s="222"/>
+      <c r="W26" s="222"/>
+      <c r="X26" s="222"/>
+      <c r="Y26" s="222"/>
+      <c r="Z26" s="222"/>
+      <c r="AA26" s="222"/>
+      <c r="AB26" s="222"/>
+      <c r="AC26" s="222"/>
+      <c r="AD26" s="222"/>
+      <c r="AE26" s="223"/>
+      <c r="AF26" s="218"/>
+      <c r="AG26" s="219"/>
+      <c r="AH26" s="219"/>
+      <c r="AI26" s="220"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="176"/>
-      <c r="C27" s="177"/>
-      <c r="D27" s="178"/>
-      <c r="E27" s="179"/>
-      <c r="F27" s="180"/>
-      <c r="G27" s="176"/>
-      <c r="H27" s="181"/>
-      <c r="I27" s="177"/>
-      <c r="J27" s="182"/>
-      <c r="K27" s="183"/>
-      <c r="L27" s="183"/>
-      <c r="M27" s="183"/>
-      <c r="N27" s="183"/>
-      <c r="O27" s="183"/>
-      <c r="P27" s="184"/>
-      <c r="Q27" s="185"/>
-      <c r="R27" s="186"/>
-      <c r="S27" s="186"/>
-      <c r="T27" s="186"/>
-      <c r="U27" s="186"/>
-      <c r="V27" s="186"/>
-      <c r="W27" s="186"/>
-      <c r="X27" s="186"/>
-      <c r="Y27" s="186"/>
-      <c r="Z27" s="186"/>
-      <c r="AA27" s="186"/>
-      <c r="AB27" s="186"/>
-      <c r="AC27" s="186"/>
-      <c r="AD27" s="186"/>
-      <c r="AE27" s="187"/>
-      <c r="AF27" s="182"/>
-      <c r="AG27" s="183"/>
-      <c r="AH27" s="183"/>
-      <c r="AI27" s="184"/>
+      <c r="B27" s="212"/>
+      <c r="C27" s="213"/>
+      <c r="D27" s="214"/>
+      <c r="E27" s="215"/>
+      <c r="F27" s="216"/>
+      <c r="G27" s="212"/>
+      <c r="H27" s="217"/>
+      <c r="I27" s="213"/>
+      <c r="J27" s="218"/>
+      <c r="K27" s="219"/>
+      <c r="L27" s="219"/>
+      <c r="M27" s="219"/>
+      <c r="N27" s="219"/>
+      <c r="O27" s="219"/>
+      <c r="P27" s="220"/>
+      <c r="Q27" s="221"/>
+      <c r="R27" s="222"/>
+      <c r="S27" s="222"/>
+      <c r="T27" s="222"/>
+      <c r="U27" s="222"/>
+      <c r="V27" s="222"/>
+      <c r="W27" s="222"/>
+      <c r="X27" s="222"/>
+      <c r="Y27" s="222"/>
+      <c r="Z27" s="222"/>
+      <c r="AA27" s="222"/>
+      <c r="AB27" s="222"/>
+      <c r="AC27" s="222"/>
+      <c r="AD27" s="222"/>
+      <c r="AE27" s="223"/>
+      <c r="AF27" s="218"/>
+      <c r="AG27" s="219"/>
+      <c r="AH27" s="219"/>
+      <c r="AI27" s="220"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="176"/>
-      <c r="C28" s="177"/>
-      <c r="D28" s="178"/>
-      <c r="E28" s="179"/>
-      <c r="F28" s="180"/>
-      <c r="G28" s="176"/>
-      <c r="H28" s="181"/>
-      <c r="I28" s="177"/>
-      <c r="J28" s="182"/>
-      <c r="K28" s="183"/>
-      <c r="L28" s="183"/>
-      <c r="M28" s="183"/>
-      <c r="N28" s="183"/>
-      <c r="O28" s="183"/>
-      <c r="P28" s="184"/>
-      <c r="Q28" s="185"/>
-      <c r="R28" s="186"/>
-      <c r="S28" s="186"/>
-      <c r="T28" s="186"/>
-      <c r="U28" s="186"/>
-      <c r="V28" s="186"/>
-      <c r="W28" s="186"/>
-      <c r="X28" s="186"/>
-      <c r="Y28" s="186"/>
-      <c r="Z28" s="186"/>
-      <c r="AA28" s="186"/>
-      <c r="AB28" s="186"/>
-      <c r="AC28" s="186"/>
-      <c r="AD28" s="186"/>
-      <c r="AE28" s="187"/>
-      <c r="AF28" s="182"/>
-      <c r="AG28" s="183"/>
-      <c r="AH28" s="183"/>
-      <c r="AI28" s="184"/>
+      <c r="B28" s="212"/>
+      <c r="C28" s="213"/>
+      <c r="D28" s="214"/>
+      <c r="E28" s="215"/>
+      <c r="F28" s="216"/>
+      <c r="G28" s="212"/>
+      <c r="H28" s="217"/>
+      <c r="I28" s="213"/>
+      <c r="J28" s="218"/>
+      <c r="K28" s="219"/>
+      <c r="L28" s="219"/>
+      <c r="M28" s="219"/>
+      <c r="N28" s="219"/>
+      <c r="O28" s="219"/>
+      <c r="P28" s="220"/>
+      <c r="Q28" s="221"/>
+      <c r="R28" s="222"/>
+      <c r="S28" s="222"/>
+      <c r="T28" s="222"/>
+      <c r="U28" s="222"/>
+      <c r="V28" s="222"/>
+      <c r="W28" s="222"/>
+      <c r="X28" s="222"/>
+      <c r="Y28" s="222"/>
+      <c r="Z28" s="222"/>
+      <c r="AA28" s="222"/>
+      <c r="AB28" s="222"/>
+      <c r="AC28" s="222"/>
+      <c r="AD28" s="222"/>
+      <c r="AE28" s="223"/>
+      <c r="AF28" s="218"/>
+      <c r="AG28" s="219"/>
+      <c r="AH28" s="219"/>
+      <c r="AI28" s="220"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="176"/>
-      <c r="C29" s="177"/>
-      <c r="D29" s="178"/>
-      <c r="E29" s="179"/>
-      <c r="F29" s="180"/>
-      <c r="G29" s="176"/>
-      <c r="H29" s="181"/>
-      <c r="I29" s="177"/>
-      <c r="J29" s="182"/>
-      <c r="K29" s="183"/>
-      <c r="L29" s="183"/>
-      <c r="M29" s="183"/>
-      <c r="N29" s="183"/>
-      <c r="O29" s="183"/>
-      <c r="P29" s="184"/>
-      <c r="Q29" s="185"/>
-      <c r="R29" s="186"/>
-      <c r="S29" s="186"/>
-      <c r="T29" s="186"/>
-      <c r="U29" s="186"/>
-      <c r="V29" s="186"/>
-      <c r="W29" s="186"/>
-      <c r="X29" s="186"/>
-      <c r="Y29" s="186"/>
-      <c r="Z29" s="186"/>
-      <c r="AA29" s="186"/>
-      <c r="AB29" s="186"/>
-      <c r="AC29" s="186"/>
-      <c r="AD29" s="186"/>
-      <c r="AE29" s="187"/>
-      <c r="AF29" s="182"/>
-      <c r="AG29" s="183"/>
-      <c r="AH29" s="183"/>
-      <c r="AI29" s="184"/>
+      <c r="B29" s="212"/>
+      <c r="C29" s="213"/>
+      <c r="D29" s="214"/>
+      <c r="E29" s="215"/>
+      <c r="F29" s="216"/>
+      <c r="G29" s="212"/>
+      <c r="H29" s="217"/>
+      <c r="I29" s="213"/>
+      <c r="J29" s="218"/>
+      <c r="K29" s="219"/>
+      <c r="L29" s="219"/>
+      <c r="M29" s="219"/>
+      <c r="N29" s="219"/>
+      <c r="O29" s="219"/>
+      <c r="P29" s="220"/>
+      <c r="Q29" s="221"/>
+      <c r="R29" s="222"/>
+      <c r="S29" s="222"/>
+      <c r="T29" s="222"/>
+      <c r="U29" s="222"/>
+      <c r="V29" s="222"/>
+      <c r="W29" s="222"/>
+      <c r="X29" s="222"/>
+      <c r="Y29" s="222"/>
+      <c r="Z29" s="222"/>
+      <c r="AA29" s="222"/>
+      <c r="AB29" s="222"/>
+      <c r="AC29" s="222"/>
+      <c r="AD29" s="222"/>
+      <c r="AE29" s="223"/>
+      <c r="AF29" s="218"/>
+      <c r="AG29" s="219"/>
+      <c r="AH29" s="219"/>
+      <c r="AI29" s="220"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="176"/>
-      <c r="C30" s="177"/>
-      <c r="D30" s="178"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="180"/>
-      <c r="G30" s="176"/>
-      <c r="H30" s="181"/>
-      <c r="I30" s="177"/>
-      <c r="J30" s="182"/>
-      <c r="K30" s="183"/>
-      <c r="L30" s="183"/>
-      <c r="M30" s="183"/>
-      <c r="N30" s="183"/>
-      <c r="O30" s="183"/>
-      <c r="P30" s="184"/>
-      <c r="Q30" s="185"/>
-      <c r="R30" s="186"/>
-      <c r="S30" s="186"/>
-      <c r="T30" s="186"/>
-      <c r="U30" s="186"/>
-      <c r="V30" s="186"/>
-      <c r="W30" s="186"/>
-      <c r="X30" s="186"/>
-      <c r="Y30" s="186"/>
-      <c r="Z30" s="186"/>
-      <c r="AA30" s="186"/>
-      <c r="AB30" s="186"/>
-      <c r="AC30" s="186"/>
-      <c r="AD30" s="186"/>
-      <c r="AE30" s="187"/>
-      <c r="AF30" s="182"/>
-      <c r="AG30" s="183"/>
-      <c r="AH30" s="183"/>
-      <c r="AI30" s="184"/>
+      <c r="B30" s="212"/>
+      <c r="C30" s="213"/>
+      <c r="D30" s="214"/>
+      <c r="E30" s="215"/>
+      <c r="F30" s="216"/>
+      <c r="G30" s="212"/>
+      <c r="H30" s="217"/>
+      <c r="I30" s="213"/>
+      <c r="J30" s="218"/>
+      <c r="K30" s="219"/>
+      <c r="L30" s="219"/>
+      <c r="M30" s="219"/>
+      <c r="N30" s="219"/>
+      <c r="O30" s="219"/>
+      <c r="P30" s="220"/>
+      <c r="Q30" s="221"/>
+      <c r="R30" s="222"/>
+      <c r="S30" s="222"/>
+      <c r="T30" s="222"/>
+      <c r="U30" s="222"/>
+      <c r="V30" s="222"/>
+      <c r="W30" s="222"/>
+      <c r="X30" s="222"/>
+      <c r="Y30" s="222"/>
+      <c r="Z30" s="222"/>
+      <c r="AA30" s="222"/>
+      <c r="AB30" s="222"/>
+      <c r="AC30" s="222"/>
+      <c r="AD30" s="222"/>
+      <c r="AE30" s="223"/>
+      <c r="AF30" s="218"/>
+      <c r="AG30" s="219"/>
+      <c r="AH30" s="219"/>
+      <c r="AI30" s="220"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="176"/>
-      <c r="C31" s="177"/>
-      <c r="D31" s="178"/>
-      <c r="E31" s="179"/>
-      <c r="F31" s="180"/>
-      <c r="G31" s="176"/>
-      <c r="H31" s="181"/>
-      <c r="I31" s="177"/>
-      <c r="J31" s="182"/>
-      <c r="K31" s="183"/>
-      <c r="L31" s="183"/>
-      <c r="M31" s="183"/>
-      <c r="N31" s="183"/>
-      <c r="O31" s="183"/>
-      <c r="P31" s="184"/>
-      <c r="Q31" s="185"/>
-      <c r="R31" s="186"/>
-      <c r="S31" s="186"/>
-      <c r="T31" s="186"/>
-      <c r="U31" s="186"/>
-      <c r="V31" s="186"/>
-      <c r="W31" s="186"/>
-      <c r="X31" s="186"/>
-      <c r="Y31" s="186"/>
-      <c r="Z31" s="186"/>
-      <c r="AA31" s="186"/>
-      <c r="AB31" s="186"/>
-      <c r="AC31" s="186"/>
-      <c r="AD31" s="186"/>
-      <c r="AE31" s="187"/>
-      <c r="AF31" s="182"/>
-      <c r="AG31" s="183"/>
-      <c r="AH31" s="183"/>
-      <c r="AI31" s="184"/>
+      <c r="B31" s="212"/>
+      <c r="C31" s="213"/>
+      <c r="D31" s="214"/>
+      <c r="E31" s="215"/>
+      <c r="F31" s="216"/>
+      <c r="G31" s="212"/>
+      <c r="H31" s="217"/>
+      <c r="I31" s="213"/>
+      <c r="J31" s="218"/>
+      <c r="K31" s="219"/>
+      <c r="L31" s="219"/>
+      <c r="M31" s="219"/>
+      <c r="N31" s="219"/>
+      <c r="O31" s="219"/>
+      <c r="P31" s="220"/>
+      <c r="Q31" s="221"/>
+      <c r="R31" s="222"/>
+      <c r="S31" s="222"/>
+      <c r="T31" s="222"/>
+      <c r="U31" s="222"/>
+      <c r="V31" s="222"/>
+      <c r="W31" s="222"/>
+      <c r="X31" s="222"/>
+      <c r="Y31" s="222"/>
+      <c r="Z31" s="222"/>
+      <c r="AA31" s="222"/>
+      <c r="AB31" s="222"/>
+      <c r="AC31" s="222"/>
+      <c r="AD31" s="222"/>
+      <c r="AE31" s="223"/>
+      <c r="AF31" s="218"/>
+      <c r="AG31" s="219"/>
+      <c r="AH31" s="219"/>
+      <c r="AI31" s="220"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="176"/>
-      <c r="C32" s="177"/>
-      <c r="D32" s="178"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="180"/>
-      <c r="G32" s="176"/>
-      <c r="H32" s="181"/>
-      <c r="I32" s="177"/>
-      <c r="J32" s="182"/>
-      <c r="K32" s="188"/>
-      <c r="L32" s="183"/>
-      <c r="M32" s="183"/>
-      <c r="N32" s="183"/>
-      <c r="O32" s="183"/>
-      <c r="P32" s="184"/>
-      <c r="Q32" s="185"/>
-      <c r="R32" s="186"/>
-      <c r="S32" s="186"/>
-      <c r="T32" s="186"/>
-      <c r="U32" s="186"/>
-      <c r="V32" s="186"/>
-      <c r="W32" s="186"/>
-      <c r="X32" s="186"/>
-      <c r="Y32" s="186"/>
-      <c r="Z32" s="186"/>
-      <c r="AA32" s="186"/>
-      <c r="AB32" s="186"/>
-      <c r="AC32" s="186"/>
-      <c r="AD32" s="186"/>
-      <c r="AE32" s="187"/>
-      <c r="AF32" s="182"/>
-      <c r="AG32" s="183"/>
-      <c r="AH32" s="183"/>
-      <c r="AI32" s="184"/>
+      <c r="B32" s="212"/>
+      <c r="C32" s="213"/>
+      <c r="D32" s="214"/>
+      <c r="E32" s="215"/>
+      <c r="F32" s="216"/>
+      <c r="G32" s="212"/>
+      <c r="H32" s="217"/>
+      <c r="I32" s="213"/>
+      <c r="J32" s="218"/>
+      <c r="K32" s="233"/>
+      <c r="L32" s="219"/>
+      <c r="M32" s="219"/>
+      <c r="N32" s="219"/>
+      <c r="O32" s="219"/>
+      <c r="P32" s="220"/>
+      <c r="Q32" s="221"/>
+      <c r="R32" s="222"/>
+      <c r="S32" s="222"/>
+      <c r="T32" s="222"/>
+      <c r="U32" s="222"/>
+      <c r="V32" s="222"/>
+      <c r="W32" s="222"/>
+      <c r="X32" s="222"/>
+      <c r="Y32" s="222"/>
+      <c r="Z32" s="222"/>
+      <c r="AA32" s="222"/>
+      <c r="AB32" s="222"/>
+      <c r="AC32" s="222"/>
+      <c r="AD32" s="222"/>
+      <c r="AE32" s="223"/>
+      <c r="AF32" s="218"/>
+      <c r="AG32" s="219"/>
+      <c r="AH32" s="219"/>
+      <c r="AI32" s="220"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="176"/>
-      <c r="C33" s="177"/>
-      <c r="D33" s="178"/>
-      <c r="E33" s="179"/>
-      <c r="F33" s="180"/>
-      <c r="G33" s="176"/>
-      <c r="H33" s="181"/>
-      <c r="I33" s="177"/>
-      <c r="J33" s="182"/>
-      <c r="K33" s="183"/>
-      <c r="L33" s="183"/>
-      <c r="M33" s="183"/>
-      <c r="N33" s="183"/>
-      <c r="O33" s="183"/>
-      <c r="P33" s="184"/>
-      <c r="Q33" s="185"/>
-      <c r="R33" s="186"/>
-      <c r="S33" s="186"/>
-      <c r="T33" s="186"/>
-      <c r="U33" s="186"/>
-      <c r="V33" s="186"/>
-      <c r="W33" s="186"/>
-      <c r="X33" s="186"/>
-      <c r="Y33" s="186"/>
-      <c r="Z33" s="186"/>
-      <c r="AA33" s="186"/>
-      <c r="AB33" s="186"/>
-      <c r="AC33" s="186"/>
-      <c r="AD33" s="186"/>
-      <c r="AE33" s="187"/>
-      <c r="AF33" s="182"/>
-      <c r="AG33" s="183"/>
-      <c r="AH33" s="183"/>
-      <c r="AI33" s="184"/>
-    </row>
-    <row r="34" spans="1:35" ht="14.25">
+      <c r="B33" s="212"/>
+      <c r="C33" s="213"/>
+      <c r="D33" s="214"/>
+      <c r="E33" s="215"/>
+      <c r="F33" s="216"/>
+      <c r="G33" s="212"/>
+      <c r="H33" s="217"/>
+      <c r="I33" s="213"/>
+      <c r="J33" s="218"/>
+      <c r="K33" s="219"/>
+      <c r="L33" s="219"/>
+      <c r="M33" s="219"/>
+      <c r="N33" s="219"/>
+      <c r="O33" s="219"/>
+      <c r="P33" s="220"/>
+      <c r="Q33" s="221"/>
+      <c r="R33" s="222"/>
+      <c r="S33" s="222"/>
+      <c r="T33" s="222"/>
+      <c r="U33" s="222"/>
+      <c r="V33" s="222"/>
+      <c r="W33" s="222"/>
+      <c r="X33" s="222"/>
+      <c r="Y33" s="222"/>
+      <c r="Z33" s="222"/>
+      <c r="AA33" s="222"/>
+      <c r="AB33" s="222"/>
+      <c r="AC33" s="222"/>
+      <c r="AD33" s="222"/>
+      <c r="AE33" s="223"/>
+      <c r="AF33" s="218"/>
+      <c r="AG33" s="219"/>
+      <c r="AH33" s="219"/>
+      <c r="AI33" s="220"/>
+    </row>
+    <row r="34" spans="1:35" ht="14">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="178">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -11277,161 +11398,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -11449,23 +11415,23 @@
   <dimension ref="A1:Q295"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A11" sqref="A11"/>
-      <selection pane="bottomLeft" activeCell="L42" sqref="L42"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="8.625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="29" customWidth="1"/>
-    <col min="4" max="5" width="8.625" style="28" customWidth="1"/>
-    <col min="6" max="6" width="40.625" style="28" customWidth="1"/>
-    <col min="7" max="7" width="40.625" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="15.625" style="28" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.625" style="28" customWidth="1"/>
-    <col min="10" max="11" width="25.625" style="28" customWidth="1"/>
-    <col min="12" max="12" width="12.625" style="28" customWidth="1"/>
-    <col min="13" max="17" width="8.625" style="28" customWidth="1"/>
+    <col min="1" max="2" width="8.58203125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="8.58203125" style="29" customWidth="1"/>
+    <col min="4" max="5" width="8.58203125" style="28" customWidth="1"/>
+    <col min="6" max="6" width="40.58203125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="40.58203125" style="28" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="15.58203125" style="28" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.58203125" style="28" customWidth="1"/>
+    <col min="10" max="11" width="25.58203125" style="28" customWidth="1"/>
+    <col min="12" max="12" width="12.58203125" style="28" customWidth="1"/>
+    <col min="13" max="17" width="8.58203125" style="28" customWidth="1"/>
     <col min="18" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
@@ -11511,7 +11477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="12" thickBot="1">
+    <row r="8" spans="1:17" ht="11.5" thickBot="1">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="31"/>
@@ -11530,7 +11496,7 @@
       <c r="P8" s="30"/>
       <c r="Q8" s="30"/>
     </row>
-    <row r="9" spans="1:17" ht="12" thickTop="1"/>
+    <row r="9" spans="1:17" ht="11.5" thickTop="1"/>
     <row r="10" spans="1:17" s="32" customFormat="1">
       <c r="A10" s="33" t="s">
         <v>30</v>
@@ -11584,7 +11550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="22.5">
+    <row r="11" spans="1:17" ht="22">
       <c r="A11" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A11" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E11),
@@ -11626,7 +11592,7 @@
       <c r="P11" s="46"/>
       <c r="Q11" s="48"/>
     </row>
-    <row r="12" spans="1:17" ht="22.5">
+    <row r="12" spans="1:17" ht="22">
       <c r="A12" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A12" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E12),
@@ -11662,7 +11628,7 @@
       <c r="P12" s="46"/>
       <c r="Q12" s="48"/>
     </row>
-    <row r="13" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="13" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A13" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A13" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E13),
@@ -11700,7 +11666,7 @@
       <c r="P13" s="47"/>
       <c r="Q13" s="46"/>
     </row>
-    <row r="14" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="14" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A14" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A14" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E14),
@@ -11734,7 +11700,7 @@
       <c r="P14" s="47"/>
       <c r="Q14" s="46"/>
     </row>
-    <row r="15" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="15" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A15" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A15" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E15),
@@ -11768,7 +11734,7 @@
       <c r="P15" s="47"/>
       <c r="Q15" s="46"/>
     </row>
-    <row r="16" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="16" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A16" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A16" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E16),
@@ -11802,7 +11768,7 @@
       <c r="P16" s="46"/>
       <c r="Q16" s="48"/>
     </row>
-    <row r="17" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="17" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A17" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A17" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E17),
@@ -11836,7 +11802,7 @@
       <c r="P17" s="46"/>
       <c r="Q17" s="48"/>
     </row>
-    <row r="18" spans="1:17" ht="22.5">
+    <row r="18" spans="1:17" ht="22">
       <c r="A18" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A18" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E18),
@@ -11874,7 +11840,7 @@
       <c r="P18" s="46"/>
       <c r="Q18" s="48"/>
     </row>
-    <row r="19" spans="1:17" ht="22.5">
+    <row r="19" spans="1:17" ht="22">
       <c r="A19" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A19" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E19),
@@ -11908,7 +11874,7 @@
       <c r="P19" s="46"/>
       <c r="Q19" s="48"/>
     </row>
-    <row r="20" spans="1:17" ht="22.5">
+    <row r="20" spans="1:17" ht="22">
       <c r="A20" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A20" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E20),
@@ -11942,7 +11908,7 @@
       <c r="P20" s="46"/>
       <c r="Q20" s="48"/>
     </row>
-    <row r="21" spans="1:17" ht="22.5">
+    <row r="21" spans="1:17" ht="22">
       <c r="A21" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A21" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E21),
@@ -11978,7 +11944,7 @@
       <c r="P21" s="46"/>
       <c r="Q21" s="48"/>
     </row>
-    <row r="22" spans="1:17" ht="22.5">
+    <row r="22" spans="1:17" ht="22">
       <c r="A22" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A22" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E22),
@@ -12012,7 +11978,7 @@
       <c r="P22" s="46"/>
       <c r="Q22" s="48"/>
     </row>
-    <row r="23" spans="1:17" ht="22.5">
+    <row r="23" spans="1:17" ht="22">
       <c r="A23" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A23" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E23),
@@ -12046,7 +12012,7 @@
       <c r="P23" s="46"/>
       <c r="Q23" s="48"/>
     </row>
-    <row r="24" spans="1:17" ht="22.5">
+    <row r="24" spans="1:17" ht="22">
       <c r="A24" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A24" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E24),
@@ -12080,7 +12046,7 @@
       <c r="P24" s="46"/>
       <c r="Q24" s="48"/>
     </row>
-    <row r="25" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="25" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A25" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A25" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E25),
@@ -12152,7 +12118,7 @@
       <c r="P26" s="47"/>
       <c r="Q26" s="46"/>
     </row>
-    <row r="27" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="27" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A27" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A27" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E27),
@@ -12190,7 +12156,7 @@
       <c r="P27" s="47"/>
       <c r="Q27" s="46"/>
     </row>
-    <row r="28" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="28" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A28" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A28" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E28),
@@ -12224,7 +12190,7 @@
       <c r="P28" s="47"/>
       <c r="Q28" s="46"/>
     </row>
-    <row r="29" spans="1:17" ht="22.5">
+    <row r="29" spans="1:17" ht="22">
       <c r="A29" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A29" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E29),
@@ -12260,7 +12226,7 @@
       <c r="P29" s="48"/>
       <c r="Q29" s="48"/>
     </row>
-    <row r="30" spans="1:17" ht="22.5">
+    <row r="30" spans="1:17" ht="22">
       <c r="A30" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A30" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E30),
@@ -12294,7 +12260,7 @@
       <c r="P30" s="48"/>
       <c r="Q30" s="48"/>
     </row>
-    <row r="31" spans="1:17" ht="22.5">
+    <row r="31" spans="1:17" ht="22">
       <c r="A31" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A31" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E31),
@@ -12328,7 +12294,7 @@
       <c r="P31" s="48"/>
       <c r="Q31" s="48"/>
     </row>
-    <row r="32" spans="1:17" ht="22.5">
+    <row r="32" spans="1:17" ht="22">
       <c r="A32" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A32" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E32),
@@ -12362,7 +12328,7 @@
       <c r="P32" s="48"/>
       <c r="Q32" s="48"/>
     </row>
-    <row r="33" spans="1:17" ht="22.5">
+    <row r="33" spans="1:17" ht="22">
       <c r="A33" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A33" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E33),
@@ -12398,7 +12364,7 @@
       <c r="P33" s="48"/>
       <c r="Q33" s="48"/>
     </row>
-    <row r="34" spans="1:17" ht="22.5">
+    <row r="34" spans="1:17" ht="22">
       <c r="A34" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A34" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E34),
@@ -12432,7 +12398,7 @@
       <c r="P34" s="48"/>
       <c r="Q34" s="48"/>
     </row>
-    <row r="35" spans="1:17" ht="45">
+    <row r="35" spans="1:17" ht="44">
       <c r="A35" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A35" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E35),
@@ -12468,7 +12434,7 @@
       <c r="P35" s="48"/>
       <c r="Q35" s="48"/>
     </row>
-    <row r="36" spans="1:17" ht="33.75">
+    <row r="36" spans="1:17" ht="33">
       <c r="A36" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A36" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E36),
@@ -12508,7 +12474,7 @@
       <c r="P36" s="67"/>
       <c r="Q36" s="67"/>
     </row>
-    <row r="37" spans="1:17" ht="33.75">
+    <row r="37" spans="1:17" ht="33">
       <c r="A37" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A37" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E37),
@@ -12542,7 +12508,7 @@
       <c r="P37" s="67"/>
       <c r="Q37" s="67"/>
     </row>
-    <row r="38" spans="1:17" ht="22.5">
+    <row r="38" spans="1:17" ht="22">
       <c r="A38" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A38" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E38),
@@ -12576,7 +12542,7 @@
       <c r="P38" s="67"/>
       <c r="Q38" s="67"/>
     </row>
-    <row r="39" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="39" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A39" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A39" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E39),
@@ -12610,7 +12576,7 @@
       <c r="P39" s="163"/>
       <c r="Q39" s="67"/>
     </row>
-    <row r="40" spans="1:17" s="32" customFormat="1" ht="56.25">
+    <row r="40" spans="1:17" s="32" customFormat="1" ht="55">
       <c r="A40" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A40" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E40),
@@ -12662,7 +12628,7 @@
       <c r="P40" s="145"/>
       <c r="Q40" s="146"/>
     </row>
-    <row r="41" spans="1:17" s="32" customFormat="1" ht="78.75">
+    <row r="41" spans="1:17" s="32" customFormat="1" ht="77">
       <c r="A41" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A41" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E41),
@@ -12710,7 +12676,7 @@
       <c r="P41" s="145"/>
       <c r="Q41" s="146"/>
     </row>
-    <row r="42" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="42" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A42" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A42" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E42),
@@ -12752,7 +12718,7 @@
       <c r="P42" s="46"/>
       <c r="Q42" s="48"/>
     </row>
-    <row r="43" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="43" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A43" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A43" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E43),
@@ -12786,7 +12752,7 @@
       <c r="P43" s="46"/>
       <c r="Q43" s="48"/>
     </row>
-    <row r="44" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="44" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A44" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A44" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E44),
@@ -12820,7 +12786,7 @@
       <c r="P44" s="46"/>
       <c r="Q44" s="48"/>
     </row>
-    <row r="45" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="45" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A45" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A45" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E45),
@@ -12856,7 +12822,7 @@
       <c r="P45" s="46"/>
       <c r="Q45" s="48"/>
     </row>
-    <row r="46" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="46" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A46" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A46" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E46),
@@ -12890,7 +12856,7 @@
       <c r="P46" s="46"/>
       <c r="Q46" s="48"/>
     </row>
-    <row r="47" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="47" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A47" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A47" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E47),
@@ -12924,7 +12890,7 @@
       <c r="P47" s="46"/>
       <c r="Q47" s="48"/>
     </row>
-    <row r="48" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="48" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A48" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A48" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E48),
@@ -12960,7 +12926,7 @@
       <c r="P48" s="46"/>
       <c r="Q48" s="48"/>
     </row>
-    <row r="49" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="49" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A49" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A49" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E49),
@@ -12994,7 +12960,7 @@
       <c r="P49" s="46"/>
       <c r="Q49" s="48"/>
     </row>
-    <row r="50" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="50" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A50" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A50" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E50),
@@ -13030,7 +12996,7 @@
       <c r="P50" s="46"/>
       <c r="Q50" s="48"/>
     </row>
-    <row r="51" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="51" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A51" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A51" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E51),
@@ -13064,7 +13030,7 @@
       <c r="P51" s="46"/>
       <c r="Q51" s="48"/>
     </row>
-    <row r="52" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="52" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A52" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A52" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E52),
@@ -13098,7 +13064,7 @@
       <c r="P52" s="46"/>
       <c r="Q52" s="48"/>
     </row>
-    <row r="53" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="53" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A53" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A53" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E53),
@@ -13132,7 +13098,7 @@
       <c r="P53" s="46"/>
       <c r="Q53" s="48"/>
     </row>
-    <row r="54" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="54" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A54" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A54" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E54),
@@ -13166,7 +13132,7 @@
       <c r="P54" s="46"/>
       <c r="Q54" s="48"/>
     </row>
-    <row r="55" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="55" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A55" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A55" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E55),
@@ -13200,7 +13166,7 @@
       <c r="P55" s="46"/>
       <c r="Q55" s="48"/>
     </row>
-    <row r="56" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="56" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A56" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A56" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E56),
@@ -13236,7 +13202,7 @@
       <c r="P56" s="46"/>
       <c r="Q56" s="48"/>
     </row>
-    <row r="57" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="57" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A57" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A57" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E57),
@@ -13272,7 +13238,7 @@
       <c r="P57" s="46"/>
       <c r="Q57" s="48"/>
     </row>
-    <row r="58" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="58" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A58" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A58" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E58),
@@ -13308,7 +13274,7 @@
       <c r="P58" s="46"/>
       <c r="Q58" s="48"/>
     </row>
-    <row r="59" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="59" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A59" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A59" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E59),
@@ -13346,7 +13312,7 @@
       <c r="P59" s="46"/>
       <c r="Q59" s="48"/>
     </row>
-    <row r="60" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="60" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A60" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A60" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E60),
@@ -13380,7 +13346,7 @@
       <c r="P60" s="46"/>
       <c r="Q60" s="48"/>
     </row>
-    <row r="61" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="61" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A61" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A61" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E61),
@@ -13414,7 +13380,7 @@
       <c r="P61" s="46"/>
       <c r="Q61" s="48"/>
     </row>
-    <row r="62" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="62" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A62" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A62" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E62),
@@ -13448,7 +13414,7 @@
       <c r="P62" s="46"/>
       <c r="Q62" s="48"/>
     </row>
-    <row r="63" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="63" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A63" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A63" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E63),
@@ -13482,7 +13448,7 @@
       <c r="P63" s="46"/>
       <c r="Q63" s="48"/>
     </row>
-    <row r="64" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="64" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A64" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A64" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E64),
@@ -13518,7 +13484,7 @@
       <c r="P64" s="46"/>
       <c r="Q64" s="48"/>
     </row>
-    <row r="65" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="65" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A65" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A65" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E65),
@@ -13552,7 +13518,7 @@
       <c r="P65" s="46"/>
       <c r="Q65" s="48"/>
     </row>
-    <row r="66" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="66" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A66" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A66" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E66),
@@ -13586,7 +13552,7 @@
       <c r="P66" s="46"/>
       <c r="Q66" s="48"/>
     </row>
-    <row r="67" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="67" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A67" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A67" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E67),
@@ -13620,7 +13586,7 @@
       <c r="P67" s="46"/>
       <c r="Q67" s="48"/>
     </row>
-    <row r="68" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="68" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A68" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A68" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E68),
@@ -13654,7 +13620,7 @@
       <c r="P68" s="46"/>
       <c r="Q68" s="48"/>
     </row>
-    <row r="69" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="69" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A69" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A69" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E69),
@@ -13688,7 +13654,7 @@
       <c r="P69" s="46"/>
       <c r="Q69" s="48"/>
     </row>
-    <row r="70" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="70" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A70" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A70" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E70),
@@ -13722,7 +13688,7 @@
       <c r="P70" s="46"/>
       <c r="Q70" s="48"/>
     </row>
-    <row r="71" spans="1:17" s="32" customFormat="1" ht="33.75">
+    <row r="71" spans="1:17" s="32" customFormat="1" ht="33">
       <c r="A71" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A71" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E71),
@@ -13756,7 +13722,7 @@
       <c r="P71" s="46"/>
       <c r="Q71" s="48"/>
     </row>
-    <row r="72" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="72" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A72" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A72" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E72),
@@ -13792,7 +13758,7 @@
       <c r="P72" s="46"/>
       <c r="Q72" s="48"/>
     </row>
-    <row r="73" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="73" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A73" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A73" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E73),
@@ -13828,7 +13794,7 @@
       <c r="P73" s="46"/>
       <c r="Q73" s="48"/>
     </row>
-    <row r="74" spans="1:17" s="32" customFormat="1" ht="22.5">
+    <row r="74" spans="1:17" s="32" customFormat="1" ht="22">
       <c r="A74" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A74" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E74),
@@ -13862,7 +13828,7 @@
       <c r="P74" s="46"/>
       <c r="Q74" s="48"/>
     </row>
-    <row r="75" spans="1:17" ht="22.5">
+    <row r="75" spans="1:17" ht="22">
       <c r="A75" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A75" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E75),
@@ -13896,7 +13862,7 @@
       <c r="P75" s="48"/>
       <c r="Q75" s="48"/>
     </row>
-    <row r="76" spans="1:17" ht="22.5">
+    <row r="76" spans="1:17" ht="22">
       <c r="A76" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A76" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E76),
@@ -13930,7 +13896,7 @@
       <c r="P76" s="48"/>
       <c r="Q76" s="48"/>
     </row>
-    <row r="77" spans="1:17" ht="22.5">
+    <row r="77" spans="1:17" ht="22">
       <c r="A77" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A77" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E77),
@@ -13964,7 +13930,7 @@
       <c r="P77" s="48"/>
       <c r="Q77" s="48"/>
     </row>
-    <row r="78" spans="1:17" ht="22.5">
+    <row r="78" spans="1:17" ht="22">
       <c r="A78" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A78" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E78),
@@ -14004,7 +13970,7 @@
       <c r="P78" s="48"/>
       <c r="Q78" s="48"/>
     </row>
-    <row r="79" spans="1:17" ht="33.75">
+    <row r="79" spans="1:17" ht="33">
       <c r="A79" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A79" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E79),
@@ -14038,7 +14004,7 @@
       <c r="P79" s="48"/>
       <c r="Q79" s="48"/>
     </row>
-    <row r="80" spans="1:17" ht="22.5">
+    <row r="80" spans="1:17" ht="22">
       <c r="A80" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A80" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E80),
@@ -14074,7 +14040,7 @@
       <c r="P80" s="48"/>
       <c r="Q80" s="48"/>
     </row>
-    <row r="81" spans="1:17" ht="33.75">
+    <row r="81" spans="1:17" ht="33">
       <c r="A81" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A81" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E81),
@@ -14110,7 +14076,7 @@
       <c r="P81" s="48"/>
       <c r="Q81" s="48"/>
     </row>
-    <row r="82" spans="1:17" ht="33.75">
+    <row r="82" spans="1:17" ht="33">
       <c r="A82" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A82" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E82),
@@ -14144,7 +14110,7 @@
       <c r="P82" s="48"/>
       <c r="Q82" s="48"/>
     </row>
-    <row r="83" spans="1:17" ht="22.5">
+    <row r="83" spans="1:17" ht="22">
       <c r="A83" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A83" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E83),
@@ -14180,7 +14146,7 @@
       <c r="P83" s="48"/>
       <c r="Q83" s="48"/>
     </row>
-    <row r="84" spans="1:17" ht="22.5">
+    <row r="84" spans="1:17" ht="22">
       <c r="A84" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A84" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E84),
@@ -14216,7 +14182,7 @@
       <c r="P84" s="48"/>
       <c r="Q84" s="48"/>
     </row>
-    <row r="85" spans="1:17" ht="22.5">
+    <row r="85" spans="1:17" ht="22">
       <c r="A85" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A85" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E85),
@@ -14256,7 +14222,7 @@
       <c r="P85" s="48"/>
       <c r="Q85" s="48"/>
     </row>
-    <row r="86" spans="1:17" ht="22.5">
+    <row r="86" spans="1:17" ht="22">
       <c r="A86" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A86" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E86),
@@ -14292,7 +14258,7 @@
       <c r="P86" s="48"/>
       <c r="Q86" s="48"/>
     </row>
-    <row r="87" spans="1:17" ht="33.75">
+    <row r="87" spans="1:17" ht="33">
       <c r="A87" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A87" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E87),
@@ -14328,7 +14294,7 @@
       <c r="P87" s="48"/>
       <c r="Q87" s="48"/>
     </row>
-    <row r="88" spans="1:17" ht="22.5">
+    <row r="88" spans="1:17" ht="22">
       <c r="A88" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A88" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E88),
@@ -14368,7 +14334,7 @@
       <c r="P88" s="48"/>
       <c r="Q88" s="48"/>
     </row>
-    <row r="89" spans="1:17" ht="33.75">
+    <row r="89" spans="1:17" ht="33">
       <c r="A89" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A89" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E89),
@@ -14402,7 +14368,7 @@
       <c r="P89" s="48"/>
       <c r="Q89" s="48"/>
     </row>
-    <row r="90" spans="1:17" ht="22.5">
+    <row r="90" spans="1:17" ht="22">
       <c r="A90" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A90" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E90),
@@ -14438,7 +14404,7 @@
       <c r="P90" s="48"/>
       <c r="Q90" s="48"/>
     </row>
-    <row r="91" spans="1:17" ht="33.75">
+    <row r="91" spans="1:17" ht="33">
       <c r="A91" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A91" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E91),
@@ -14474,7 +14440,7 @@
       <c r="P91" s="48"/>
       <c r="Q91" s="48"/>
     </row>
-    <row r="92" spans="1:17" ht="33.75">
+    <row r="92" spans="1:17" ht="33">
       <c r="A92" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A92" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E92),
@@ -14508,7 +14474,7 @@
       <c r="P92" s="48"/>
       <c r="Q92" s="48"/>
     </row>
-    <row r="93" spans="1:17" ht="33.75">
+    <row r="93" spans="1:17" ht="33">
       <c r="A93" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A93" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E93),
@@ -14544,7 +14510,7 @@
       <c r="P93" s="48"/>
       <c r="Q93" s="48"/>
     </row>
-    <row r="94" spans="1:17" ht="22.5">
+    <row r="94" spans="1:17" ht="22">
       <c r="A94" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A94" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E94),
@@ -14584,7 +14550,7 @@
       <c r="P94" s="48"/>
       <c r="Q94" s="48"/>
     </row>
-    <row r="95" spans="1:17" ht="33.75">
+    <row r="95" spans="1:17" ht="33">
       <c r="A95" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A95" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E95),
@@ -14618,7 +14584,7 @@
       <c r="P95" s="48"/>
       <c r="Q95" s="48"/>
     </row>
-    <row r="96" spans="1:17" ht="22.5">
+    <row r="96" spans="1:17" ht="22">
       <c r="A96" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A96" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E96),
@@ -14652,7 +14618,7 @@
       <c r="P96" s="48"/>
       <c r="Q96" s="48"/>
     </row>
-    <row r="97" spans="1:17" ht="33.75">
+    <row r="97" spans="1:17" ht="33">
       <c r="A97" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A97" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E97),
@@ -14686,7 +14652,7 @@
       <c r="P97" s="48"/>
       <c r="Q97" s="48"/>
     </row>
-    <row r="98" spans="1:17" ht="33.75">
+    <row r="98" spans="1:17" ht="33">
       <c r="A98" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A98" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E98),
@@ -14720,7 +14686,7 @@
       <c r="P98" s="48"/>
       <c r="Q98" s="48"/>
     </row>
-    <row r="99" spans="1:17" ht="22.5">
+    <row r="99" spans="1:17" ht="22">
       <c r="A99" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A99" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E99),
@@ -14756,7 +14722,7 @@
       <c r="P99" s="48"/>
       <c r="Q99" s="48"/>
     </row>
-    <row r="100" spans="1:17" ht="33.75">
+    <row r="100" spans="1:17" ht="33">
       <c r="A100" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A100" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E100),
@@ -14790,7 +14756,7 @@
       <c r="P100" s="48"/>
       <c r="Q100" s="48"/>
     </row>
-    <row r="101" spans="1:17" ht="22.5">
+    <row r="101" spans="1:17" ht="22">
       <c r="A101" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A101" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E101),
@@ -14824,7 +14790,7 @@
       <c r="P101" s="48"/>
       <c r="Q101" s="48"/>
     </row>
-    <row r="102" spans="1:17" ht="33.75">
+    <row r="102" spans="1:17" ht="33">
       <c r="A102" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A102" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E102),
@@ -14858,7 +14824,7 @@
       <c r="P102" s="48"/>
       <c r="Q102" s="48"/>
     </row>
-    <row r="103" spans="1:17" ht="33.75">
+    <row r="103" spans="1:17" ht="33">
       <c r="A103" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A103" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E103),
@@ -14892,7 +14858,7 @@
       <c r="P103" s="48"/>
       <c r="Q103" s="48"/>
     </row>
-    <row r="104" spans="1:17" ht="33.75">
+    <row r="104" spans="1:17" ht="33">
       <c r="A104" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A104" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E104),
@@ -14928,7 +14894,7 @@
       <c r="P104" s="48"/>
       <c r="Q104" s="48"/>
     </row>
-    <row r="105" spans="1:17" ht="33.75">
+    <row r="105" spans="1:17" ht="33">
       <c r="A105" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A105" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E105),
@@ -14970,7 +14936,7 @@
       <c r="P105" s="48"/>
       <c r="Q105" s="48"/>
     </row>
-    <row r="106" spans="1:17" ht="22.5">
+    <row r="106" spans="1:17" ht="22">
       <c r="A106" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A106" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E106),
@@ -15010,7 +14976,7 @@
       <c r="P106" s="48"/>
       <c r="Q106" s="48"/>
     </row>
-    <row r="107" spans="1:17" ht="22.5">
+    <row r="107" spans="1:17" ht="22">
       <c r="A107" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A107" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E107),
@@ -15044,7 +15010,7 @@
       <c r="P107" s="48"/>
       <c r="Q107" s="48"/>
     </row>
-    <row r="108" spans="1:17" ht="22.5">
+    <row r="108" spans="1:17" ht="22">
       <c r="A108" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A108" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E108),
@@ -15084,7 +15050,7 @@
       <c r="P108" s="48"/>
       <c r="Q108" s="48"/>
     </row>
-    <row r="109" spans="1:17" ht="22.5">
+    <row r="109" spans="1:17" ht="22">
       <c r="A109" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A109" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E109),
@@ -15124,7 +15090,7 @@
       <c r="P109" s="48"/>
       <c r="Q109" s="48"/>
     </row>
-    <row r="110" spans="1:17" ht="22.5">
+    <row r="110" spans="1:17" ht="22">
       <c r="A110" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A110" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E110),
@@ -15158,7 +15124,7 @@
       <c r="P110" s="48"/>
       <c r="Q110" s="48"/>
     </row>
-    <row r="111" spans="1:17" ht="22.5">
+    <row r="111" spans="1:17" ht="22">
       <c r="A111" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A111" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E111),
@@ -15200,7 +15166,7 @@
       <c r="P111" s="67"/>
       <c r="Q111" s="67"/>
     </row>
-    <row r="112" spans="1:17" ht="22.5">
+    <row r="112" spans="1:17" ht="22">
       <c r="A112" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A112" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E112),
@@ -15236,7 +15202,7 @@
       <c r="P112" s="67"/>
       <c r="Q112" s="67"/>
     </row>
-    <row r="113" spans="1:17" ht="22.5">
+    <row r="113" spans="1:17" ht="22">
       <c r="A113" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A113" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E113),
@@ -15270,7 +15236,7 @@
       <c r="P113" s="67"/>
       <c r="Q113" s="67"/>
     </row>
-    <row r="114" spans="1:17" ht="22.5">
+    <row r="114" spans="1:17" ht="22">
       <c r="A114" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A114" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E114),
@@ -15304,7 +15270,7 @@
       <c r="P114" s="67"/>
       <c r="Q114" s="67"/>
     </row>
-    <row r="115" spans="1:17" ht="22.5">
+    <row r="115" spans="1:17" ht="22">
       <c r="A115" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A115" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E115),
@@ -15340,7 +15306,7 @@
       <c r="P115" s="67"/>
       <c r="Q115" s="67"/>
     </row>
-    <row r="116" spans="1:17" ht="22.5">
+    <row r="116" spans="1:17" ht="22">
       <c r="A116" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A116" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E116),
@@ -15374,7 +15340,7 @@
       <c r="P116" s="67"/>
       <c r="Q116" s="67"/>
     </row>
-    <row r="117" spans="1:17" ht="22.5">
+    <row r="117" spans="1:17" ht="22">
       <c r="A117" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A117" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E117),
@@ -15408,7 +15374,7 @@
       <c r="P117" s="67"/>
       <c r="Q117" s="67"/>
     </row>
-    <row r="118" spans="1:17" ht="22.5">
+    <row r="118" spans="1:17" ht="22">
       <c r="A118" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A118" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E118),
@@ -15442,7 +15408,7 @@
       <c r="P118" s="67"/>
       <c r="Q118" s="67"/>
     </row>
-    <row r="119" spans="1:17" ht="33.75">
+    <row r="119" spans="1:17" ht="33">
       <c r="A119" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A119" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E119),
@@ -15476,7 +15442,7 @@
       <c r="P119" s="67"/>
       <c r="Q119" s="67"/>
     </row>
-    <row r="120" spans="1:17" ht="33.75">
+    <row r="120" spans="1:17" ht="33">
       <c r="A120" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A120" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E120),
@@ -15512,7 +15478,7 @@
       <c r="P120" s="67"/>
       <c r="Q120" s="67"/>
     </row>
-    <row r="121" spans="1:17" ht="33.75">
+    <row r="121" spans="1:17" ht="33">
       <c r="A121" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A121" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E121),
@@ -15546,7 +15512,7 @@
       <c r="P121" s="67"/>
       <c r="Q121" s="67"/>
     </row>
-    <row r="122" spans="1:17" ht="45">
+    <row r="122" spans="1:17" ht="44">
       <c r="A122" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A122" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E122),
@@ -15580,7 +15546,7 @@
       <c r="P122" s="67"/>
       <c r="Q122" s="67"/>
     </row>
-    <row r="123" spans="1:17" ht="45">
+    <row r="123" spans="1:17" ht="44">
       <c r="A123" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A123" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E123),
@@ -15614,7 +15580,7 @@
       <c r="P123" s="67"/>
       <c r="Q123" s="67"/>
     </row>
-    <row r="124" spans="1:17" ht="33.75">
+    <row r="124" spans="1:17" ht="33">
       <c r="A124" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A124" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E124),
@@ -15648,7 +15614,7 @@
       <c r="P124" s="67"/>
       <c r="Q124" s="67"/>
     </row>
-    <row r="125" spans="1:17" ht="33.75">
+    <row r="125" spans="1:17" ht="33">
       <c r="A125" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A125" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E125),
@@ -15684,7 +15650,7 @@
       <c r="P125" s="67"/>
       <c r="Q125" s="67"/>
     </row>
-    <row r="126" spans="1:17" ht="33.75">
+    <row r="126" spans="1:17" ht="33">
       <c r="A126" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A126" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E126),
@@ -15722,7 +15688,7 @@
       <c r="P126" s="67"/>
       <c r="Q126" s="67"/>
     </row>
-    <row r="127" spans="1:17" ht="33.75">
+    <row r="127" spans="1:17" ht="33">
       <c r="A127" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A127" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E127),
@@ -15762,7 +15728,7 @@
       <c r="P127" s="67"/>
       <c r="Q127" s="67"/>
     </row>
-    <row r="128" spans="1:17" ht="22.5">
+    <row r="128" spans="1:17" ht="22">
       <c r="A128" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A128" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E128),
@@ -15798,7 +15764,7 @@
       <c r="P128" s="67"/>
       <c r="Q128" s="67"/>
     </row>
-    <row r="129" spans="1:17" ht="22.5">
+    <row r="129" spans="1:17" ht="22">
       <c r="A129" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A129" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E129),
@@ -15832,7 +15798,7 @@
       <c r="P129" s="67"/>
       <c r="Q129" s="67"/>
     </row>
-    <row r="130" spans="1:17" ht="45">
+    <row r="130" spans="1:17" ht="44">
       <c r="A130" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A130" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E130),
@@ -15866,7 +15832,7 @@
       <c r="P130" s="67"/>
       <c r="Q130" s="67"/>
     </row>
-    <row r="131" spans="1:17" ht="22.5">
+    <row r="131" spans="1:17" ht="22">
       <c r="A131" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A131" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E131),
@@ -15908,7 +15874,7 @@
       <c r="P131" s="67"/>
       <c r="Q131" s="67"/>
     </row>
-    <row r="132" spans="1:17" ht="22.5">
+    <row r="132" spans="1:17" ht="22">
       <c r="A132" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A132" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E132),
@@ -15944,7 +15910,7 @@
       <c r="P132" s="67"/>
       <c r="Q132" s="67"/>
     </row>
-    <row r="133" spans="1:17" ht="22.5">
+    <row r="133" spans="1:17" ht="22">
       <c r="A133" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A133" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E133),
@@ -15978,7 +15944,7 @@
       <c r="P133" s="67"/>
       <c r="Q133" s="67"/>
     </row>
-    <row r="134" spans="1:17" ht="22.5">
+    <row r="134" spans="1:17" ht="22">
       <c r="A134" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A134" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E134),
@@ -16012,7 +15978,7 @@
       <c r="P134" s="67"/>
       <c r="Q134" s="67"/>
     </row>
-    <row r="135" spans="1:17" ht="22.5">
+    <row r="135" spans="1:17" ht="22">
       <c r="A135" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A135" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E135),
@@ -16048,7 +16014,7 @@
       <c r="P135" s="67"/>
       <c r="Q135" s="67"/>
     </row>
-    <row r="136" spans="1:17" ht="33.75">
+    <row r="136" spans="1:17" ht="33">
       <c r="A136" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A136" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E136),
@@ -16082,7 +16048,7 @@
       <c r="P136" s="67"/>
       <c r="Q136" s="67"/>
     </row>
-    <row r="137" spans="1:17" ht="33.75">
+    <row r="137" spans="1:17" ht="33">
       <c r="A137" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A137" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E137),
@@ -16120,7 +16086,7 @@
       <c r="P137" s="67"/>
       <c r="Q137" s="67"/>
     </row>
-    <row r="138" spans="1:17" ht="33.75">
+    <row r="138" spans="1:17" ht="33">
       <c r="A138" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A138" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E138),
@@ -16160,7 +16126,7 @@
       <c r="P138" s="67"/>
       <c r="Q138" s="67"/>
     </row>
-    <row r="139" spans="1:17" ht="33.75">
+    <row r="139" spans="1:17" ht="33">
       <c r="A139" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A139" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E139),
@@ -16196,7 +16162,7 @@
       <c r="P139" s="67"/>
       <c r="Q139" s="67"/>
     </row>
-    <row r="140" spans="1:17" ht="33.75">
+    <row r="140" spans="1:17" ht="33">
       <c r="A140" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A140" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E140),
@@ -16232,7 +16198,7 @@
       <c r="P140" s="67"/>
       <c r="Q140" s="67"/>
     </row>
-    <row r="141" spans="1:17" ht="33.75">
+    <row r="141" spans="1:17" ht="33">
       <c r="A141" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A141" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E141),
@@ -16268,7 +16234,7 @@
       <c r="P141" s="67"/>
       <c r="Q141" s="67"/>
     </row>
-    <row r="142" spans="1:17" ht="33.75">
+    <row r="142" spans="1:17" ht="33">
       <c r="A142" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A142" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E142),
@@ -16304,7 +16270,7 @@
       <c r="P142" s="67"/>
       <c r="Q142" s="67"/>
     </row>
-    <row r="143" spans="1:17" ht="22.5">
+    <row r="143" spans="1:17" ht="22">
       <c r="A143" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A143" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E143),
@@ -16340,7 +16306,7 @@
       <c r="P143" s="67"/>
       <c r="Q143" s="67"/>
     </row>
-    <row r="144" spans="1:17" ht="22.5">
+    <row r="144" spans="1:17" ht="22">
       <c r="A144" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A144" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E144),
@@ -16374,7 +16340,7 @@
       <c r="P144" s="67"/>
       <c r="Q144" s="67"/>
     </row>
-    <row r="145" spans="1:17" ht="22.5">
+    <row r="145" spans="1:17" ht="22">
       <c r="A145" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A145" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E145),
@@ -16408,7 +16374,7 @@
       <c r="P145" s="67"/>
       <c r="Q145" s="67"/>
     </row>
-    <row r="146" spans="1:17" ht="22.5">
+    <row r="146" spans="1:17" ht="22">
       <c r="A146" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A146" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E146),
@@ -16442,7 +16408,7 @@
       <c r="P146" s="67"/>
       <c r="Q146" s="67"/>
     </row>
-    <row r="147" spans="1:17" ht="22.5">
+    <row r="147" spans="1:17" ht="22">
       <c r="A147" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A147" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E147),
@@ -16476,7 +16442,7 @@
       <c r="P147" s="67"/>
       <c r="Q147" s="67"/>
     </row>
-    <row r="148" spans="1:17" ht="22.5">
+    <row r="148" spans="1:17" ht="22">
       <c r="A148" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A148" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E148),
@@ -16510,7 +16476,7 @@
       <c r="P148" s="67"/>
       <c r="Q148" s="67"/>
     </row>
-    <row r="149" spans="1:17" ht="22.5">
+    <row r="149" spans="1:17" ht="22">
       <c r="A149" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A149" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E149),
@@ -16548,7 +16514,7 @@
       <c r="P149" s="67"/>
       <c r="Q149" s="67"/>
     </row>
-    <row r="150" spans="1:17" ht="22.5">
+    <row r="150" spans="1:17" ht="22">
       <c r="A150" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A150" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E150),
@@ -16582,7 +16548,7 @@
       <c r="P150" s="67"/>
       <c r="Q150" s="67"/>
     </row>
-    <row r="151" spans="1:17" ht="33.75">
+    <row r="151" spans="1:17" ht="33">
       <c r="A151" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A151" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E151),
@@ -16618,7 +16584,7 @@
       <c r="P151" s="67"/>
       <c r="Q151" s="67"/>
     </row>
-    <row r="152" spans="1:17" ht="33.75">
+    <row r="152" spans="1:17" ht="33">
       <c r="A152" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A152" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E152),
@@ -16652,7 +16618,7 @@
       <c r="P152" s="67"/>
       <c r="Q152" s="67"/>
     </row>
-    <row r="153" spans="1:17" ht="33.75">
+    <row r="153" spans="1:17" ht="33">
       <c r="A153" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A153" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E153),
@@ -16686,7 +16652,7 @@
       <c r="P153" s="67"/>
       <c r="Q153" s="67"/>
     </row>
-    <row r="154" spans="1:17" ht="33.75">
+    <row r="154" spans="1:17" ht="33">
       <c r="A154" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A154" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E154),
@@ -16720,7 +16686,7 @@
       <c r="P154" s="67"/>
       <c r="Q154" s="67"/>
     </row>
-    <row r="155" spans="1:17" ht="33.75">
+    <row r="155" spans="1:17" ht="33">
       <c r="A155" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A155" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E155),
@@ -16754,7 +16720,7 @@
       <c r="P155" s="67"/>
       <c r="Q155" s="67"/>
     </row>
-    <row r="156" spans="1:17" ht="22.5">
+    <row r="156" spans="1:17" ht="22">
       <c r="A156" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A156" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E156),
@@ -16788,7 +16754,7 @@
       <c r="P156" s="67"/>
       <c r="Q156" s="67"/>
     </row>
-    <row r="157" spans="1:17" ht="22.5">
+    <row r="157" spans="1:17" ht="22">
       <c r="A157" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A157" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E157),
@@ -16822,7 +16788,7 @@
       <c r="P157" s="67"/>
       <c r="Q157" s="67"/>
     </row>
-    <row r="158" spans="1:17" ht="33.75">
+    <row r="158" spans="1:17" ht="33">
       <c r="A158" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A158" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E158),
@@ -16856,7 +16822,7 @@
       <c r="P158" s="67"/>
       <c r="Q158" s="67"/>
     </row>
-    <row r="159" spans="1:17" ht="33.75">
+    <row r="159" spans="1:17" ht="33">
       <c r="A159" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A159" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E159),
@@ -16890,7 +16856,7 @@
       <c r="P159" s="67"/>
       <c r="Q159" s="67"/>
     </row>
-    <row r="160" spans="1:17" ht="33.75">
+    <row r="160" spans="1:17" ht="33">
       <c r="A160" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A160" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E160),
@@ -16924,7 +16890,7 @@
       <c r="P160" s="67"/>
       <c r="Q160" s="67"/>
     </row>
-    <row r="161" spans="1:17" ht="33.75">
+    <row r="161" spans="1:17" ht="33">
       <c r="A161" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A161" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E161),
@@ -16958,7 +16924,7 @@
       <c r="P161" s="67"/>
       <c r="Q161" s="67"/>
     </row>
-    <row r="162" spans="1:17" ht="22.5">
+    <row r="162" spans="1:17" ht="22">
       <c r="A162" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A162" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E162),
@@ -16994,7 +16960,7 @@
       <c r="P162" s="67"/>
       <c r="Q162" s="67"/>
     </row>
-    <row r="163" spans="1:17" ht="22.5">
+    <row r="163" spans="1:17" ht="22">
       <c r="A163" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A163" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E163),
@@ -17028,7 +16994,7 @@
       <c r="P163" s="67"/>
       <c r="Q163" s="67"/>
     </row>
-    <row r="164" spans="1:17" ht="22.5">
+    <row r="164" spans="1:17" ht="22">
       <c r="A164" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A164" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E164),
@@ -17062,7 +17028,7 @@
       <c r="P164" s="67"/>
       <c r="Q164" s="67"/>
     </row>
-    <row r="165" spans="1:17" ht="22.5">
+    <row r="165" spans="1:17" ht="22">
       <c r="A165" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A165" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E165),
@@ -17096,7 +17062,7 @@
       <c r="P165" s="67"/>
       <c r="Q165" s="67"/>
     </row>
-    <row r="166" spans="1:17" ht="22.5">
+    <row r="166" spans="1:17" ht="22">
       <c r="A166" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A166" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E166),
@@ -17130,7 +17096,7 @@
       <c r="P166" s="67"/>
       <c r="Q166" s="67"/>
     </row>
-    <row r="167" spans="1:17" ht="33.75">
+    <row r="167" spans="1:17" ht="33">
       <c r="A167" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A167" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E167),
@@ -17164,7 +17130,7 @@
       <c r="P167" s="67"/>
       <c r="Q167" s="67"/>
     </row>
-    <row r="168" spans="1:17" ht="22.5">
+    <row r="168" spans="1:17" ht="22">
       <c r="A168" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A168" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E168),
@@ -17198,7 +17164,7 @@
       <c r="P168" s="67"/>
       <c r="Q168" s="67"/>
     </row>
-    <row r="169" spans="1:17" ht="22.5">
+    <row r="169" spans="1:17" ht="22">
       <c r="A169" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A169" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E169),
@@ -17234,7 +17200,7 @@
       <c r="P169" s="67"/>
       <c r="Q169" s="67"/>
     </row>
-    <row r="170" spans="1:17" ht="33.75">
+    <row r="170" spans="1:17" ht="33">
       <c r="A170" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A170" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E170),
@@ -17268,7 +17234,7 @@
       <c r="P170" s="67"/>
       <c r="Q170" s="67"/>
     </row>
-    <row r="171" spans="1:17" ht="33.75">
+    <row r="171" spans="1:17" ht="33">
       <c r="A171" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A171" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E171),
@@ -17302,7 +17268,7 @@
       <c r="P171" s="67"/>
       <c r="Q171" s="67"/>
     </row>
-    <row r="172" spans="1:17" ht="45">
+    <row r="172" spans="1:17" ht="44">
       <c r="A172" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A172" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E172),
@@ -17336,7 +17302,7 @@
       <c r="P172" s="67"/>
       <c r="Q172" s="67"/>
     </row>
-    <row r="173" spans="1:17" ht="45">
+    <row r="173" spans="1:17" ht="44">
       <c r="A173" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A173" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E173),
@@ -17370,7 +17336,7 @@
       <c r="P173" s="67"/>
       <c r="Q173" s="67"/>
     </row>
-    <row r="174" spans="1:17" ht="33.75">
+    <row r="174" spans="1:17" ht="33">
       <c r="A174" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A174" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E174),
@@ -17404,7 +17370,7 @@
       <c r="P174" s="67"/>
       <c r="Q174" s="67"/>
     </row>
-    <row r="175" spans="1:17" ht="45">
+    <row r="175" spans="1:17" ht="44">
       <c r="A175" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A175" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E175),
@@ -17438,7 +17404,7 @@
       <c r="P175" s="67"/>
       <c r="Q175" s="67"/>
     </row>
-    <row r="176" spans="1:17" ht="45">
+    <row r="176" spans="1:17" ht="44">
       <c r="A176" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A176" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E176),
@@ -17472,7 +17438,7 @@
       <c r="P176" s="67"/>
       <c r="Q176" s="67"/>
     </row>
-    <row r="177" spans="1:17" ht="22.5">
+    <row r="177" spans="1:17" ht="22">
       <c r="A177" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A177" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E177),
@@ -17506,7 +17472,7 @@
       <c r="P177" s="67"/>
       <c r="Q177" s="67"/>
     </row>
-    <row r="178" spans="1:17" ht="33.75">
+    <row r="178" spans="1:17" ht="33">
       <c r="A178" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A178" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E178),
@@ -17542,7 +17508,7 @@
       <c r="P178" s="67"/>
       <c r="Q178" s="67"/>
     </row>
-    <row r="179" spans="1:17" ht="22.5">
+    <row r="179" spans="1:17" ht="22">
       <c r="A179" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A179" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E179),
@@ -17578,7 +17544,7 @@
       <c r="P179" s="67"/>
       <c r="Q179" s="67"/>
     </row>
-    <row r="180" spans="1:17" ht="22.5">
+    <row r="180" spans="1:17" ht="22">
       <c r="A180" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A180" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E180),
@@ -17620,7 +17586,7 @@
       <c r="P180" s="48"/>
       <c r="Q180" s="48"/>
     </row>
-    <row r="181" spans="1:17" ht="22.5">
+    <row r="181" spans="1:17" ht="22">
       <c r="A181" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A181" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E181),
@@ -17658,7 +17624,7 @@
       <c r="P181" s="48"/>
       <c r="Q181" s="48"/>
     </row>
-    <row r="182" spans="1:17" ht="22.5">
+    <row r="182" spans="1:17" ht="22">
       <c r="A182" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A182" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E182),
@@ -17696,7 +17662,7 @@
       <c r="P182" s="48"/>
       <c r="Q182" s="48"/>
     </row>
-    <row r="183" spans="1:17" ht="22.5">
+    <row r="183" spans="1:17" ht="22">
       <c r="A183" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A183" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E183),
@@ -17738,7 +17704,7 @@
       <c r="P183" s="48"/>
       <c r="Q183" s="48"/>
     </row>
-    <row r="184" spans="1:17" ht="22.5">
+    <row r="184" spans="1:17" ht="22">
       <c r="A184" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A184" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E184),
@@ -17774,7 +17740,7 @@
       <c r="P184" s="48"/>
       <c r="Q184" s="48"/>
     </row>
-    <row r="185" spans="1:17" ht="22.5">
+    <row r="185" spans="1:17" ht="22">
       <c r="A185" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A185" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E185),
@@ -17808,7 +17774,7 @@
       <c r="P185" s="48"/>
       <c r="Q185" s="48"/>
     </row>
-    <row r="186" spans="1:17" ht="22.5">
+    <row r="186" spans="1:17" ht="22">
       <c r="A186" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A186" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E186),
@@ -17844,7 +17810,7 @@
       <c r="P186" s="48"/>
       <c r="Q186" s="48"/>
     </row>
-    <row r="187" spans="1:17" ht="22.5">
+    <row r="187" spans="1:17" ht="22">
       <c r="A187" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A187" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E187),
@@ -17878,7 +17844,7 @@
       <c r="P187" s="48"/>
       <c r="Q187" s="48"/>
     </row>
-    <row r="188" spans="1:17" ht="33.75">
+    <row r="188" spans="1:17" ht="33">
       <c r="A188" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A188" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E188),
@@ -17916,7 +17882,7 @@
       <c r="P188" s="48"/>
       <c r="Q188" s="48"/>
     </row>
-    <row r="189" spans="1:17" ht="22.5">
+    <row r="189" spans="1:17" ht="22">
       <c r="A189" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A189" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E189),
@@ -17956,7 +17922,7 @@
       <c r="P189" s="48"/>
       <c r="Q189" s="48"/>
     </row>
-    <row r="190" spans="1:17" ht="22.5">
+    <row r="190" spans="1:17" ht="22">
       <c r="A190" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A190" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E190),
@@ -17990,7 +17956,7 @@
       <c r="P190" s="48"/>
       <c r="Q190" s="48"/>
     </row>
-    <row r="191" spans="1:17" ht="22.5">
+    <row r="191" spans="1:17" ht="22">
       <c r="A191" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A191" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E191),
@@ -18024,7 +17990,7 @@
       <c r="P191" s="48"/>
       <c r="Q191" s="48"/>
     </row>
-    <row r="192" spans="1:17" ht="22.5">
+    <row r="192" spans="1:17" ht="22">
       <c r="A192" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A192" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E192),
@@ -18058,7 +18024,7 @@
       <c r="P192" s="48"/>
       <c r="Q192" s="48"/>
     </row>
-    <row r="193" spans="1:17" ht="22.5">
+    <row r="193" spans="1:17" ht="22">
       <c r="A193" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A193" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E193),
@@ -18092,7 +18058,7 @@
       <c r="P193" s="48"/>
       <c r="Q193" s="48"/>
     </row>
-    <row r="194" spans="1:17" ht="22.5">
+    <row r="194" spans="1:17" ht="22">
       <c r="A194" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A194" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E194),
@@ -18126,7 +18092,7 @@
       <c r="P194" s="48"/>
       <c r="Q194" s="48"/>
     </row>
-    <row r="195" spans="1:17" ht="22.5">
+    <row r="195" spans="1:17" ht="22">
       <c r="A195" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A195" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E195),
@@ -18160,7 +18126,7 @@
       <c r="P195" s="48"/>
       <c r="Q195" s="48"/>
     </row>
-    <row r="196" spans="1:17" ht="22.5">
+    <row r="196" spans="1:17" ht="22">
       <c r="A196" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A196" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E196),
@@ -18196,7 +18162,7 @@
       <c r="P196" s="48"/>
       <c r="Q196" s="48"/>
     </row>
-    <row r="197" spans="1:17" ht="22.5">
+    <row r="197" spans="1:17" ht="22">
       <c r="A197" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A197" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E197),
@@ -18234,7 +18200,7 @@
       <c r="P197" s="48"/>
       <c r="Q197" s="48"/>
     </row>
-    <row r="198" spans="1:17" ht="22.5">
+    <row r="198" spans="1:17" ht="22">
       <c r="A198" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A198" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E198),
@@ -18302,7 +18268,7 @@
       <c r="P199" s="48"/>
       <c r="Q199" s="48"/>
     </row>
-    <row r="200" spans="1:17" ht="22.5">
+    <row r="200" spans="1:17" ht="22">
       <c r="A200" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A200" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E200),
@@ -18336,7 +18302,7 @@
       <c r="P200" s="48"/>
       <c r="Q200" s="48"/>
     </row>
-    <row r="201" spans="1:17" ht="33.75">
+    <row r="201" spans="1:17" ht="33">
       <c r="A201" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A201" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E201),
@@ -18370,7 +18336,7 @@
       <c r="P201" s="48"/>
       <c r="Q201" s="48"/>
     </row>
-    <row r="202" spans="1:17" ht="33.75">
+    <row r="202" spans="1:17" ht="33">
       <c r="A202" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A202" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E202),
@@ -18404,7 +18370,7 @@
       <c r="P202" s="48"/>
       <c r="Q202" s="48"/>
     </row>
-    <row r="203" spans="1:17" ht="45">
+    <row r="203" spans="1:17" ht="44">
       <c r="A203" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A203" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E203),
@@ -18438,7 +18404,7 @@
       <c r="P203" s="48"/>
       <c r="Q203" s="48"/>
     </row>
-    <row r="204" spans="1:17" ht="33.75">
+    <row r="204" spans="1:17" ht="33">
       <c r="A204" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A204" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E204),
@@ -18472,7 +18438,7 @@
       <c r="P204" s="48"/>
       <c r="Q204" s="48"/>
     </row>
-    <row r="205" spans="1:17" ht="33.75">
+    <row r="205" spans="1:17" ht="33">
       <c r="A205" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A205" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E205),
@@ -18506,7 +18472,7 @@
       <c r="P205" s="48"/>
       <c r="Q205" s="48"/>
     </row>
-    <row r="206" spans="1:17" ht="22.5">
+    <row r="206" spans="1:17" ht="22">
       <c r="A206" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A206" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E206),
@@ -18540,7 +18506,7 @@
       <c r="P206" s="48"/>
       <c r="Q206" s="48"/>
     </row>
-    <row r="207" spans="1:17" ht="22.5">
+    <row r="207" spans="1:17" ht="22">
       <c r="A207" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A207" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E207),
@@ -18574,7 +18540,7 @@
       <c r="P207" s="48"/>
       <c r="Q207" s="48"/>
     </row>
-    <row r="208" spans="1:17" ht="33.75">
+    <row r="208" spans="1:17" ht="33">
       <c r="A208" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A208" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E208),
@@ -18608,7 +18574,7 @@
       <c r="P208" s="48"/>
       <c r="Q208" s="48"/>
     </row>
-    <row r="209" spans="1:17" ht="22.5">
+    <row r="209" spans="1:17" ht="22">
       <c r="A209" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A209" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E209),
@@ -18642,7 +18608,7 @@
       <c r="P209" s="48"/>
       <c r="Q209" s="48"/>
     </row>
-    <row r="210" spans="1:17" ht="22.5">
+    <row r="210" spans="1:17" ht="22">
       <c r="A210" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A210" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E210),
@@ -18680,7 +18646,7 @@
       <c r="P210" s="48"/>
       <c r="Q210" s="48"/>
     </row>
-    <row r="211" spans="1:17" ht="22.5">
+    <row r="211" spans="1:17" ht="22">
       <c r="A211" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A211" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E211),
@@ -18714,7 +18680,7 @@
       <c r="P211" s="48"/>
       <c r="Q211" s="48"/>
     </row>
-    <row r="212" spans="1:17" ht="22.5">
+    <row r="212" spans="1:17" ht="22">
       <c r="A212" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A212" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E212),
@@ -18782,7 +18748,7 @@
       <c r="P213" s="48"/>
       <c r="Q213" s="48"/>
     </row>
-    <row r="214" spans="1:17" ht="22.5">
+    <row r="214" spans="1:17" ht="22">
       <c r="A214" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A214" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E214),
@@ -18816,7 +18782,7 @@
       <c r="P214" s="48"/>
       <c r="Q214" s="48"/>
     </row>
-    <row r="215" spans="1:17" ht="45">
+    <row r="215" spans="1:17" ht="44">
       <c r="A215" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A215" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E215),
@@ -18850,7 +18816,7 @@
       <c r="P215" s="48"/>
       <c r="Q215" s="48"/>
     </row>
-    <row r="216" spans="1:17" ht="33.75">
+    <row r="216" spans="1:17" ht="33">
       <c r="A216" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A216" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E216),
@@ -18884,7 +18850,7 @@
       <c r="P216" s="48"/>
       <c r="Q216" s="48"/>
     </row>
-    <row r="217" spans="1:17" ht="33.75">
+    <row r="217" spans="1:17" ht="33">
       <c r="A217" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A217" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E217),
@@ -18918,7 +18884,7 @@
       <c r="P217" s="48"/>
       <c r="Q217" s="48"/>
     </row>
-    <row r="218" spans="1:17" ht="45">
+    <row r="218" spans="1:17" ht="44">
       <c r="A218" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A218" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E218),
@@ -18952,7 +18918,7 @@
       <c r="P218" s="48"/>
       <c r="Q218" s="48"/>
     </row>
-    <row r="219" spans="1:17" ht="33.75">
+    <row r="219" spans="1:17" ht="33">
       <c r="A219" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A219" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E219),
@@ -18986,7 +18952,7 @@
       <c r="P219" s="48"/>
       <c r="Q219" s="48"/>
     </row>
-    <row r="220" spans="1:17" ht="33.75">
+    <row r="220" spans="1:17" ht="33">
       <c r="A220" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A220" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E220),
@@ -19020,7 +18986,7 @@
       <c r="P220" s="48"/>
       <c r="Q220" s="48"/>
     </row>
-    <row r="221" spans="1:17" ht="22.5">
+    <row r="221" spans="1:17" ht="22">
       <c r="A221" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A221" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E221),
@@ -19054,7 +19020,7 @@
       <c r="P221" s="48"/>
       <c r="Q221" s="48"/>
     </row>
-    <row r="222" spans="1:17" ht="22.5">
+    <row r="222" spans="1:17" ht="22">
       <c r="A222" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A222" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E222),
@@ -19088,7 +19054,7 @@
       <c r="P222" s="48"/>
       <c r="Q222" s="48"/>
     </row>
-    <row r="223" spans="1:17" ht="33.75">
+    <row r="223" spans="1:17" ht="33">
       <c r="A223" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A223" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E223),
@@ -19122,7 +19088,7 @@
       <c r="P223" s="48"/>
       <c r="Q223" s="48"/>
     </row>
-    <row r="224" spans="1:17" ht="22.5">
+    <row r="224" spans="1:17" ht="22">
       <c r="A224" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A224" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E224),
@@ -19156,7 +19122,7 @@
       <c r="P224" s="48"/>
       <c r="Q224" s="48"/>
     </row>
-    <row r="225" spans="1:17" ht="45">
+    <row r="225" spans="1:17" ht="44">
       <c r="A225" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A225" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E225),
@@ -19192,7 +19158,7 @@
       <c r="P225" s="48"/>
       <c r="Q225" s="48"/>
     </row>
-    <row r="226" spans="1:17" ht="45">
+    <row r="226" spans="1:17" ht="44">
       <c r="A226" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A226" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E226),
@@ -19226,7 +19192,7 @@
       <c r="P226" s="48"/>
       <c r="Q226" s="48"/>
     </row>
-    <row r="227" spans="1:17" ht="33.75">
+    <row r="227" spans="1:17" ht="33">
       <c r="A227" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A227" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E227),
@@ -19260,7 +19226,7 @@
       <c r="P227" s="48"/>
       <c r="Q227" s="48"/>
     </row>
-    <row r="228" spans="1:17" ht="33.75">
+    <row r="228" spans="1:17" ht="33">
       <c r="A228" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A228" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E228),
@@ -19296,7 +19262,7 @@
       <c r="P228" s="48"/>
       <c r="Q228" s="48"/>
     </row>
-    <row r="229" spans="1:17" ht="22.5">
+    <row r="229" spans="1:17" ht="22">
       <c r="A229" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A229" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E229),
@@ -19332,7 +19298,7 @@
       <c r="P229" s="48"/>
       <c r="Q229" s="48"/>
     </row>
-    <row r="230" spans="1:17" ht="22.5">
+    <row r="230" spans="1:17" ht="22">
       <c r="A230" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A230" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E230),
@@ -19374,7 +19340,7 @@
       <c r="P230" s="48"/>
       <c r="Q230" s="48"/>
     </row>
-    <row r="231" spans="1:17" ht="22.5">
+    <row r="231" spans="1:17" ht="22">
       <c r="A231" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A231" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E231),
@@ -19410,7 +19376,7 @@
       <c r="P231" s="48"/>
       <c r="Q231" s="48"/>
     </row>
-    <row r="232" spans="1:17" ht="22.5">
+    <row r="232" spans="1:17" ht="22">
       <c r="A232" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A232" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E232),
@@ -19444,7 +19410,7 @@
       <c r="P232" s="48"/>
       <c r="Q232" s="48"/>
     </row>
-    <row r="233" spans="1:17" ht="22.5">
+    <row r="233" spans="1:17" ht="22">
       <c r="A233" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A233" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E233),
@@ -19478,7 +19444,7 @@
       <c r="P233" s="48"/>
       <c r="Q233" s="48"/>
     </row>
-    <row r="234" spans="1:17" ht="22.5">
+    <row r="234" spans="1:17" ht="22">
       <c r="A234" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A234" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E234),
@@ -19512,7 +19478,7 @@
       <c r="P234" s="48"/>
       <c r="Q234" s="48"/>
     </row>
-    <row r="235" spans="1:17" ht="33.75">
+    <row r="235" spans="1:17" ht="33">
       <c r="A235" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A235" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E235),
@@ -19546,7 +19512,7 @@
       <c r="P235" s="48"/>
       <c r="Q235" s="48"/>
     </row>
-    <row r="236" spans="1:17" ht="33.75">
+    <row r="236" spans="1:17" ht="33">
       <c r="A236" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A236" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E236),
@@ -19582,7 +19548,7 @@
       <c r="P236" s="48"/>
       <c r="Q236" s="48"/>
     </row>
-    <row r="237" spans="1:17" ht="33.75">
+    <row r="237" spans="1:17" ht="33">
       <c r="A237" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A237" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E237),
@@ -19616,7 +19582,7 @@
       <c r="P237" s="48"/>
       <c r="Q237" s="48"/>
     </row>
-    <row r="238" spans="1:17" ht="45">
+    <row r="238" spans="1:17" ht="44">
       <c r="A238" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A238" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E238),
@@ -19650,7 +19616,7 @@
       <c r="P238" s="48"/>
       <c r="Q238" s="48"/>
     </row>
-    <row r="239" spans="1:17" ht="45">
+    <row r="239" spans="1:17" ht="44">
       <c r="A239" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A239" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E239),
@@ -19684,7 +19650,7 @@
       <c r="P239" s="48"/>
       <c r="Q239" s="48"/>
     </row>
-    <row r="240" spans="1:17" ht="33.75">
+    <row r="240" spans="1:17" ht="33">
       <c r="A240" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A240" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E240),
@@ -19718,7 +19684,7 @@
       <c r="P240" s="48"/>
       <c r="Q240" s="48"/>
     </row>
-    <row r="241" spans="1:17" ht="33.75">
+    <row r="241" spans="1:17" ht="33">
       <c r="A241" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A241" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E241),
@@ -19754,7 +19720,7 @@
       <c r="P241" s="48"/>
       <c r="Q241" s="48"/>
     </row>
-    <row r="242" spans="1:17" ht="33.75">
+    <row r="242" spans="1:17" ht="33">
       <c r="A242" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A242" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E242),
@@ -19794,7 +19760,7 @@
       <c r="P242" s="48"/>
       <c r="Q242" s="48"/>
     </row>
-    <row r="243" spans="1:17" ht="22.5">
+    <row r="243" spans="1:17" ht="22">
       <c r="A243" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A243" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E243),
@@ -19836,7 +19802,7 @@
       <c r="P243" s="48"/>
       <c r="Q243" s="48"/>
     </row>
-    <row r="244" spans="1:17" ht="22.5">
+    <row r="244" spans="1:17" ht="22">
       <c r="A244" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A244" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E244),
@@ -19870,7 +19836,7 @@
       <c r="P244" s="48"/>
       <c r="Q244" s="48"/>
     </row>
-    <row r="245" spans="1:17" ht="33.75">
+    <row r="245" spans="1:17" ht="33">
       <c r="A245" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A245" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E245),
@@ -19908,7 +19874,7 @@
       <c r="P245" s="48"/>
       <c r="Q245" s="48"/>
     </row>
-    <row r="246" spans="1:17" ht="33.75">
+    <row r="246" spans="1:17" ht="33">
       <c r="A246" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A246" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E246),
@@ -19942,7 +19908,7 @@
       <c r="P246" s="48"/>
       <c r="Q246" s="48"/>
     </row>
-    <row r="247" spans="1:17" ht="33.75">
+    <row r="247" spans="1:17" ht="33">
       <c r="A247" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A247" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E247),
@@ -19982,7 +19948,7 @@
       <c r="P247" s="48"/>
       <c r="Q247" s="48"/>
     </row>
-    <row r="248" spans="1:17" ht="33.75">
+    <row r="248" spans="1:17" ht="33">
       <c r="A248" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A248" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E248),
@@ -20018,7 +19984,7 @@
       <c r="P248" s="48"/>
       <c r="Q248" s="48"/>
     </row>
-    <row r="249" spans="1:17" ht="33.75">
+    <row r="249" spans="1:17" ht="33">
       <c r="A249" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A249" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E249),
@@ -20054,7 +20020,7 @@
       <c r="P249" s="48"/>
       <c r="Q249" s="48"/>
     </row>
-    <row r="250" spans="1:17" ht="33.75">
+    <row r="250" spans="1:17" ht="33">
       <c r="A250" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A250" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E250),
@@ -20090,7 +20056,7 @@
       <c r="P250" s="48"/>
       <c r="Q250" s="48"/>
     </row>
-    <row r="251" spans="1:17" ht="22.5">
+    <row r="251" spans="1:17" ht="22">
       <c r="A251" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A251" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E251),
@@ -20128,7 +20094,7 @@
       <c r="P251" s="48"/>
       <c r="Q251" s="48"/>
     </row>
-    <row r="252" spans="1:17" ht="22.5">
+    <row r="252" spans="1:17" ht="22">
       <c r="A252" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A252" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E252),
@@ -20162,7 +20128,7 @@
       <c r="P252" s="48"/>
       <c r="Q252" s="48"/>
     </row>
-    <row r="253" spans="1:17" ht="33.75">
+    <row r="253" spans="1:17" ht="33">
       <c r="A253" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A253" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E253),
@@ -20198,7 +20164,7 @@
       <c r="P253" s="48"/>
       <c r="Q253" s="48"/>
     </row>
-    <row r="254" spans="1:17" ht="33.75">
+    <row r="254" spans="1:17" ht="33">
       <c r="A254" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A254" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E254),
@@ -20232,7 +20198,7 @@
       <c r="P254" s="48"/>
       <c r="Q254" s="48"/>
     </row>
-    <row r="255" spans="1:17" ht="33.75">
+    <row r="255" spans="1:17" ht="33">
       <c r="A255" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A255" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E255),
@@ -20266,7 +20232,7 @@
       <c r="P255" s="48"/>
       <c r="Q255" s="48"/>
     </row>
-    <row r="256" spans="1:17" ht="33.75">
+    <row r="256" spans="1:17" ht="33">
       <c r="A256" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A256" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E256),
@@ -20300,7 +20266,7 @@
       <c r="P256" s="48"/>
       <c r="Q256" s="48"/>
     </row>
-    <row r="257" spans="1:17" ht="33.75">
+    <row r="257" spans="1:17" ht="33">
       <c r="A257" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A257" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E257),
@@ -20334,7 +20300,7 @@
       <c r="P257" s="48"/>
       <c r="Q257" s="48"/>
     </row>
-    <row r="258" spans="1:17" ht="22.5">
+    <row r="258" spans="1:17" ht="22">
       <c r="A258" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A258" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E258),
@@ -20368,7 +20334,7 @@
       <c r="P258" s="48"/>
       <c r="Q258" s="48"/>
     </row>
-    <row r="259" spans="1:17" ht="22.5">
+    <row r="259" spans="1:17" ht="22">
       <c r="A259" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A259" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E259),
@@ -20402,7 +20368,7 @@
       <c r="P259" s="48"/>
       <c r="Q259" s="48"/>
     </row>
-    <row r="260" spans="1:17" ht="33.75">
+    <row r="260" spans="1:17" ht="33">
       <c r="A260" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A260" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E260),
@@ -20436,7 +20402,7 @@
       <c r="P260" s="48"/>
       <c r="Q260" s="48"/>
     </row>
-    <row r="261" spans="1:17" ht="33.75">
+    <row r="261" spans="1:17" ht="33">
       <c r="A261" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A261" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E261),
@@ -20470,7 +20436,7 @@
       <c r="P261" s="48"/>
       <c r="Q261" s="48"/>
     </row>
-    <row r="262" spans="1:17" ht="33.75">
+    <row r="262" spans="1:17" ht="33">
       <c r="A262" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A262" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E262),
@@ -20504,7 +20470,7 @@
       <c r="P262" s="48"/>
       <c r="Q262" s="48"/>
     </row>
-    <row r="263" spans="1:17" ht="33.75">
+    <row r="263" spans="1:17" ht="33">
       <c r="A263" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A263" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E263),
@@ -20608,7 +20574,7 @@
       <c r="P265" s="48"/>
       <c r="Q265" s="48"/>
     </row>
-    <row r="266" spans="1:17" ht="22.5">
+    <row r="266" spans="1:17" ht="22">
       <c r="A266" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A266" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E266),
@@ -20642,7 +20608,7 @@
       <c r="P266" s="48"/>
       <c r="Q266" s="48"/>
     </row>
-    <row r="267" spans="1:17" ht="22.5">
+    <row r="267" spans="1:17" ht="22">
       <c r="A267" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A267" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E267),
@@ -20676,7 +20642,7 @@
       <c r="P267" s="48"/>
       <c r="Q267" s="48"/>
     </row>
-    <row r="268" spans="1:17" ht="22.5">
+    <row r="268" spans="1:17" ht="22">
       <c r="A268" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A268" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E268),
@@ -20710,7 +20676,7 @@
       <c r="P268" s="48"/>
       <c r="Q268" s="48"/>
     </row>
-    <row r="269" spans="1:17" ht="33.75">
+    <row r="269" spans="1:17" ht="33">
       <c r="A269" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A269" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E269),
@@ -20744,7 +20710,7 @@
       <c r="P269" s="48"/>
       <c r="Q269" s="48"/>
     </row>
-    <row r="270" spans="1:17" ht="22.5">
+    <row r="270" spans="1:17" ht="22">
       <c r="A270" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A270" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E270),
@@ -20780,7 +20746,7 @@
       <c r="P270" s="48"/>
       <c r="Q270" s="48"/>
     </row>
-    <row r="271" spans="1:17" ht="33.75">
+    <row r="271" spans="1:17" ht="33">
       <c r="A271" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A271" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E271),
@@ -20814,7 +20780,7 @@
       <c r="P271" s="48"/>
       <c r="Q271" s="48"/>
     </row>
-    <row r="272" spans="1:17" ht="45">
+    <row r="272" spans="1:17" ht="44">
       <c r="A272" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A272" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E272),
@@ -20848,7 +20814,7 @@
       <c r="P272" s="48"/>
       <c r="Q272" s="48"/>
     </row>
-    <row r="273" spans="1:17" ht="45">
+    <row r="273" spans="1:17" ht="44">
       <c r="A273" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A273" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E273),
@@ -20882,7 +20848,7 @@
       <c r="P273" s="48"/>
       <c r="Q273" s="48"/>
     </row>
-    <row r="274" spans="1:17" ht="22.5">
+    <row r="274" spans="1:17" ht="22">
       <c r="A274" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A274" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E274),
@@ -20916,7 +20882,7 @@
       <c r="P274" s="48"/>
       <c r="Q274" s="48"/>
     </row>
-    <row r="275" spans="1:17" ht="45">
+    <row r="275" spans="1:17" ht="44">
       <c r="A275" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A275" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E275),
@@ -20950,7 +20916,7 @@
       <c r="P275" s="48"/>
       <c r="Q275" s="48"/>
     </row>
-    <row r="276" spans="1:17" ht="45">
+    <row r="276" spans="1:17" ht="44">
       <c r="A276" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A276" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E276),
@@ -20984,7 +20950,7 @@
       <c r="P276" s="48"/>
       <c r="Q276" s="48"/>
     </row>
-    <row r="277" spans="1:17" ht="22.5">
+    <row r="277" spans="1:17" ht="22">
       <c r="A277" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A277" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E277),
@@ -21018,7 +20984,7 @@
       <c r="P277" s="48"/>
       <c r="Q277" s="48"/>
     </row>
-    <row r="278" spans="1:17" ht="22.5">
+    <row r="278" spans="1:17" ht="22">
       <c r="A278" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A278" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E278),
@@ -21054,7 +21020,7 @@
       <c r="P278" s="48"/>
       <c r="Q278" s="48"/>
     </row>
-    <row r="279" spans="1:17" ht="22.5">
+    <row r="279" spans="1:17" ht="22">
       <c r="A279" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A279" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E279),
@@ -21096,7 +21062,7 @@
       <c r="P279" s="67"/>
       <c r="Q279" s="67"/>
     </row>
-    <row r="280" spans="1:17" ht="22.5">
+    <row r="280" spans="1:17" ht="22">
       <c r="A280" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A280" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E280),
@@ -21130,7 +21096,7 @@
       <c r="P280" s="67"/>
       <c r="Q280" s="67"/>
     </row>
-    <row r="281" spans="1:17" ht="22.5">
+    <row r="281" spans="1:17" ht="22">
       <c r="A281" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A281" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E281),
@@ -21164,7 +21130,7 @@
       <c r="P281" s="67"/>
       <c r="Q281" s="67"/>
     </row>
-    <row r="282" spans="1:17" ht="22.5">
+    <row r="282" spans="1:17" ht="22">
       <c r="A282" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A282" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E282),
@@ -21198,7 +21164,7 @@
       <c r="P282" s="67"/>
       <c r="Q282" s="67"/>
     </row>
-    <row r="283" spans="1:17" ht="22.5">
+    <row r="283" spans="1:17" ht="22">
       <c r="A283" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A283" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E283),
@@ -21238,7 +21204,7 @@
       <c r="P283" s="67"/>
       <c r="Q283" s="67"/>
     </row>
-    <row r="284" spans="1:17" ht="22.5">
+    <row r="284" spans="1:17" ht="22">
       <c r="A284" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A284" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E284),
@@ -21274,7 +21240,7 @@
       <c r="P284" s="67"/>
       <c r="Q284" s="67"/>
     </row>
-    <row r="285" spans="1:17" ht="22.5">
+    <row r="285" spans="1:17" ht="22">
       <c r="A285" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A285" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E285),
@@ -21310,7 +21276,7 @@
       <c r="P285" s="67"/>
       <c r="Q285" s="67"/>
     </row>
-    <row r="286" spans="1:17" ht="22.5">
+    <row r="286" spans="1:17" ht="22">
       <c r="A286" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A286" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E286),
@@ -21346,7 +21312,7 @@
       <c r="P286" s="67"/>
       <c r="Q286" s="67"/>
     </row>
-    <row r="287" spans="1:17" ht="22.5">
+    <row r="287" spans="1:17" ht="22">
       <c r="A287" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A287" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E287),
@@ -21384,7 +21350,7 @@
       <c r="P287" s="67"/>
       <c r="Q287" s="67"/>
     </row>
-    <row r="288" spans="1:17" ht="22.5">
+    <row r="288" spans="1:17" ht="22">
       <c r="A288" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A288" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E288),
@@ -21418,7 +21384,7 @@
       <c r="P288" s="67"/>
       <c r="Q288" s="67"/>
     </row>
-    <row r="289" spans="1:17" ht="33.75">
+    <row r="289" spans="1:17" ht="33">
       <c r="A289" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A289" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E289),
@@ -21452,7 +21418,7 @@
       <c r="P289" s="67"/>
       <c r="Q289" s="67"/>
     </row>
-    <row r="290" spans="1:17" ht="33.75">
+    <row r="290" spans="1:17" ht="33">
       <c r="A290" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A290" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E290),
@@ -21486,7 +21452,7 @@
       <c r="P290" s="67"/>
       <c r="Q290" s="67"/>
     </row>
-    <row r="291" spans="1:17" ht="33.75">
+    <row r="291" spans="1:17" ht="33">
       <c r="A291" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A291" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E291),
@@ -21520,7 +21486,7 @@
       <c r="P291" s="67"/>
       <c r="Q291" s="67"/>
     </row>
-    <row r="292" spans="1:17" ht="33.75">
+    <row r="292" spans="1:17" ht="33">
       <c r="A292" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A292" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E292),
@@ -21554,7 +21520,7 @@
       <c r="P292" s="67"/>
       <c r="Q292" s="67"/>
     </row>
-    <row r="293" spans="1:17" ht="33.75">
+    <row r="293" spans="1:17" ht="33">
       <c r="A293" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A293" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E293),
@@ -21588,7 +21554,7 @@
       <c r="P293" s="67"/>
       <c r="Q293" s="67"/>
     </row>
-    <row r="294" spans="1:17" ht="22.5">
+    <row r="294" spans="1:17" ht="22">
       <c r="A294" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A294" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E294),
@@ -21622,7 +21588,7 @@
       <c r="P294" s="67"/>
       <c r="Q294" s="67"/>
     </row>
-    <row r="295" spans="1:17" ht="22.5">
+    <row r="295" spans="1:17" ht="22">
       <c r="A295" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A295" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E295),
@@ -21670,7 +21636,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"&amp;9- &amp;P -</oddFooter>
   </headerFooter>
@@ -21691,17 +21657,17 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="3" width="8.625" style="28" customWidth="1"/>
-    <col min="4" max="5" width="8.625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="37.625" style="29" customWidth="1"/>
-    <col min="7" max="7" width="40.625" style="93" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="13.625" style="28" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.625" style="28" customWidth="1"/>
-    <col min="10" max="11" width="23.625" style="28" customWidth="1"/>
-    <col min="12" max="12" width="15.625" style="28" customWidth="1"/>
-    <col min="13" max="18" width="8.625" style="28" customWidth="1"/>
+    <col min="1" max="3" width="8.58203125" style="28" customWidth="1"/>
+    <col min="4" max="5" width="8.58203125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="37.58203125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="40.58203125" style="93" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="13.58203125" style="28" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.58203125" style="28" customWidth="1"/>
+    <col min="10" max="11" width="23.58203125" style="28" customWidth="1"/>
+    <col min="12" max="12" width="15.58203125" style="28" customWidth="1"/>
+    <col min="13" max="18" width="8.58203125" style="28" customWidth="1"/>
     <col min="19" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
@@ -21747,7 +21713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="12" thickBot="1">
+    <row r="8" spans="1:18" ht="11.5" thickBot="1">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -21767,7 +21733,7 @@
       <c r="Q8" s="30"/>
       <c r="R8" s="30"/>
     </row>
-    <row r="9" spans="1:18" ht="12" thickTop="1"/>
+    <row r="9" spans="1:18" ht="11.5" thickTop="1"/>
     <row r="10" spans="1:18" s="32" customFormat="1">
       <c r="A10" s="33" t="s">
         <v>30</v>
@@ -21824,7 +21790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="22.5">
+    <row r="11" spans="1:18" ht="22">
       <c r="A11" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A11" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E11),
@@ -21867,7 +21833,7 @@
       <c r="Q11" s="100"/>
       <c r="R11" s="66"/>
     </row>
-    <row r="12" spans="1:18" ht="22.5">
+    <row r="12" spans="1:18" ht="22">
       <c r="A12" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A12" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E12),
@@ -21904,7 +21870,7 @@
       <c r="Q12" s="100"/>
       <c r="R12" s="66"/>
     </row>
-    <row r="13" spans="1:18" ht="33.75">
+    <row r="13" spans="1:18" ht="33">
       <c r="A13" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A13" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E13),
@@ -21943,7 +21909,7 @@
       <c r="Q13" s="100"/>
       <c r="R13" s="66"/>
     </row>
-    <row r="14" spans="1:18" ht="22.5">
+    <row r="14" spans="1:18" ht="22">
       <c r="A14" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A14" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E14),
@@ -21978,7 +21944,7 @@
       <c r="Q14" s="100"/>
       <c r="R14" s="66"/>
     </row>
-    <row r="15" spans="1:18" ht="22.5">
+    <row r="15" spans="1:18" ht="22">
       <c r="A15" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A15" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E15),
@@ -22013,7 +21979,7 @@
       <c r="Q15" s="100"/>
       <c r="R15" s="66"/>
     </row>
-    <row r="16" spans="1:18" ht="22.5">
+    <row r="16" spans="1:18" ht="22">
       <c r="A16" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A16" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E16),
@@ -22048,7 +22014,7 @@
       <c r="Q16" s="100"/>
       <c r="R16" s="66"/>
     </row>
-    <row r="17" spans="1:18" ht="33.75">
+    <row r="17" spans="1:18" ht="33">
       <c r="A17" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A17" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E17),
@@ -22083,7 +22049,7 @@
       <c r="Q17" s="100"/>
       <c r="R17" s="66"/>
     </row>
-    <row r="18" spans="1:18" ht="22.5">
+    <row r="18" spans="1:18" ht="22">
       <c r="A18" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A18" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E18),
@@ -22122,7 +22088,7 @@
       <c r="Q18" s="100"/>
       <c r="R18" s="66"/>
     </row>
-    <row r="19" spans="1:18" ht="22.5">
+    <row r="19" spans="1:18" ht="22">
       <c r="A19" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A19" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E19),
@@ -22157,7 +22123,7 @@
       <c r="Q19" s="100"/>
       <c r="R19" s="66"/>
     </row>
-    <row r="20" spans="1:18" ht="22.5">
+    <row r="20" spans="1:18" ht="22">
       <c r="A20" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A20" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E20),
@@ -22192,7 +22158,7 @@
       <c r="Q20" s="100"/>
       <c r="R20" s="66"/>
     </row>
-    <row r="21" spans="1:18" ht="22.5">
+    <row r="21" spans="1:18" ht="22">
       <c r="A21" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A21" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E21),
@@ -22229,7 +22195,7 @@
       <c r="Q21" s="100"/>
       <c r="R21" s="66"/>
     </row>
-    <row r="22" spans="1:18" ht="22.5">
+    <row r="22" spans="1:18" ht="22">
       <c r="A22" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A22" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E22),
@@ -22264,7 +22230,7 @@
       <c r="Q22" s="100"/>
       <c r="R22" s="66"/>
     </row>
-    <row r="23" spans="1:18" ht="22.5">
+    <row r="23" spans="1:18" ht="22">
       <c r="A23" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A23" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E23),
@@ -22299,7 +22265,7 @@
       <c r="Q23" s="100"/>
       <c r="R23" s="66"/>
     </row>
-    <row r="24" spans="1:18" ht="22.5">
+    <row r="24" spans="1:18" ht="22">
       <c r="A24" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A24" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E24),
@@ -22334,7 +22300,7 @@
       <c r="Q24" s="100"/>
       <c r="R24" s="66"/>
     </row>
-    <row r="25" spans="1:18" ht="22.5">
+    <row r="25" spans="1:18" ht="22">
       <c r="A25" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A25" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E25),
@@ -22373,7 +22339,7 @@
       <c r="Q25" s="100"/>
       <c r="R25" s="66"/>
     </row>
-    <row r="26" spans="1:18" ht="22.5">
+    <row r="26" spans="1:18" ht="22">
       <c r="A26" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A26" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E26),
@@ -22408,7 +22374,7 @@
       <c r="Q26" s="100"/>
       <c r="R26" s="66"/>
     </row>
-    <row r="27" spans="1:18" ht="33.75">
+    <row r="27" spans="1:18" ht="33">
       <c r="A27" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A27" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E27),
@@ -22447,7 +22413,7 @@
       <c r="Q27" s="100"/>
       <c r="R27" s="66"/>
     </row>
-    <row r="28" spans="1:18" ht="22.5">
+    <row r="28" spans="1:18" ht="22">
       <c r="A28" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A28" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E28),
@@ -22482,7 +22448,7 @@
       <c r="Q28" s="100"/>
       <c r="R28" s="66"/>
     </row>
-    <row r="29" spans="1:18" ht="22.5">
+    <row r="29" spans="1:18" ht="22">
       <c r="A29" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A29" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E29),
@@ -22519,7 +22485,7 @@
       <c r="Q29" s="100"/>
       <c r="R29" s="66"/>
     </row>
-    <row r="30" spans="1:18" ht="22.5">
+    <row r="30" spans="1:18" ht="22">
       <c r="A30" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A30" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E30),
@@ -22554,7 +22520,7 @@
       <c r="Q30" s="100"/>
       <c r="R30" s="66"/>
     </row>
-    <row r="31" spans="1:18" ht="22.5">
+    <row r="31" spans="1:18" ht="22">
       <c r="A31" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A31" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E31),
@@ -22589,7 +22555,7 @@
       <c r="Q31" s="100"/>
       <c r="R31" s="66"/>
     </row>
-    <row r="32" spans="1:18" ht="22.5">
+    <row r="32" spans="1:18" ht="22">
       <c r="A32" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A32" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E32),
@@ -22624,7 +22590,7 @@
       <c r="Q32" s="100"/>
       <c r="R32" s="66"/>
     </row>
-    <row r="33" spans="1:18" ht="22.5">
+    <row r="33" spans="1:18" ht="22">
       <c r="A33" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A33" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E33),
@@ -22661,7 +22627,7 @@
       <c r="Q33" s="100"/>
       <c r="R33" s="66"/>
     </row>
-    <row r="34" spans="1:18" ht="22.5">
+    <row r="34" spans="1:18" ht="22">
       <c r="A34" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A34" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E34),
@@ -22696,7 +22662,7 @@
       <c r="Q34" s="100"/>
       <c r="R34" s="66"/>
     </row>
-    <row r="35" spans="1:18" ht="45">
+    <row r="35" spans="1:18" ht="44">
       <c r="A35" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A35" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E35),
@@ -22733,7 +22699,7 @@
       <c r="Q35" s="100"/>
       <c r="R35" s="66"/>
     </row>
-    <row r="36" spans="1:18" ht="33.75">
+    <row r="36" spans="1:18" ht="33">
       <c r="A36" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A36" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E36),
@@ -22774,7 +22740,7 @@
       <c r="Q36" s="100"/>
       <c r="R36" s="66"/>
     </row>
-    <row r="37" spans="1:18" ht="33.75">
+    <row r="37" spans="1:18" ht="33">
       <c r="A37" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A37" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E37),
@@ -22809,7 +22775,7 @@
       <c r="Q37" s="100"/>
       <c r="R37" s="66"/>
     </row>
-    <row r="38" spans="1:18" ht="33.75">
+    <row r="38" spans="1:18" ht="33">
       <c r="A38" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A38" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E38),
@@ -22844,7 +22810,7 @@
       <c r="Q38" s="100"/>
       <c r="R38" s="66"/>
     </row>
-    <row r="39" spans="1:18" ht="33.75">
+    <row r="39" spans="1:18" ht="33">
       <c r="A39" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A39" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E39),
@@ -22879,7 +22845,7 @@
       <c r="Q39" s="100"/>
       <c r="R39" s="66"/>
     </row>
-    <row r="40" spans="1:18" ht="33.75">
+    <row r="40" spans="1:18" ht="33">
       <c r="A40" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A40" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E40),
@@ -22918,7 +22884,7 @@
       <c r="Q40" s="100"/>
       <c r="R40" s="66"/>
     </row>
-    <row r="41" spans="1:18" ht="22.5">
+    <row r="41" spans="1:18" ht="22">
       <c r="A41" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A41" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E41),
@@ -22953,7 +22919,7 @@
       <c r="Q41" s="100"/>
       <c r="R41" s="66"/>
     </row>
-    <row r="42" spans="1:18" ht="67.5">
+    <row r="42" spans="1:18" ht="66">
       <c r="A42" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A42" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E42),
@@ -23008,7 +22974,7 @@
       <c r="Q42" s="155"/>
       <c r="R42" s="144"/>
     </row>
-    <row r="43" spans="1:18" ht="45">
+    <row r="43" spans="1:18" ht="44">
       <c r="A43" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A43" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E43),
@@ -23057,7 +23023,7 @@
       <c r="Q43" s="155"/>
       <c r="R43" s="144"/>
     </row>
-    <row r="44" spans="1:18" ht="67.5">
+    <row r="44" spans="1:18" ht="66">
       <c r="A44" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A44" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E44),
@@ -23110,7 +23076,7 @@
       <c r="Q44" s="155"/>
       <c r="R44" s="144"/>
     </row>
-    <row r="45" spans="1:18" ht="45">
+    <row r="45" spans="1:18" ht="44">
       <c r="A45" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A45" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E45),
@@ -23159,7 +23125,7 @@
       <c r="Q45" s="155"/>
       <c r="R45" s="144"/>
     </row>
-    <row r="46" spans="1:18" ht="45">
+    <row r="46" spans="1:18" ht="44">
       <c r="A46" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A46" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E46),
@@ -23216,7 +23182,7 @@
       <c r="Q46" s="108"/>
       <c r="R46" s="62"/>
     </row>
-    <row r="47" spans="1:18" ht="67.5">
+    <row r="47" spans="1:18" ht="66">
       <c r="A47" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A47" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E47),
@@ -23265,7 +23231,7 @@
       <c r="Q47" s="108"/>
       <c r="R47" s="62"/>
     </row>
-    <row r="48" spans="1:18" ht="33.75">
+    <row r="48" spans="1:18" ht="33">
       <c r="A48" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A48" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E48),
@@ -23300,7 +23266,7 @@
       <c r="Q48" s="100"/>
       <c r="R48" s="66"/>
     </row>
-    <row r="49" spans="1:18" ht="22.5">
+    <row r="49" spans="1:18" ht="22">
       <c r="A49" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A49" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E49),
@@ -23337,7 +23303,7 @@
       <c r="Q49" s="100"/>
       <c r="R49" s="66"/>
     </row>
-    <row r="50" spans="1:18" ht="22.5">
+    <row r="50" spans="1:18" ht="22">
       <c r="A50" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A50" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E50),
@@ -23372,7 +23338,7 @@
       <c r="Q50" s="100"/>
       <c r="R50" s="66"/>
     </row>
-    <row r="51" spans="1:18" ht="33.75">
+    <row r="51" spans="1:18" ht="33">
       <c r="A51" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A51" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E51),
@@ -23407,7 +23373,7 @@
       <c r="Q51" s="100"/>
       <c r="R51" s="66"/>
     </row>
-    <row r="52" spans="1:18" ht="45">
+    <row r="52" spans="1:18" ht="44">
       <c r="A52" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A52" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E52),
@@ -23458,7 +23424,7 @@
       <c r="Q52" s="108"/>
       <c r="R52" s="62"/>
     </row>
-    <row r="53" spans="1:18" ht="67.5">
+    <row r="53" spans="1:18" ht="66">
       <c r="A53" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A53" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E53),
@@ -23507,7 +23473,7 @@
       <c r="Q53" s="108"/>
       <c r="R53" s="62"/>
     </row>
-    <row r="54" spans="1:18" ht="22.5">
+    <row r="54" spans="1:18" ht="22">
       <c r="A54" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A54" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E54),
@@ -23544,7 +23510,7 @@
       <c r="Q54" s="100"/>
       <c r="R54" s="66"/>
     </row>
-    <row r="55" spans="1:18" ht="22.5">
+    <row r="55" spans="1:18" ht="22">
       <c r="A55" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A55" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E55),
@@ -23579,7 +23545,7 @@
       <c r="Q55" s="100"/>
       <c r="R55" s="66"/>
     </row>
-    <row r="56" spans="1:18" ht="22.5">
+    <row r="56" spans="1:18" ht="22">
       <c r="A56" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A56" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E56),
@@ -23614,7 +23580,7 @@
       <c r="Q56" s="100"/>
       <c r="R56" s="66"/>
     </row>
-    <row r="57" spans="1:18" ht="22.5">
+    <row r="57" spans="1:18" ht="22">
       <c r="A57" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A57" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E57),
@@ -23649,7 +23615,7 @@
       <c r="Q57" s="100"/>
       <c r="R57" s="66"/>
     </row>
-    <row r="58" spans="1:18" ht="22.5">
+    <row r="58" spans="1:18" ht="22">
       <c r="A58" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A58" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E58),
@@ -23684,7 +23650,7 @@
       <c r="Q58" s="100"/>
       <c r="R58" s="66"/>
     </row>
-    <row r="59" spans="1:18" ht="22.5">
+    <row r="59" spans="1:18" ht="22">
       <c r="A59" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A59" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E59),
@@ -23719,7 +23685,7 @@
       <c r="Q59" s="100"/>
       <c r="R59" s="66"/>
     </row>
-    <row r="60" spans="1:18" ht="45">
+    <row r="60" spans="1:18" ht="44">
       <c r="A60" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A60" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E60),
@@ -23756,7 +23722,7 @@
       <c r="Q60" s="100"/>
       <c r="R60" s="66"/>
     </row>
-    <row r="61" spans="1:18" ht="33.75">
+    <row r="61" spans="1:18" ht="33">
       <c r="A61" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A61" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E61),
@@ -23793,7 +23759,7 @@
       <c r="Q61" s="100"/>
       <c r="R61" s="66"/>
     </row>
-    <row r="62" spans="1:18" ht="22.5">
+    <row r="62" spans="1:18" ht="22">
       <c r="A62" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A62" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E62),
@@ -23830,7 +23796,7 @@
       <c r="Q62" s="100"/>
       <c r="R62" s="66"/>
     </row>
-    <row r="63" spans="1:18" ht="22.5">
+    <row r="63" spans="1:18" ht="22">
       <c r="A63" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A63" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E63),
@@ -23869,7 +23835,7 @@
       <c r="Q63" s="100"/>
       <c r="R63" s="66"/>
     </row>
-    <row r="64" spans="1:18" ht="22.5">
+    <row r="64" spans="1:18" ht="22">
       <c r="A64" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A64" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E64),
@@ -23904,7 +23870,7 @@
       <c r="Q64" s="100"/>
       <c r="R64" s="66"/>
     </row>
-    <row r="65" spans="1:18" ht="22.5">
+    <row r="65" spans="1:18" ht="22">
       <c r="A65" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A65" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E65),
@@ -23939,7 +23905,7 @@
       <c r="Q65" s="100"/>
       <c r="R65" s="66"/>
     </row>
-    <row r="66" spans="1:18" ht="22.5">
+    <row r="66" spans="1:18" ht="22">
       <c r="A66" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A66" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E66),
@@ -23974,7 +23940,7 @@
       <c r="Q66" s="100"/>
       <c r="R66" s="66"/>
     </row>
-    <row r="67" spans="1:18" ht="22.5">
+    <row r="67" spans="1:18" ht="22">
       <c r="A67" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A67" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E67),
@@ -24009,7 +23975,7 @@
       <c r="Q67" s="100"/>
       <c r="R67" s="66"/>
     </row>
-    <row r="68" spans="1:18" ht="33.75">
+    <row r="68" spans="1:18" ht="33">
       <c r="A68" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A68" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E68),
@@ -24046,7 +24012,7 @@
       <c r="Q68" s="100"/>
       <c r="R68" s="66"/>
     </row>
-    <row r="69" spans="1:18" ht="33.75">
+    <row r="69" spans="1:18" ht="33">
       <c r="A69" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A69" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E69),
@@ -24081,7 +24047,7 @@
       <c r="Q69" s="100"/>
       <c r="R69" s="66"/>
     </row>
-    <row r="70" spans="1:18" ht="45">
+    <row r="70" spans="1:18" ht="44">
       <c r="A70" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A70" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E70),
@@ -24116,7 +24082,7 @@
       <c r="Q70" s="100"/>
       <c r="R70" s="66"/>
     </row>
-    <row r="71" spans="1:18" ht="33.75">
+    <row r="71" spans="1:18" ht="33">
       <c r="A71" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A71" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E71),
@@ -24151,7 +24117,7 @@
       <c r="Q71" s="100"/>
       <c r="R71" s="66"/>
     </row>
-    <row r="72" spans="1:18" ht="33.75">
+    <row r="72" spans="1:18" ht="33">
       <c r="A72" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A72" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E72),
@@ -24186,7 +24152,7 @@
       <c r="Q72" s="100"/>
       <c r="R72" s="66"/>
     </row>
-    <row r="73" spans="1:18" ht="22.5">
+    <row r="73" spans="1:18" ht="22">
       <c r="A73" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A73" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E73),
@@ -24221,7 +24187,7 @@
       <c r="Q73" s="100"/>
       <c r="R73" s="66"/>
     </row>
-    <row r="74" spans="1:18" ht="22.5">
+    <row r="74" spans="1:18" ht="22">
       <c r="A74" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A74" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E74),
@@ -24256,7 +24222,7 @@
       <c r="Q74" s="100"/>
       <c r="R74" s="66"/>
     </row>
-    <row r="75" spans="1:18" ht="33.75">
+    <row r="75" spans="1:18" ht="33">
       <c r="A75" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A75" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E75),
@@ -24291,7 +24257,7 @@
       <c r="Q75" s="100"/>
       <c r="R75" s="66"/>
     </row>
-    <row r="76" spans="1:18" ht="22.5">
+    <row r="76" spans="1:18" ht="22">
       <c r="A76" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A76" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E76),
@@ -24365,7 +24331,7 @@
       <c r="Q77" s="100"/>
       <c r="R77" s="66"/>
     </row>
-    <row r="78" spans="1:18" ht="22.5">
+    <row r="78" spans="1:18" ht="22">
       <c r="A78" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A78" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E78),
@@ -24435,7 +24401,7 @@
       <c r="Q79" s="100"/>
       <c r="R79" s="66"/>
     </row>
-    <row r="80" spans="1:18" ht="22.5">
+    <row r="80" spans="1:18" ht="22">
       <c r="A80" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A80" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E80),
@@ -24470,7 +24436,7 @@
       <c r="Q80" s="100"/>
       <c r="R80" s="66"/>
     </row>
-    <row r="81" spans="1:18" ht="33.75">
+    <row r="81" spans="1:18" ht="33">
       <c r="A81" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A81" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E81),
@@ -24505,7 +24471,7 @@
       <c r="Q81" s="100"/>
       <c r="R81" s="66"/>
     </row>
-    <row r="82" spans="1:18" ht="45">
+    <row r="82" spans="1:18" ht="44">
       <c r="A82" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A82" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E82),
@@ -24559,7 +24525,7 @@
       <c r="Q82" s="108"/>
       <c r="R82" s="62"/>
     </row>
-    <row r="83" spans="1:18" ht="67.5">
+    <row r="83" spans="1:18" ht="66">
       <c r="A83" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A83" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E83),
@@ -24610,7 +24576,7 @@
       <c r="Q83" s="108"/>
       <c r="R83" s="62"/>
     </row>
-    <row r="84" spans="1:18" ht="45">
+    <row r="84" spans="1:18" ht="44">
       <c r="A84" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A84" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E84),
@@ -24661,7 +24627,7 @@
       <c r="Q84" s="108"/>
       <c r="R84" s="62"/>
     </row>
-    <row r="85" spans="1:18" ht="67.5">
+    <row r="85" spans="1:18" ht="66">
       <c r="A85" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A85" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E85),
@@ -24708,7 +24674,7 @@
       <c r="Q85" s="108"/>
       <c r="R85" s="62"/>
     </row>
-    <row r="86" spans="1:18" ht="33.75">
+    <row r="86" spans="1:18" ht="33">
       <c r="A86" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A86" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E86),
@@ -24745,7 +24711,7 @@
       <c r="Q86" s="100"/>
       <c r="R86" s="66"/>
     </row>
-    <row r="87" spans="1:18" ht="33.75">
+    <row r="87" spans="1:18" ht="33">
       <c r="A87" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A87" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E87),
@@ -24780,7 +24746,7 @@
       <c r="Q87" s="100"/>
       <c r="R87" s="66"/>
     </row>
-    <row r="88" spans="1:18" ht="22.5">
+    <row r="88" spans="1:18" ht="22">
       <c r="A88" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A88" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E88),
@@ -24817,7 +24783,7 @@
       <c r="Q88" s="100"/>
       <c r="R88" s="66"/>
     </row>
-    <row r="89" spans="1:18" ht="22.5">
+    <row r="89" spans="1:18" ht="22">
       <c r="A89" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A89" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E89),
@@ -24854,7 +24820,7 @@
       <c r="Q89" s="100"/>
       <c r="R89" s="66"/>
     </row>
-    <row r="90" spans="1:18" ht="22.5">
+    <row r="90" spans="1:18" ht="22">
       <c r="A90" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A90" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E90),
@@ -24932,7 +24898,7 @@
       <c r="Q91" s="100"/>
       <c r="R91" s="66"/>
     </row>
-    <row r="92" spans="1:18" ht="33.75">
+    <row r="92" spans="1:18" ht="33">
       <c r="A92" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A92" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E92),
@@ -24969,7 +24935,7 @@
       <c r="Q92" s="100"/>
       <c r="R92" s="66"/>
     </row>
-    <row r="93" spans="1:18" ht="22.5">
+    <row r="93" spans="1:18" ht="22">
       <c r="A93" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A93" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E93),
@@ -25010,7 +24976,7 @@
       <c r="Q93" s="100"/>
       <c r="R93" s="66"/>
     </row>
-    <row r="94" spans="1:18" ht="33.75">
+    <row r="94" spans="1:18" ht="33">
       <c r="A94" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A94" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E94),
@@ -25082,7 +25048,7 @@
       <c r="Q95" s="100"/>
       <c r="R95" s="66"/>
     </row>
-    <row r="96" spans="1:18" ht="33.75">
+    <row r="96" spans="1:18" ht="33">
       <c r="A96" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A96" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E96),
@@ -25119,7 +25085,7 @@
       <c r="Q96" s="100"/>
       <c r="R96" s="66"/>
     </row>
-    <row r="97" spans="1:18" ht="33.75">
+    <row r="97" spans="1:18" ht="33">
       <c r="A97" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A97" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E97),
@@ -25154,7 +25120,7 @@
       <c r="Q97" s="100"/>
       <c r="R97" s="66"/>
     </row>
-    <row r="98" spans="1:18" ht="33.75">
+    <row r="98" spans="1:18" ht="33">
       <c r="A98" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A98" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E98),
@@ -25191,7 +25157,7 @@
       <c r="Q98" s="100"/>
       <c r="R98" s="66"/>
     </row>
-    <row r="99" spans="1:18" ht="22.5">
+    <row r="99" spans="1:18" ht="22">
       <c r="A99" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A99" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E99),
@@ -25232,7 +25198,7 @@
       <c r="Q99" s="100"/>
       <c r="R99" s="66"/>
     </row>
-    <row r="100" spans="1:18" ht="33.75">
+    <row r="100" spans="1:18" ht="33">
       <c r="A100" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A100" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E100),
@@ -25302,7 +25268,7 @@
       <c r="Q101" s="100"/>
       <c r="R101" s="66"/>
     </row>
-    <row r="102" spans="1:18" ht="33.75">
+    <row r="102" spans="1:18" ht="33">
       <c r="A102" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A102" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E102),
@@ -25337,7 +25303,7 @@
       <c r="Q102" s="100"/>
       <c r="R102" s="66"/>
     </row>
-    <row r="103" spans="1:18" ht="33.75">
+    <row r="103" spans="1:18" ht="33">
       <c r="A103" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A103" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E103),
@@ -25372,7 +25338,7 @@
       <c r="Q103" s="100"/>
       <c r="R103" s="66"/>
     </row>
-    <row r="104" spans="1:18" ht="22.5">
+    <row r="104" spans="1:18" ht="22">
       <c r="A104" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A104" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E104),
@@ -25409,7 +25375,7 @@
       <c r="Q104" s="100"/>
       <c r="R104" s="66"/>
     </row>
-    <row r="105" spans="1:18" ht="33.75">
+    <row r="105" spans="1:18" ht="33">
       <c r="A105" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A105" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E105),
@@ -25479,7 +25445,7 @@
       <c r="Q106" s="100"/>
       <c r="R106" s="66"/>
     </row>
-    <row r="107" spans="1:18" ht="33.75">
+    <row r="107" spans="1:18" ht="33">
       <c r="A107" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A107" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E107),
@@ -25514,7 +25480,7 @@
       <c r="Q107" s="100"/>
       <c r="R107" s="66"/>
     </row>
-    <row r="108" spans="1:18" ht="33.75">
+    <row r="108" spans="1:18" ht="33">
       <c r="A108" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A108" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E108),
@@ -25549,7 +25515,7 @@
       <c r="Q108" s="100"/>
       <c r="R108" s="66"/>
     </row>
-    <row r="109" spans="1:18" ht="33.75">
+    <row r="109" spans="1:18" ht="33">
       <c r="A109" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A109" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E109),
@@ -25586,7 +25552,7 @@
       <c r="Q109" s="100"/>
       <c r="R109" s="66"/>
     </row>
-    <row r="110" spans="1:18" ht="33.75">
+    <row r="110" spans="1:18" ht="33">
       <c r="A110" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A110" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E110),
@@ -25629,7 +25595,7 @@
       <c r="Q110" s="100"/>
       <c r="R110" s="66"/>
     </row>
-    <row r="111" spans="1:18" ht="22.5">
+    <row r="111" spans="1:18" ht="22">
       <c r="A111" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A111" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E111),
@@ -25670,7 +25636,7 @@
       <c r="Q111" s="100"/>
       <c r="R111" s="66"/>
     </row>
-    <row r="112" spans="1:18" ht="22.5">
+    <row r="112" spans="1:18" ht="22">
       <c r="A112" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A112" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E112),
@@ -25705,7 +25671,7 @@
       <c r="Q112" s="100"/>
       <c r="R112" s="66"/>
     </row>
-    <row r="113" spans="1:18" ht="22.5">
+    <row r="113" spans="1:18" ht="22">
       <c r="A113" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A113" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E113),
@@ -25746,7 +25712,7 @@
       <c r="Q113" s="100"/>
       <c r="R113" s="66"/>
     </row>
-    <row r="114" spans="1:18" ht="22.5">
+    <row r="114" spans="1:18" ht="22">
       <c r="A114" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A114" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E114),
@@ -25787,7 +25753,7 @@
       <c r="Q114" s="100"/>
       <c r="R114" s="66"/>
     </row>
-    <row r="115" spans="1:18" ht="22.5">
+    <row r="115" spans="1:18" ht="22">
       <c r="A115" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A115" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E115),
@@ -25822,7 +25788,7 @@
       <c r="Q115" s="100"/>
       <c r="R115" s="66"/>
     </row>
-    <row r="116" spans="1:18" ht="33.75">
+    <row r="116" spans="1:18" ht="33">
       <c r="A116" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A116" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E116),
@@ -25865,7 +25831,7 @@
       <c r="Q116" s="100"/>
       <c r="R116" s="66"/>
     </row>
-    <row r="117" spans="1:18" ht="22.5">
+    <row r="117" spans="1:18" ht="22">
       <c r="A117" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A117" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E117),
@@ -25902,7 +25868,7 @@
       <c r="Q117" s="100"/>
       <c r="R117" s="66"/>
     </row>
-    <row r="118" spans="1:18" ht="33.75">
+    <row r="118" spans="1:18" ht="33">
       <c r="A118" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A118" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E118),
@@ -25937,7 +25903,7 @@
       <c r="Q118" s="100"/>
       <c r="R118" s="66"/>
     </row>
-    <row r="119" spans="1:18" ht="33.75">
+    <row r="119" spans="1:18" ht="33">
       <c r="A119" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A119" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E119),
@@ -25972,7 +25938,7 @@
       <c r="Q119" s="100"/>
       <c r="R119" s="66"/>
     </row>
-    <row r="120" spans="1:18" ht="22.5">
+    <row r="120" spans="1:18" ht="22">
       <c r="A120" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A120" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E120),
@@ -26009,7 +25975,7 @@
       <c r="Q120" s="100"/>
       <c r="R120" s="66"/>
     </row>
-    <row r="121" spans="1:18" ht="22.5">
+    <row r="121" spans="1:18" ht="22">
       <c r="A121" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A121" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E121),
@@ -26044,7 +26010,7 @@
       <c r="Q121" s="100"/>
       <c r="R121" s="66"/>
     </row>
-    <row r="122" spans="1:18" ht="22.5">
+    <row r="122" spans="1:18" ht="22">
       <c r="A122" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A122" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E122),
@@ -26079,7 +26045,7 @@
       <c r="Q122" s="100"/>
       <c r="R122" s="66"/>
     </row>
-    <row r="123" spans="1:18" ht="22.5">
+    <row r="123" spans="1:18" ht="22">
       <c r="A123" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A123" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E123),
@@ -26114,7 +26080,7 @@
       <c r="Q123" s="100"/>
       <c r="R123" s="66"/>
     </row>
-    <row r="124" spans="1:18" ht="33.75">
+    <row r="124" spans="1:18" ht="33">
       <c r="A124" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A124" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E124),
@@ -26149,7 +26115,7 @@
       <c r="Q124" s="100"/>
       <c r="R124" s="66"/>
     </row>
-    <row r="125" spans="1:18" ht="33.75">
+    <row r="125" spans="1:18" ht="33">
       <c r="A125" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A125" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E125),
@@ -26186,7 +26152,7 @@
       <c r="Q125" s="100"/>
       <c r="R125" s="66"/>
     </row>
-    <row r="126" spans="1:18" ht="33.75">
+    <row r="126" spans="1:18" ht="33">
       <c r="A126" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A126" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E126),
@@ -26221,7 +26187,7 @@
       <c r="Q126" s="100"/>
       <c r="R126" s="66"/>
     </row>
-    <row r="127" spans="1:18" ht="45">
+    <row r="127" spans="1:18" ht="44">
       <c r="A127" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A127" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E127),
@@ -26256,7 +26222,7 @@
       <c r="Q127" s="100"/>
       <c r="R127" s="66"/>
     </row>
-    <row r="128" spans="1:18" ht="45">
+    <row r="128" spans="1:18" ht="44">
       <c r="A128" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A128" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E128),
@@ -26291,7 +26257,7 @@
       <c r="Q128" s="100"/>
       <c r="R128" s="66"/>
     </row>
-    <row r="129" spans="1:18" ht="45">
+    <row r="129" spans="1:18" ht="44">
       <c r="A129" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A129" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E129),
@@ -26326,7 +26292,7 @@
       <c r="Q129" s="100"/>
       <c r="R129" s="66"/>
     </row>
-    <row r="130" spans="1:18" ht="33.75">
+    <row r="130" spans="1:18" ht="33">
       <c r="A130" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A130" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E130),
@@ -26363,7 +26329,7 @@
       <c r="Q130" s="100"/>
       <c r="R130" s="66"/>
     </row>
-    <row r="131" spans="1:18" ht="33.75">
+    <row r="131" spans="1:18" ht="33">
       <c r="A131" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A131" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E131),
@@ -26402,7 +26368,7 @@
       <c r="Q131" s="100"/>
       <c r="R131" s="66"/>
     </row>
-    <row r="132" spans="1:18" ht="45">
+    <row r="132" spans="1:18" ht="44">
       <c r="A132" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A132" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E132),
@@ -26443,7 +26409,7 @@
       <c r="Q132" s="100"/>
       <c r="R132" s="66"/>
     </row>
-    <row r="133" spans="1:18" ht="33.75">
+    <row r="133" spans="1:18" ht="33">
       <c r="A133" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A133" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E133),
@@ -26480,7 +26446,7 @@
       <c r="Q133" s="100"/>
       <c r="R133" s="66"/>
     </row>
-    <row r="134" spans="1:18" ht="22.5">
+    <row r="134" spans="1:18" ht="22">
       <c r="A134" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A134" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E134),
@@ -26515,7 +26481,7 @@
       <c r="Q134" s="100"/>
       <c r="R134" s="66"/>
     </row>
-    <row r="135" spans="1:18" ht="45">
+    <row r="135" spans="1:18" ht="44">
       <c r="A135" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A135" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E135),
@@ -26550,7 +26516,7 @@
       <c r="Q135" s="100"/>
       <c r="R135" s="66"/>
     </row>
-    <row r="136" spans="1:18" ht="22.5">
+    <row r="136" spans="1:18" ht="22">
       <c r="A136" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A136" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E136),
@@ -26593,7 +26559,7 @@
       <c r="Q136" s="100"/>
       <c r="R136" s="66"/>
     </row>
-    <row r="137" spans="1:18" ht="22.5">
+    <row r="137" spans="1:18" ht="22">
       <c r="A137" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A137" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E137),
@@ -26630,7 +26596,7 @@
       <c r="Q137" s="100"/>
       <c r="R137" s="66"/>
     </row>
-    <row r="138" spans="1:18" ht="33.75">
+    <row r="138" spans="1:18" ht="33">
       <c r="A138" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A138" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E138),
@@ -26665,7 +26631,7 @@
       <c r="Q138" s="100"/>
       <c r="R138" s="66"/>
     </row>
-    <row r="139" spans="1:18" ht="22.5">
+    <row r="139" spans="1:18" ht="22">
       <c r="A139" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A139" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E139),
@@ -26700,7 +26666,7 @@
       <c r="Q139" s="100"/>
       <c r="R139" s="66"/>
     </row>
-    <row r="140" spans="1:18" ht="22.5">
+    <row r="140" spans="1:18" ht="22">
       <c r="A140" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A140" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E140),
@@ -26737,7 +26703,7 @@
       <c r="Q140" s="100"/>
       <c r="R140" s="66"/>
     </row>
-    <row r="141" spans="1:18" ht="33.75">
+    <row r="141" spans="1:18" ht="33">
       <c r="A141" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A141" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E141),
@@ -26772,7 +26738,7 @@
       <c r="Q141" s="100"/>
       <c r="R141" s="66"/>
     </row>
-    <row r="142" spans="1:18" ht="33.75">
+    <row r="142" spans="1:18" ht="33">
       <c r="A142" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A142" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E142),
@@ -26811,7 +26777,7 @@
       <c r="Q142" s="100"/>
       <c r="R142" s="66"/>
     </row>
-    <row r="143" spans="1:18" ht="33.75">
+    <row r="143" spans="1:18" ht="33">
       <c r="A143" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A143" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E143),
@@ -26852,7 +26818,7 @@
       <c r="Q143" s="100"/>
       <c r="R143" s="66"/>
     </row>
-    <row r="144" spans="1:18" ht="33.75">
+    <row r="144" spans="1:18" ht="33">
       <c r="A144" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A144" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E144),
@@ -26889,7 +26855,7 @@
       <c r="Q144" s="100"/>
       <c r="R144" s="66"/>
     </row>
-    <row r="145" spans="1:18" ht="33.75">
+    <row r="145" spans="1:18" ht="33">
       <c r="A145" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A145" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E145),
@@ -26926,7 +26892,7 @@
       <c r="Q145" s="100"/>
       <c r="R145" s="66"/>
     </row>
-    <row r="146" spans="1:18" ht="33.75">
+    <row r="146" spans="1:18" ht="33">
       <c r="A146" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A146" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E146),
@@ -26963,7 +26929,7 @@
       <c r="Q146" s="100"/>
       <c r="R146" s="66"/>
     </row>
-    <row r="147" spans="1:18" ht="33.75">
+    <row r="147" spans="1:18" ht="33">
       <c r="A147" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A147" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E147),
@@ -27000,7 +26966,7 @@
       <c r="Q147" s="100"/>
       <c r="R147" s="66"/>
     </row>
-    <row r="148" spans="1:18" ht="22.5">
+    <row r="148" spans="1:18" ht="22">
       <c r="A148" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A148" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E148),
@@ -27037,7 +27003,7 @@
       <c r="Q148" s="100"/>
       <c r="R148" s="66"/>
     </row>
-    <row r="149" spans="1:18" ht="22.5">
+    <row r="149" spans="1:18" ht="22">
       <c r="A149" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A149" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E149),
@@ -27072,7 +27038,7 @@
       <c r="Q149" s="100"/>
       <c r="R149" s="66"/>
     </row>
-    <row r="150" spans="1:18" ht="22.5">
+    <row r="150" spans="1:18" ht="22">
       <c r="A150" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A150" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E150),
@@ -27107,7 +27073,7 @@
       <c r="Q150" s="100"/>
       <c r="R150" s="66"/>
     </row>
-    <row r="151" spans="1:18" ht="22.5">
+    <row r="151" spans="1:18" ht="22">
       <c r="A151" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A151" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E151),
@@ -27142,7 +27108,7 @@
       <c r="Q151" s="100"/>
       <c r="R151" s="66"/>
     </row>
-    <row r="152" spans="1:18" ht="22.5">
+    <row r="152" spans="1:18" ht="22">
       <c r="A152" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A152" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E152),
@@ -27177,7 +27143,7 @@
       <c r="Q152" s="100"/>
       <c r="R152" s="66"/>
     </row>
-    <row r="153" spans="1:18" ht="22.5">
+    <row r="153" spans="1:18" ht="22">
       <c r="A153" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A153" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E153),
@@ -27212,7 +27178,7 @@
       <c r="Q153" s="100"/>
       <c r="R153" s="66"/>
     </row>
-    <row r="154" spans="1:18" ht="22.5">
+    <row r="154" spans="1:18" ht="22">
       <c r="A154" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A154" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E154),
@@ -27251,7 +27217,7 @@
       <c r="Q154" s="100"/>
       <c r="R154" s="66"/>
     </row>
-    <row r="155" spans="1:18" ht="22.5">
+    <row r="155" spans="1:18" ht="22">
       <c r="A155" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A155" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E155),
@@ -27286,7 +27252,7 @@
       <c r="Q155" s="100"/>
       <c r="R155" s="66"/>
     </row>
-    <row r="156" spans="1:18" ht="33.75">
+    <row r="156" spans="1:18" ht="33">
       <c r="A156" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A156" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E156),
@@ -27323,7 +27289,7 @@
       <c r="Q156" s="100"/>
       <c r="R156" s="66"/>
     </row>
-    <row r="157" spans="1:18" ht="33.75">
+    <row r="157" spans="1:18" ht="33">
       <c r="A157" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A157" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E157),
@@ -27358,7 +27324,7 @@
       <c r="Q157" s="100"/>
       <c r="R157" s="66"/>
     </row>
-    <row r="158" spans="1:18" ht="45">
+    <row r="158" spans="1:18" ht="44">
       <c r="A158" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A158" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E158),
@@ -27393,7 +27359,7 @@
       <c r="Q158" s="100"/>
       <c r="R158" s="66"/>
     </row>
-    <row r="159" spans="1:18" ht="33.75">
+    <row r="159" spans="1:18" ht="33">
       <c r="A159" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A159" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E159),
@@ -27428,7 +27394,7 @@
       <c r="Q159" s="100"/>
       <c r="R159" s="66"/>
     </row>
-    <row r="160" spans="1:18" ht="33.75">
+    <row r="160" spans="1:18" ht="33">
       <c r="A160" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A160" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E160),
@@ -27463,7 +27429,7 @@
       <c r="Q160" s="100"/>
       <c r="R160" s="66"/>
     </row>
-    <row r="161" spans="1:18" ht="22.5">
+    <row r="161" spans="1:18" ht="22">
       <c r="A161" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A161" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E161),
@@ -27498,7 +27464,7 @@
       <c r="Q161" s="100"/>
       <c r="R161" s="66"/>
     </row>
-    <row r="162" spans="1:18" ht="22.5">
+    <row r="162" spans="1:18" ht="22">
       <c r="A162" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A162" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E162),
@@ -27533,7 +27499,7 @@
       <c r="Q162" s="100"/>
       <c r="R162" s="66"/>
     </row>
-    <row r="163" spans="1:18" ht="33.75">
+    <row r="163" spans="1:18" ht="33">
       <c r="A163" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A163" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E163),
@@ -27568,7 +27534,7 @@
       <c r="Q163" s="100"/>
       <c r="R163" s="66"/>
     </row>
-    <row r="164" spans="1:18" ht="33.75">
+    <row r="164" spans="1:18" ht="33">
       <c r="A164" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A164" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E164),
@@ -27603,7 +27569,7 @@
       <c r="Q164" s="100"/>
       <c r="R164" s="66"/>
     </row>
-    <row r="165" spans="1:18" ht="45">
+    <row r="165" spans="1:18" ht="44">
       <c r="A165" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A165" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E165),
@@ -27638,7 +27604,7 @@
       <c r="Q165" s="100"/>
       <c r="R165" s="66"/>
     </row>
-    <row r="166" spans="1:18" ht="33.75">
+    <row r="166" spans="1:18" ht="33">
       <c r="A166" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A166" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E166),
@@ -27673,7 +27639,7 @@
       <c r="Q166" s="100"/>
       <c r="R166" s="66"/>
     </row>
-    <row r="167" spans="1:18" ht="22.5">
+    <row r="167" spans="1:18" ht="22">
       <c r="A167" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A167" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E167),
@@ -27710,7 +27676,7 @@
       <c r="Q167" s="100"/>
       <c r="R167" s="66"/>
     </row>
-    <row r="168" spans="1:18" ht="22.5">
+    <row r="168" spans="1:18" ht="22">
       <c r="A168" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A168" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E168),
@@ -27745,7 +27711,7 @@
       <c r="Q168" s="100"/>
       <c r="R168" s="66"/>
     </row>
-    <row r="169" spans="1:18" ht="33.75">
+    <row r="169" spans="1:18" ht="33">
       <c r="A169" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A169" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E169),
@@ -27780,7 +27746,7 @@
       <c r="Q169" s="100"/>
       <c r="R169" s="66"/>
     </row>
-    <row r="170" spans="1:18" ht="22.5">
+    <row r="170" spans="1:18" ht="22">
       <c r="A170" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A170" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E170),
@@ -27815,7 +27781,7 @@
       <c r="Q170" s="100"/>
       <c r="R170" s="66"/>
     </row>
-    <row r="171" spans="1:18" ht="22.5">
+    <row r="171" spans="1:18" ht="22">
       <c r="A171" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A171" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E171),
@@ -27850,7 +27816,7 @@
       <c r="Q171" s="100"/>
       <c r="R171" s="66"/>
     </row>
-    <row r="172" spans="1:18" ht="33.75">
+    <row r="172" spans="1:18" ht="33">
       <c r="A172" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A172" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E172),
@@ -27885,7 +27851,7 @@
       <c r="Q172" s="100"/>
       <c r="R172" s="66"/>
     </row>
-    <row r="173" spans="1:18" ht="22.5">
+    <row r="173" spans="1:18" ht="22">
       <c r="A173" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A173" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E173),
@@ -27920,7 +27886,7 @@
       <c r="Q173" s="100"/>
       <c r="R173" s="66"/>
     </row>
-    <row r="174" spans="1:18" ht="22.5">
+    <row r="174" spans="1:18" ht="22">
       <c r="A174" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A174" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E174),
@@ -27957,7 +27923,7 @@
       <c r="Q174" s="100"/>
       <c r="R174" s="66"/>
     </row>
-    <row r="175" spans="1:18" ht="33.75">
+    <row r="175" spans="1:18" ht="33">
       <c r="A175" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A175" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E175),
@@ -27992,7 +27958,7 @@
       <c r="Q175" s="100"/>
       <c r="R175" s="66"/>
     </row>
-    <row r="176" spans="1:18" ht="33.75">
+    <row r="176" spans="1:18" ht="33">
       <c r="A176" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A176" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E176),
@@ -28027,7 +27993,7 @@
       <c r="Q176" s="100"/>
       <c r="R176" s="66"/>
     </row>
-    <row r="177" spans="1:18" ht="45">
+    <row r="177" spans="1:18" ht="44">
       <c r="A177" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A177" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E177),
@@ -28062,7 +28028,7 @@
       <c r="Q177" s="100"/>
       <c r="R177" s="66"/>
     </row>
-    <row r="178" spans="1:18" ht="45">
+    <row r="178" spans="1:18" ht="44">
       <c r="A178" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A178" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E178),
@@ -28097,7 +28063,7 @@
       <c r="Q178" s="100"/>
       <c r="R178" s="66"/>
     </row>
-    <row r="179" spans="1:18" ht="33.75">
+    <row r="179" spans="1:18" ht="33">
       <c r="A179" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A179" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E179),
@@ -28132,7 +28098,7 @@
       <c r="Q179" s="100"/>
       <c r="R179" s="66"/>
     </row>
-    <row r="180" spans="1:18" ht="45">
+    <row r="180" spans="1:18" ht="44">
       <c r="A180" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A180" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E180),
@@ -28167,7 +28133,7 @@
       <c r="Q180" s="100"/>
       <c r="R180" s="66"/>
     </row>
-    <row r="181" spans="1:18" ht="45">
+    <row r="181" spans="1:18" ht="44">
       <c r="A181" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A181" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E181),
@@ -28202,7 +28168,7 @@
       <c r="Q181" s="100"/>
       <c r="R181" s="66"/>
     </row>
-    <row r="182" spans="1:18" ht="22.5">
+    <row r="182" spans="1:18" ht="22">
       <c r="A182" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A182" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E182),
@@ -28237,7 +28203,7 @@
       <c r="Q182" s="100"/>
       <c r="R182" s="66"/>
     </row>
-    <row r="183" spans="1:18" ht="33.75">
+    <row r="183" spans="1:18" ht="33">
       <c r="A183" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A183" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E183),
@@ -28274,7 +28240,7 @@
       <c r="Q183" s="100"/>
       <c r="R183" s="66"/>
     </row>
-    <row r="184" spans="1:18" ht="22.5">
+    <row r="184" spans="1:18" ht="22">
       <c r="A184" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A184" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E184),
@@ -28311,7 +28277,7 @@
       <c r="Q184" s="100"/>
       <c r="R184" s="66"/>
     </row>
-    <row r="185" spans="1:18" ht="22.5">
+    <row r="185" spans="1:18" ht="22">
       <c r="A185" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A185" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E185),
@@ -28354,7 +28320,7 @@
       <c r="Q185" s="100"/>
       <c r="R185" s="66"/>
     </row>
-    <row r="186" spans="1:18" ht="22.5">
+    <row r="186" spans="1:18" ht="22">
       <c r="A186" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A186" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E186),
@@ -28393,7 +28359,7 @@
       <c r="Q186" s="100"/>
       <c r="R186" s="66"/>
     </row>
-    <row r="187" spans="1:18" ht="22.5">
+    <row r="187" spans="1:18" ht="22">
       <c r="A187" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A187" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E187),
@@ -28432,7 +28398,7 @@
       <c r="Q187" s="100"/>
       <c r="R187" s="66"/>
     </row>
-    <row r="188" spans="1:18" ht="22.5">
+    <row r="188" spans="1:18" ht="22">
       <c r="A188" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A188" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E188),
@@ -28475,7 +28441,7 @@
       <c r="Q188" s="119"/>
       <c r="R188" s="45"/>
     </row>
-    <row r="189" spans="1:18" ht="22.5">
+    <row r="189" spans="1:18" ht="22">
       <c r="A189" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A189" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E189),
@@ -28512,7 +28478,7 @@
       <c r="Q189" s="119"/>
       <c r="R189" s="45"/>
     </row>
-    <row r="190" spans="1:18" ht="22.5">
+    <row r="190" spans="1:18" ht="22">
       <c r="A190" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A190" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E190),
@@ -28547,7 +28513,7 @@
       <c r="Q190" s="119"/>
       <c r="R190" s="45"/>
     </row>
-    <row r="191" spans="1:18" ht="33.75">
+    <row r="191" spans="1:18" ht="33">
       <c r="A191" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A191" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E191),
@@ -28584,7 +28550,7 @@
       <c r="Q191" s="119"/>
       <c r="R191" s="45"/>
     </row>
-    <row r="192" spans="1:18" ht="33.75">
+    <row r="192" spans="1:18" ht="33">
       <c r="A192" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A192" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E192),
@@ -28619,7 +28585,7 @@
       <c r="Q192" s="119"/>
       <c r="R192" s="45"/>
     </row>
-    <row r="193" spans="1:18" ht="33.75">
+    <row r="193" spans="1:18" ht="33">
       <c r="A193" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A193" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E193),
@@ -28658,7 +28624,7 @@
       <c r="Q193" s="119"/>
       <c r="R193" s="45"/>
     </row>
-    <row r="194" spans="1:18" ht="22.5">
+    <row r="194" spans="1:18" ht="22">
       <c r="A194" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A194" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E194),
@@ -28699,7 +28665,7 @@
       <c r="Q194" s="119"/>
       <c r="R194" s="45"/>
     </row>
-    <row r="195" spans="1:18" ht="22.5">
+    <row r="195" spans="1:18" ht="22">
       <c r="A195" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A195" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E195),
@@ -28734,7 +28700,7 @@
       <c r="Q195" s="119"/>
       <c r="R195" s="45"/>
     </row>
-    <row r="196" spans="1:18" ht="22.5">
+    <row r="196" spans="1:18" ht="22">
       <c r="A196" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A196" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E196),
@@ -28769,7 +28735,7 @@
       <c r="Q196" s="119"/>
       <c r="R196" s="45"/>
     </row>
-    <row r="197" spans="1:18" ht="22.5">
+    <row r="197" spans="1:18" ht="22">
       <c r="A197" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A197" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E197),
@@ -28804,7 +28770,7 @@
       <c r="Q197" s="119"/>
       <c r="R197" s="45"/>
     </row>
-    <row r="198" spans="1:18" ht="22.5">
+    <row r="198" spans="1:18" ht="22">
       <c r="A198" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A198" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E198),
@@ -28839,7 +28805,7 @@
       <c r="Q198" s="119"/>
       <c r="R198" s="45"/>
     </row>
-    <row r="199" spans="1:18" ht="22.5">
+    <row r="199" spans="1:18" ht="22">
       <c r="A199" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A199" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E199),
@@ -28874,7 +28840,7 @@
       <c r="Q199" s="119"/>
       <c r="R199" s="45"/>
     </row>
-    <row r="200" spans="1:18" ht="22.5">
+    <row r="200" spans="1:18" ht="22">
       <c r="A200" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A200" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E200),
@@ -28909,7 +28875,7 @@
       <c r="Q200" s="119"/>
       <c r="R200" s="45"/>
     </row>
-    <row r="201" spans="1:18" ht="22.5">
+    <row r="201" spans="1:18" ht="22">
       <c r="A201" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A201" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E201),
@@ -28946,7 +28912,7 @@
       <c r="Q201" s="119"/>
       <c r="R201" s="45"/>
     </row>
-    <row r="202" spans="1:18" ht="22.5">
+    <row r="202" spans="1:18" ht="22">
       <c r="A202" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A202" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E202),
@@ -28985,7 +28951,7 @@
       <c r="Q202" s="119"/>
       <c r="R202" s="45"/>
     </row>
-    <row r="203" spans="1:18" ht="22.5">
+    <row r="203" spans="1:18" ht="22">
       <c r="A203" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A203" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E203),
@@ -29020,7 +28986,7 @@
       <c r="Q203" s="119"/>
       <c r="R203" s="45"/>
     </row>
-    <row r="204" spans="1:18" ht="22.5">
+    <row r="204" spans="1:18" ht="22">
       <c r="A204" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A204" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E204),
@@ -29055,7 +29021,7 @@
       <c r="Q204" s="119"/>
       <c r="R204" s="45"/>
     </row>
-    <row r="205" spans="1:18" ht="22.5">
+    <row r="205" spans="1:18" ht="22">
       <c r="A205" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A205" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E205),
@@ -29090,7 +29056,7 @@
       <c r="Q205" s="119"/>
       <c r="R205" s="45"/>
     </row>
-    <row r="206" spans="1:18" ht="33.75">
+    <row r="206" spans="1:18" ht="33">
       <c r="A206" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A206" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E206),
@@ -29125,7 +29091,7 @@
       <c r="Q206" s="119"/>
       <c r="R206" s="45"/>
     </row>
-    <row r="207" spans="1:18" ht="45">
+    <row r="207" spans="1:18" ht="44">
       <c r="A207" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A207" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E207),
@@ -29160,7 +29126,7 @@
       <c r="Q207" s="119"/>
       <c r="R207" s="45"/>
     </row>
-    <row r="208" spans="1:18" ht="45">
+    <row r="208" spans="1:18" ht="44">
       <c r="A208" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A208" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E208),
@@ -29195,7 +29161,7 @@
       <c r="Q208" s="119"/>
       <c r="R208" s="45"/>
     </row>
-    <row r="209" spans="1:18" ht="45">
+    <row r="209" spans="1:18" ht="44">
       <c r="A209" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A209" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E209),
@@ -29230,7 +29196,7 @@
       <c r="Q209" s="119"/>
       <c r="R209" s="45"/>
     </row>
-    <row r="210" spans="1:18" ht="33.75">
+    <row r="210" spans="1:18" ht="33">
       <c r="A210" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A210" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E210),
@@ -29265,7 +29231,7 @@
       <c r="Q210" s="119"/>
       <c r="R210" s="45"/>
     </row>
-    <row r="211" spans="1:18" ht="22.5">
+    <row r="211" spans="1:18" ht="22">
       <c r="A211" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A211" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E211),
@@ -29300,7 +29266,7 @@
       <c r="Q211" s="119"/>
       <c r="R211" s="45"/>
     </row>
-    <row r="212" spans="1:18" ht="22.5">
+    <row r="212" spans="1:18" ht="22">
       <c r="A212" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A212" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E212),
@@ -29335,7 +29301,7 @@
       <c r="Q212" s="119"/>
       <c r="R212" s="45"/>
     </row>
-    <row r="213" spans="1:18" ht="33.75">
+    <row r="213" spans="1:18" ht="33">
       <c r="A213" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A213" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E213),
@@ -29370,7 +29336,7 @@
       <c r="Q213" s="119"/>
       <c r="R213" s="45"/>
     </row>
-    <row r="214" spans="1:18" ht="22.5">
+    <row r="214" spans="1:18" ht="22">
       <c r="A214" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A214" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E214),
@@ -29405,7 +29371,7 @@
       <c r="Q214" s="119"/>
       <c r="R214" s="45"/>
     </row>
-    <row r="215" spans="1:18" ht="22.5">
+    <row r="215" spans="1:18" ht="22">
       <c r="A215" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A215" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E215),
@@ -29444,7 +29410,7 @@
       <c r="Q215" s="119"/>
       <c r="R215" s="45"/>
     </row>
-    <row r="216" spans="1:18" ht="22.5">
+    <row r="216" spans="1:18" ht="22">
       <c r="A216" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A216" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E216),
@@ -29479,7 +29445,7 @@
       <c r="Q216" s="119"/>
       <c r="R216" s="45"/>
     </row>
-    <row r="217" spans="1:18" ht="22.5">
+    <row r="217" spans="1:18" ht="22">
       <c r="A217" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A217" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E217),
@@ -29514,7 +29480,7 @@
       <c r="Q217" s="119"/>
       <c r="R217" s="45"/>
     </row>
-    <row r="218" spans="1:18" ht="22.5">
+    <row r="218" spans="1:18" ht="22">
       <c r="A218" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A218" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E218),
@@ -29549,7 +29515,7 @@
       <c r="Q218" s="119"/>
       <c r="R218" s="45"/>
     </row>
-    <row r="219" spans="1:18" ht="22.5">
+    <row r="219" spans="1:18" ht="22">
       <c r="A219" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A219" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E219),
@@ -29584,7 +29550,7 @@
       <c r="Q219" s="119"/>
       <c r="R219" s="45"/>
     </row>
-    <row r="220" spans="1:18" ht="45">
+    <row r="220" spans="1:18" ht="44">
       <c r="A220" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A220" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E220),
@@ -29619,7 +29585,7 @@
       <c r="Q220" s="119"/>
       <c r="R220" s="45"/>
     </row>
-    <row r="221" spans="1:18" ht="33.75">
+    <row r="221" spans="1:18" ht="33">
       <c r="A221" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A221" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E221),
@@ -29654,7 +29620,7 @@
       <c r="Q221" s="119"/>
       <c r="R221" s="45"/>
     </row>
-    <row r="222" spans="1:18" ht="45">
+    <row r="222" spans="1:18" ht="44">
       <c r="A222" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A222" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E222),
@@ -29689,7 +29655,7 @@
       <c r="Q222" s="119"/>
       <c r="R222" s="45"/>
     </row>
-    <row r="223" spans="1:18" ht="45">
+    <row r="223" spans="1:18" ht="44">
       <c r="A223" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A223" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E223),
@@ -29724,7 +29690,7 @@
       <c r="Q223" s="119"/>
       <c r="R223" s="45"/>
     </row>
-    <row r="224" spans="1:18" ht="45">
+    <row r="224" spans="1:18" ht="44">
       <c r="A224" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A224" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E224),
@@ -29759,7 +29725,7 @@
       <c r="Q224" s="119"/>
       <c r="R224" s="45"/>
     </row>
-    <row r="225" spans="1:18" ht="33.75">
+    <row r="225" spans="1:18" ht="33">
       <c r="A225" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A225" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E225),
@@ -29794,7 +29760,7 @@
       <c r="Q225" s="119"/>
       <c r="R225" s="45"/>
     </row>
-    <row r="226" spans="1:18" ht="22.5">
+    <row r="226" spans="1:18" ht="22">
       <c r="A226" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A226" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E226),
@@ -29829,7 +29795,7 @@
       <c r="Q226" s="119"/>
       <c r="R226" s="45"/>
     </row>
-    <row r="227" spans="1:18" ht="22.5">
+    <row r="227" spans="1:18" ht="22">
       <c r="A227" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A227" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E227),
@@ -29864,7 +29830,7 @@
       <c r="Q227" s="119"/>
       <c r="R227" s="45"/>
     </row>
-    <row r="228" spans="1:18" ht="33.75">
+    <row r="228" spans="1:18" ht="33">
       <c r="A228" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A228" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E228),
@@ -29899,7 +29865,7 @@
       <c r="Q228" s="119"/>
       <c r="R228" s="45"/>
     </row>
-    <row r="229" spans="1:18" ht="22.5">
+    <row r="229" spans="1:18" ht="22">
       <c r="A229" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A229" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E229),
@@ -29934,7 +29900,7 @@
       <c r="Q229" s="119"/>
       <c r="R229" s="45"/>
     </row>
-    <row r="230" spans="1:18" ht="45">
+    <row r="230" spans="1:18" ht="44">
       <c r="A230" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A230" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E230),
@@ -29971,7 +29937,7 @@
       <c r="Q230" s="119"/>
       <c r="R230" s="45"/>
     </row>
-    <row r="231" spans="1:18" ht="45">
+    <row r="231" spans="1:18" ht="44">
       <c r="A231" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A231" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E231),
@@ -30006,7 +29972,7 @@
       <c r="Q231" s="119"/>
       <c r="R231" s="45"/>
     </row>
-    <row r="232" spans="1:18" ht="45">
+    <row r="232" spans="1:18" ht="44">
       <c r="A232" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A232" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E232),
@@ -30041,7 +30007,7 @@
       <c r="Q232" s="119"/>
       <c r="R232" s="45"/>
     </row>
-    <row r="233" spans="1:18" ht="45">
+    <row r="233" spans="1:18" ht="44">
       <c r="A233" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A233" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E233),
@@ -30078,7 +30044,7 @@
       <c r="Q233" s="119"/>
       <c r="R233" s="45"/>
     </row>
-    <row r="234" spans="1:18" ht="22.5">
+    <row r="234" spans="1:18" ht="22">
       <c r="A234" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A234" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E234),
@@ -30115,7 +30081,7 @@
       <c r="Q234" s="119"/>
       <c r="R234" s="45"/>
     </row>
-    <row r="235" spans="1:18" ht="22.5">
+    <row r="235" spans="1:18" ht="22">
       <c r="A235" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A235" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E235),
@@ -30158,7 +30124,7 @@
       <c r="Q235" s="100"/>
       <c r="R235" s="66"/>
     </row>
-    <row r="236" spans="1:18" ht="22.5">
+    <row r="236" spans="1:18" ht="22">
       <c r="A236" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A236" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E236),
@@ -30195,7 +30161,7 @@
       <c r="Q236" s="100"/>
       <c r="R236" s="66"/>
     </row>
-    <row r="237" spans="1:18" ht="22.5">
+    <row r="237" spans="1:18" ht="22">
       <c r="A237" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A237" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E237),
@@ -30230,7 +30196,7 @@
       <c r="Q237" s="100"/>
       <c r="R237" s="66"/>
     </row>
-    <row r="238" spans="1:18" ht="22.5">
+    <row r="238" spans="1:18" ht="22">
       <c r="A238" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A238" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E238),
@@ -30265,7 +30231,7 @@
       <c r="Q238" s="100"/>
       <c r="R238" s="66"/>
     </row>
-    <row r="239" spans="1:18" ht="22.5">
+    <row r="239" spans="1:18" ht="22">
       <c r="A239" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A239" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E239),
@@ -30300,7 +30266,7 @@
       <c r="Q239" s="100"/>
       <c r="R239" s="66"/>
     </row>
-    <row r="240" spans="1:18" ht="33.75">
+    <row r="240" spans="1:18" ht="33">
       <c r="A240" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A240" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E240),
@@ -30335,7 +30301,7 @@
       <c r="Q240" s="100"/>
       <c r="R240" s="66"/>
     </row>
-    <row r="241" spans="1:18" ht="33.75">
+    <row r="241" spans="1:18" ht="33">
       <c r="A241" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A241" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E241),
@@ -30372,7 +30338,7 @@
       <c r="Q241" s="100"/>
       <c r="R241" s="66"/>
     </row>
-    <row r="242" spans="1:18" ht="33.75">
+    <row r="242" spans="1:18" ht="33">
       <c r="A242" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A242" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E242),
@@ -30407,7 +30373,7 @@
       <c r="Q242" s="100"/>
       <c r="R242" s="66"/>
     </row>
-    <row r="243" spans="1:18" ht="45">
+    <row r="243" spans="1:18" ht="44">
       <c r="A243" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A243" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E243),
@@ -30442,7 +30408,7 @@
       <c r="Q243" s="100"/>
       <c r="R243" s="66"/>
     </row>
-    <row r="244" spans="1:18" ht="45">
+    <row r="244" spans="1:18" ht="44">
       <c r="A244" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A244" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E244),
@@ -30477,7 +30443,7 @@
       <c r="Q244" s="100"/>
       <c r="R244" s="66"/>
     </row>
-    <row r="245" spans="1:18" ht="33.75">
+    <row r="245" spans="1:18" ht="33">
       <c r="A245" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A245" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E245),
@@ -30512,7 +30478,7 @@
       <c r="Q245" s="100"/>
       <c r="R245" s="66"/>
     </row>
-    <row r="246" spans="1:18" ht="33.75">
+    <row r="246" spans="1:18" ht="33">
       <c r="A246" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A246" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E246),
@@ -30549,7 +30515,7 @@
       <c r="Q246" s="100"/>
       <c r="R246" s="66"/>
     </row>
-    <row r="247" spans="1:18" ht="45">
+    <row r="247" spans="1:18" ht="44">
       <c r="A247" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A247" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E247),
@@ -30590,7 +30556,7 @@
       <c r="Q247" s="100"/>
       <c r="R247" s="66"/>
     </row>
-    <row r="248" spans="1:18" ht="33.75">
+    <row r="248" spans="1:18" ht="33">
       <c r="A248" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A248" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E248),
@@ -30633,7 +30599,7 @@
       <c r="Q248" s="100"/>
       <c r="R248" s="66"/>
     </row>
-    <row r="249" spans="1:18" ht="33.75">
+    <row r="249" spans="1:18" ht="33">
       <c r="A249" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A249" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E249),
@@ -30668,7 +30634,7 @@
       <c r="Q249" s="100"/>
       <c r="R249" s="66"/>
     </row>
-    <row r="250" spans="1:18" ht="33.75">
+    <row r="250" spans="1:18" ht="33">
       <c r="A250" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A250" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E250),
@@ -30707,7 +30673,7 @@
       <c r="Q250" s="100"/>
       <c r="R250" s="66"/>
     </row>
-    <row r="251" spans="1:18" ht="33.75">
+    <row r="251" spans="1:18" ht="33">
       <c r="A251" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A251" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E251),
@@ -30742,7 +30708,7 @@
       <c r="Q251" s="100"/>
       <c r="R251" s="66"/>
     </row>
-    <row r="252" spans="1:18" ht="33.75">
+    <row r="252" spans="1:18" ht="33">
       <c r="A252" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A252" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E252),
@@ -30783,7 +30749,7 @@
       <c r="Q252" s="100"/>
       <c r="R252" s="66"/>
     </row>
-    <row r="253" spans="1:18" ht="33.75">
+    <row r="253" spans="1:18" ht="33">
       <c r="A253" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A253" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E253),
@@ -30820,7 +30786,7 @@
       <c r="Q253" s="100"/>
       <c r="R253" s="66"/>
     </row>
-    <row r="254" spans="1:18" ht="33.75">
+    <row r="254" spans="1:18" ht="33">
       <c r="A254" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A254" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E254),
@@ -30857,7 +30823,7 @@
       <c r="Q254" s="100"/>
       <c r="R254" s="66"/>
     </row>
-    <row r="255" spans="1:18" ht="33.75">
+    <row r="255" spans="1:18" ht="33">
       <c r="A255" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A255" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E255),
@@ -30894,7 +30860,7 @@
       <c r="Q255" s="100"/>
       <c r="R255" s="66"/>
     </row>
-    <row r="256" spans="1:18" ht="22.5">
+    <row r="256" spans="1:18" ht="22">
       <c r="A256" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A256" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E256),
@@ -30933,7 +30899,7 @@
       <c r="Q256" s="100"/>
       <c r="R256" s="66"/>
     </row>
-    <row r="257" spans="1:18" ht="22.5">
+    <row r="257" spans="1:18" ht="22">
       <c r="A257" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A257" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E257),
@@ -30968,7 +30934,7 @@
       <c r="Q257" s="100"/>
       <c r="R257" s="66"/>
     </row>
-    <row r="258" spans="1:18" ht="33.75">
+    <row r="258" spans="1:18" ht="33">
       <c r="A258" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A258" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E258),
@@ -31005,7 +30971,7 @@
       <c r="Q258" s="100"/>
       <c r="R258" s="66"/>
     </row>
-    <row r="259" spans="1:18" ht="33.75">
+    <row r="259" spans="1:18" ht="33">
       <c r="A259" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A259" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E259),
@@ -31040,7 +31006,7 @@
       <c r="Q259" s="100"/>
       <c r="R259" s="66"/>
     </row>
-    <row r="260" spans="1:18" ht="45">
+    <row r="260" spans="1:18" ht="44">
       <c r="A260" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A260" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E260),
@@ -31075,7 +31041,7 @@
       <c r="Q260" s="100"/>
       <c r="R260" s="66"/>
     </row>
-    <row r="261" spans="1:18" ht="33.75">
+    <row r="261" spans="1:18" ht="33">
       <c r="A261" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A261" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E261),
@@ -31110,7 +31076,7 @@
       <c r="Q261" s="100"/>
       <c r="R261" s="66"/>
     </row>
-    <row r="262" spans="1:18" ht="33.75">
+    <row r="262" spans="1:18" ht="33">
       <c r="A262" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A262" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E262),
@@ -31145,7 +31111,7 @@
       <c r="Q262" s="100"/>
       <c r="R262" s="66"/>
     </row>
-    <row r="263" spans="1:18" ht="22.5">
+    <row r="263" spans="1:18" ht="22">
       <c r="A263" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A263" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E263),
@@ -31180,7 +31146,7 @@
       <c r="Q263" s="100"/>
       <c r="R263" s="66"/>
     </row>
-    <row r="264" spans="1:18" ht="22.5">
+    <row r="264" spans="1:18" ht="22">
       <c r="A264" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A264" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E264),
@@ -31215,7 +31181,7 @@
       <c r="Q264" s="100"/>
       <c r="R264" s="66"/>
     </row>
-    <row r="265" spans="1:18" ht="33.75">
+    <row r="265" spans="1:18" ht="33">
       <c r="A265" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A265" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E265),
@@ -31250,7 +31216,7 @@
       <c r="Q265" s="100"/>
       <c r="R265" s="66"/>
     </row>
-    <row r="266" spans="1:18" ht="33.75">
+    <row r="266" spans="1:18" ht="33">
       <c r="A266" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A266" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E266),
@@ -31285,7 +31251,7 @@
       <c r="Q266" s="100"/>
       <c r="R266" s="66"/>
     </row>
-    <row r="267" spans="1:18" ht="45">
+    <row r="267" spans="1:18" ht="44">
       <c r="A267" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A267" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E267),
@@ -31320,7 +31286,7 @@
       <c r="Q267" s="100"/>
       <c r="R267" s="66"/>
     </row>
-    <row r="268" spans="1:18" ht="33.75">
+    <row r="268" spans="1:18" ht="33">
       <c r="A268" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A268" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E268),
@@ -31355,7 +31321,7 @@
       <c r="Q268" s="100"/>
       <c r="R268" s="66"/>
     </row>
-    <row r="269" spans="1:18" ht="22.5">
+    <row r="269" spans="1:18" ht="22">
       <c r="A269" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A269" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E269),
@@ -31392,7 +31358,7 @@
       <c r="Q269" s="100"/>
       <c r="R269" s="66"/>
     </row>
-    <row r="270" spans="1:18" ht="22.5">
+    <row r="270" spans="1:18" ht="22">
       <c r="A270" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A270" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E270),
@@ -31427,7 +31393,7 @@
       <c r="Q270" s="100"/>
       <c r="R270" s="66"/>
     </row>
-    <row r="271" spans="1:18" ht="33.75">
+    <row r="271" spans="1:18" ht="33">
       <c r="A271" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A271" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E271),
@@ -31462,7 +31428,7 @@
       <c r="Q271" s="100"/>
       <c r="R271" s="66"/>
     </row>
-    <row r="272" spans="1:18" ht="22.5">
+    <row r="272" spans="1:18" ht="22">
       <c r="A272" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A272" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E272),
@@ -31497,7 +31463,7 @@
       <c r="Q272" s="100"/>
       <c r="R272" s="66"/>
     </row>
-    <row r="273" spans="1:18" ht="22.5">
+    <row r="273" spans="1:18" ht="22">
       <c r="A273" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A273" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E273),
@@ -31532,7 +31498,7 @@
       <c r="Q273" s="100"/>
       <c r="R273" s="66"/>
     </row>
-    <row r="274" spans="1:18" ht="33.75">
+    <row r="274" spans="1:18" ht="33">
       <c r="A274" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A274" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E274),
@@ -31567,7 +31533,7 @@
       <c r="Q274" s="100"/>
       <c r="R274" s="66"/>
     </row>
-    <row r="275" spans="1:18" ht="22.5">
+    <row r="275" spans="1:18" ht="22">
       <c r="A275" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A275" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E275),
@@ -31604,7 +31570,7 @@
       <c r="Q275" s="100"/>
       <c r="R275" s="66"/>
     </row>
-    <row r="276" spans="1:18" ht="33.75">
+    <row r="276" spans="1:18" ht="33">
       <c r="A276" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A276" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E276),
@@ -31639,7 +31605,7 @@
       <c r="Q276" s="100"/>
       <c r="R276" s="66"/>
     </row>
-    <row r="277" spans="1:18" ht="45">
+    <row r="277" spans="1:18" ht="44">
       <c r="A277" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A277" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E277),
@@ -31674,7 +31640,7 @@
       <c r="Q277" s="100"/>
       <c r="R277" s="66"/>
     </row>
-    <row r="278" spans="1:18" ht="45">
+    <row r="278" spans="1:18" ht="44">
       <c r="A278" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A278" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E278),
@@ -31709,7 +31675,7 @@
       <c r="Q278" s="100"/>
       <c r="R278" s="66"/>
     </row>
-    <row r="279" spans="1:18" ht="33.75">
+    <row r="279" spans="1:18" ht="33">
       <c r="A279" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A279" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E279),
@@ -31744,7 +31710,7 @@
       <c r="Q279" s="100"/>
       <c r="R279" s="66"/>
     </row>
-    <row r="280" spans="1:18" ht="45">
+    <row r="280" spans="1:18" ht="44">
       <c r="A280" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A280" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E280),
@@ -31779,7 +31745,7 @@
       <c r="Q280" s="100"/>
       <c r="R280" s="66"/>
     </row>
-    <row r="281" spans="1:18" ht="45">
+    <row r="281" spans="1:18" ht="44">
       <c r="A281" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A281" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E281),
@@ -31814,7 +31780,7 @@
       <c r="Q281" s="100"/>
       <c r="R281" s="66"/>
     </row>
-    <row r="282" spans="1:18" ht="22.5">
+    <row r="282" spans="1:18" ht="22">
       <c r="A282" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A282" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E282),
@@ -31849,7 +31815,7 @@
       <c r="Q282" s="100"/>
       <c r="R282" s="66"/>
     </row>
-    <row r="283" spans="1:18" ht="22.5">
+    <row r="283" spans="1:18" ht="22">
       <c r="A283" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A283" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E283),
@@ -31886,7 +31852,7 @@
       <c r="Q283" s="100"/>
       <c r="R283" s="66"/>
     </row>
-    <row r="284" spans="1:18" ht="22.5">
+    <row r="284" spans="1:18" ht="22">
       <c r="A284" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A284" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E284),
@@ -31929,7 +31895,7 @@
       <c r="Q284" s="100"/>
       <c r="R284" s="66"/>
     </row>
-    <row r="285" spans="1:18" ht="22.5">
+    <row r="285" spans="1:18" ht="22">
       <c r="A285" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A285" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E285),
@@ -31964,7 +31930,7 @@
       <c r="Q285" s="100"/>
       <c r="R285" s="66"/>
     </row>
-    <row r="286" spans="1:18" ht="22.5">
+    <row r="286" spans="1:18" ht="22">
       <c r="A286" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A286" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E286),
@@ -31999,7 +31965,7 @@
       <c r="Q286" s="100"/>
       <c r="R286" s="66"/>
     </row>
-    <row r="287" spans="1:18" ht="22.5">
+    <row r="287" spans="1:18" ht="22">
       <c r="A287" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A287" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E287),
@@ -32034,7 +32000,7 @@
       <c r="Q287" s="100"/>
       <c r="R287" s="66"/>
     </row>
-    <row r="288" spans="1:18" ht="22.5">
+    <row r="288" spans="1:18" ht="22">
       <c r="A288" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A288" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E288),
@@ -32075,7 +32041,7 @@
       <c r="Q288" s="100"/>
       <c r="R288" s="66"/>
     </row>
-    <row r="289" spans="1:18" ht="22.5">
+    <row r="289" spans="1:18" ht="22">
       <c r="A289" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A289" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E289),
@@ -32112,7 +32078,7 @@
       <c r="Q289" s="100"/>
       <c r="R289" s="66"/>
     </row>
-    <row r="290" spans="1:18" ht="22.5">
+    <row r="290" spans="1:18" ht="22">
       <c r="A290" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A290" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E290),
@@ -32149,7 +32115,7 @@
       <c r="Q290" s="100"/>
       <c r="R290" s="66"/>
     </row>
-    <row r="291" spans="1:18" ht="22.5">
+    <row r="291" spans="1:18" ht="22">
       <c r="A291" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A291" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E291),
@@ -32186,7 +32152,7 @@
       <c r="Q291" s="100"/>
       <c r="R291" s="66"/>
     </row>
-    <row r="292" spans="1:18" ht="22.5">
+    <row r="292" spans="1:18" ht="22">
       <c r="A292" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A292" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E292),
@@ -32225,7 +32191,7 @@
       <c r="Q292" s="100"/>
       <c r="R292" s="66"/>
     </row>
-    <row r="293" spans="1:18" ht="22.5">
+    <row r="293" spans="1:18" ht="22">
       <c r="A293" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A293" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E293),
@@ -32260,7 +32226,7 @@
       <c r="Q293" s="100"/>
       <c r="R293" s="66"/>
     </row>
-    <row r="294" spans="1:18" ht="33.75">
+    <row r="294" spans="1:18" ht="33">
       <c r="A294" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A294" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E294),
@@ -32295,7 +32261,7 @@
       <c r="Q294" s="100"/>
       <c r="R294" s="66"/>
     </row>
-    <row r="295" spans="1:18" ht="33.75">
+    <row r="295" spans="1:18" ht="33">
       <c r="A295" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A295" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E295),
@@ -32330,7 +32296,7 @@
       <c r="Q295" s="100"/>
       <c r="R295" s="66"/>
     </row>
-    <row r="296" spans="1:18" ht="45">
+    <row r="296" spans="1:18" ht="44">
       <c r="A296" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A296" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E296),
@@ -32365,7 +32331,7 @@
       <c r="Q296" s="100"/>
       <c r="R296" s="66"/>
     </row>
-    <row r="297" spans="1:18" ht="33.75">
+    <row r="297" spans="1:18" ht="33">
       <c r="A297" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A297" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E297),
@@ -32400,7 +32366,7 @@
       <c r="Q297" s="100"/>
       <c r="R297" s="66"/>
     </row>
-    <row r="298" spans="1:18" ht="33.75">
+    <row r="298" spans="1:18" ht="33">
       <c r="A298" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A298" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E298),
@@ -32435,7 +32401,7 @@
       <c r="Q298" s="100"/>
       <c r="R298" s="66"/>
     </row>
-    <row r="299" spans="1:18" ht="22.5">
+    <row r="299" spans="1:18" ht="22">
       <c r="A299" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A299" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E299),
@@ -32470,7 +32436,7 @@
       <c r="Q299" s="100"/>
       <c r="R299" s="66"/>
     </row>
-    <row r="300" spans="1:18" ht="22.5">
+    <row r="300" spans="1:18" ht="22">
       <c r="A300" s="137" t="str" cm="1">
         <f t="array" aca="1" ref="A300" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E300),
@@ -32505,7 +32471,7 @@
       <c r="Q300" s="171"/>
       <c r="R300" s="169"/>
     </row>
-    <row r="301" spans="1:18" ht="45">
+    <row r="301" spans="1:18" ht="44">
       <c r="A301" s="137" t="str" cm="1">
         <f t="array" aca="1" ref="A301" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E301),
@@ -32562,7 +32528,7 @@
       <c r="Q301" s="63"/>
       <c r="R301" s="63"/>
     </row>
-    <row r="302" spans="1:18" ht="45">
+    <row r="302" spans="1:18" ht="44">
       <c r="A302" s="137" t="str" cm="1">
         <f t="array" aca="1" ref="A302" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E302),
@@ -32615,7 +32581,7 @@
       <c r="Q302" s="63"/>
       <c r="R302" s="63"/>
     </row>
-    <row r="303" spans="1:18" ht="56.25">
+    <row r="303" spans="1:18" ht="55">
       <c r="A303" s="137" t="str" cm="1">
         <f t="array" aca="1" ref="A303" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E303),
@@ -32662,7 +32628,7 @@
       <c r="Q303" s="63"/>
       <c r="R303" s="63"/>
     </row>
-    <row r="304" spans="1:18" ht="56.25">
+    <row r="304" spans="1:18" ht="55">
       <c r="A304" s="137" t="str" cm="1">
         <f t="array" aca="1" ref="A304" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E304),
@@ -32709,7 +32675,7 @@
       <c r="Q304" s="63"/>
       <c r="R304" s="63"/>
     </row>
-    <row r="305" spans="1:18" ht="45">
+    <row r="305" spans="1:18" ht="44">
       <c r="A305" s="137" t="str" cm="1">
         <f t="array" aca="1" ref="A305" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E305),
@@ -32762,7 +32728,7 @@
       <c r="Q305" s="63"/>
       <c r="R305" s="63"/>
     </row>
-    <row r="306" spans="1:18" ht="67.5">
+    <row r="306" spans="1:18" ht="66">
       <c r="A306" s="137" t="str" cm="1">
         <f t="array" aca="1" ref="A306" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E306),
@@ -32811,7 +32777,7 @@
       <c r="Q306" s="63"/>
       <c r="R306" s="63"/>
     </row>
-    <row r="307" spans="1:18" ht="67.5">
+    <row r="307" spans="1:18" ht="66">
       <c r="A307" s="137" t="str" cm="1">
         <f t="array" aca="1" ref="A307" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E307),
@@ -32858,7 +32824,7 @@
       <c r="Q307" s="63"/>
       <c r="R307" s="63"/>
     </row>
-    <row r="308" spans="1:18" ht="45">
+    <row r="308" spans="1:18" ht="44">
       <c r="A308" s="137" t="str" cm="1">
         <f t="array" aca="1" ref="A308" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E308),
@@ -32893,7 +32859,7 @@
       <c r="Q308" s="67"/>
       <c r="R308" s="67"/>
     </row>
-    <row r="309" spans="1:18" ht="33.75">
+    <row r="309" spans="1:18" ht="33">
       <c r="A309" s="137" t="str" cm="1">
         <f t="array" aca="1" ref="A309" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E309),
@@ -32932,7 +32898,7 @@
       <c r="Q309" s="67"/>
       <c r="R309" s="67"/>
     </row>
-    <row r="310" spans="1:18" ht="45">
+    <row r="310" spans="1:18" ht="44">
       <c r="A310" s="137" t="str" cm="1">
         <f t="array" aca="1" ref="A310" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E310),
@@ -32969,7 +32935,7 @@
       <c r="Q310" s="67"/>
       <c r="R310" s="67"/>
     </row>
-    <row r="311" spans="1:18" ht="67.5">
+    <row r="311" spans="1:18" ht="66">
       <c r="A311" s="137" t="str" cm="1">
         <f t="array" aca="1" ref="A311" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E311),
@@ -33022,7 +32988,7 @@
       <c r="Q311" s="63"/>
       <c r="R311" s="63"/>
     </row>
-    <row r="312" spans="1:18" ht="67.5">
+    <row r="312" spans="1:18" ht="66">
       <c r="A312" s="137" t="str" cm="1">
         <f t="array" aca="1" ref="A312" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E312),
@@ -33069,7 +33035,7 @@
       <c r="Q312" s="63"/>
       <c r="R312" s="63"/>
     </row>
-    <row r="313" spans="1:18" ht="45">
+    <row r="313" spans="1:18" ht="44">
       <c r="A313" s="137" t="str" cm="1">
         <f t="array" aca="1" ref="A313" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E313),
@@ -33104,7 +33070,7 @@
       <c r="Q313" s="67"/>
       <c r="R313" s="67"/>
     </row>
-    <row r="314" spans="1:18" ht="45">
+    <row r="314" spans="1:18" ht="44">
       <c r="A314" s="137" t="str" cm="1">
         <f t="array" aca="1" ref="A314" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E314),
@@ -33139,7 +33105,7 @@
       <c r="Q314" s="67"/>
       <c r="R314" s="67"/>
     </row>
-    <row r="315" spans="1:18" ht="45">
+    <row r="315" spans="1:18" ht="44">
       <c r="A315" s="137" t="str" cm="1">
         <f t="array" aca="1" ref="A315" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E315),
@@ -33174,7 +33140,7 @@
       <c r="Q315" s="67"/>
       <c r="R315" s="67"/>
     </row>
-    <row r="316" spans="1:18" ht="45">
+    <row r="316" spans="1:18" ht="44">
       <c r="A316" s="137" t="str" cm="1">
         <f t="array" aca="1" ref="A316" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E316),
@@ -33209,7 +33175,7 @@
       <c r="Q316" s="67"/>
       <c r="R316" s="67"/>
     </row>
-    <row r="317" spans="1:18" ht="45">
+    <row r="317" spans="1:18" ht="44">
       <c r="A317" s="137" t="str" cm="1">
         <f t="array" aca="1" ref="A317" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E317),
@@ -33244,7 +33210,7 @@
       <c r="Q317" s="67"/>
       <c r="R317" s="67"/>
     </row>
-    <row r="318" spans="1:18" ht="45">
+    <row r="318" spans="1:18" ht="44">
       <c r="A318" s="137" t="str" cm="1">
         <f t="array" aca="1" ref="A318" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E318),
@@ -33279,7 +33245,7 @@
       <c r="Q318" s="67"/>
       <c r="R318" s="67"/>
     </row>
-    <row r="319" spans="1:18" ht="22.5">
+    <row r="319" spans="1:18" ht="22">
       <c r="A319" s="40" t="str" cm="1">
         <f t="array" aca="1" ref="A319" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E319),

--- a/Sample_Project/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(Webサービス)_B10102_顧客詳細取得.xlsx
+++ b/Sample_Project/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(Webサービス)_B10102_顧客詳細取得.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116EBDAB-EAD2-4AB0-9AEC-BE54285B295D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB2A563-7445-4DBD-8948-2F8A49496239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="25580" windowHeight="15380" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" r:id="rId1"/>
@@ -8488,74 +8488,62 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="7" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -8665,65 +8653,77 @@
     <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -9276,10 +9276,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48E571CD-DCB7-4BB2-9E1C-99C0EBC961E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9497283B-1FEC-4045-BF08-4DF433F5A6A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9287,8 +9287,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="1816100"/>
-          <a:ext cx="4798218" cy="1717674"/>
+          <a:off x="3270250" y="1689100"/>
+          <a:ext cx="10900568" cy="3140074"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9316,13 +9316,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>@AssertTrue</a:t>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>クラス単体テストで確認が必要な観点なし。机上確認とリクエスト単体テストで品質担保する。</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>によるバリデーションなど、クラス単体で確認が必要な処理なし</a:t>
-          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9677,12 +9682,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="176" t="str">
+      <c r="I25" s="194" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="176"/>
-      <c r="K25" s="176"/>
+      <c r="J25" s="194"/>
+      <c r="K25" s="194"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
@@ -10242,57 +10247,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="205" t="s">
+      <c r="A1" s="201" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="206"/>
-      <c r="C1" s="206"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="208" t="s">
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="204" t="s">
         <v>462</v>
       </c>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209"/>
-      <c r="J1" s="209"/>
-      <c r="K1" s="209"/>
-      <c r="L1" s="209"/>
-      <c r="M1" s="209"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="214" t="s">
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="205"/>
+      <c r="K1" s="205"/>
+      <c r="L1" s="205"/>
+      <c r="M1" s="205"/>
+      <c r="N1" s="206"/>
+      <c r="O1" s="210" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="215"/>
-      <c r="Q1" s="215"/>
-      <c r="R1" s="216"/>
-      <c r="S1" s="223" t="s">
+      <c r="P1" s="211"/>
+      <c r="Q1" s="211"/>
+      <c r="R1" s="212"/>
+      <c r="S1" s="219" t="s">
         <v>557</v>
       </c>
-      <c r="T1" s="224"/>
-      <c r="U1" s="224"/>
-      <c r="V1" s="224"/>
-      <c r="W1" s="224"/>
-      <c r="X1" s="224"/>
-      <c r="Y1" s="224"/>
-      <c r="Z1" s="225"/>
-      <c r="AA1" s="205" t="s">
+      <c r="T1" s="220"/>
+      <c r="U1" s="220"/>
+      <c r="V1" s="220"/>
+      <c r="W1" s="220"/>
+      <c r="X1" s="220"/>
+      <c r="Y1" s="220"/>
+      <c r="Z1" s="221"/>
+      <c r="AA1" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="207"/>
-      <c r="AC1" s="232" t="str">
+      <c r="AB1" s="203"/>
+      <c r="AC1" s="228" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="233"/>
-      <c r="AE1" s="233"/>
-      <c r="AF1" s="234"/>
-      <c r="AG1" s="199" t="str">
+      <c r="AD1" s="229"/>
+      <c r="AE1" s="229"/>
+      <c r="AF1" s="230"/>
+      <c r="AG1" s="195" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="200"/>
-      <c r="AI1" s="201"/>
+      <c r="AH1" s="196"/>
+      <c r="AI1" s="197"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -10300,53 +10305,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="201" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="208" t="s">
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="204" t="s">
         <v>463</v>
       </c>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="209"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="209"/>
-      <c r="N2" s="210"/>
-      <c r="O2" s="217"/>
-      <c r="P2" s="218"/>
-      <c r="Q2" s="218"/>
-      <c r="R2" s="219"/>
-      <c r="S2" s="226"/>
-      <c r="T2" s="227"/>
-      <c r="U2" s="227"/>
-      <c r="V2" s="227"/>
-      <c r="W2" s="227"/>
-      <c r="X2" s="227"/>
-      <c r="Y2" s="227"/>
-      <c r="Z2" s="228"/>
-      <c r="AA2" s="205" t="s">
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="206"/>
+      <c r="O2" s="213"/>
+      <c r="P2" s="214"/>
+      <c r="Q2" s="214"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="222"/>
+      <c r="T2" s="223"/>
+      <c r="U2" s="223"/>
+      <c r="V2" s="223"/>
+      <c r="W2" s="223"/>
+      <c r="X2" s="223"/>
+      <c r="Y2" s="223"/>
+      <c r="Z2" s="224"/>
+      <c r="AA2" s="201" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="207"/>
-      <c r="AC2" s="211" t="str">
+      <c r="AB2" s="203"/>
+      <c r="AC2" s="207" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="212"/>
-      <c r="AE2" s="212"/>
-      <c r="AF2" s="213"/>
-      <c r="AG2" s="199" t="str">
+      <c r="AD2" s="208"/>
+      <c r="AE2" s="208"/>
+      <c r="AF2" s="209"/>
+      <c r="AG2" s="195" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="200"/>
-      <c r="AI2" s="201"/>
+      <c r="AH2" s="196"/>
+      <c r="AI2" s="197"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -10354,45 +10359,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="205" t="s">
+      <c r="A3" s="201" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="206"/>
-      <c r="C3" s="206"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="208" t="s">
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="204" t="s">
         <v>464</v>
       </c>
-      <c r="F3" s="209"/>
-      <c r="G3" s="209"/>
-      <c r="H3" s="209"/>
-      <c r="I3" s="209"/>
-      <c r="J3" s="209"/>
-      <c r="K3" s="209"/>
-      <c r="L3" s="209"/>
-      <c r="M3" s="209"/>
-      <c r="N3" s="210"/>
-      <c r="O3" s="220"/>
-      <c r="P3" s="221"/>
-      <c r="Q3" s="221"/>
-      <c r="R3" s="222"/>
-      <c r="S3" s="229"/>
-      <c r="T3" s="230"/>
-      <c r="U3" s="230"/>
-      <c r="V3" s="230"/>
-      <c r="W3" s="230"/>
-      <c r="X3" s="230"/>
-      <c r="Y3" s="230"/>
-      <c r="Z3" s="231"/>
-      <c r="AA3" s="205"/>
-      <c r="AB3" s="207"/>
-      <c r="AC3" s="232"/>
-      <c r="AD3" s="233"/>
-      <c r="AE3" s="233"/>
-      <c r="AF3" s="234"/>
-      <c r="AG3" s="199"/>
-      <c r="AH3" s="200"/>
-      <c r="AI3" s="201"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="205"/>
+      <c r="M3" s="205"/>
+      <c r="N3" s="206"/>
+      <c r="O3" s="216"/>
+      <c r="P3" s="217"/>
+      <c r="Q3" s="217"/>
+      <c r="R3" s="218"/>
+      <c r="S3" s="225"/>
+      <c r="T3" s="226"/>
+      <c r="U3" s="226"/>
+      <c r="V3" s="226"/>
+      <c r="W3" s="226"/>
+      <c r="X3" s="226"/>
+      <c r="Y3" s="226"/>
+      <c r="Z3" s="227"/>
+      <c r="AA3" s="201"/>
+      <c r="AB3" s="203"/>
+      <c r="AC3" s="228"/>
+      <c r="AD3" s="229"/>
+      <c r="AE3" s="229"/>
+      <c r="AF3" s="230"/>
+      <c r="AG3" s="195"/>
+      <c r="AH3" s="196"/>
+      <c r="AI3" s="197"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -10429,85 +10434,85 @@
       <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="202" t="s">
+      <c r="B7" s="198" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="203"/>
-      <c r="D7" s="202" t="s">
+      <c r="C7" s="199"/>
+      <c r="D7" s="198" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="204"/>
-      <c r="F7" s="203"/>
-      <c r="G7" s="202" t="s">
+      <c r="E7" s="200"/>
+      <c r="F7" s="199"/>
+      <c r="G7" s="198" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="204"/>
-      <c r="I7" s="203"/>
-      <c r="J7" s="202" t="s">
+      <c r="H7" s="200"/>
+      <c r="I7" s="199"/>
+      <c r="J7" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="204"/>
-      <c r="L7" s="204"/>
-      <c r="M7" s="204"/>
-      <c r="N7" s="204"/>
-      <c r="O7" s="204"/>
-      <c r="P7" s="203"/>
-      <c r="Q7" s="202" t="s">
+      <c r="K7" s="200"/>
+      <c r="L7" s="200"/>
+      <c r="M7" s="200"/>
+      <c r="N7" s="200"/>
+      <c r="O7" s="200"/>
+      <c r="P7" s="199"/>
+      <c r="Q7" s="198" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="204"/>
-      <c r="S7" s="204"/>
-      <c r="T7" s="204"/>
-      <c r="U7" s="204"/>
-      <c r="V7" s="204"/>
-      <c r="W7" s="204"/>
-      <c r="X7" s="204"/>
-      <c r="Y7" s="204"/>
-      <c r="Z7" s="204"/>
-      <c r="AA7" s="204"/>
-      <c r="AB7" s="204"/>
-      <c r="AC7" s="204"/>
-      <c r="AD7" s="204"/>
-      <c r="AE7" s="203"/>
-      <c r="AF7" s="202" t="s">
+      <c r="R7" s="200"/>
+      <c r="S7" s="200"/>
+      <c r="T7" s="200"/>
+      <c r="U7" s="200"/>
+      <c r="V7" s="200"/>
+      <c r="W7" s="200"/>
+      <c r="X7" s="200"/>
+      <c r="Y7" s="200"/>
+      <c r="Z7" s="200"/>
+      <c r="AA7" s="200"/>
+      <c r="AB7" s="200"/>
+      <c r="AC7" s="200"/>
+      <c r="AD7" s="200"/>
+      <c r="AE7" s="199"/>
+      <c r="AF7" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="AG7" s="204"/>
-      <c r="AH7" s="204"/>
-      <c r="AI7" s="203"/>
+      <c r="AG7" s="200"/>
+      <c r="AH7" s="200"/>
+      <c r="AI7" s="199"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="190"/>
-      <c r="C8" s="191"/>
-      <c r="D8" s="192"/>
-      <c r="E8" s="193"/>
-      <c r="F8" s="194"/>
-      <c r="G8" s="190"/>
-      <c r="H8" s="195"/>
-      <c r="I8" s="191"/>
-      <c r="J8" s="196"/>
-      <c r="K8" s="197"/>
-      <c r="L8" s="197"/>
-      <c r="M8" s="197"/>
-      <c r="N8" s="197"/>
-      <c r="O8" s="197"/>
-      <c r="P8" s="198"/>
-      <c r="Q8" s="196"/>
-      <c r="R8" s="197"/>
-      <c r="S8" s="197"/>
-      <c r="T8" s="197"/>
-      <c r="U8" s="197"/>
-      <c r="V8" s="197"/>
-      <c r="W8" s="197"/>
-      <c r="X8" s="197"/>
-      <c r="Y8" s="197"/>
-      <c r="Z8" s="197"/>
-      <c r="AA8" s="197"/>
-      <c r="AB8" s="197"/>
-      <c r="AC8" s="197"/>
-      <c r="AD8" s="197"/>
-      <c r="AE8" s="198"/>
+      <c r="B8" s="243"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="245"/>
+      <c r="E8" s="246"/>
+      <c r="F8" s="247"/>
+      <c r="G8" s="243"/>
+      <c r="H8" s="248"/>
+      <c r="I8" s="244"/>
+      <c r="J8" s="249"/>
+      <c r="K8" s="250"/>
+      <c r="L8" s="250"/>
+      <c r="M8" s="250"/>
+      <c r="N8" s="250"/>
+      <c r="O8" s="250"/>
+      <c r="P8" s="251"/>
+      <c r="Q8" s="249"/>
+      <c r="R8" s="250"/>
+      <c r="S8" s="250"/>
+      <c r="T8" s="250"/>
+      <c r="U8" s="250"/>
+      <c r="V8" s="250"/>
+      <c r="W8" s="250"/>
+      <c r="X8" s="250"/>
+      <c r="Y8" s="250"/>
+      <c r="Z8" s="250"/>
+      <c r="AA8" s="250"/>
+      <c r="AB8" s="250"/>
+      <c r="AC8" s="250"/>
+      <c r="AD8" s="250"/>
+      <c r="AE8" s="251"/>
       <c r="AF8" s="25"/>
       <c r="AG8" s="26"/>
       <c r="AH8" s="26"/>
@@ -10515,934 +10520,1089 @@
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="177"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="181"/>
-      <c r="G9" s="179"/>
-      <c r="H9" s="182"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="183"/>
-      <c r="K9" s="184"/>
-      <c r="L9" s="184"/>
-      <c r="M9" s="184"/>
-      <c r="N9" s="184"/>
-      <c r="O9" s="184"/>
-      <c r="P9" s="185"/>
-      <c r="Q9" s="186"/>
-      <c r="R9" s="187"/>
-      <c r="S9" s="187"/>
-      <c r="T9" s="187"/>
-      <c r="U9" s="187"/>
-      <c r="V9" s="187"/>
-      <c r="W9" s="187"/>
-      <c r="X9" s="187"/>
-      <c r="Y9" s="187"/>
-      <c r="Z9" s="187"/>
-      <c r="AA9" s="187"/>
-      <c r="AB9" s="187"/>
-      <c r="AC9" s="187"/>
-      <c r="AD9" s="187"/>
-      <c r="AE9" s="188"/>
-      <c r="AF9" s="183"/>
-      <c r="AG9" s="184"/>
-      <c r="AH9" s="184"/>
-      <c r="AI9" s="185"/>
+      <c r="B9" s="231"/>
+      <c r="C9" s="232"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="235"/>
+      <c r="G9" s="233"/>
+      <c r="H9" s="236"/>
+      <c r="I9" s="232"/>
+      <c r="J9" s="237"/>
+      <c r="K9" s="238"/>
+      <c r="L9" s="238"/>
+      <c r="M9" s="238"/>
+      <c r="N9" s="238"/>
+      <c r="O9" s="238"/>
+      <c r="P9" s="239"/>
+      <c r="Q9" s="240"/>
+      <c r="R9" s="241"/>
+      <c r="S9" s="241"/>
+      <c r="T9" s="241"/>
+      <c r="U9" s="241"/>
+      <c r="V9" s="241"/>
+      <c r="W9" s="241"/>
+      <c r="X9" s="241"/>
+      <c r="Y9" s="241"/>
+      <c r="Z9" s="241"/>
+      <c r="AA9" s="241"/>
+      <c r="AB9" s="241"/>
+      <c r="AC9" s="241"/>
+      <c r="AD9" s="241"/>
+      <c r="AE9" s="242"/>
+      <c r="AF9" s="237"/>
+      <c r="AG9" s="238"/>
+      <c r="AH9" s="238"/>
+      <c r="AI9" s="239"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="177"/>
-      <c r="C10" s="178"/>
-      <c r="D10" s="179"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="182"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="183"/>
-      <c r="K10" s="184"/>
-      <c r="L10" s="184"/>
-      <c r="M10" s="184"/>
-      <c r="N10" s="184"/>
-      <c r="O10" s="184"/>
-      <c r="P10" s="185"/>
-      <c r="Q10" s="186"/>
-      <c r="R10" s="187"/>
-      <c r="S10" s="187"/>
-      <c r="T10" s="187"/>
-      <c r="U10" s="187"/>
-      <c r="V10" s="187"/>
-      <c r="W10" s="187"/>
-      <c r="X10" s="187"/>
-      <c r="Y10" s="187"/>
-      <c r="Z10" s="187"/>
-      <c r="AA10" s="187"/>
-      <c r="AB10" s="187"/>
-      <c r="AC10" s="187"/>
-      <c r="AD10" s="187"/>
-      <c r="AE10" s="188"/>
-      <c r="AF10" s="183"/>
-      <c r="AG10" s="184"/>
-      <c r="AH10" s="184"/>
-      <c r="AI10" s="185"/>
+      <c r="B10" s="231"/>
+      <c r="C10" s="232"/>
+      <c r="D10" s="233"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="235"/>
+      <c r="G10" s="231"/>
+      <c r="H10" s="236"/>
+      <c r="I10" s="232"/>
+      <c r="J10" s="237"/>
+      <c r="K10" s="238"/>
+      <c r="L10" s="238"/>
+      <c r="M10" s="238"/>
+      <c r="N10" s="238"/>
+      <c r="O10" s="238"/>
+      <c r="P10" s="239"/>
+      <c r="Q10" s="240"/>
+      <c r="R10" s="241"/>
+      <c r="S10" s="241"/>
+      <c r="T10" s="241"/>
+      <c r="U10" s="241"/>
+      <c r="V10" s="241"/>
+      <c r="W10" s="241"/>
+      <c r="X10" s="241"/>
+      <c r="Y10" s="241"/>
+      <c r="Z10" s="241"/>
+      <c r="AA10" s="241"/>
+      <c r="AB10" s="241"/>
+      <c r="AC10" s="241"/>
+      <c r="AD10" s="241"/>
+      <c r="AE10" s="242"/>
+      <c r="AF10" s="237"/>
+      <c r="AG10" s="238"/>
+      <c r="AH10" s="238"/>
+      <c r="AI10" s="239"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="177"/>
-      <c r="C11" s="178"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="180"/>
-      <c r="F11" s="181"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="182"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="183"/>
-      <c r="K11" s="184"/>
-      <c r="L11" s="184"/>
-      <c r="M11" s="184"/>
-      <c r="N11" s="184"/>
-      <c r="O11" s="184"/>
-      <c r="P11" s="185"/>
-      <c r="Q11" s="186"/>
-      <c r="R11" s="187"/>
-      <c r="S11" s="187"/>
-      <c r="T11" s="187"/>
-      <c r="U11" s="187"/>
-      <c r="V11" s="187"/>
-      <c r="W11" s="187"/>
-      <c r="X11" s="187"/>
-      <c r="Y11" s="187"/>
-      <c r="Z11" s="187"/>
-      <c r="AA11" s="187"/>
-      <c r="AB11" s="187"/>
-      <c r="AC11" s="187"/>
-      <c r="AD11" s="187"/>
-      <c r="AE11" s="188"/>
-      <c r="AF11" s="183"/>
-      <c r="AG11" s="184"/>
-      <c r="AH11" s="184"/>
-      <c r="AI11" s="185"/>
+      <c r="B11" s="231"/>
+      <c r="C11" s="232"/>
+      <c r="D11" s="233"/>
+      <c r="E11" s="234"/>
+      <c r="F11" s="235"/>
+      <c r="G11" s="231"/>
+      <c r="H11" s="236"/>
+      <c r="I11" s="232"/>
+      <c r="J11" s="237"/>
+      <c r="K11" s="238"/>
+      <c r="L11" s="238"/>
+      <c r="M11" s="238"/>
+      <c r="N11" s="238"/>
+      <c r="O11" s="238"/>
+      <c r="P11" s="239"/>
+      <c r="Q11" s="240"/>
+      <c r="R11" s="241"/>
+      <c r="S11" s="241"/>
+      <c r="T11" s="241"/>
+      <c r="U11" s="241"/>
+      <c r="V11" s="241"/>
+      <c r="W11" s="241"/>
+      <c r="X11" s="241"/>
+      <c r="Y11" s="241"/>
+      <c r="Z11" s="241"/>
+      <c r="AA11" s="241"/>
+      <c r="AB11" s="241"/>
+      <c r="AC11" s="241"/>
+      <c r="AD11" s="241"/>
+      <c r="AE11" s="242"/>
+      <c r="AF11" s="237"/>
+      <c r="AG11" s="238"/>
+      <c r="AH11" s="238"/>
+      <c r="AI11" s="239"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="177"/>
-      <c r="C12" s="178"/>
-      <c r="D12" s="179"/>
-      <c r="E12" s="180"/>
-      <c r="F12" s="181"/>
-      <c r="G12" s="177"/>
-      <c r="H12" s="182"/>
-      <c r="I12" s="178"/>
-      <c r="J12" s="183"/>
-      <c r="K12" s="184"/>
-      <c r="L12" s="184"/>
-      <c r="M12" s="184"/>
-      <c r="N12" s="184"/>
-      <c r="O12" s="184"/>
-      <c r="P12" s="185"/>
-      <c r="Q12" s="186"/>
-      <c r="R12" s="187"/>
-      <c r="S12" s="187"/>
-      <c r="T12" s="187"/>
-      <c r="U12" s="187"/>
-      <c r="V12" s="187"/>
-      <c r="W12" s="187"/>
-      <c r="X12" s="187"/>
-      <c r="Y12" s="187"/>
-      <c r="Z12" s="187"/>
-      <c r="AA12" s="187"/>
-      <c r="AB12" s="187"/>
-      <c r="AC12" s="187"/>
-      <c r="AD12" s="187"/>
-      <c r="AE12" s="188"/>
-      <c r="AF12" s="183"/>
-      <c r="AG12" s="184"/>
-      <c r="AH12" s="184"/>
-      <c r="AI12" s="185"/>
+      <c r="B12" s="231"/>
+      <c r="C12" s="232"/>
+      <c r="D12" s="233"/>
+      <c r="E12" s="234"/>
+      <c r="F12" s="235"/>
+      <c r="G12" s="231"/>
+      <c r="H12" s="236"/>
+      <c r="I12" s="232"/>
+      <c r="J12" s="237"/>
+      <c r="K12" s="238"/>
+      <c r="L12" s="238"/>
+      <c r="M12" s="238"/>
+      <c r="N12" s="238"/>
+      <c r="O12" s="238"/>
+      <c r="P12" s="239"/>
+      <c r="Q12" s="240"/>
+      <c r="R12" s="241"/>
+      <c r="S12" s="241"/>
+      <c r="T12" s="241"/>
+      <c r="U12" s="241"/>
+      <c r="V12" s="241"/>
+      <c r="W12" s="241"/>
+      <c r="X12" s="241"/>
+      <c r="Y12" s="241"/>
+      <c r="Z12" s="241"/>
+      <c r="AA12" s="241"/>
+      <c r="AB12" s="241"/>
+      <c r="AC12" s="241"/>
+      <c r="AD12" s="241"/>
+      <c r="AE12" s="242"/>
+      <c r="AF12" s="237"/>
+      <c r="AG12" s="238"/>
+      <c r="AH12" s="238"/>
+      <c r="AI12" s="239"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="177"/>
-      <c r="C13" s="178"/>
-      <c r="D13" s="179"/>
-      <c r="E13" s="180"/>
-      <c r="F13" s="181"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="182"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="183"/>
-      <c r="K13" s="184"/>
-      <c r="L13" s="184"/>
-      <c r="M13" s="184"/>
-      <c r="N13" s="184"/>
-      <c r="O13" s="184"/>
-      <c r="P13" s="185"/>
-      <c r="Q13" s="186"/>
-      <c r="R13" s="187"/>
-      <c r="S13" s="187"/>
-      <c r="T13" s="187"/>
-      <c r="U13" s="187"/>
-      <c r="V13" s="187"/>
-      <c r="W13" s="187"/>
-      <c r="X13" s="187"/>
-      <c r="Y13" s="187"/>
-      <c r="Z13" s="187"/>
-      <c r="AA13" s="187"/>
-      <c r="AB13" s="187"/>
-      <c r="AC13" s="187"/>
-      <c r="AD13" s="187"/>
-      <c r="AE13" s="188"/>
-      <c r="AF13" s="183"/>
-      <c r="AG13" s="184"/>
-      <c r="AH13" s="184"/>
-      <c r="AI13" s="185"/>
+      <c r="B13" s="231"/>
+      <c r="C13" s="232"/>
+      <c r="D13" s="233"/>
+      <c r="E13" s="234"/>
+      <c r="F13" s="235"/>
+      <c r="G13" s="231"/>
+      <c r="H13" s="236"/>
+      <c r="I13" s="232"/>
+      <c r="J13" s="237"/>
+      <c r="K13" s="238"/>
+      <c r="L13" s="238"/>
+      <c r="M13" s="238"/>
+      <c r="N13" s="238"/>
+      <c r="O13" s="238"/>
+      <c r="P13" s="239"/>
+      <c r="Q13" s="240"/>
+      <c r="R13" s="241"/>
+      <c r="S13" s="241"/>
+      <c r="T13" s="241"/>
+      <c r="U13" s="241"/>
+      <c r="V13" s="241"/>
+      <c r="W13" s="241"/>
+      <c r="X13" s="241"/>
+      <c r="Y13" s="241"/>
+      <c r="Z13" s="241"/>
+      <c r="AA13" s="241"/>
+      <c r="AB13" s="241"/>
+      <c r="AC13" s="241"/>
+      <c r="AD13" s="241"/>
+      <c r="AE13" s="242"/>
+      <c r="AF13" s="237"/>
+      <c r="AG13" s="238"/>
+      <c r="AH13" s="238"/>
+      <c r="AI13" s="239"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="177"/>
-      <c r="C14" s="178"/>
-      <c r="D14" s="179"/>
-      <c r="E14" s="180"/>
-      <c r="F14" s="181"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="182"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="183"/>
-      <c r="K14" s="184"/>
-      <c r="L14" s="184"/>
-      <c r="M14" s="184"/>
-      <c r="N14" s="184"/>
-      <c r="O14" s="184"/>
-      <c r="P14" s="185"/>
-      <c r="Q14" s="186"/>
-      <c r="R14" s="187"/>
-      <c r="S14" s="187"/>
-      <c r="T14" s="187"/>
-      <c r="U14" s="187"/>
-      <c r="V14" s="187"/>
-      <c r="W14" s="187"/>
-      <c r="X14" s="187"/>
-      <c r="Y14" s="187"/>
-      <c r="Z14" s="187"/>
-      <c r="AA14" s="187"/>
-      <c r="AB14" s="187"/>
-      <c r="AC14" s="187"/>
-      <c r="AD14" s="187"/>
-      <c r="AE14" s="188"/>
-      <c r="AF14" s="183"/>
-      <c r="AG14" s="184"/>
-      <c r="AH14" s="184"/>
-      <c r="AI14" s="185"/>
+      <c r="B14" s="231"/>
+      <c r="C14" s="232"/>
+      <c r="D14" s="233"/>
+      <c r="E14" s="234"/>
+      <c r="F14" s="235"/>
+      <c r="G14" s="231"/>
+      <c r="H14" s="236"/>
+      <c r="I14" s="232"/>
+      <c r="J14" s="237"/>
+      <c r="K14" s="238"/>
+      <c r="L14" s="238"/>
+      <c r="M14" s="238"/>
+      <c r="N14" s="238"/>
+      <c r="O14" s="238"/>
+      <c r="P14" s="239"/>
+      <c r="Q14" s="240"/>
+      <c r="R14" s="241"/>
+      <c r="S14" s="241"/>
+      <c r="T14" s="241"/>
+      <c r="U14" s="241"/>
+      <c r="V14" s="241"/>
+      <c r="W14" s="241"/>
+      <c r="X14" s="241"/>
+      <c r="Y14" s="241"/>
+      <c r="Z14" s="241"/>
+      <c r="AA14" s="241"/>
+      <c r="AB14" s="241"/>
+      <c r="AC14" s="241"/>
+      <c r="AD14" s="241"/>
+      <c r="AE14" s="242"/>
+      <c r="AF14" s="237"/>
+      <c r="AG14" s="238"/>
+      <c r="AH14" s="238"/>
+      <c r="AI14" s="239"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="177"/>
-      <c r="C15" s="178"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="180"/>
-      <c r="F15" s="181"/>
-      <c r="G15" s="177"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="183"/>
-      <c r="K15" s="184"/>
-      <c r="L15" s="184"/>
-      <c r="M15" s="184"/>
-      <c r="N15" s="184"/>
-      <c r="O15" s="184"/>
-      <c r="P15" s="185"/>
-      <c r="Q15" s="186"/>
-      <c r="R15" s="187"/>
-      <c r="S15" s="187"/>
-      <c r="T15" s="187"/>
-      <c r="U15" s="187"/>
-      <c r="V15" s="187"/>
-      <c r="W15" s="187"/>
-      <c r="X15" s="187"/>
-      <c r="Y15" s="187"/>
-      <c r="Z15" s="187"/>
-      <c r="AA15" s="187"/>
-      <c r="AB15" s="187"/>
-      <c r="AC15" s="187"/>
-      <c r="AD15" s="187"/>
-      <c r="AE15" s="188"/>
-      <c r="AF15" s="183"/>
-      <c r="AG15" s="184"/>
-      <c r="AH15" s="184"/>
-      <c r="AI15" s="185"/>
+      <c r="B15" s="231"/>
+      <c r="C15" s="232"/>
+      <c r="D15" s="233"/>
+      <c r="E15" s="234"/>
+      <c r="F15" s="235"/>
+      <c r="G15" s="231"/>
+      <c r="H15" s="236"/>
+      <c r="I15" s="232"/>
+      <c r="J15" s="237"/>
+      <c r="K15" s="238"/>
+      <c r="L15" s="238"/>
+      <c r="M15" s="238"/>
+      <c r="N15" s="238"/>
+      <c r="O15" s="238"/>
+      <c r="P15" s="239"/>
+      <c r="Q15" s="240"/>
+      <c r="R15" s="241"/>
+      <c r="S15" s="241"/>
+      <c r="T15" s="241"/>
+      <c r="U15" s="241"/>
+      <c r="V15" s="241"/>
+      <c r="W15" s="241"/>
+      <c r="X15" s="241"/>
+      <c r="Y15" s="241"/>
+      <c r="Z15" s="241"/>
+      <c r="AA15" s="241"/>
+      <c r="AB15" s="241"/>
+      <c r="AC15" s="241"/>
+      <c r="AD15" s="241"/>
+      <c r="AE15" s="242"/>
+      <c r="AF15" s="237"/>
+      <c r="AG15" s="238"/>
+      <c r="AH15" s="238"/>
+      <c r="AI15" s="239"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="177"/>
-      <c r="C16" s="178"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="180"/>
-      <c r="F16" s="181"/>
-      <c r="G16" s="177"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="183"/>
-      <c r="K16" s="184"/>
-      <c r="L16" s="184"/>
-      <c r="M16" s="184"/>
-      <c r="N16" s="184"/>
-      <c r="O16" s="184"/>
-      <c r="P16" s="185"/>
-      <c r="Q16" s="186"/>
-      <c r="R16" s="187"/>
-      <c r="S16" s="187"/>
-      <c r="T16" s="187"/>
-      <c r="U16" s="187"/>
-      <c r="V16" s="187"/>
-      <c r="W16" s="187"/>
-      <c r="X16" s="187"/>
-      <c r="Y16" s="187"/>
-      <c r="Z16" s="187"/>
-      <c r="AA16" s="187"/>
-      <c r="AB16" s="187"/>
-      <c r="AC16" s="187"/>
-      <c r="AD16" s="187"/>
-      <c r="AE16" s="188"/>
-      <c r="AF16" s="183"/>
-      <c r="AG16" s="184"/>
-      <c r="AH16" s="184"/>
-      <c r="AI16" s="185"/>
+      <c r="B16" s="231"/>
+      <c r="C16" s="232"/>
+      <c r="D16" s="233"/>
+      <c r="E16" s="234"/>
+      <c r="F16" s="235"/>
+      <c r="G16" s="231"/>
+      <c r="H16" s="236"/>
+      <c r="I16" s="232"/>
+      <c r="J16" s="237"/>
+      <c r="K16" s="238"/>
+      <c r="L16" s="238"/>
+      <c r="M16" s="238"/>
+      <c r="N16" s="238"/>
+      <c r="O16" s="238"/>
+      <c r="P16" s="239"/>
+      <c r="Q16" s="240"/>
+      <c r="R16" s="241"/>
+      <c r="S16" s="241"/>
+      <c r="T16" s="241"/>
+      <c r="U16" s="241"/>
+      <c r="V16" s="241"/>
+      <c r="W16" s="241"/>
+      <c r="X16" s="241"/>
+      <c r="Y16" s="241"/>
+      <c r="Z16" s="241"/>
+      <c r="AA16" s="241"/>
+      <c r="AB16" s="241"/>
+      <c r="AC16" s="241"/>
+      <c r="AD16" s="241"/>
+      <c r="AE16" s="242"/>
+      <c r="AF16" s="237"/>
+      <c r="AG16" s="238"/>
+      <c r="AH16" s="238"/>
+      <c r="AI16" s="239"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="177"/>
-      <c r="C17" s="178"/>
-      <c r="D17" s="179"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="181"/>
-      <c r="G17" s="177"/>
-      <c r="H17" s="182"/>
-      <c r="I17" s="178"/>
-      <c r="J17" s="183"/>
-      <c r="K17" s="184"/>
-      <c r="L17" s="184"/>
-      <c r="M17" s="184"/>
-      <c r="N17" s="184"/>
-      <c r="O17" s="184"/>
-      <c r="P17" s="185"/>
-      <c r="Q17" s="186"/>
-      <c r="R17" s="187"/>
-      <c r="S17" s="187"/>
-      <c r="T17" s="187"/>
-      <c r="U17" s="187"/>
-      <c r="V17" s="187"/>
-      <c r="W17" s="187"/>
-      <c r="X17" s="187"/>
-      <c r="Y17" s="187"/>
-      <c r="Z17" s="187"/>
-      <c r="AA17" s="187"/>
-      <c r="AB17" s="187"/>
-      <c r="AC17" s="187"/>
-      <c r="AD17" s="187"/>
-      <c r="AE17" s="188"/>
-      <c r="AF17" s="183"/>
-      <c r="AG17" s="184"/>
-      <c r="AH17" s="184"/>
-      <c r="AI17" s="185"/>
+      <c r="B17" s="231"/>
+      <c r="C17" s="232"/>
+      <c r="D17" s="233"/>
+      <c r="E17" s="234"/>
+      <c r="F17" s="235"/>
+      <c r="G17" s="231"/>
+      <c r="H17" s="236"/>
+      <c r="I17" s="232"/>
+      <c r="J17" s="237"/>
+      <c r="K17" s="238"/>
+      <c r="L17" s="238"/>
+      <c r="M17" s="238"/>
+      <c r="N17" s="238"/>
+      <c r="O17" s="238"/>
+      <c r="P17" s="239"/>
+      <c r="Q17" s="240"/>
+      <c r="R17" s="241"/>
+      <c r="S17" s="241"/>
+      <c r="T17" s="241"/>
+      <c r="U17" s="241"/>
+      <c r="V17" s="241"/>
+      <c r="W17" s="241"/>
+      <c r="X17" s="241"/>
+      <c r="Y17" s="241"/>
+      <c r="Z17" s="241"/>
+      <c r="AA17" s="241"/>
+      <c r="AB17" s="241"/>
+      <c r="AC17" s="241"/>
+      <c r="AD17" s="241"/>
+      <c r="AE17" s="242"/>
+      <c r="AF17" s="237"/>
+      <c r="AG17" s="238"/>
+      <c r="AH17" s="238"/>
+      <c r="AI17" s="239"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="177"/>
-      <c r="C18" s="178"/>
-      <c r="D18" s="179"/>
-      <c r="E18" s="180"/>
-      <c r="F18" s="181"/>
-      <c r="G18" s="177"/>
-      <c r="H18" s="182"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="183"/>
-      <c r="K18" s="184"/>
-      <c r="L18" s="184"/>
-      <c r="M18" s="184"/>
-      <c r="N18" s="184"/>
-      <c r="O18" s="184"/>
-      <c r="P18" s="185"/>
-      <c r="Q18" s="186"/>
-      <c r="R18" s="187"/>
-      <c r="S18" s="187"/>
-      <c r="T18" s="187"/>
-      <c r="U18" s="187"/>
-      <c r="V18" s="187"/>
-      <c r="W18" s="187"/>
-      <c r="X18" s="187"/>
-      <c r="Y18" s="187"/>
-      <c r="Z18" s="187"/>
-      <c r="AA18" s="187"/>
-      <c r="AB18" s="187"/>
-      <c r="AC18" s="187"/>
-      <c r="AD18" s="187"/>
-      <c r="AE18" s="188"/>
-      <c r="AF18" s="183"/>
-      <c r="AG18" s="184"/>
-      <c r="AH18" s="184"/>
-      <c r="AI18" s="185"/>
+      <c r="B18" s="231"/>
+      <c r="C18" s="232"/>
+      <c r="D18" s="233"/>
+      <c r="E18" s="234"/>
+      <c r="F18" s="235"/>
+      <c r="G18" s="231"/>
+      <c r="H18" s="236"/>
+      <c r="I18" s="232"/>
+      <c r="J18" s="237"/>
+      <c r="K18" s="238"/>
+      <c r="L18" s="238"/>
+      <c r="M18" s="238"/>
+      <c r="N18" s="238"/>
+      <c r="O18" s="238"/>
+      <c r="P18" s="239"/>
+      <c r="Q18" s="240"/>
+      <c r="R18" s="241"/>
+      <c r="S18" s="241"/>
+      <c r="T18" s="241"/>
+      <c r="U18" s="241"/>
+      <c r="V18" s="241"/>
+      <c r="W18" s="241"/>
+      <c r="X18" s="241"/>
+      <c r="Y18" s="241"/>
+      <c r="Z18" s="241"/>
+      <c r="AA18" s="241"/>
+      <c r="AB18" s="241"/>
+      <c r="AC18" s="241"/>
+      <c r="AD18" s="241"/>
+      <c r="AE18" s="242"/>
+      <c r="AF18" s="237"/>
+      <c r="AG18" s="238"/>
+      <c r="AH18" s="238"/>
+      <c r="AI18" s="239"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="177"/>
-      <c r="C19" s="178"/>
-      <c r="D19" s="179"/>
-      <c r="E19" s="180"/>
-      <c r="F19" s="181"/>
-      <c r="G19" s="177"/>
-      <c r="H19" s="182"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="183"/>
-      <c r="K19" s="184"/>
-      <c r="L19" s="184"/>
-      <c r="M19" s="184"/>
-      <c r="N19" s="184"/>
-      <c r="O19" s="184"/>
-      <c r="P19" s="185"/>
-      <c r="Q19" s="186"/>
-      <c r="R19" s="187"/>
-      <c r="S19" s="187"/>
-      <c r="T19" s="187"/>
-      <c r="U19" s="187"/>
-      <c r="V19" s="187"/>
-      <c r="W19" s="187"/>
-      <c r="X19" s="187"/>
-      <c r="Y19" s="187"/>
-      <c r="Z19" s="187"/>
-      <c r="AA19" s="187"/>
-      <c r="AB19" s="187"/>
-      <c r="AC19" s="187"/>
-      <c r="AD19" s="187"/>
-      <c r="AE19" s="188"/>
-      <c r="AF19" s="183"/>
-      <c r="AG19" s="184"/>
-      <c r="AH19" s="184"/>
-      <c r="AI19" s="185"/>
+      <c r="B19" s="231"/>
+      <c r="C19" s="232"/>
+      <c r="D19" s="233"/>
+      <c r="E19" s="234"/>
+      <c r="F19" s="235"/>
+      <c r="G19" s="231"/>
+      <c r="H19" s="236"/>
+      <c r="I19" s="232"/>
+      <c r="J19" s="237"/>
+      <c r="K19" s="238"/>
+      <c r="L19" s="238"/>
+      <c r="M19" s="238"/>
+      <c r="N19" s="238"/>
+      <c r="O19" s="238"/>
+      <c r="P19" s="239"/>
+      <c r="Q19" s="240"/>
+      <c r="R19" s="241"/>
+      <c r="S19" s="241"/>
+      <c r="T19" s="241"/>
+      <c r="U19" s="241"/>
+      <c r="V19" s="241"/>
+      <c r="W19" s="241"/>
+      <c r="X19" s="241"/>
+      <c r="Y19" s="241"/>
+      <c r="Z19" s="241"/>
+      <c r="AA19" s="241"/>
+      <c r="AB19" s="241"/>
+      <c r="AC19" s="241"/>
+      <c r="AD19" s="241"/>
+      <c r="AE19" s="242"/>
+      <c r="AF19" s="237"/>
+      <c r="AG19" s="238"/>
+      <c r="AH19" s="238"/>
+      <c r="AI19" s="239"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="177"/>
-      <c r="C20" s="178"/>
-      <c r="D20" s="179"/>
-      <c r="E20" s="180"/>
-      <c r="F20" s="181"/>
-      <c r="G20" s="177"/>
-      <c r="H20" s="182"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="183"/>
-      <c r="K20" s="184"/>
-      <c r="L20" s="184"/>
-      <c r="M20" s="184"/>
-      <c r="N20" s="184"/>
-      <c r="O20" s="184"/>
-      <c r="P20" s="185"/>
-      <c r="Q20" s="186"/>
-      <c r="R20" s="187"/>
-      <c r="S20" s="187"/>
-      <c r="T20" s="187"/>
-      <c r="U20" s="187"/>
-      <c r="V20" s="187"/>
-      <c r="W20" s="187"/>
-      <c r="X20" s="187"/>
-      <c r="Y20" s="187"/>
-      <c r="Z20" s="187"/>
-      <c r="AA20" s="187"/>
-      <c r="AB20" s="187"/>
-      <c r="AC20" s="187"/>
-      <c r="AD20" s="187"/>
-      <c r="AE20" s="188"/>
-      <c r="AF20" s="183"/>
-      <c r="AG20" s="184"/>
-      <c r="AH20" s="184"/>
-      <c r="AI20" s="185"/>
+      <c r="B20" s="231"/>
+      <c r="C20" s="232"/>
+      <c r="D20" s="233"/>
+      <c r="E20" s="234"/>
+      <c r="F20" s="235"/>
+      <c r="G20" s="231"/>
+      <c r="H20" s="236"/>
+      <c r="I20" s="232"/>
+      <c r="J20" s="237"/>
+      <c r="K20" s="238"/>
+      <c r="L20" s="238"/>
+      <c r="M20" s="238"/>
+      <c r="N20" s="238"/>
+      <c r="O20" s="238"/>
+      <c r="P20" s="239"/>
+      <c r="Q20" s="240"/>
+      <c r="R20" s="241"/>
+      <c r="S20" s="241"/>
+      <c r="T20" s="241"/>
+      <c r="U20" s="241"/>
+      <c r="V20" s="241"/>
+      <c r="W20" s="241"/>
+      <c r="X20" s="241"/>
+      <c r="Y20" s="241"/>
+      <c r="Z20" s="241"/>
+      <c r="AA20" s="241"/>
+      <c r="AB20" s="241"/>
+      <c r="AC20" s="241"/>
+      <c r="AD20" s="241"/>
+      <c r="AE20" s="242"/>
+      <c r="AF20" s="237"/>
+      <c r="AG20" s="238"/>
+      <c r="AH20" s="238"/>
+      <c r="AI20" s="239"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="177"/>
-      <c r="C21" s="178"/>
-      <c r="D21" s="179"/>
-      <c r="E21" s="180"/>
-      <c r="F21" s="181"/>
-      <c r="G21" s="177"/>
-      <c r="H21" s="182"/>
-      <c r="I21" s="178"/>
-      <c r="J21" s="183"/>
-      <c r="K21" s="184"/>
-      <c r="L21" s="184"/>
-      <c r="M21" s="184"/>
-      <c r="N21" s="184"/>
-      <c r="O21" s="184"/>
-      <c r="P21" s="185"/>
-      <c r="Q21" s="186"/>
-      <c r="R21" s="187"/>
-      <c r="S21" s="187"/>
-      <c r="T21" s="187"/>
-      <c r="U21" s="187"/>
-      <c r="V21" s="187"/>
-      <c r="W21" s="187"/>
-      <c r="X21" s="187"/>
-      <c r="Y21" s="187"/>
-      <c r="Z21" s="187"/>
-      <c r="AA21" s="187"/>
-      <c r="AB21" s="187"/>
-      <c r="AC21" s="187"/>
-      <c r="AD21" s="187"/>
-      <c r="AE21" s="188"/>
-      <c r="AF21" s="183"/>
-      <c r="AG21" s="184"/>
-      <c r="AH21" s="184"/>
-      <c r="AI21" s="185"/>
+      <c r="B21" s="231"/>
+      <c r="C21" s="232"/>
+      <c r="D21" s="233"/>
+      <c r="E21" s="234"/>
+      <c r="F21" s="235"/>
+      <c r="G21" s="231"/>
+      <c r="H21" s="236"/>
+      <c r="I21" s="232"/>
+      <c r="J21" s="237"/>
+      <c r="K21" s="238"/>
+      <c r="L21" s="238"/>
+      <c r="M21" s="238"/>
+      <c r="N21" s="238"/>
+      <c r="O21" s="238"/>
+      <c r="P21" s="239"/>
+      <c r="Q21" s="240"/>
+      <c r="R21" s="241"/>
+      <c r="S21" s="241"/>
+      <c r="T21" s="241"/>
+      <c r="U21" s="241"/>
+      <c r="V21" s="241"/>
+      <c r="W21" s="241"/>
+      <c r="X21" s="241"/>
+      <c r="Y21" s="241"/>
+      <c r="Z21" s="241"/>
+      <c r="AA21" s="241"/>
+      <c r="AB21" s="241"/>
+      <c r="AC21" s="241"/>
+      <c r="AD21" s="241"/>
+      <c r="AE21" s="242"/>
+      <c r="AF21" s="237"/>
+      <c r="AG21" s="238"/>
+      <c r="AH21" s="238"/>
+      <c r="AI21" s="239"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="177"/>
-      <c r="C22" s="178"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="180"/>
-      <c r="F22" s="181"/>
-      <c r="G22" s="177"/>
-      <c r="H22" s="182"/>
-      <c r="I22" s="178"/>
-      <c r="J22" s="183"/>
-      <c r="K22" s="184"/>
-      <c r="L22" s="184"/>
-      <c r="M22" s="184"/>
-      <c r="N22" s="184"/>
-      <c r="O22" s="184"/>
-      <c r="P22" s="185"/>
-      <c r="Q22" s="186"/>
-      <c r="R22" s="187"/>
-      <c r="S22" s="187"/>
-      <c r="T22" s="187"/>
-      <c r="U22" s="187"/>
-      <c r="V22" s="187"/>
-      <c r="W22" s="187"/>
-      <c r="X22" s="187"/>
-      <c r="Y22" s="187"/>
-      <c r="Z22" s="187"/>
-      <c r="AA22" s="187"/>
-      <c r="AB22" s="187"/>
-      <c r="AC22" s="187"/>
-      <c r="AD22" s="187"/>
-      <c r="AE22" s="188"/>
-      <c r="AF22" s="183"/>
-      <c r="AG22" s="184"/>
-      <c r="AH22" s="184"/>
-      <c r="AI22" s="185"/>
+      <c r="B22" s="231"/>
+      <c r="C22" s="232"/>
+      <c r="D22" s="233"/>
+      <c r="E22" s="234"/>
+      <c r="F22" s="235"/>
+      <c r="G22" s="231"/>
+      <c r="H22" s="236"/>
+      <c r="I22" s="232"/>
+      <c r="J22" s="237"/>
+      <c r="K22" s="238"/>
+      <c r="L22" s="238"/>
+      <c r="M22" s="238"/>
+      <c r="N22" s="238"/>
+      <c r="O22" s="238"/>
+      <c r="P22" s="239"/>
+      <c r="Q22" s="240"/>
+      <c r="R22" s="241"/>
+      <c r="S22" s="241"/>
+      <c r="T22" s="241"/>
+      <c r="U22" s="241"/>
+      <c r="V22" s="241"/>
+      <c r="W22" s="241"/>
+      <c r="X22" s="241"/>
+      <c r="Y22" s="241"/>
+      <c r="Z22" s="241"/>
+      <c r="AA22" s="241"/>
+      <c r="AB22" s="241"/>
+      <c r="AC22" s="241"/>
+      <c r="AD22" s="241"/>
+      <c r="AE22" s="242"/>
+      <c r="AF22" s="237"/>
+      <c r="AG22" s="238"/>
+      <c r="AH22" s="238"/>
+      <c r="AI22" s="239"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="177"/>
-      <c r="C23" s="178"/>
-      <c r="D23" s="179"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="181"/>
-      <c r="G23" s="177"/>
-      <c r="H23" s="182"/>
-      <c r="I23" s="178"/>
-      <c r="J23" s="183"/>
-      <c r="K23" s="184"/>
-      <c r="L23" s="184"/>
-      <c r="M23" s="184"/>
-      <c r="N23" s="184"/>
-      <c r="O23" s="184"/>
-      <c r="P23" s="185"/>
-      <c r="Q23" s="186"/>
-      <c r="R23" s="187"/>
-      <c r="S23" s="187"/>
-      <c r="T23" s="187"/>
-      <c r="U23" s="187"/>
-      <c r="V23" s="187"/>
-      <c r="W23" s="187"/>
-      <c r="X23" s="187"/>
-      <c r="Y23" s="187"/>
-      <c r="Z23" s="187"/>
-      <c r="AA23" s="187"/>
-      <c r="AB23" s="187"/>
-      <c r="AC23" s="187"/>
-      <c r="AD23" s="187"/>
-      <c r="AE23" s="188"/>
-      <c r="AF23" s="183"/>
-      <c r="AG23" s="184"/>
-      <c r="AH23" s="184"/>
-      <c r="AI23" s="185"/>
+      <c r="B23" s="231"/>
+      <c r="C23" s="232"/>
+      <c r="D23" s="233"/>
+      <c r="E23" s="234"/>
+      <c r="F23" s="235"/>
+      <c r="G23" s="231"/>
+      <c r="H23" s="236"/>
+      <c r="I23" s="232"/>
+      <c r="J23" s="237"/>
+      <c r="K23" s="238"/>
+      <c r="L23" s="238"/>
+      <c r="M23" s="238"/>
+      <c r="N23" s="238"/>
+      <c r="O23" s="238"/>
+      <c r="P23" s="239"/>
+      <c r="Q23" s="240"/>
+      <c r="R23" s="241"/>
+      <c r="S23" s="241"/>
+      <c r="T23" s="241"/>
+      <c r="U23" s="241"/>
+      <c r="V23" s="241"/>
+      <c r="W23" s="241"/>
+      <c r="X23" s="241"/>
+      <c r="Y23" s="241"/>
+      <c r="Z23" s="241"/>
+      <c r="AA23" s="241"/>
+      <c r="AB23" s="241"/>
+      <c r="AC23" s="241"/>
+      <c r="AD23" s="241"/>
+      <c r="AE23" s="242"/>
+      <c r="AF23" s="237"/>
+      <c r="AG23" s="238"/>
+      <c r="AH23" s="238"/>
+      <c r="AI23" s="239"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="177"/>
-      <c r="C24" s="178"/>
-      <c r="D24" s="179"/>
-      <c r="E24" s="180"/>
-      <c r="F24" s="181"/>
-      <c r="G24" s="177"/>
-      <c r="H24" s="182"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="183"/>
-      <c r="K24" s="184"/>
-      <c r="L24" s="184"/>
-      <c r="M24" s="184"/>
-      <c r="N24" s="184"/>
-      <c r="O24" s="184"/>
-      <c r="P24" s="185"/>
-      <c r="Q24" s="186"/>
-      <c r="R24" s="187"/>
-      <c r="S24" s="187"/>
-      <c r="T24" s="187"/>
-      <c r="U24" s="187"/>
-      <c r="V24" s="187"/>
-      <c r="W24" s="187"/>
-      <c r="X24" s="187"/>
-      <c r="Y24" s="187"/>
-      <c r="Z24" s="187"/>
-      <c r="AA24" s="187"/>
-      <c r="AB24" s="187"/>
-      <c r="AC24" s="187"/>
-      <c r="AD24" s="187"/>
-      <c r="AE24" s="188"/>
-      <c r="AF24" s="183"/>
-      <c r="AG24" s="184"/>
-      <c r="AH24" s="184"/>
-      <c r="AI24" s="185"/>
+      <c r="B24" s="231"/>
+      <c r="C24" s="232"/>
+      <c r="D24" s="233"/>
+      <c r="E24" s="234"/>
+      <c r="F24" s="235"/>
+      <c r="G24" s="231"/>
+      <c r="H24" s="236"/>
+      <c r="I24" s="232"/>
+      <c r="J24" s="237"/>
+      <c r="K24" s="238"/>
+      <c r="L24" s="238"/>
+      <c r="M24" s="238"/>
+      <c r="N24" s="238"/>
+      <c r="O24" s="238"/>
+      <c r="P24" s="239"/>
+      <c r="Q24" s="240"/>
+      <c r="R24" s="241"/>
+      <c r="S24" s="241"/>
+      <c r="T24" s="241"/>
+      <c r="U24" s="241"/>
+      <c r="V24" s="241"/>
+      <c r="W24" s="241"/>
+      <c r="X24" s="241"/>
+      <c r="Y24" s="241"/>
+      <c r="Z24" s="241"/>
+      <c r="AA24" s="241"/>
+      <c r="AB24" s="241"/>
+      <c r="AC24" s="241"/>
+      <c r="AD24" s="241"/>
+      <c r="AE24" s="242"/>
+      <c r="AF24" s="237"/>
+      <c r="AG24" s="238"/>
+      <c r="AH24" s="238"/>
+      <c r="AI24" s="239"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="177"/>
-      <c r="C25" s="178"/>
-      <c r="D25" s="179"/>
-      <c r="E25" s="180"/>
-      <c r="F25" s="181"/>
-      <c r="G25" s="177"/>
-      <c r="H25" s="182"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="183"/>
-      <c r="K25" s="184"/>
-      <c r="L25" s="184"/>
-      <c r="M25" s="184"/>
-      <c r="N25" s="184"/>
-      <c r="O25" s="184"/>
-      <c r="P25" s="185"/>
-      <c r="Q25" s="186"/>
-      <c r="R25" s="187"/>
-      <c r="S25" s="187"/>
-      <c r="T25" s="187"/>
-      <c r="U25" s="187"/>
-      <c r="V25" s="187"/>
-      <c r="W25" s="187"/>
-      <c r="X25" s="187"/>
-      <c r="Y25" s="187"/>
-      <c r="Z25" s="187"/>
-      <c r="AA25" s="187"/>
-      <c r="AB25" s="187"/>
-      <c r="AC25" s="187"/>
-      <c r="AD25" s="187"/>
-      <c r="AE25" s="188"/>
-      <c r="AF25" s="183"/>
-      <c r="AG25" s="184"/>
-      <c r="AH25" s="184"/>
-      <c r="AI25" s="185"/>
+      <c r="B25" s="231"/>
+      <c r="C25" s="232"/>
+      <c r="D25" s="233"/>
+      <c r="E25" s="234"/>
+      <c r="F25" s="235"/>
+      <c r="G25" s="231"/>
+      <c r="H25" s="236"/>
+      <c r="I25" s="232"/>
+      <c r="J25" s="237"/>
+      <c r="K25" s="238"/>
+      <c r="L25" s="238"/>
+      <c r="M25" s="238"/>
+      <c r="N25" s="238"/>
+      <c r="O25" s="238"/>
+      <c r="P25" s="239"/>
+      <c r="Q25" s="240"/>
+      <c r="R25" s="241"/>
+      <c r="S25" s="241"/>
+      <c r="T25" s="241"/>
+      <c r="U25" s="241"/>
+      <c r="V25" s="241"/>
+      <c r="W25" s="241"/>
+      <c r="X25" s="241"/>
+      <c r="Y25" s="241"/>
+      <c r="Z25" s="241"/>
+      <c r="AA25" s="241"/>
+      <c r="AB25" s="241"/>
+      <c r="AC25" s="241"/>
+      <c r="AD25" s="241"/>
+      <c r="AE25" s="242"/>
+      <c r="AF25" s="237"/>
+      <c r="AG25" s="238"/>
+      <c r="AH25" s="238"/>
+      <c r="AI25" s="239"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="177"/>
-      <c r="C26" s="178"/>
-      <c r="D26" s="179"/>
-      <c r="E26" s="180"/>
-      <c r="F26" s="181"/>
-      <c r="G26" s="177"/>
-      <c r="H26" s="182"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="183"/>
-      <c r="K26" s="184"/>
-      <c r="L26" s="184"/>
-      <c r="M26" s="184"/>
-      <c r="N26" s="184"/>
-      <c r="O26" s="184"/>
-      <c r="P26" s="185"/>
-      <c r="Q26" s="186"/>
-      <c r="R26" s="187"/>
-      <c r="S26" s="187"/>
-      <c r="T26" s="187"/>
-      <c r="U26" s="187"/>
-      <c r="V26" s="187"/>
-      <c r="W26" s="187"/>
-      <c r="X26" s="187"/>
-      <c r="Y26" s="187"/>
-      <c r="Z26" s="187"/>
-      <c r="AA26" s="187"/>
-      <c r="AB26" s="187"/>
-      <c r="AC26" s="187"/>
-      <c r="AD26" s="187"/>
-      <c r="AE26" s="188"/>
-      <c r="AF26" s="183"/>
-      <c r="AG26" s="184"/>
-      <c r="AH26" s="184"/>
-      <c r="AI26" s="185"/>
+      <c r="B26" s="231"/>
+      <c r="C26" s="232"/>
+      <c r="D26" s="233"/>
+      <c r="E26" s="234"/>
+      <c r="F26" s="235"/>
+      <c r="G26" s="231"/>
+      <c r="H26" s="236"/>
+      <c r="I26" s="232"/>
+      <c r="J26" s="237"/>
+      <c r="K26" s="238"/>
+      <c r="L26" s="238"/>
+      <c r="M26" s="238"/>
+      <c r="N26" s="238"/>
+      <c r="O26" s="238"/>
+      <c r="P26" s="239"/>
+      <c r="Q26" s="240"/>
+      <c r="R26" s="241"/>
+      <c r="S26" s="241"/>
+      <c r="T26" s="241"/>
+      <c r="U26" s="241"/>
+      <c r="V26" s="241"/>
+      <c r="W26" s="241"/>
+      <c r="X26" s="241"/>
+      <c r="Y26" s="241"/>
+      <c r="Z26" s="241"/>
+      <c r="AA26" s="241"/>
+      <c r="AB26" s="241"/>
+      <c r="AC26" s="241"/>
+      <c r="AD26" s="241"/>
+      <c r="AE26" s="242"/>
+      <c r="AF26" s="237"/>
+      <c r="AG26" s="238"/>
+      <c r="AH26" s="238"/>
+      <c r="AI26" s="239"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="177"/>
-      <c r="C27" s="178"/>
-      <c r="D27" s="179"/>
-      <c r="E27" s="180"/>
-      <c r="F27" s="181"/>
-      <c r="G27" s="177"/>
-      <c r="H27" s="182"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="183"/>
-      <c r="K27" s="184"/>
-      <c r="L27" s="184"/>
-      <c r="M27" s="184"/>
-      <c r="N27" s="184"/>
-      <c r="O27" s="184"/>
-      <c r="P27" s="185"/>
-      <c r="Q27" s="186"/>
-      <c r="R27" s="187"/>
-      <c r="S27" s="187"/>
-      <c r="T27" s="187"/>
-      <c r="U27" s="187"/>
-      <c r="V27" s="187"/>
-      <c r="W27" s="187"/>
-      <c r="X27" s="187"/>
-      <c r="Y27" s="187"/>
-      <c r="Z27" s="187"/>
-      <c r="AA27" s="187"/>
-      <c r="AB27" s="187"/>
-      <c r="AC27" s="187"/>
-      <c r="AD27" s="187"/>
-      <c r="AE27" s="188"/>
-      <c r="AF27" s="183"/>
-      <c r="AG27" s="184"/>
-      <c r="AH27" s="184"/>
-      <c r="AI27" s="185"/>
+      <c r="B27" s="231"/>
+      <c r="C27" s="232"/>
+      <c r="D27" s="233"/>
+      <c r="E27" s="234"/>
+      <c r="F27" s="235"/>
+      <c r="G27" s="231"/>
+      <c r="H27" s="236"/>
+      <c r="I27" s="232"/>
+      <c r="J27" s="237"/>
+      <c r="K27" s="238"/>
+      <c r="L27" s="238"/>
+      <c r="M27" s="238"/>
+      <c r="N27" s="238"/>
+      <c r="O27" s="238"/>
+      <c r="P27" s="239"/>
+      <c r="Q27" s="240"/>
+      <c r="R27" s="241"/>
+      <c r="S27" s="241"/>
+      <c r="T27" s="241"/>
+      <c r="U27" s="241"/>
+      <c r="V27" s="241"/>
+      <c r="W27" s="241"/>
+      <c r="X27" s="241"/>
+      <c r="Y27" s="241"/>
+      <c r="Z27" s="241"/>
+      <c r="AA27" s="241"/>
+      <c r="AB27" s="241"/>
+      <c r="AC27" s="241"/>
+      <c r="AD27" s="241"/>
+      <c r="AE27" s="242"/>
+      <c r="AF27" s="237"/>
+      <c r="AG27" s="238"/>
+      <c r="AH27" s="238"/>
+      <c r="AI27" s="239"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="177"/>
-      <c r="C28" s="178"/>
-      <c r="D28" s="179"/>
-      <c r="E28" s="180"/>
-      <c r="F28" s="181"/>
-      <c r="G28" s="177"/>
-      <c r="H28" s="182"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="183"/>
-      <c r="K28" s="184"/>
-      <c r="L28" s="184"/>
-      <c r="M28" s="184"/>
-      <c r="N28" s="184"/>
-      <c r="O28" s="184"/>
-      <c r="P28" s="185"/>
-      <c r="Q28" s="186"/>
-      <c r="R28" s="187"/>
-      <c r="S28" s="187"/>
-      <c r="T28" s="187"/>
-      <c r="U28" s="187"/>
-      <c r="V28" s="187"/>
-      <c r="W28" s="187"/>
-      <c r="X28" s="187"/>
-      <c r="Y28" s="187"/>
-      <c r="Z28" s="187"/>
-      <c r="AA28" s="187"/>
-      <c r="AB28" s="187"/>
-      <c r="AC28" s="187"/>
-      <c r="AD28" s="187"/>
-      <c r="AE28" s="188"/>
-      <c r="AF28" s="183"/>
-      <c r="AG28" s="184"/>
-      <c r="AH28" s="184"/>
-      <c r="AI28" s="185"/>
+      <c r="B28" s="231"/>
+      <c r="C28" s="232"/>
+      <c r="D28" s="233"/>
+      <c r="E28" s="234"/>
+      <c r="F28" s="235"/>
+      <c r="G28" s="231"/>
+      <c r="H28" s="236"/>
+      <c r="I28" s="232"/>
+      <c r="J28" s="237"/>
+      <c r="K28" s="238"/>
+      <c r="L28" s="238"/>
+      <c r="M28" s="238"/>
+      <c r="N28" s="238"/>
+      <c r="O28" s="238"/>
+      <c r="P28" s="239"/>
+      <c r="Q28" s="240"/>
+      <c r="R28" s="241"/>
+      <c r="S28" s="241"/>
+      <c r="T28" s="241"/>
+      <c r="U28" s="241"/>
+      <c r="V28" s="241"/>
+      <c r="W28" s="241"/>
+      <c r="X28" s="241"/>
+      <c r="Y28" s="241"/>
+      <c r="Z28" s="241"/>
+      <c r="AA28" s="241"/>
+      <c r="AB28" s="241"/>
+      <c r="AC28" s="241"/>
+      <c r="AD28" s="241"/>
+      <c r="AE28" s="242"/>
+      <c r="AF28" s="237"/>
+      <c r="AG28" s="238"/>
+      <c r="AH28" s="238"/>
+      <c r="AI28" s="239"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="177"/>
-      <c r="C29" s="178"/>
-      <c r="D29" s="179"/>
-      <c r="E29" s="180"/>
-      <c r="F29" s="181"/>
-      <c r="G29" s="177"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="183"/>
-      <c r="K29" s="184"/>
-      <c r="L29" s="184"/>
-      <c r="M29" s="184"/>
-      <c r="N29" s="184"/>
-      <c r="O29" s="184"/>
-      <c r="P29" s="185"/>
-      <c r="Q29" s="186"/>
-      <c r="R29" s="187"/>
-      <c r="S29" s="187"/>
-      <c r="T29" s="187"/>
-      <c r="U29" s="187"/>
-      <c r="V29" s="187"/>
-      <c r="W29" s="187"/>
-      <c r="X29" s="187"/>
-      <c r="Y29" s="187"/>
-      <c r="Z29" s="187"/>
-      <c r="AA29" s="187"/>
-      <c r="AB29" s="187"/>
-      <c r="AC29" s="187"/>
-      <c r="AD29" s="187"/>
-      <c r="AE29" s="188"/>
-      <c r="AF29" s="183"/>
-      <c r="AG29" s="184"/>
-      <c r="AH29" s="184"/>
-      <c r="AI29" s="185"/>
+      <c r="B29" s="231"/>
+      <c r="C29" s="232"/>
+      <c r="D29" s="233"/>
+      <c r="E29" s="234"/>
+      <c r="F29" s="235"/>
+      <c r="G29" s="231"/>
+      <c r="H29" s="236"/>
+      <c r="I29" s="232"/>
+      <c r="J29" s="237"/>
+      <c r="K29" s="238"/>
+      <c r="L29" s="238"/>
+      <c r="M29" s="238"/>
+      <c r="N29" s="238"/>
+      <c r="O29" s="238"/>
+      <c r="P29" s="239"/>
+      <c r="Q29" s="240"/>
+      <c r="R29" s="241"/>
+      <c r="S29" s="241"/>
+      <c r="T29" s="241"/>
+      <c r="U29" s="241"/>
+      <c r="V29" s="241"/>
+      <c r="W29" s="241"/>
+      <c r="X29" s="241"/>
+      <c r="Y29" s="241"/>
+      <c r="Z29" s="241"/>
+      <c r="AA29" s="241"/>
+      <c r="AB29" s="241"/>
+      <c r="AC29" s="241"/>
+      <c r="AD29" s="241"/>
+      <c r="AE29" s="242"/>
+      <c r="AF29" s="237"/>
+      <c r="AG29" s="238"/>
+      <c r="AH29" s="238"/>
+      <c r="AI29" s="239"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="177"/>
-      <c r="C30" s="178"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="180"/>
-      <c r="F30" s="181"/>
-      <c r="G30" s="177"/>
-      <c r="H30" s="182"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="183"/>
-      <c r="K30" s="184"/>
-      <c r="L30" s="184"/>
-      <c r="M30" s="184"/>
-      <c r="N30" s="184"/>
-      <c r="O30" s="184"/>
-      <c r="P30" s="185"/>
-      <c r="Q30" s="186"/>
-      <c r="R30" s="187"/>
-      <c r="S30" s="187"/>
-      <c r="T30" s="187"/>
-      <c r="U30" s="187"/>
-      <c r="V30" s="187"/>
-      <c r="W30" s="187"/>
-      <c r="X30" s="187"/>
-      <c r="Y30" s="187"/>
-      <c r="Z30" s="187"/>
-      <c r="AA30" s="187"/>
-      <c r="AB30" s="187"/>
-      <c r="AC30" s="187"/>
-      <c r="AD30" s="187"/>
-      <c r="AE30" s="188"/>
-      <c r="AF30" s="183"/>
-      <c r="AG30" s="184"/>
-      <c r="AH30" s="184"/>
-      <c r="AI30" s="185"/>
+      <c r="B30" s="231"/>
+      <c r="C30" s="232"/>
+      <c r="D30" s="233"/>
+      <c r="E30" s="234"/>
+      <c r="F30" s="235"/>
+      <c r="G30" s="231"/>
+      <c r="H30" s="236"/>
+      <c r="I30" s="232"/>
+      <c r="J30" s="237"/>
+      <c r="K30" s="238"/>
+      <c r="L30" s="238"/>
+      <c r="M30" s="238"/>
+      <c r="N30" s="238"/>
+      <c r="O30" s="238"/>
+      <c r="P30" s="239"/>
+      <c r="Q30" s="240"/>
+      <c r="R30" s="241"/>
+      <c r="S30" s="241"/>
+      <c r="T30" s="241"/>
+      <c r="U30" s="241"/>
+      <c r="V30" s="241"/>
+      <c r="W30" s="241"/>
+      <c r="X30" s="241"/>
+      <c r="Y30" s="241"/>
+      <c r="Z30" s="241"/>
+      <c r="AA30" s="241"/>
+      <c r="AB30" s="241"/>
+      <c r="AC30" s="241"/>
+      <c r="AD30" s="241"/>
+      <c r="AE30" s="242"/>
+      <c r="AF30" s="237"/>
+      <c r="AG30" s="238"/>
+      <c r="AH30" s="238"/>
+      <c r="AI30" s="239"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="177"/>
-      <c r="C31" s="178"/>
-      <c r="D31" s="179"/>
-      <c r="E31" s="180"/>
-      <c r="F31" s="181"/>
-      <c r="G31" s="177"/>
-      <c r="H31" s="182"/>
-      <c r="I31" s="178"/>
-      <c r="J31" s="183"/>
-      <c r="K31" s="184"/>
-      <c r="L31" s="184"/>
-      <c r="M31" s="184"/>
-      <c r="N31" s="184"/>
-      <c r="O31" s="184"/>
-      <c r="P31" s="185"/>
-      <c r="Q31" s="186"/>
-      <c r="R31" s="187"/>
-      <c r="S31" s="187"/>
-      <c r="T31" s="187"/>
-      <c r="U31" s="187"/>
-      <c r="V31" s="187"/>
-      <c r="W31" s="187"/>
-      <c r="X31" s="187"/>
-      <c r="Y31" s="187"/>
-      <c r="Z31" s="187"/>
-      <c r="AA31" s="187"/>
-      <c r="AB31" s="187"/>
-      <c r="AC31" s="187"/>
-      <c r="AD31" s="187"/>
-      <c r="AE31" s="188"/>
-      <c r="AF31" s="183"/>
-      <c r="AG31" s="184"/>
-      <c r="AH31" s="184"/>
-      <c r="AI31" s="185"/>
+      <c r="B31" s="231"/>
+      <c r="C31" s="232"/>
+      <c r="D31" s="233"/>
+      <c r="E31" s="234"/>
+      <c r="F31" s="235"/>
+      <c r="G31" s="231"/>
+      <c r="H31" s="236"/>
+      <c r="I31" s="232"/>
+      <c r="J31" s="237"/>
+      <c r="K31" s="238"/>
+      <c r="L31" s="238"/>
+      <c r="M31" s="238"/>
+      <c r="N31" s="238"/>
+      <c r="O31" s="238"/>
+      <c r="P31" s="239"/>
+      <c r="Q31" s="240"/>
+      <c r="R31" s="241"/>
+      <c r="S31" s="241"/>
+      <c r="T31" s="241"/>
+      <c r="U31" s="241"/>
+      <c r="V31" s="241"/>
+      <c r="W31" s="241"/>
+      <c r="X31" s="241"/>
+      <c r="Y31" s="241"/>
+      <c r="Z31" s="241"/>
+      <c r="AA31" s="241"/>
+      <c r="AB31" s="241"/>
+      <c r="AC31" s="241"/>
+      <c r="AD31" s="241"/>
+      <c r="AE31" s="242"/>
+      <c r="AF31" s="237"/>
+      <c r="AG31" s="238"/>
+      <c r="AH31" s="238"/>
+      <c r="AI31" s="239"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="177"/>
-      <c r="C32" s="178"/>
-      <c r="D32" s="179"/>
-      <c r="E32" s="180"/>
-      <c r="F32" s="181"/>
-      <c r="G32" s="177"/>
-      <c r="H32" s="182"/>
-      <c r="I32" s="178"/>
-      <c r="J32" s="183"/>
-      <c r="K32" s="189"/>
-      <c r="L32" s="184"/>
-      <c r="M32" s="184"/>
-      <c r="N32" s="184"/>
-      <c r="O32" s="184"/>
-      <c r="P32" s="185"/>
-      <c r="Q32" s="186"/>
-      <c r="R32" s="187"/>
-      <c r="S32" s="187"/>
-      <c r="T32" s="187"/>
-      <c r="U32" s="187"/>
-      <c r="V32" s="187"/>
-      <c r="W32" s="187"/>
-      <c r="X32" s="187"/>
-      <c r="Y32" s="187"/>
-      <c r="Z32" s="187"/>
-      <c r="AA32" s="187"/>
-      <c r="AB32" s="187"/>
-      <c r="AC32" s="187"/>
-      <c r="AD32" s="187"/>
-      <c r="AE32" s="188"/>
-      <c r="AF32" s="183"/>
-      <c r="AG32" s="184"/>
-      <c r="AH32" s="184"/>
-      <c r="AI32" s="185"/>
+      <c r="B32" s="231"/>
+      <c r="C32" s="232"/>
+      <c r="D32" s="233"/>
+      <c r="E32" s="234"/>
+      <c r="F32" s="235"/>
+      <c r="G32" s="231"/>
+      <c r="H32" s="236"/>
+      <c r="I32" s="232"/>
+      <c r="J32" s="237"/>
+      <c r="K32" s="252"/>
+      <c r="L32" s="238"/>
+      <c r="M32" s="238"/>
+      <c r="N32" s="238"/>
+      <c r="O32" s="238"/>
+      <c r="P32" s="239"/>
+      <c r="Q32" s="240"/>
+      <c r="R32" s="241"/>
+      <c r="S32" s="241"/>
+      <c r="T32" s="241"/>
+      <c r="U32" s="241"/>
+      <c r="V32" s="241"/>
+      <c r="W32" s="241"/>
+      <c r="X32" s="241"/>
+      <c r="Y32" s="241"/>
+      <c r="Z32" s="241"/>
+      <c r="AA32" s="241"/>
+      <c r="AB32" s="241"/>
+      <c r="AC32" s="241"/>
+      <c r="AD32" s="241"/>
+      <c r="AE32" s="242"/>
+      <c r="AF32" s="237"/>
+      <c r="AG32" s="238"/>
+      <c r="AH32" s="238"/>
+      <c r="AI32" s="239"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="177"/>
-      <c r="C33" s="178"/>
-      <c r="D33" s="179"/>
-      <c r="E33" s="180"/>
-      <c r="F33" s="181"/>
-      <c r="G33" s="177"/>
-      <c r="H33" s="182"/>
-      <c r="I33" s="178"/>
-      <c r="J33" s="183"/>
-      <c r="K33" s="184"/>
-      <c r="L33" s="184"/>
-      <c r="M33" s="184"/>
-      <c r="N33" s="184"/>
-      <c r="O33" s="184"/>
-      <c r="P33" s="185"/>
-      <c r="Q33" s="186"/>
-      <c r="R33" s="187"/>
-      <c r="S33" s="187"/>
-      <c r="T33" s="187"/>
-      <c r="U33" s="187"/>
-      <c r="V33" s="187"/>
-      <c r="W33" s="187"/>
-      <c r="X33" s="187"/>
-      <c r="Y33" s="187"/>
-      <c r="Z33" s="187"/>
-      <c r="AA33" s="187"/>
-      <c r="AB33" s="187"/>
-      <c r="AC33" s="187"/>
-      <c r="AD33" s="187"/>
-      <c r="AE33" s="188"/>
-      <c r="AF33" s="183"/>
-      <c r="AG33" s="184"/>
-      <c r="AH33" s="184"/>
-      <c r="AI33" s="185"/>
+      <c r="B33" s="231"/>
+      <c r="C33" s="232"/>
+      <c r="D33" s="233"/>
+      <c r="E33" s="234"/>
+      <c r="F33" s="235"/>
+      <c r="G33" s="231"/>
+      <c r="H33" s="236"/>
+      <c r="I33" s="232"/>
+      <c r="J33" s="237"/>
+      <c r="K33" s="238"/>
+      <c r="L33" s="238"/>
+      <c r="M33" s="238"/>
+      <c r="N33" s="238"/>
+      <c r="O33" s="238"/>
+      <c r="P33" s="239"/>
+      <c r="Q33" s="240"/>
+      <c r="R33" s="241"/>
+      <c r="S33" s="241"/>
+      <c r="T33" s="241"/>
+      <c r="U33" s="241"/>
+      <c r="V33" s="241"/>
+      <c r="W33" s="241"/>
+      <c r="X33" s="241"/>
+      <c r="Y33" s="241"/>
+      <c r="Z33" s="241"/>
+      <c r="AA33" s="241"/>
+      <c r="AB33" s="241"/>
+      <c r="AC33" s="241"/>
+      <c r="AD33" s="241"/>
+      <c r="AE33" s="242"/>
+      <c r="AF33" s="237"/>
+      <c r="AG33" s="238"/>
+      <c r="AH33" s="238"/>
+      <c r="AI33" s="239"/>
     </row>
     <row r="34" spans="1:35" ht="14">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="178">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -11466,161 +11626,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -15402,7 +15407,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B112" s="235" t="s">
+      <c r="B112" s="253" t="s">
         <v>195</v>
       </c>
       <c r="C112" s="56"/>
@@ -15438,7 +15443,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B113" s="235"/>
+      <c r="B113" s="253"/>
       <c r="C113" s="56"/>
       <c r="D113" s="43"/>
       <c r="E113" s="86"/>
@@ -16110,7 +16115,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B132" s="235" t="s">
+      <c r="B132" s="253" t="s">
         <v>223</v>
       </c>
       <c r="C132" s="56"/>
@@ -16146,7 +16151,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B133" s="235"/>
+      <c r="B133" s="253"/>
       <c r="C133" s="56"/>
       <c r="D133" s="43"/>
       <c r="E133" s="43"/>
@@ -23123,13 +23128,13 @@
       <c r="B42" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="254" t="s">
+      <c r="C42" s="193" t="s">
         <v>93</v>
       </c>
-      <c r="D42" s="254" t="s">
+      <c r="D42" s="193" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="254" t="s">
+      <c r="E42" s="193" t="s">
         <v>95</v>
       </c>
       <c r="F42" s="51" t="s">
@@ -23140,7 +23145,7 @@
       </c>
       <c r="H42" s="51"/>
       <c r="I42" s="51"/>
-      <c r="J42" s="241"/>
+      <c r="J42" s="180"/>
       <c r="K42" s="65"/>
       <c r="L42" s="66"/>
       <c r="M42" s="67"/>
@@ -23174,7 +23179,7 @@
       </c>
       <c r="H43" s="51"/>
       <c r="I43" s="51"/>
-      <c r="J43" s="241"/>
+      <c r="J43" s="180"/>
       <c r="K43" s="65"/>
       <c r="L43" s="66"/>
       <c r="M43" s="67"/>
@@ -23208,7 +23213,7 @@
       </c>
       <c r="H44" s="51"/>
       <c r="I44" s="51"/>
-      <c r="J44" s="241"/>
+      <c r="J44" s="180"/>
       <c r="K44" s="65"/>
       <c r="L44" s="66"/>
       <c r="M44" s="163"/>
@@ -23244,7 +23249,7 @@
       </c>
       <c r="H45" s="51"/>
       <c r="I45" s="51"/>
-      <c r="J45" s="241"/>
+      <c r="J45" s="180"/>
       <c r="K45" s="65"/>
       <c r="L45" s="66"/>
       <c r="M45" s="163"/>
@@ -23278,7 +23283,7 @@
       </c>
       <c r="H46" s="51"/>
       <c r="I46" s="51"/>
-      <c r="J46" s="241"/>
+      <c r="J46" s="180"/>
       <c r="K46" s="65"/>
       <c r="L46" s="66"/>
       <c r="M46" s="163"/>
@@ -23312,7 +23317,7 @@
       </c>
       <c r="H47" s="51"/>
       <c r="I47" s="51"/>
-      <c r="J47" s="241"/>
+      <c r="J47" s="180"/>
       <c r="K47" s="65"/>
       <c r="L47" s="66"/>
       <c r="M47" s="163"/>
@@ -23348,7 +23353,7 @@
       </c>
       <c r="H48" s="51"/>
       <c r="I48" s="51"/>
-      <c r="J48" s="241"/>
+      <c r="J48" s="180"/>
       <c r="K48" s="65"/>
       <c r="L48" s="66"/>
       <c r="M48" s="67"/>
@@ -23382,7 +23387,7 @@
       </c>
       <c r="H49" s="51"/>
       <c r="I49" s="51"/>
-      <c r="J49" s="241"/>
+      <c r="J49" s="180"/>
       <c r="K49" s="65"/>
       <c r="L49" s="66"/>
       <c r="M49" s="67"/>
@@ -23418,7 +23423,7 @@
       </c>
       <c r="H50" s="51"/>
       <c r="I50" s="51"/>
-      <c r="J50" s="241"/>
+      <c r="J50" s="180"/>
       <c r="K50" s="65"/>
       <c r="L50" s="66"/>
       <c r="M50" s="163"/>
@@ -23452,7 +23457,7 @@
       </c>
       <c r="H51" s="51"/>
       <c r="I51" s="51"/>
-      <c r="J51" s="241"/>
+      <c r="J51" s="180"/>
       <c r="K51" s="65"/>
       <c r="L51" s="66"/>
       <c r="M51" s="163"/>
@@ -23486,7 +23491,7 @@
       </c>
       <c r="H52" s="51"/>
       <c r="I52" s="51"/>
-      <c r="J52" s="241"/>
+      <c r="J52" s="180"/>
       <c r="K52" s="65"/>
       <c r="L52" s="66"/>
       <c r="M52" s="163"/>
@@ -23520,7 +23525,7 @@
       </c>
       <c r="H53" s="51"/>
       <c r="I53" s="51"/>
-      <c r="J53" s="241"/>
+      <c r="J53" s="180"/>
       <c r="K53" s="65"/>
       <c r="L53" s="66"/>
       <c r="M53" s="163"/>
@@ -23554,7 +23559,7 @@
       </c>
       <c r="H54" s="51"/>
       <c r="I54" s="51"/>
-      <c r="J54" s="241"/>
+      <c r="J54" s="180"/>
       <c r="K54" s="65"/>
       <c r="L54" s="66"/>
       <c r="M54" s="163"/>
@@ -23588,7 +23593,7 @@
       </c>
       <c r="H55" s="51"/>
       <c r="I55" s="51"/>
-      <c r="J55" s="241"/>
+      <c r="J55" s="180"/>
       <c r="K55" s="65"/>
       <c r="L55" s="66"/>
       <c r="M55" s="163"/>
@@ -23624,7 +23629,7 @@
       </c>
       <c r="H56" s="51"/>
       <c r="I56" s="51"/>
-      <c r="J56" s="241"/>
+      <c r="J56" s="180"/>
       <c r="K56" s="65"/>
       <c r="L56" s="66"/>
       <c r="M56" s="163"/>
@@ -23660,7 +23665,7 @@
       </c>
       <c r="H57" s="51"/>
       <c r="I57" s="51"/>
-      <c r="J57" s="241"/>
+      <c r="J57" s="180"/>
       <c r="K57" s="65"/>
       <c r="L57" s="66"/>
       <c r="M57" s="163"/>
@@ -23696,7 +23701,7 @@
       </c>
       <c r="H58" s="51"/>
       <c r="I58" s="51"/>
-      <c r="J58" s="241"/>
+      <c r="J58" s="180"/>
       <c r="K58" s="65"/>
       <c r="L58" s="66"/>
       <c r="M58" s="163"/>
@@ -23734,7 +23739,7 @@
       </c>
       <c r="H59" s="51"/>
       <c r="I59" s="51"/>
-      <c r="J59" s="241"/>
+      <c r="J59" s="180"/>
       <c r="K59" s="65"/>
       <c r="L59" s="66"/>
       <c r="M59" s="163"/>
@@ -23768,7 +23773,7 @@
       </c>
       <c r="H60" s="51"/>
       <c r="I60" s="51"/>
-      <c r="J60" s="241"/>
+      <c r="J60" s="180"/>
       <c r="K60" s="65"/>
       <c r="L60" s="66"/>
       <c r="M60" s="163"/>
@@ -23802,7 +23807,7 @@
       </c>
       <c r="H61" s="51"/>
       <c r="I61" s="51"/>
-      <c r="J61" s="241"/>
+      <c r="J61" s="180"/>
       <c r="K61" s="65"/>
       <c r="L61" s="66"/>
       <c r="M61" s="163"/>
@@ -23836,7 +23841,7 @@
       </c>
       <c r="H62" s="51"/>
       <c r="I62" s="51"/>
-      <c r="J62" s="241"/>
+      <c r="J62" s="180"/>
       <c r="K62" s="65"/>
       <c r="L62" s="66"/>
       <c r="M62" s="163"/>
@@ -23870,7 +23875,7 @@
       </c>
       <c r="H63" s="51"/>
       <c r="I63" s="51"/>
-      <c r="J63" s="241"/>
+      <c r="J63" s="180"/>
       <c r="K63" s="65"/>
       <c r="L63" s="66"/>
       <c r="M63" s="163"/>
@@ -23906,7 +23911,7 @@
       </c>
       <c r="H64" s="51"/>
       <c r="I64" s="51"/>
-      <c r="J64" s="241"/>
+      <c r="J64" s="180"/>
       <c r="K64" s="65"/>
       <c r="L64" s="66"/>
       <c r="M64" s="163"/>
@@ -23940,7 +23945,7 @@
       </c>
       <c r="H65" s="51"/>
       <c r="I65" s="51"/>
-      <c r="J65" s="241"/>
+      <c r="J65" s="180"/>
       <c r="K65" s="65"/>
       <c r="L65" s="66"/>
       <c r="M65" s="163"/>
@@ -23974,7 +23979,7 @@
       </c>
       <c r="H66" s="51"/>
       <c r="I66" s="51"/>
-      <c r="J66" s="241"/>
+      <c r="J66" s="180"/>
       <c r="K66" s="65"/>
       <c r="L66" s="66"/>
       <c r="M66" s="163"/>
@@ -24008,7 +24013,7 @@
       </c>
       <c r="H67" s="51"/>
       <c r="I67" s="51"/>
-      <c r="J67" s="241"/>
+      <c r="J67" s="180"/>
       <c r="K67" s="65"/>
       <c r="L67" s="66"/>
       <c r="M67" s="163"/>
@@ -24042,7 +24047,7 @@
       </c>
       <c r="H68" s="51"/>
       <c r="I68" s="51"/>
-      <c r="J68" s="241"/>
+      <c r="J68" s="180"/>
       <c r="K68" s="65"/>
       <c r="L68" s="66"/>
       <c r="M68" s="163"/>
@@ -24076,7 +24081,7 @@
       </c>
       <c r="H69" s="51"/>
       <c r="I69" s="51"/>
-      <c r="J69" s="241"/>
+      <c r="J69" s="180"/>
       <c r="K69" s="65"/>
       <c r="L69" s="66"/>
       <c r="M69" s="163"/>
@@ -24110,7 +24115,7 @@
       </c>
       <c r="H70" s="51"/>
       <c r="I70" s="51"/>
-      <c r="J70" s="241"/>
+      <c r="J70" s="180"/>
       <c r="K70" s="65"/>
       <c r="L70" s="66"/>
       <c r="M70" s="163"/>
@@ -24144,13 +24149,13 @@
       </c>
       <c r="H71" s="42"/>
       <c r="I71" s="42"/>
-      <c r="J71" s="243"/>
-      <c r="K71" s="253"/>
+      <c r="J71" s="182"/>
+      <c r="K71" s="192"/>
       <c r="L71" s="169"/>
-      <c r="M71" s="251"/>
+      <c r="M71" s="190"/>
       <c r="N71" s="170"/>
-      <c r="O71" s="252"/>
-      <c r="P71" s="251"/>
+      <c r="O71" s="191"/>
+      <c r="P71" s="190"/>
       <c r="Q71" s="170"/>
     </row>
     <row r="72" spans="1:17" s="32" customFormat="1" ht="22">
@@ -24166,9 +24171,9 @@
 )</f>
         <v>22-1-1</v>
       </c>
-      <c r="B72" s="250"/>
-      <c r="C72" s="250"/>
-      <c r="D72" s="249"/>
+      <c r="B72" s="189"/>
+      <c r="C72" s="189"/>
+      <c r="D72" s="188"/>
       <c r="E72" s="42" t="s">
         <v>133</v>
       </c>
@@ -24179,7 +24184,7 @@
         <v>484</v>
       </c>
       <c r="H72" s="51"/>
-      <c r="I72" s="248"/>
+      <c r="I72" s="187"/>
       <c r="J72" s="65"/>
       <c r="K72" s="65"/>
       <c r="L72" s="65"/>
@@ -24203,7 +24208,7 @@
         <v>23-1-1</v>
       </c>
       <c r="B73" s="58"/>
-      <c r="C73" s="246"/>
+      <c r="C73" s="185"/>
       <c r="D73" s="175"/>
       <c r="E73" s="42" t="s">
         <v>135</v>
@@ -24215,7 +24220,7 @@
         <v>484</v>
       </c>
       <c r="H73" s="51"/>
-      <c r="I73" s="247"/>
+      <c r="I73" s="186"/>
       <c r="J73" s="65"/>
       <c r="K73" s="65"/>
       <c r="L73" s="65"/>
@@ -24239,7 +24244,7 @@
         <v>23-2-1</v>
       </c>
       <c r="B74" s="58"/>
-      <c r="C74" s="246"/>
+      <c r="C74" s="185"/>
       <c r="D74" s="175"/>
       <c r="E74" s="175"/>
       <c r="F74" s="51" t="s">
@@ -24250,7 +24255,7 @@
       </c>
       <c r="H74" s="51"/>
       <c r="I74" s="51"/>
-      <c r="J74" s="241"/>
+      <c r="J74" s="180"/>
       <c r="K74" s="65"/>
       <c r="L74" s="66"/>
       <c r="M74" s="163"/>
@@ -24273,7 +24278,7 @@
         <v>23-3-1</v>
       </c>
       <c r="B75" s="50"/>
-      <c r="C75" s="246"/>
+      <c r="C75" s="185"/>
       <c r="D75" s="175"/>
       <c r="E75" s="175"/>
       <c r="F75" s="51" t="s">
@@ -24284,7 +24289,7 @@
       </c>
       <c r="H75" s="51"/>
       <c r="I75" s="51"/>
-      <c r="J75" s="241"/>
+      <c r="J75" s="180"/>
       <c r="K75" s="67"/>
       <c r="L75" s="66"/>
       <c r="M75" s="67"/>
@@ -24307,7 +24312,7 @@
         <v>23-4-1</v>
       </c>
       <c r="B76" s="50"/>
-      <c r="C76" s="246"/>
+      <c r="C76" s="185"/>
       <c r="D76" s="175"/>
       <c r="E76" s="175"/>
       <c r="F76" s="51" t="s">
@@ -24318,7 +24323,7 @@
       </c>
       <c r="H76" s="51"/>
       <c r="I76" s="51"/>
-      <c r="J76" s="241"/>
+      <c r="J76" s="180"/>
       <c r="K76" s="67"/>
       <c r="L76" s="66"/>
       <c r="M76" s="67"/>
@@ -24341,7 +24346,7 @@
         <v>23-5-1</v>
       </c>
       <c r="B77" s="58"/>
-      <c r="C77" s="242"/>
+      <c r="C77" s="181"/>
       <c r="D77" s="54"/>
       <c r="E77" s="54"/>
       <c r="F77" s="51" t="s">
@@ -24352,7 +24357,7 @@
       </c>
       <c r="H77" s="51"/>
       <c r="I77" s="51"/>
-      <c r="J77" s="241"/>
+      <c r="J77" s="180"/>
       <c r="K77" s="67"/>
       <c r="L77" s="66"/>
       <c r="M77" s="67"/>
@@ -24392,7 +24397,7 @@
       </c>
       <c r="H78" s="51"/>
       <c r="I78" s="51"/>
-      <c r="J78" s="241"/>
+      <c r="J78" s="180"/>
       <c r="K78" s="65"/>
       <c r="L78" s="66"/>
       <c r="M78" s="67"/>
@@ -24415,7 +24420,7 @@
         <v>24-2-1</v>
       </c>
       <c r="B79" s="50"/>
-      <c r="C79" s="244"/>
+      <c r="C79" s="183"/>
       <c r="D79" s="175"/>
       <c r="E79" s="175"/>
       <c r="F79" s="42" t="s">
@@ -24426,7 +24431,7 @@
       </c>
       <c r="H79" s="51"/>
       <c r="I79" s="51"/>
-      <c r="J79" s="241"/>
+      <c r="J79" s="180"/>
       <c r="K79" s="65"/>
       <c r="L79" s="66"/>
       <c r="M79" s="67"/>
@@ -24449,7 +24454,7 @@
         <v>25-1-1</v>
       </c>
       <c r="B80" s="50"/>
-      <c r="C80" s="244"/>
+      <c r="C80" s="183"/>
       <c r="D80" s="175"/>
       <c r="E80" s="42" t="s">
         <v>146</v>
@@ -24462,7 +24467,7 @@
       </c>
       <c r="H80" s="51"/>
       <c r="I80" s="51"/>
-      <c r="J80" s="241"/>
+      <c r="J80" s="180"/>
       <c r="K80" s="67"/>
       <c r="L80" s="66"/>
       <c r="M80" s="67"/>
@@ -24485,7 +24490,7 @@
         <v>26-1-1</v>
       </c>
       <c r="B81" s="50"/>
-      <c r="C81" s="244"/>
+      <c r="C81" s="183"/>
       <c r="D81" s="175"/>
       <c r="E81" s="42" t="s">
         <v>148</v>
@@ -24498,7 +24503,7 @@
       </c>
       <c r="H81" s="51"/>
       <c r="I81" s="51"/>
-      <c r="J81" s="241"/>
+      <c r="J81" s="180"/>
       <c r="K81" s="65"/>
       <c r="L81" s="66"/>
       <c r="M81" s="67"/>
@@ -24521,7 +24526,7 @@
         <v>26-2-1</v>
       </c>
       <c r="B82" s="50"/>
-      <c r="C82" s="244"/>
+      <c r="C82" s="183"/>
       <c r="D82" s="175"/>
       <c r="E82" s="54"/>
       <c r="F82" s="51" t="s">
@@ -24532,7 +24537,7 @@
       </c>
       <c r="H82" s="51"/>
       <c r="I82" s="51"/>
-      <c r="J82" s="241"/>
+      <c r="J82" s="180"/>
       <c r="K82" s="67"/>
       <c r="L82" s="66"/>
       <c r="M82" s="67"/>
@@ -24555,7 +24560,7 @@
         <v>27-1-1</v>
       </c>
       <c r="B83" s="50"/>
-      <c r="C83" s="244"/>
+      <c r="C83" s="183"/>
       <c r="D83" s="175"/>
       <c r="E83" s="54" t="s">
         <v>151</v>
@@ -24568,7 +24573,7 @@
       </c>
       <c r="H83" s="51"/>
       <c r="I83" s="51"/>
-      <c r="J83" s="241"/>
+      <c r="J83" s="180"/>
       <c r="K83" s="67"/>
       <c r="L83" s="66"/>
       <c r="M83" s="67"/>
@@ -24604,7 +24609,7 @@
       </c>
       <c r="H84" s="51"/>
       <c r="I84" s="51"/>
-      <c r="J84" s="241"/>
+      <c r="J84" s="180"/>
       <c r="K84" s="67"/>
       <c r="L84" s="66"/>
       <c r="M84" s="67"/>
@@ -24643,8 +24648,8 @@
         <v>484</v>
       </c>
       <c r="H85" s="51"/>
-      <c r="I85" s="245"/>
-      <c r="J85" s="241"/>
+      <c r="I85" s="184"/>
+      <c r="J85" s="180"/>
       <c r="K85" s="67"/>
       <c r="L85" s="66"/>
       <c r="M85" s="67"/>
@@ -24667,7 +24672,7 @@
         <v>30-1-1</v>
       </c>
       <c r="B86" s="50"/>
-      <c r="C86" s="244"/>
+      <c r="C86" s="183"/>
       <c r="D86" s="175"/>
       <c r="E86" s="54" t="s">
         <v>146</v>
@@ -24679,8 +24684,8 @@
         <v>484</v>
       </c>
       <c r="H86" s="51"/>
-      <c r="I86" s="245"/>
-      <c r="J86" s="241"/>
+      <c r="I86" s="184"/>
+      <c r="J86" s="180"/>
       <c r="K86" s="67"/>
       <c r="L86" s="66"/>
       <c r="M86" s="67"/>
@@ -24716,7 +24721,7 @@
       </c>
       <c r="H87" s="51"/>
       <c r="I87" s="51"/>
-      <c r="J87" s="241"/>
+      <c r="J87" s="180"/>
       <c r="K87" s="67"/>
       <c r="L87" s="66"/>
       <c r="M87" s="67"/>
@@ -24755,8 +24760,8 @@
         <v>484</v>
       </c>
       <c r="H88" s="51"/>
-      <c r="I88" s="245"/>
-      <c r="J88" s="241"/>
+      <c r="I88" s="184"/>
+      <c r="J88" s="180"/>
       <c r="K88" s="67"/>
       <c r="L88" s="66"/>
       <c r="M88" s="67"/>
@@ -24779,7 +24784,7 @@
         <v>32-2-1</v>
       </c>
       <c r="B89" s="50"/>
-      <c r="C89" s="244"/>
+      <c r="C89" s="183"/>
       <c r="D89" s="175"/>
       <c r="E89" s="54"/>
       <c r="F89" s="42" t="s">
@@ -24789,8 +24794,8 @@
         <v>484</v>
       </c>
       <c r="H89" s="51"/>
-      <c r="I89" s="245"/>
-      <c r="J89" s="241"/>
+      <c r="I89" s="184"/>
+      <c r="J89" s="180"/>
       <c r="K89" s="67"/>
       <c r="L89" s="66"/>
       <c r="M89" s="67"/>
@@ -24813,7 +24818,7 @@
         <v>33-1-1</v>
       </c>
       <c r="B90" s="50"/>
-      <c r="C90" s="244"/>
+      <c r="C90" s="183"/>
       <c r="D90" s="175"/>
       <c r="E90" s="51" t="s">
         <v>146</v>
@@ -24825,8 +24830,8 @@
         <v>484</v>
       </c>
       <c r="H90" s="51"/>
-      <c r="I90" s="245"/>
-      <c r="J90" s="241"/>
+      <c r="I90" s="184"/>
+      <c r="J90" s="180"/>
       <c r="K90" s="67"/>
       <c r="L90" s="66"/>
       <c r="M90" s="67"/>
@@ -24849,7 +24854,7 @@
         <v>34-1-1</v>
       </c>
       <c r="B91" s="50"/>
-      <c r="C91" s="244"/>
+      <c r="C91" s="183"/>
       <c r="D91" s="175"/>
       <c r="E91" s="175" t="s">
         <v>148</v>
@@ -24862,7 +24867,7 @@
       </c>
       <c r="H91" s="51"/>
       <c r="I91" s="51"/>
-      <c r="J91" s="241"/>
+      <c r="J91" s="180"/>
       <c r="K91" s="67"/>
       <c r="L91" s="66"/>
       <c r="M91" s="67"/>
@@ -24885,7 +24890,7 @@
         <v>34-2-1</v>
       </c>
       <c r="B92" s="50"/>
-      <c r="C92" s="244"/>
+      <c r="C92" s="183"/>
       <c r="D92" s="175"/>
       <c r="E92" s="54"/>
       <c r="F92" s="51" t="s">
@@ -24896,7 +24901,7 @@
       </c>
       <c r="H92" s="51"/>
       <c r="I92" s="51"/>
-      <c r="J92" s="241"/>
+      <c r="J92" s="180"/>
       <c r="K92" s="67"/>
       <c r="L92" s="66"/>
       <c r="M92" s="67"/>
@@ -24932,7 +24937,7 @@
       </c>
       <c r="H93" s="51"/>
       <c r="I93" s="51"/>
-      <c r="J93" s="241"/>
+      <c r="J93" s="180"/>
       <c r="K93" s="67"/>
       <c r="L93" s="66"/>
       <c r="M93" s="67"/>
@@ -24972,7 +24977,7 @@
       </c>
       <c r="H94" s="51"/>
       <c r="I94" s="51"/>
-      <c r="J94" s="241"/>
+      <c r="J94" s="180"/>
       <c r="K94" s="67"/>
       <c r="L94" s="66"/>
       <c r="M94" s="67"/>
@@ -25006,7 +25011,7 @@
       </c>
       <c r="H95" s="51"/>
       <c r="I95" s="51"/>
-      <c r="J95" s="241"/>
+      <c r="J95" s="180"/>
       <c r="K95" s="67"/>
       <c r="L95" s="66"/>
       <c r="M95" s="67"/>
@@ -25040,7 +25045,7 @@
       </c>
       <c r="H96" s="51"/>
       <c r="I96" s="51"/>
-      <c r="J96" s="241"/>
+      <c r="J96" s="180"/>
       <c r="K96" s="67"/>
       <c r="L96" s="66"/>
       <c r="M96" s="67"/>
@@ -25063,7 +25068,7 @@
         <v>36-4-1</v>
       </c>
       <c r="B97" s="50"/>
-      <c r="C97" s="244"/>
+      <c r="C97" s="183"/>
       <c r="D97" s="175"/>
       <c r="E97" s="175"/>
       <c r="F97" s="51" t="s">
@@ -25074,7 +25079,7 @@
       </c>
       <c r="H97" s="51"/>
       <c r="I97" s="51"/>
-      <c r="J97" s="241"/>
+      <c r="J97" s="180"/>
       <c r="K97" s="67"/>
       <c r="L97" s="66"/>
       <c r="M97" s="67"/>
@@ -25097,7 +25102,7 @@
         <v>36-5-1</v>
       </c>
       <c r="B98" s="50"/>
-      <c r="C98" s="244"/>
+      <c r="C98" s="183"/>
       <c r="D98" s="175"/>
       <c r="E98" s="54"/>
       <c r="F98" s="51" t="s">
@@ -25108,7 +25113,7 @@
       </c>
       <c r="H98" s="51"/>
       <c r="I98" s="51"/>
-      <c r="J98" s="241"/>
+      <c r="J98" s="180"/>
       <c r="K98" s="67"/>
       <c r="L98" s="66"/>
       <c r="M98" s="67"/>
@@ -25143,8 +25148,8 @@
         <v>484</v>
       </c>
       <c r="H99" s="51"/>
-      <c r="I99" s="245"/>
-      <c r="J99" s="241"/>
+      <c r="I99" s="184"/>
+      <c r="J99" s="180"/>
       <c r="K99" s="67"/>
       <c r="L99" s="66"/>
       <c r="M99" s="67"/>
@@ -25166,7 +25171,7 @@
 )</f>
         <v>37-2-1</v>
       </c>
-      <c r="B100" s="246"/>
+      <c r="B100" s="185"/>
       <c r="C100" s="58"/>
       <c r="D100" s="175"/>
       <c r="E100" s="175"/>
@@ -25178,7 +25183,7 @@
       </c>
       <c r="H100" s="51"/>
       <c r="I100" s="51"/>
-      <c r="J100" s="241"/>
+      <c r="J100" s="180"/>
       <c r="K100" s="67"/>
       <c r="L100" s="66"/>
       <c r="M100" s="67"/>
@@ -25200,7 +25205,7 @@
 )</f>
         <v>37-3-1</v>
       </c>
-      <c r="B101" s="246"/>
+      <c r="B101" s="185"/>
       <c r="C101" s="58"/>
       <c r="D101" s="175"/>
       <c r="E101" s="175"/>
@@ -25211,8 +25216,8 @@
         <v>484</v>
       </c>
       <c r="H101" s="51"/>
-      <c r="I101" s="245"/>
-      <c r="J101" s="241"/>
+      <c r="I101" s="184"/>
+      <c r="J101" s="180"/>
       <c r="K101" s="67"/>
       <c r="L101" s="66"/>
       <c r="M101" s="67"/>
@@ -25235,7 +25240,7 @@
         <v>37-4-1</v>
       </c>
       <c r="B102" s="50"/>
-      <c r="C102" s="244"/>
+      <c r="C102" s="183"/>
       <c r="D102" s="175"/>
       <c r="E102" s="175"/>
       <c r="F102" s="51" t="s">
@@ -25246,7 +25251,7 @@
       </c>
       <c r="H102" s="51"/>
       <c r="I102" s="51"/>
-      <c r="J102" s="241"/>
+      <c r="J102" s="180"/>
       <c r="K102" s="67"/>
       <c r="L102" s="66"/>
       <c r="M102" s="67"/>
@@ -25269,7 +25274,7 @@
         <v>37-5-1</v>
       </c>
       <c r="B103" s="50"/>
-      <c r="C103" s="244"/>
+      <c r="C103" s="183"/>
       <c r="D103" s="175"/>
       <c r="E103" s="175"/>
       <c r="F103" s="42" t="s">
@@ -25280,7 +25285,7 @@
       </c>
       <c r="H103" s="42"/>
       <c r="I103" s="42"/>
-      <c r="J103" s="243"/>
+      <c r="J103" s="182"/>
       <c r="K103" s="170"/>
       <c r="L103" s="169"/>
       <c r="M103" s="170"/>
@@ -25302,7 +25307,7 @@
 )</f>
         <v>38-1-1</v>
       </c>
-      <c r="B104" s="242"/>
+      <c r="B104" s="181"/>
       <c r="C104" s="164"/>
       <c r="D104" s="54"/>
       <c r="E104" s="51" t="s">
@@ -25316,7 +25321,7 @@
       </c>
       <c r="H104" s="51"/>
       <c r="I104" s="51"/>
-      <c r="J104" s="241"/>
+      <c r="J104" s="180"/>
       <c r="K104" s="67"/>
       <c r="L104" s="66"/>
       <c r="M104" s="67"/>
@@ -25338,7 +25343,7 @@
 )</f>
         <v>39-1-1</v>
       </c>
-      <c r="B105" s="240" t="s">
+      <c r="B105" s="179" t="s">
         <v>181</v>
       </c>
       <c r="C105" s="51" t="s">
@@ -25610,7 +25615,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B112" s="235" t="s">
+      <c r="B112" s="253" t="s">
         <v>195</v>
       </c>
       <c r="C112" s="56"/>
@@ -25646,7 +25651,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B113" s="235"/>
+      <c r="B113" s="253"/>
       <c r="C113" s="56"/>
       <c r="D113" s="175"/>
       <c r="E113" s="86"/>
@@ -26318,7 +26323,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B132" s="235" t="s">
+      <c r="B132" s="253" t="s">
         <v>223</v>
       </c>
       <c r="C132" s="56"/>
@@ -26354,7 +26359,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B133" s="235"/>
+      <c r="B133" s="253"/>
       <c r="C133" s="56"/>
       <c r="D133" s="175"/>
       <c r="E133" s="175"/>
@@ -27994,7 +27999,7 @@
       <c r="C180" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="D180" s="239" t="s">
+      <c r="D180" s="178" t="s">
         <v>285</v>
       </c>
       <c r="E180" s="51" t="s">
@@ -28032,7 +28037,7 @@
       </c>
       <c r="B181" s="175"/>
       <c r="C181" s="56"/>
-      <c r="D181" s="239" t="s">
+      <c r="D181" s="178" t="s">
         <v>288</v>
       </c>
       <c r="E181" s="51" t="s">
@@ -28185,7 +28190,7 @@
         <v>69-2-1</v>
       </c>
       <c r="B185" s="86"/>
-      <c r="C185" s="237"/>
+      <c r="C185" s="176"/>
       <c r="D185" s="175"/>
       <c r="E185" s="54"/>
       <c r="F185" s="51" t="s">
@@ -28256,7 +28261,7 @@
       </c>
       <c r="B187" s="86"/>
       <c r="C187" s="56"/>
-      <c r="D187" s="238"/>
+      <c r="D187" s="177"/>
       <c r="E187" s="54"/>
       <c r="F187" s="51" t="s">
         <v>300</v>
@@ -28367,7 +28372,7 @@
         <v>72-2-1</v>
       </c>
       <c r="B190" s="86"/>
-      <c r="C190" s="237"/>
+      <c r="C190" s="176"/>
       <c r="D190" s="175"/>
       <c r="E190" s="175"/>
       <c r="F190" s="51" t="s">
@@ -28401,7 +28406,7 @@
         <v>72-3-1</v>
       </c>
       <c r="B191" s="86"/>
-      <c r="C191" s="237"/>
+      <c r="C191" s="176"/>
       <c r="D191" s="175"/>
       <c r="E191" s="175"/>
       <c r="F191" s="51" t="s">
@@ -28435,7 +28440,7 @@
         <v>72-4-1</v>
       </c>
       <c r="B192" s="86"/>
-      <c r="C192" s="237"/>
+      <c r="C192" s="176"/>
       <c r="D192" s="175"/>
       <c r="E192" s="175"/>
       <c r="F192" s="51" t="s">
@@ -28469,7 +28474,7 @@
         <v>72-5-1</v>
       </c>
       <c r="B193" s="86"/>
-      <c r="C193" s="237"/>
+      <c r="C193" s="176"/>
       <c r="D193" s="175"/>
       <c r="E193" s="175"/>
       <c r="F193" s="51" t="s">
@@ -28503,7 +28508,7 @@
         <v>72-6-1</v>
       </c>
       <c r="B194" s="86"/>
-      <c r="C194" s="237"/>
+      <c r="C194" s="176"/>
       <c r="D194" s="175"/>
       <c r="E194" s="175"/>
       <c r="F194" s="51" t="s">
@@ -28537,7 +28542,7 @@
         <v>72-7-1</v>
       </c>
       <c r="B195" s="86"/>
-      <c r="C195" s="237"/>
+      <c r="C195" s="176"/>
       <c r="D195" s="175"/>
       <c r="E195" s="54"/>
       <c r="F195" s="51" t="s">
@@ -36286,7 +36291,7 @@
 )</f>
         <v>45-2-1</v>
       </c>
-      <c r="B117" s="236" t="s">
+      <c r="B117" s="254" t="s">
         <v>440</v>
       </c>
       <c r="C117" s="104"/>
@@ -36323,7 +36328,7 @@
 )</f>
         <v>45-3-1</v>
       </c>
-      <c r="B118" s="236"/>
+      <c r="B118" s="254"/>
       <c r="C118" s="104"/>
       <c r="D118" s="98"/>
       <c r="E118" s="116"/>
@@ -37014,7 +37019,7 @@
 )</f>
         <v>52-2-1</v>
       </c>
-      <c r="B137" s="236" t="s">
+      <c r="B137" s="254" t="s">
         <v>223</v>
       </c>
       <c r="C137" s="104"/>
@@ -37051,7 +37056,7 @@
 )</f>
         <v>52-3-1</v>
       </c>
-      <c r="B138" s="236"/>
+      <c r="B138" s="254"/>
       <c r="C138" s="104"/>
       <c r="D138" s="98"/>
       <c r="E138" s="104"/>

--- a/Sample_Project/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(Webサービス)_B10102_顧客詳細取得.xlsx
+++ b/Sample_Project/設計書/B1_顧客管理システム/030_アプリ設計/110_テスト仕様書/単体テスト仕様書(Webサービス)_B10102_顧客詳細取得.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB2A563-7445-4DBD-8948-2F8A49496239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0407022F-0093-4A96-93BD-1C13387F6631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2545" uniqueCount="564">
   <si>
     <t>テスト内容</t>
     <rPh sb="3" eb="5">
@@ -7389,6 +7389,16 @@
   </si>
   <si>
     <t>リクエストID：B10102</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テストターゲット名：顧客詳細取得</t>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="16">
+      <t>コキャクショウサイシュトク</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -8545,6 +8555,72 @@
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="7" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -8651,72 +8727,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10247,57 +10257,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="223" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="202"/>
-      <c r="C1" s="202"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="204" t="s">
+      <c r="B1" s="224"/>
+      <c r="C1" s="224"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="226" t="s">
         <v>462</v>
       </c>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="205"/>
-      <c r="J1" s="205"/>
-      <c r="K1" s="205"/>
-      <c r="L1" s="205"/>
-      <c r="M1" s="205"/>
-      <c r="N1" s="206"/>
-      <c r="O1" s="210" t="s">
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="227"/>
+      <c r="I1" s="227"/>
+      <c r="J1" s="227"/>
+      <c r="K1" s="227"/>
+      <c r="L1" s="227"/>
+      <c r="M1" s="227"/>
+      <c r="N1" s="228"/>
+      <c r="O1" s="232" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="211"/>
-      <c r="Q1" s="211"/>
-      <c r="R1" s="212"/>
-      <c r="S1" s="219" t="s">
+      <c r="P1" s="233"/>
+      <c r="Q1" s="233"/>
+      <c r="R1" s="234"/>
+      <c r="S1" s="241" t="s">
         <v>557</v>
       </c>
-      <c r="T1" s="220"/>
-      <c r="U1" s="220"/>
-      <c r="V1" s="220"/>
-      <c r="W1" s="220"/>
-      <c r="X1" s="220"/>
-      <c r="Y1" s="220"/>
-      <c r="Z1" s="221"/>
-      <c r="AA1" s="201" t="s">
+      <c r="T1" s="242"/>
+      <c r="U1" s="242"/>
+      <c r="V1" s="242"/>
+      <c r="W1" s="242"/>
+      <c r="X1" s="242"/>
+      <c r="Y1" s="242"/>
+      <c r="Z1" s="243"/>
+      <c r="AA1" s="223" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="203"/>
-      <c r="AC1" s="228" t="str">
+      <c r="AB1" s="225"/>
+      <c r="AC1" s="250" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="229"/>
-      <c r="AE1" s="229"/>
-      <c r="AF1" s="230"/>
-      <c r="AG1" s="195" t="str">
+      <c r="AD1" s="251"/>
+      <c r="AE1" s="251"/>
+      <c r="AF1" s="252"/>
+      <c r="AG1" s="217" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="196"/>
-      <c r="AI1" s="197"/>
+      <c r="AH1" s="218"/>
+      <c r="AI1" s="219"/>
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
@@ -10305,53 +10315,53 @@
       <c r="AN1" s="12"/>
     </row>
     <row r="2" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="201" t="s">
+      <c r="A2" s="223" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="204" t="s">
+      <c r="B2" s="224"/>
+      <c r="C2" s="224"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="226" t="s">
         <v>463</v>
       </c>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="205"/>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="206"/>
-      <c r="O2" s="213"/>
-      <c r="P2" s="214"/>
-      <c r="Q2" s="214"/>
-      <c r="R2" s="215"/>
-      <c r="S2" s="222"/>
-      <c r="T2" s="223"/>
-      <c r="U2" s="223"/>
-      <c r="V2" s="223"/>
-      <c r="W2" s="223"/>
-      <c r="X2" s="223"/>
-      <c r="Y2" s="223"/>
-      <c r="Z2" s="224"/>
-      <c r="AA2" s="201" t="s">
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="227"/>
+      <c r="I2" s="227"/>
+      <c r="J2" s="227"/>
+      <c r="K2" s="227"/>
+      <c r="L2" s="227"/>
+      <c r="M2" s="227"/>
+      <c r="N2" s="228"/>
+      <c r="O2" s="235"/>
+      <c r="P2" s="236"/>
+      <c r="Q2" s="236"/>
+      <c r="R2" s="237"/>
+      <c r="S2" s="244"/>
+      <c r="T2" s="245"/>
+      <c r="U2" s="245"/>
+      <c r="V2" s="245"/>
+      <c r="W2" s="245"/>
+      <c r="X2" s="245"/>
+      <c r="Y2" s="245"/>
+      <c r="Z2" s="246"/>
+      <c r="AA2" s="223" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="203"/>
-      <c r="AC2" s="207" t="str">
+      <c r="AB2" s="225"/>
+      <c r="AC2" s="229" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="208"/>
-      <c r="AE2" s="208"/>
-      <c r="AF2" s="209"/>
-      <c r="AG2" s="195" t="str">
+      <c r="AD2" s="230"/>
+      <c r="AE2" s="230"/>
+      <c r="AF2" s="231"/>
+      <c r="AG2" s="217" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="196"/>
-      <c r="AI2" s="197"/>
+      <c r="AH2" s="218"/>
+      <c r="AI2" s="219"/>
       <c r="AJ2" s="11"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
@@ -10359,45 +10369,45 @@
       <c r="AN2" s="11"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="201" t="s">
+      <c r="A3" s="223" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="202"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="204" t="s">
+      <c r="B3" s="224"/>
+      <c r="C3" s="224"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="226" t="s">
         <v>464</v>
       </c>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="205"/>
-      <c r="I3" s="205"/>
-      <c r="J3" s="205"/>
-      <c r="K3" s="205"/>
-      <c r="L3" s="205"/>
-      <c r="M3" s="205"/>
-      <c r="N3" s="206"/>
-      <c r="O3" s="216"/>
-      <c r="P3" s="217"/>
-      <c r="Q3" s="217"/>
-      <c r="R3" s="218"/>
-      <c r="S3" s="225"/>
-      <c r="T3" s="226"/>
-      <c r="U3" s="226"/>
-      <c r="V3" s="226"/>
-      <c r="W3" s="226"/>
-      <c r="X3" s="226"/>
-      <c r="Y3" s="226"/>
-      <c r="Z3" s="227"/>
-      <c r="AA3" s="201"/>
-      <c r="AB3" s="203"/>
-      <c r="AC3" s="228"/>
-      <c r="AD3" s="229"/>
-      <c r="AE3" s="229"/>
-      <c r="AF3" s="230"/>
-      <c r="AG3" s="195"/>
-      <c r="AH3" s="196"/>
-      <c r="AI3" s="197"/>
+      <c r="F3" s="227"/>
+      <c r="G3" s="227"/>
+      <c r="H3" s="227"/>
+      <c r="I3" s="227"/>
+      <c r="J3" s="227"/>
+      <c r="K3" s="227"/>
+      <c r="L3" s="227"/>
+      <c r="M3" s="227"/>
+      <c r="N3" s="228"/>
+      <c r="O3" s="238"/>
+      <c r="P3" s="239"/>
+      <c r="Q3" s="239"/>
+      <c r="R3" s="240"/>
+      <c r="S3" s="247"/>
+      <c r="T3" s="248"/>
+      <c r="U3" s="248"/>
+      <c r="V3" s="248"/>
+      <c r="W3" s="248"/>
+      <c r="X3" s="248"/>
+      <c r="Y3" s="248"/>
+      <c r="Z3" s="249"/>
+      <c r="AA3" s="223"/>
+      <c r="AB3" s="225"/>
+      <c r="AC3" s="250"/>
+      <c r="AD3" s="251"/>
+      <c r="AE3" s="251"/>
+      <c r="AF3" s="252"/>
+      <c r="AG3" s="217"/>
+      <c r="AH3" s="218"/>
+      <c r="AI3" s="219"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="11"/>
       <c r="AL3" s="11"/>
@@ -10434,85 +10444,85 @@
       <c r="A7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="198" t="s">
+      <c r="B7" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="199"/>
-      <c r="D7" s="198" t="s">
+      <c r="C7" s="221"/>
+      <c r="D7" s="220" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="200"/>
-      <c r="F7" s="199"/>
-      <c r="G7" s="198" t="s">
+      <c r="E7" s="222"/>
+      <c r="F7" s="221"/>
+      <c r="G7" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="200"/>
-      <c r="I7" s="199"/>
-      <c r="J7" s="198" t="s">
+      <c r="H7" s="222"/>
+      <c r="I7" s="221"/>
+      <c r="J7" s="220" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="200"/>
-      <c r="L7" s="200"/>
-      <c r="M7" s="200"/>
-      <c r="N7" s="200"/>
-      <c r="O7" s="200"/>
-      <c r="P7" s="199"/>
-      <c r="Q7" s="198" t="s">
+      <c r="K7" s="222"/>
+      <c r="L7" s="222"/>
+      <c r="M7" s="222"/>
+      <c r="N7" s="222"/>
+      <c r="O7" s="222"/>
+      <c r="P7" s="221"/>
+      <c r="Q7" s="220" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="200"/>
-      <c r="S7" s="200"/>
-      <c r="T7" s="200"/>
-      <c r="U7" s="200"/>
-      <c r="V7" s="200"/>
-      <c r="W7" s="200"/>
-      <c r="X7" s="200"/>
-      <c r="Y7" s="200"/>
-      <c r="Z7" s="200"/>
-      <c r="AA7" s="200"/>
-      <c r="AB7" s="200"/>
-      <c r="AC7" s="200"/>
-      <c r="AD7" s="200"/>
-      <c r="AE7" s="199"/>
-      <c r="AF7" s="198" t="s">
+      <c r="R7" s="222"/>
+      <c r="S7" s="222"/>
+      <c r="T7" s="222"/>
+      <c r="U7" s="222"/>
+      <c r="V7" s="222"/>
+      <c r="W7" s="222"/>
+      <c r="X7" s="222"/>
+      <c r="Y7" s="222"/>
+      <c r="Z7" s="222"/>
+      <c r="AA7" s="222"/>
+      <c r="AB7" s="222"/>
+      <c r="AC7" s="222"/>
+      <c r="AD7" s="222"/>
+      <c r="AE7" s="221"/>
+      <c r="AF7" s="220" t="s">
         <v>25</v>
       </c>
-      <c r="AG7" s="200"/>
-      <c r="AH7" s="200"/>
-      <c r="AI7" s="199"/>
+      <c r="AG7" s="222"/>
+      <c r="AH7" s="222"/>
+      <c r="AI7" s="221"/>
     </row>
     <row r="8" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="243"/>
-      <c r="C8" s="244"/>
-      <c r="D8" s="245"/>
-      <c r="E8" s="246"/>
-      <c r="F8" s="247"/>
-      <c r="G8" s="243"/>
-      <c r="H8" s="248"/>
-      <c r="I8" s="244"/>
-      <c r="J8" s="249"/>
-      <c r="K8" s="250"/>
-      <c r="L8" s="250"/>
-      <c r="M8" s="250"/>
-      <c r="N8" s="250"/>
-      <c r="O8" s="250"/>
-      <c r="P8" s="251"/>
-      <c r="Q8" s="249"/>
-      <c r="R8" s="250"/>
-      <c r="S8" s="250"/>
-      <c r="T8" s="250"/>
-      <c r="U8" s="250"/>
-      <c r="V8" s="250"/>
-      <c r="W8" s="250"/>
-      <c r="X8" s="250"/>
-      <c r="Y8" s="250"/>
-      <c r="Z8" s="250"/>
-      <c r="AA8" s="250"/>
-      <c r="AB8" s="250"/>
-      <c r="AC8" s="250"/>
-      <c r="AD8" s="250"/>
-      <c r="AE8" s="251"/>
+      <c r="B8" s="208"/>
+      <c r="C8" s="209"/>
+      <c r="D8" s="210"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="212"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="213"/>
+      <c r="I8" s="209"/>
+      <c r="J8" s="214"/>
+      <c r="K8" s="215"/>
+      <c r="L8" s="215"/>
+      <c r="M8" s="215"/>
+      <c r="N8" s="215"/>
+      <c r="O8" s="215"/>
+      <c r="P8" s="216"/>
+      <c r="Q8" s="214"/>
+      <c r="R8" s="215"/>
+      <c r="S8" s="215"/>
+      <c r="T8" s="215"/>
+      <c r="U8" s="215"/>
+      <c r="V8" s="215"/>
+      <c r="W8" s="215"/>
+      <c r="X8" s="215"/>
+      <c r="Y8" s="215"/>
+      <c r="Z8" s="215"/>
+      <c r="AA8" s="215"/>
+      <c r="AB8" s="215"/>
+      <c r="AC8" s="215"/>
+      <c r="AD8" s="215"/>
+      <c r="AE8" s="216"/>
       <c r="AF8" s="25"/>
       <c r="AG8" s="26"/>
       <c r="AH8" s="26"/>
@@ -10520,1089 +10530,934 @@
     </row>
     <row r="9" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="21"/>
-      <c r="B9" s="231"/>
-      <c r="C9" s="232"/>
-      <c r="D9" s="233"/>
-      <c r="E9" s="234"/>
-      <c r="F9" s="235"/>
-      <c r="G9" s="233"/>
-      <c r="H9" s="236"/>
-      <c r="I9" s="232"/>
-      <c r="J9" s="237"/>
-      <c r="K9" s="238"/>
-      <c r="L9" s="238"/>
-      <c r="M9" s="238"/>
-      <c r="N9" s="238"/>
-      <c r="O9" s="238"/>
-      <c r="P9" s="239"/>
-      <c r="Q9" s="240"/>
-      <c r="R9" s="241"/>
-      <c r="S9" s="241"/>
-      <c r="T9" s="241"/>
-      <c r="U9" s="241"/>
-      <c r="V9" s="241"/>
-      <c r="W9" s="241"/>
-      <c r="X9" s="241"/>
-      <c r="Y9" s="241"/>
-      <c r="Z9" s="241"/>
-      <c r="AA9" s="241"/>
-      <c r="AB9" s="241"/>
-      <c r="AC9" s="241"/>
-      <c r="AD9" s="241"/>
-      <c r="AE9" s="242"/>
-      <c r="AF9" s="237"/>
-      <c r="AG9" s="238"/>
-      <c r="AH9" s="238"/>
-      <c r="AI9" s="239"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="196"/>
+      <c r="D9" s="197"/>
+      <c r="E9" s="198"/>
+      <c r="F9" s="199"/>
+      <c r="G9" s="197"/>
+      <c r="H9" s="200"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="201"/>
+      <c r="K9" s="202"/>
+      <c r="L9" s="202"/>
+      <c r="M9" s="202"/>
+      <c r="N9" s="202"/>
+      <c r="O9" s="202"/>
+      <c r="P9" s="203"/>
+      <c r="Q9" s="204"/>
+      <c r="R9" s="205"/>
+      <c r="S9" s="205"/>
+      <c r="T9" s="205"/>
+      <c r="U9" s="205"/>
+      <c r="V9" s="205"/>
+      <c r="W9" s="205"/>
+      <c r="X9" s="205"/>
+      <c r="Y9" s="205"/>
+      <c r="Z9" s="205"/>
+      <c r="AA9" s="205"/>
+      <c r="AB9" s="205"/>
+      <c r="AC9" s="205"/>
+      <c r="AD9" s="205"/>
+      <c r="AE9" s="206"/>
+      <c r="AF9" s="201"/>
+      <c r="AG9" s="202"/>
+      <c r="AH9" s="202"/>
+      <c r="AI9" s="203"/>
     </row>
     <row r="10" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="21"/>
-      <c r="B10" s="231"/>
-      <c r="C10" s="232"/>
-      <c r="D10" s="233"/>
-      <c r="E10" s="234"/>
-      <c r="F10" s="235"/>
-      <c r="G10" s="231"/>
-      <c r="H10" s="236"/>
-      <c r="I10" s="232"/>
-      <c r="J10" s="237"/>
-      <c r="K10" s="238"/>
-      <c r="L10" s="238"/>
-      <c r="M10" s="238"/>
-      <c r="N10" s="238"/>
-      <c r="O10" s="238"/>
-      <c r="P10" s="239"/>
-      <c r="Q10" s="240"/>
-      <c r="R10" s="241"/>
-      <c r="S10" s="241"/>
-      <c r="T10" s="241"/>
-      <c r="U10" s="241"/>
-      <c r="V10" s="241"/>
-      <c r="W10" s="241"/>
-      <c r="X10" s="241"/>
-      <c r="Y10" s="241"/>
-      <c r="Z10" s="241"/>
-      <c r="AA10" s="241"/>
-      <c r="AB10" s="241"/>
-      <c r="AC10" s="241"/>
-      <c r="AD10" s="241"/>
-      <c r="AE10" s="242"/>
-      <c r="AF10" s="237"/>
-      <c r="AG10" s="238"/>
-      <c r="AH10" s="238"/>
-      <c r="AI10" s="239"/>
+      <c r="B10" s="195"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="197"/>
+      <c r="E10" s="198"/>
+      <c r="F10" s="199"/>
+      <c r="G10" s="195"/>
+      <c r="H10" s="200"/>
+      <c r="I10" s="196"/>
+      <c r="J10" s="201"/>
+      <c r="K10" s="202"/>
+      <c r="L10" s="202"/>
+      <c r="M10" s="202"/>
+      <c r="N10" s="202"/>
+      <c r="O10" s="202"/>
+      <c r="P10" s="203"/>
+      <c r="Q10" s="204"/>
+      <c r="R10" s="205"/>
+      <c r="S10" s="205"/>
+      <c r="T10" s="205"/>
+      <c r="U10" s="205"/>
+      <c r="V10" s="205"/>
+      <c r="W10" s="205"/>
+      <c r="X10" s="205"/>
+      <c r="Y10" s="205"/>
+      <c r="Z10" s="205"/>
+      <c r="AA10" s="205"/>
+      <c r="AB10" s="205"/>
+      <c r="AC10" s="205"/>
+      <c r="AD10" s="205"/>
+      <c r="AE10" s="206"/>
+      <c r="AF10" s="201"/>
+      <c r="AG10" s="202"/>
+      <c r="AH10" s="202"/>
+      <c r="AI10" s="203"/>
     </row>
     <row r="11" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="231"/>
-      <c r="C11" s="232"/>
-      <c r="D11" s="233"/>
-      <c r="E11" s="234"/>
-      <c r="F11" s="235"/>
-      <c r="G11" s="231"/>
-      <c r="H11" s="236"/>
-      <c r="I11" s="232"/>
-      <c r="J11" s="237"/>
-      <c r="K11" s="238"/>
-      <c r="L11" s="238"/>
-      <c r="M11" s="238"/>
-      <c r="N11" s="238"/>
-      <c r="O11" s="238"/>
-      <c r="P11" s="239"/>
-      <c r="Q11" s="240"/>
-      <c r="R11" s="241"/>
-      <c r="S11" s="241"/>
-      <c r="T11" s="241"/>
-      <c r="U11" s="241"/>
-      <c r="V11" s="241"/>
-      <c r="W11" s="241"/>
-      <c r="X11" s="241"/>
-      <c r="Y11" s="241"/>
-      <c r="Z11" s="241"/>
-      <c r="AA11" s="241"/>
-      <c r="AB11" s="241"/>
-      <c r="AC11" s="241"/>
-      <c r="AD11" s="241"/>
-      <c r="AE11" s="242"/>
-      <c r="AF11" s="237"/>
-      <c r="AG11" s="238"/>
-      <c r="AH11" s="238"/>
-      <c r="AI11" s="239"/>
+      <c r="B11" s="195"/>
+      <c r="C11" s="196"/>
+      <c r="D11" s="197"/>
+      <c r="E11" s="198"/>
+      <c r="F11" s="199"/>
+      <c r="G11" s="195"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="202"/>
+      <c r="L11" s="202"/>
+      <c r="M11" s="202"/>
+      <c r="N11" s="202"/>
+      <c r="O11" s="202"/>
+      <c r="P11" s="203"/>
+      <c r="Q11" s="204"/>
+      <c r="R11" s="205"/>
+      <c r="S11" s="205"/>
+      <c r="T11" s="205"/>
+      <c r="U11" s="205"/>
+      <c r="V11" s="205"/>
+      <c r="W11" s="205"/>
+      <c r="X11" s="205"/>
+      <c r="Y11" s="205"/>
+      <c r="Z11" s="205"/>
+      <c r="AA11" s="205"/>
+      <c r="AB11" s="205"/>
+      <c r="AC11" s="205"/>
+      <c r="AD11" s="205"/>
+      <c r="AE11" s="206"/>
+      <c r="AF11" s="201"/>
+      <c r="AG11" s="202"/>
+      <c r="AH11" s="202"/>
+      <c r="AI11" s="203"/>
     </row>
     <row r="12" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="231"/>
-      <c r="C12" s="232"/>
-      <c r="D12" s="233"/>
-      <c r="E12" s="234"/>
-      <c r="F12" s="235"/>
-      <c r="G12" s="231"/>
-      <c r="H12" s="236"/>
-      <c r="I12" s="232"/>
-      <c r="J12" s="237"/>
-      <c r="K12" s="238"/>
-      <c r="L12" s="238"/>
-      <c r="M12" s="238"/>
-      <c r="N12" s="238"/>
-      <c r="O12" s="238"/>
-      <c r="P12" s="239"/>
-      <c r="Q12" s="240"/>
-      <c r="R12" s="241"/>
-      <c r="S12" s="241"/>
-      <c r="T12" s="241"/>
-      <c r="U12" s="241"/>
-      <c r="V12" s="241"/>
-      <c r="W12" s="241"/>
-      <c r="X12" s="241"/>
-      <c r="Y12" s="241"/>
-      <c r="Z12" s="241"/>
-      <c r="AA12" s="241"/>
-      <c r="AB12" s="241"/>
-      <c r="AC12" s="241"/>
-      <c r="AD12" s="241"/>
-      <c r="AE12" s="242"/>
-      <c r="AF12" s="237"/>
-      <c r="AG12" s="238"/>
-      <c r="AH12" s="238"/>
-      <c r="AI12" s="239"/>
+      <c r="B12" s="195"/>
+      <c r="C12" s="196"/>
+      <c r="D12" s="197"/>
+      <c r="E12" s="198"/>
+      <c r="F12" s="199"/>
+      <c r="G12" s="195"/>
+      <c r="H12" s="200"/>
+      <c r="I12" s="196"/>
+      <c r="J12" s="201"/>
+      <c r="K12" s="202"/>
+      <c r="L12" s="202"/>
+      <c r="M12" s="202"/>
+      <c r="N12" s="202"/>
+      <c r="O12" s="202"/>
+      <c r="P12" s="203"/>
+      <c r="Q12" s="204"/>
+      <c r="R12" s="205"/>
+      <c r="S12" s="205"/>
+      <c r="T12" s="205"/>
+      <c r="U12" s="205"/>
+      <c r="V12" s="205"/>
+      <c r="W12" s="205"/>
+      <c r="X12" s="205"/>
+      <c r="Y12" s="205"/>
+      <c r="Z12" s="205"/>
+      <c r="AA12" s="205"/>
+      <c r="AB12" s="205"/>
+      <c r="AC12" s="205"/>
+      <c r="AD12" s="205"/>
+      <c r="AE12" s="206"/>
+      <c r="AF12" s="201"/>
+      <c r="AG12" s="202"/>
+      <c r="AH12" s="202"/>
+      <c r="AI12" s="203"/>
     </row>
     <row r="13" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="231"/>
-      <c r="C13" s="232"/>
-      <c r="D13" s="233"/>
-      <c r="E13" s="234"/>
-      <c r="F13" s="235"/>
-      <c r="G13" s="231"/>
-      <c r="H13" s="236"/>
-      <c r="I13" s="232"/>
-      <c r="J13" s="237"/>
-      <c r="K13" s="238"/>
-      <c r="L13" s="238"/>
-      <c r="M13" s="238"/>
-      <c r="N13" s="238"/>
-      <c r="O13" s="238"/>
-      <c r="P13" s="239"/>
-      <c r="Q13" s="240"/>
-      <c r="R13" s="241"/>
-      <c r="S13" s="241"/>
-      <c r="T13" s="241"/>
-      <c r="U13" s="241"/>
-      <c r="V13" s="241"/>
-      <c r="W13" s="241"/>
-      <c r="X13" s="241"/>
-      <c r="Y13" s="241"/>
-      <c r="Z13" s="241"/>
-      <c r="AA13" s="241"/>
-      <c r="AB13" s="241"/>
-      <c r="AC13" s="241"/>
-      <c r="AD13" s="241"/>
-      <c r="AE13" s="242"/>
-      <c r="AF13" s="237"/>
-      <c r="AG13" s="238"/>
-      <c r="AH13" s="238"/>
-      <c r="AI13" s="239"/>
+      <c r="B13" s="195"/>
+      <c r="C13" s="196"/>
+      <c r="D13" s="197"/>
+      <c r="E13" s="198"/>
+      <c r="F13" s="199"/>
+      <c r="G13" s="195"/>
+      <c r="H13" s="200"/>
+      <c r="I13" s="196"/>
+      <c r="J13" s="201"/>
+      <c r="K13" s="202"/>
+      <c r="L13" s="202"/>
+      <c r="M13" s="202"/>
+      <c r="N13" s="202"/>
+      <c r="O13" s="202"/>
+      <c r="P13" s="203"/>
+      <c r="Q13" s="204"/>
+      <c r="R13" s="205"/>
+      <c r="S13" s="205"/>
+      <c r="T13" s="205"/>
+      <c r="U13" s="205"/>
+      <c r="V13" s="205"/>
+      <c r="W13" s="205"/>
+      <c r="X13" s="205"/>
+      <c r="Y13" s="205"/>
+      <c r="Z13" s="205"/>
+      <c r="AA13" s="205"/>
+      <c r="AB13" s="205"/>
+      <c r="AC13" s="205"/>
+      <c r="AD13" s="205"/>
+      <c r="AE13" s="206"/>
+      <c r="AF13" s="201"/>
+      <c r="AG13" s="202"/>
+      <c r="AH13" s="202"/>
+      <c r="AI13" s="203"/>
     </row>
     <row r="14" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="231"/>
-      <c r="C14" s="232"/>
-      <c r="D14" s="233"/>
-      <c r="E14" s="234"/>
-      <c r="F14" s="235"/>
-      <c r="G14" s="231"/>
-      <c r="H14" s="236"/>
-      <c r="I14" s="232"/>
-      <c r="J14" s="237"/>
-      <c r="K14" s="238"/>
-      <c r="L14" s="238"/>
-      <c r="M14" s="238"/>
-      <c r="N14" s="238"/>
-      <c r="O14" s="238"/>
-      <c r="P14" s="239"/>
-      <c r="Q14" s="240"/>
-      <c r="R14" s="241"/>
-      <c r="S14" s="241"/>
-      <c r="T14" s="241"/>
-      <c r="U14" s="241"/>
-      <c r="V14" s="241"/>
-      <c r="W14" s="241"/>
-      <c r="X14" s="241"/>
-      <c r="Y14" s="241"/>
-      <c r="Z14" s="241"/>
-      <c r="AA14" s="241"/>
-      <c r="AB14" s="241"/>
-      <c r="AC14" s="241"/>
-      <c r="AD14" s="241"/>
-      <c r="AE14" s="242"/>
-      <c r="AF14" s="237"/>
-      <c r="AG14" s="238"/>
-      <c r="AH14" s="238"/>
-      <c r="AI14" s="239"/>
+      <c r="B14" s="195"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="197"/>
+      <c r="E14" s="198"/>
+      <c r="F14" s="199"/>
+      <c r="G14" s="195"/>
+      <c r="H14" s="200"/>
+      <c r="I14" s="196"/>
+      <c r="J14" s="201"/>
+      <c r="K14" s="202"/>
+      <c r="L14" s="202"/>
+      <c r="M14" s="202"/>
+      <c r="N14" s="202"/>
+      <c r="O14" s="202"/>
+      <c r="P14" s="203"/>
+      <c r="Q14" s="204"/>
+      <c r="R14" s="205"/>
+      <c r="S14" s="205"/>
+      <c r="T14" s="205"/>
+      <c r="U14" s="205"/>
+      <c r="V14" s="205"/>
+      <c r="W14" s="205"/>
+      <c r="X14" s="205"/>
+      <c r="Y14" s="205"/>
+      <c r="Z14" s="205"/>
+      <c r="AA14" s="205"/>
+      <c r="AB14" s="205"/>
+      <c r="AC14" s="205"/>
+      <c r="AD14" s="205"/>
+      <c r="AE14" s="206"/>
+      <c r="AF14" s="201"/>
+      <c r="AG14" s="202"/>
+      <c r="AH14" s="202"/>
+      <c r="AI14" s="203"/>
     </row>
     <row r="15" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="231"/>
-      <c r="C15" s="232"/>
-      <c r="D15" s="233"/>
-      <c r="E15" s="234"/>
-      <c r="F15" s="235"/>
-      <c r="G15" s="231"/>
-      <c r="H15" s="236"/>
-      <c r="I15" s="232"/>
-      <c r="J15" s="237"/>
-      <c r="K15" s="238"/>
-      <c r="L15" s="238"/>
-      <c r="M15" s="238"/>
-      <c r="N15" s="238"/>
-      <c r="O15" s="238"/>
-      <c r="P15" s="239"/>
-      <c r="Q15" s="240"/>
-      <c r="R15" s="241"/>
-      <c r="S15" s="241"/>
-      <c r="T15" s="241"/>
-      <c r="U15" s="241"/>
-      <c r="V15" s="241"/>
-      <c r="W15" s="241"/>
-      <c r="X15" s="241"/>
-      <c r="Y15" s="241"/>
-      <c r="Z15" s="241"/>
-      <c r="AA15" s="241"/>
-      <c r="AB15" s="241"/>
-      <c r="AC15" s="241"/>
-      <c r="AD15" s="241"/>
-      <c r="AE15" s="242"/>
-      <c r="AF15" s="237"/>
-      <c r="AG15" s="238"/>
-      <c r="AH15" s="238"/>
-      <c r="AI15" s="239"/>
+      <c r="B15" s="195"/>
+      <c r="C15" s="196"/>
+      <c r="D15" s="197"/>
+      <c r="E15" s="198"/>
+      <c r="F15" s="199"/>
+      <c r="G15" s="195"/>
+      <c r="H15" s="200"/>
+      <c r="I15" s="196"/>
+      <c r="J15" s="201"/>
+      <c r="K15" s="202"/>
+      <c r="L15" s="202"/>
+      <c r="M15" s="202"/>
+      <c r="N15" s="202"/>
+      <c r="O15" s="202"/>
+      <c r="P15" s="203"/>
+      <c r="Q15" s="204"/>
+      <c r="R15" s="205"/>
+      <c r="S15" s="205"/>
+      <c r="T15" s="205"/>
+      <c r="U15" s="205"/>
+      <c r="V15" s="205"/>
+      <c r="W15" s="205"/>
+      <c r="X15" s="205"/>
+      <c r="Y15" s="205"/>
+      <c r="Z15" s="205"/>
+      <c r="AA15" s="205"/>
+      <c r="AB15" s="205"/>
+      <c r="AC15" s="205"/>
+      <c r="AD15" s="205"/>
+      <c r="AE15" s="206"/>
+      <c r="AF15" s="201"/>
+      <c r="AG15" s="202"/>
+      <c r="AH15" s="202"/>
+      <c r="AI15" s="203"/>
     </row>
     <row r="16" spans="1:40" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="21"/>
-      <c r="B16" s="231"/>
-      <c r="C16" s="232"/>
-      <c r="D16" s="233"/>
-      <c r="E16" s="234"/>
-      <c r="F16" s="235"/>
-      <c r="G16" s="231"/>
-      <c r="H16" s="236"/>
-      <c r="I16" s="232"/>
-      <c r="J16" s="237"/>
-      <c r="K16" s="238"/>
-      <c r="L16" s="238"/>
-      <c r="M16" s="238"/>
-      <c r="N16" s="238"/>
-      <c r="O16" s="238"/>
-      <c r="P16" s="239"/>
-      <c r="Q16" s="240"/>
-      <c r="R16" s="241"/>
-      <c r="S16" s="241"/>
-      <c r="T16" s="241"/>
-      <c r="U16" s="241"/>
-      <c r="V16" s="241"/>
-      <c r="W16" s="241"/>
-      <c r="X16" s="241"/>
-      <c r="Y16" s="241"/>
-      <c r="Z16" s="241"/>
-      <c r="AA16" s="241"/>
-      <c r="AB16" s="241"/>
-      <c r="AC16" s="241"/>
-      <c r="AD16" s="241"/>
-      <c r="AE16" s="242"/>
-      <c r="AF16" s="237"/>
-      <c r="AG16" s="238"/>
-      <c r="AH16" s="238"/>
-      <c r="AI16" s="239"/>
+      <c r="B16" s="195"/>
+      <c r="C16" s="196"/>
+      <c r="D16" s="197"/>
+      <c r="E16" s="198"/>
+      <c r="F16" s="199"/>
+      <c r="G16" s="195"/>
+      <c r="H16" s="200"/>
+      <c r="I16" s="196"/>
+      <c r="J16" s="201"/>
+      <c r="K16" s="202"/>
+      <c r="L16" s="202"/>
+      <c r="M16" s="202"/>
+      <c r="N16" s="202"/>
+      <c r="O16" s="202"/>
+      <c r="P16" s="203"/>
+      <c r="Q16" s="204"/>
+      <c r="R16" s="205"/>
+      <c r="S16" s="205"/>
+      <c r="T16" s="205"/>
+      <c r="U16" s="205"/>
+      <c r="V16" s="205"/>
+      <c r="W16" s="205"/>
+      <c r="X16" s="205"/>
+      <c r="Y16" s="205"/>
+      <c r="Z16" s="205"/>
+      <c r="AA16" s="205"/>
+      <c r="AB16" s="205"/>
+      <c r="AC16" s="205"/>
+      <c r="AD16" s="205"/>
+      <c r="AE16" s="206"/>
+      <c r="AF16" s="201"/>
+      <c r="AG16" s="202"/>
+      <c r="AH16" s="202"/>
+      <c r="AI16" s="203"/>
     </row>
     <row r="17" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="21"/>
-      <c r="B17" s="231"/>
-      <c r="C17" s="232"/>
-      <c r="D17" s="233"/>
-      <c r="E17" s="234"/>
-      <c r="F17" s="235"/>
-      <c r="G17" s="231"/>
-      <c r="H17" s="236"/>
-      <c r="I17" s="232"/>
-      <c r="J17" s="237"/>
-      <c r="K17" s="238"/>
-      <c r="L17" s="238"/>
-      <c r="M17" s="238"/>
-      <c r="N17" s="238"/>
-      <c r="O17" s="238"/>
-      <c r="P17" s="239"/>
-      <c r="Q17" s="240"/>
-      <c r="R17" s="241"/>
-      <c r="S17" s="241"/>
-      <c r="T17" s="241"/>
-      <c r="U17" s="241"/>
-      <c r="V17" s="241"/>
-      <c r="W17" s="241"/>
-      <c r="X17" s="241"/>
-      <c r="Y17" s="241"/>
-      <c r="Z17" s="241"/>
-      <c r="AA17" s="241"/>
-      <c r="AB17" s="241"/>
-      <c r="AC17" s="241"/>
-      <c r="AD17" s="241"/>
-      <c r="AE17" s="242"/>
-      <c r="AF17" s="237"/>
-      <c r="AG17" s="238"/>
-      <c r="AH17" s="238"/>
-      <c r="AI17" s="239"/>
+      <c r="B17" s="195"/>
+      <c r="C17" s="196"/>
+      <c r="D17" s="197"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="199"/>
+      <c r="G17" s="195"/>
+      <c r="H17" s="200"/>
+      <c r="I17" s="196"/>
+      <c r="J17" s="201"/>
+      <c r="K17" s="202"/>
+      <c r="L17" s="202"/>
+      <c r="M17" s="202"/>
+      <c r="N17" s="202"/>
+      <c r="O17" s="202"/>
+      <c r="P17" s="203"/>
+      <c r="Q17" s="204"/>
+      <c r="R17" s="205"/>
+      <c r="S17" s="205"/>
+      <c r="T17" s="205"/>
+      <c r="U17" s="205"/>
+      <c r="V17" s="205"/>
+      <c r="W17" s="205"/>
+      <c r="X17" s="205"/>
+      <c r="Y17" s="205"/>
+      <c r="Z17" s="205"/>
+      <c r="AA17" s="205"/>
+      <c r="AB17" s="205"/>
+      <c r="AC17" s="205"/>
+      <c r="AD17" s="205"/>
+      <c r="AE17" s="206"/>
+      <c r="AF17" s="201"/>
+      <c r="AG17" s="202"/>
+      <c r="AH17" s="202"/>
+      <c r="AI17" s="203"/>
     </row>
     <row r="18" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="231"/>
-      <c r="C18" s="232"/>
-      <c r="D18" s="233"/>
-      <c r="E18" s="234"/>
-      <c r="F18" s="235"/>
-      <c r="G18" s="231"/>
-      <c r="H18" s="236"/>
-      <c r="I18" s="232"/>
-      <c r="J18" s="237"/>
-      <c r="K18" s="238"/>
-      <c r="L18" s="238"/>
-      <c r="M18" s="238"/>
-      <c r="N18" s="238"/>
-      <c r="O18" s="238"/>
-      <c r="P18" s="239"/>
-      <c r="Q18" s="240"/>
-      <c r="R18" s="241"/>
-      <c r="S18" s="241"/>
-      <c r="T18" s="241"/>
-      <c r="U18" s="241"/>
-      <c r="V18" s="241"/>
-      <c r="W18" s="241"/>
-      <c r="X18" s="241"/>
-      <c r="Y18" s="241"/>
-      <c r="Z18" s="241"/>
-      <c r="AA18" s="241"/>
-      <c r="AB18" s="241"/>
-      <c r="AC18" s="241"/>
-      <c r="AD18" s="241"/>
-      <c r="AE18" s="242"/>
-      <c r="AF18" s="237"/>
-      <c r="AG18" s="238"/>
-      <c r="AH18" s="238"/>
-      <c r="AI18" s="239"/>
+      <c r="B18" s="195"/>
+      <c r="C18" s="196"/>
+      <c r="D18" s="197"/>
+      <c r="E18" s="198"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="195"/>
+      <c r="H18" s="200"/>
+      <c r="I18" s="196"/>
+      <c r="J18" s="201"/>
+      <c r="K18" s="202"/>
+      <c r="L18" s="202"/>
+      <c r="M18" s="202"/>
+      <c r="N18" s="202"/>
+      <c r="O18" s="202"/>
+      <c r="P18" s="203"/>
+      <c r="Q18" s="204"/>
+      <c r="R18" s="205"/>
+      <c r="S18" s="205"/>
+      <c r="T18" s="205"/>
+      <c r="U18" s="205"/>
+      <c r="V18" s="205"/>
+      <c r="W18" s="205"/>
+      <c r="X18" s="205"/>
+      <c r="Y18" s="205"/>
+      <c r="Z18" s="205"/>
+      <c r="AA18" s="205"/>
+      <c r="AB18" s="205"/>
+      <c r="AC18" s="205"/>
+      <c r="AD18" s="205"/>
+      <c r="AE18" s="206"/>
+      <c r="AF18" s="201"/>
+      <c r="AG18" s="202"/>
+      <c r="AH18" s="202"/>
+      <c r="AI18" s="203"/>
     </row>
     <row r="19" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="21"/>
-      <c r="B19" s="231"/>
-      <c r="C19" s="232"/>
-      <c r="D19" s="233"/>
-      <c r="E19" s="234"/>
-      <c r="F19" s="235"/>
-      <c r="G19" s="231"/>
-      <c r="H19" s="236"/>
-      <c r="I19" s="232"/>
-      <c r="J19" s="237"/>
-      <c r="K19" s="238"/>
-      <c r="L19" s="238"/>
-      <c r="M19" s="238"/>
-      <c r="N19" s="238"/>
-      <c r="O19" s="238"/>
-      <c r="P19" s="239"/>
-      <c r="Q19" s="240"/>
-      <c r="R19" s="241"/>
-      <c r="S19" s="241"/>
-      <c r="T19" s="241"/>
-      <c r="U19" s="241"/>
-      <c r="V19" s="241"/>
-      <c r="W19" s="241"/>
-      <c r="X19" s="241"/>
-      <c r="Y19" s="241"/>
-      <c r="Z19" s="241"/>
-      <c r="AA19" s="241"/>
-      <c r="AB19" s="241"/>
-      <c r="AC19" s="241"/>
-      <c r="AD19" s="241"/>
-      <c r="AE19" s="242"/>
-      <c r="AF19" s="237"/>
-      <c r="AG19" s="238"/>
-      <c r="AH19" s="238"/>
-      <c r="AI19" s="239"/>
+      <c r="B19" s="195"/>
+      <c r="C19" s="196"/>
+      <c r="D19" s="197"/>
+      <c r="E19" s="198"/>
+      <c r="F19" s="199"/>
+      <c r="G19" s="195"/>
+      <c r="H19" s="200"/>
+      <c r="I19" s="196"/>
+      <c r="J19" s="201"/>
+      <c r="K19" s="202"/>
+      <c r="L19" s="202"/>
+      <c r="M19" s="202"/>
+      <c r="N19" s="202"/>
+      <c r="O19" s="202"/>
+      <c r="P19" s="203"/>
+      <c r="Q19" s="204"/>
+      <c r="R19" s="205"/>
+      <c r="S19" s="205"/>
+      <c r="T19" s="205"/>
+      <c r="U19" s="205"/>
+      <c r="V19" s="205"/>
+      <c r="W19" s="205"/>
+      <c r="X19" s="205"/>
+      <c r="Y19" s="205"/>
+      <c r="Z19" s="205"/>
+      <c r="AA19" s="205"/>
+      <c r="AB19" s="205"/>
+      <c r="AC19" s="205"/>
+      <c r="AD19" s="205"/>
+      <c r="AE19" s="206"/>
+      <c r="AF19" s="201"/>
+      <c r="AG19" s="202"/>
+      <c r="AH19" s="202"/>
+      <c r="AI19" s="203"/>
     </row>
     <row r="20" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="21"/>
-      <c r="B20" s="231"/>
-      <c r="C20" s="232"/>
-      <c r="D20" s="233"/>
-      <c r="E20" s="234"/>
-      <c r="F20" s="235"/>
-      <c r="G20" s="231"/>
-      <c r="H20" s="236"/>
-      <c r="I20" s="232"/>
-      <c r="J20" s="237"/>
-      <c r="K20" s="238"/>
-      <c r="L20" s="238"/>
-      <c r="M20" s="238"/>
-      <c r="N20" s="238"/>
-      <c r="O20" s="238"/>
-      <c r="P20" s="239"/>
-      <c r="Q20" s="240"/>
-      <c r="R20" s="241"/>
-      <c r="S20" s="241"/>
-      <c r="T20" s="241"/>
-      <c r="U20" s="241"/>
-      <c r="V20" s="241"/>
-      <c r="W20" s="241"/>
-      <c r="X20" s="241"/>
-      <c r="Y20" s="241"/>
-      <c r="Z20" s="241"/>
-      <c r="AA20" s="241"/>
-      <c r="AB20" s="241"/>
-      <c r="AC20" s="241"/>
-      <c r="AD20" s="241"/>
-      <c r="AE20" s="242"/>
-      <c r="AF20" s="237"/>
-      <c r="AG20" s="238"/>
-      <c r="AH20" s="238"/>
-      <c r="AI20" s="239"/>
+      <c r="B20" s="195"/>
+      <c r="C20" s="196"/>
+      <c r="D20" s="197"/>
+      <c r="E20" s="198"/>
+      <c r="F20" s="199"/>
+      <c r="G20" s="195"/>
+      <c r="H20" s="200"/>
+      <c r="I20" s="196"/>
+      <c r="J20" s="201"/>
+      <c r="K20" s="202"/>
+      <c r="L20" s="202"/>
+      <c r="M20" s="202"/>
+      <c r="N20" s="202"/>
+      <c r="O20" s="202"/>
+      <c r="P20" s="203"/>
+      <c r="Q20" s="204"/>
+      <c r="R20" s="205"/>
+      <c r="S20" s="205"/>
+      <c r="T20" s="205"/>
+      <c r="U20" s="205"/>
+      <c r="V20" s="205"/>
+      <c r="W20" s="205"/>
+      <c r="X20" s="205"/>
+      <c r="Y20" s="205"/>
+      <c r="Z20" s="205"/>
+      <c r="AA20" s="205"/>
+      <c r="AB20" s="205"/>
+      <c r="AC20" s="205"/>
+      <c r="AD20" s="205"/>
+      <c r="AE20" s="206"/>
+      <c r="AF20" s="201"/>
+      <c r="AG20" s="202"/>
+      <c r="AH20" s="202"/>
+      <c r="AI20" s="203"/>
     </row>
     <row r="21" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="21"/>
-      <c r="B21" s="231"/>
-      <c r="C21" s="232"/>
-      <c r="D21" s="233"/>
-      <c r="E21" s="234"/>
-      <c r="F21" s="235"/>
-      <c r="G21" s="231"/>
-      <c r="H21" s="236"/>
-      <c r="I21" s="232"/>
-      <c r="J21" s="237"/>
-      <c r="K21" s="238"/>
-      <c r="L21" s="238"/>
-      <c r="M21" s="238"/>
-      <c r="N21" s="238"/>
-      <c r="O21" s="238"/>
-      <c r="P21" s="239"/>
-      <c r="Q21" s="240"/>
-      <c r="R21" s="241"/>
-      <c r="S21" s="241"/>
-      <c r="T21" s="241"/>
-      <c r="U21" s="241"/>
-      <c r="V21" s="241"/>
-      <c r="W21" s="241"/>
-      <c r="X21" s="241"/>
-      <c r="Y21" s="241"/>
-      <c r="Z21" s="241"/>
-      <c r="AA21" s="241"/>
-      <c r="AB21" s="241"/>
-      <c r="AC21" s="241"/>
-      <c r="AD21" s="241"/>
-      <c r="AE21" s="242"/>
-      <c r="AF21" s="237"/>
-      <c r="AG21" s="238"/>
-      <c r="AH21" s="238"/>
-      <c r="AI21" s="239"/>
+      <c r="B21" s="195"/>
+      <c r="C21" s="196"/>
+      <c r="D21" s="197"/>
+      <c r="E21" s="198"/>
+      <c r="F21" s="199"/>
+      <c r="G21" s="195"/>
+      <c r="H21" s="200"/>
+      <c r="I21" s="196"/>
+      <c r="J21" s="201"/>
+      <c r="K21" s="202"/>
+      <c r="L21" s="202"/>
+      <c r="M21" s="202"/>
+      <c r="N21" s="202"/>
+      <c r="O21" s="202"/>
+      <c r="P21" s="203"/>
+      <c r="Q21" s="204"/>
+      <c r="R21" s="205"/>
+      <c r="S21" s="205"/>
+      <c r="T21" s="205"/>
+      <c r="U21" s="205"/>
+      <c r="V21" s="205"/>
+      <c r="W21" s="205"/>
+      <c r="X21" s="205"/>
+      <c r="Y21" s="205"/>
+      <c r="Z21" s="205"/>
+      <c r="AA21" s="205"/>
+      <c r="AB21" s="205"/>
+      <c r="AC21" s="205"/>
+      <c r="AD21" s="205"/>
+      <c r="AE21" s="206"/>
+      <c r="AF21" s="201"/>
+      <c r="AG21" s="202"/>
+      <c r="AH21" s="202"/>
+      <c r="AI21" s="203"/>
     </row>
     <row r="22" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="21"/>
-      <c r="B22" s="231"/>
-      <c r="C22" s="232"/>
-      <c r="D22" s="233"/>
-      <c r="E22" s="234"/>
-      <c r="F22" s="235"/>
-      <c r="G22" s="231"/>
-      <c r="H22" s="236"/>
-      <c r="I22" s="232"/>
-      <c r="J22" s="237"/>
-      <c r="K22" s="238"/>
-      <c r="L22" s="238"/>
-      <c r="M22" s="238"/>
-      <c r="N22" s="238"/>
-      <c r="O22" s="238"/>
-      <c r="P22" s="239"/>
-      <c r="Q22" s="240"/>
-      <c r="R22" s="241"/>
-      <c r="S22" s="241"/>
-      <c r="T22" s="241"/>
-      <c r="U22" s="241"/>
-      <c r="V22" s="241"/>
-      <c r="W22" s="241"/>
-      <c r="X22" s="241"/>
-      <c r="Y22" s="241"/>
-      <c r="Z22" s="241"/>
-      <c r="AA22" s="241"/>
-      <c r="AB22" s="241"/>
-      <c r="AC22" s="241"/>
-      <c r="AD22" s="241"/>
-      <c r="AE22" s="242"/>
-      <c r="AF22" s="237"/>
-      <c r="AG22" s="238"/>
-      <c r="AH22" s="238"/>
-      <c r="AI22" s="239"/>
+      <c r="B22" s="195"/>
+      <c r="C22" s="196"/>
+      <c r="D22" s="197"/>
+      <c r="E22" s="198"/>
+      <c r="F22" s="199"/>
+      <c r="G22" s="195"/>
+      <c r="H22" s="200"/>
+      <c r="I22" s="196"/>
+      <c r="J22" s="201"/>
+      <c r="K22" s="202"/>
+      <c r="L22" s="202"/>
+      <c r="M22" s="202"/>
+      <c r="N22" s="202"/>
+      <c r="O22" s="202"/>
+      <c r="P22" s="203"/>
+      <c r="Q22" s="204"/>
+      <c r="R22" s="205"/>
+      <c r="S22" s="205"/>
+      <c r="T22" s="205"/>
+      <c r="U22" s="205"/>
+      <c r="V22" s="205"/>
+      <c r="W22" s="205"/>
+      <c r="X22" s="205"/>
+      <c r="Y22" s="205"/>
+      <c r="Z22" s="205"/>
+      <c r="AA22" s="205"/>
+      <c r="AB22" s="205"/>
+      <c r="AC22" s="205"/>
+      <c r="AD22" s="205"/>
+      <c r="AE22" s="206"/>
+      <c r="AF22" s="201"/>
+      <c r="AG22" s="202"/>
+      <c r="AH22" s="202"/>
+      <c r="AI22" s="203"/>
     </row>
     <row r="23" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="21"/>
-      <c r="B23" s="231"/>
-      <c r="C23" s="232"/>
-      <c r="D23" s="233"/>
-      <c r="E23" s="234"/>
-      <c r="F23" s="235"/>
-      <c r="G23" s="231"/>
-      <c r="H23" s="236"/>
-      <c r="I23" s="232"/>
-      <c r="J23" s="237"/>
-      <c r="K23" s="238"/>
-      <c r="L23" s="238"/>
-      <c r="M23" s="238"/>
-      <c r="N23" s="238"/>
-      <c r="O23" s="238"/>
-      <c r="P23" s="239"/>
-      <c r="Q23" s="240"/>
-      <c r="R23" s="241"/>
-      <c r="S23" s="241"/>
-      <c r="T23" s="241"/>
-      <c r="U23" s="241"/>
-      <c r="V23" s="241"/>
-      <c r="W23" s="241"/>
-      <c r="X23" s="241"/>
-      <c r="Y23" s="241"/>
-      <c r="Z23" s="241"/>
-      <c r="AA23" s="241"/>
-      <c r="AB23" s="241"/>
-      <c r="AC23" s="241"/>
-      <c r="AD23" s="241"/>
-      <c r="AE23" s="242"/>
-      <c r="AF23" s="237"/>
-      <c r="AG23" s="238"/>
-      <c r="AH23" s="238"/>
-      <c r="AI23" s="239"/>
+      <c r="B23" s="195"/>
+      <c r="C23" s="196"/>
+      <c r="D23" s="197"/>
+      <c r="E23" s="198"/>
+      <c r="F23" s="199"/>
+      <c r="G23" s="195"/>
+      <c r="H23" s="200"/>
+      <c r="I23" s="196"/>
+      <c r="J23" s="201"/>
+      <c r="K23" s="202"/>
+      <c r="L23" s="202"/>
+      <c r="M23" s="202"/>
+      <c r="N23" s="202"/>
+      <c r="O23" s="202"/>
+      <c r="P23" s="203"/>
+      <c r="Q23" s="204"/>
+      <c r="R23" s="205"/>
+      <c r="S23" s="205"/>
+      <c r="T23" s="205"/>
+      <c r="U23" s="205"/>
+      <c r="V23" s="205"/>
+      <c r="W23" s="205"/>
+      <c r="X23" s="205"/>
+      <c r="Y23" s="205"/>
+      <c r="Z23" s="205"/>
+      <c r="AA23" s="205"/>
+      <c r="AB23" s="205"/>
+      <c r="AC23" s="205"/>
+      <c r="AD23" s="205"/>
+      <c r="AE23" s="206"/>
+      <c r="AF23" s="201"/>
+      <c r="AG23" s="202"/>
+      <c r="AH23" s="202"/>
+      <c r="AI23" s="203"/>
     </row>
     <row r="24" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="21"/>
-      <c r="B24" s="231"/>
-      <c r="C24" s="232"/>
-      <c r="D24" s="233"/>
-      <c r="E24" s="234"/>
-      <c r="F24" s="235"/>
-      <c r="G24" s="231"/>
-      <c r="H24" s="236"/>
-      <c r="I24" s="232"/>
-      <c r="J24" s="237"/>
-      <c r="K24" s="238"/>
-      <c r="L24" s="238"/>
-      <c r="M24" s="238"/>
-      <c r="N24" s="238"/>
-      <c r="O24" s="238"/>
-      <c r="P24" s="239"/>
-      <c r="Q24" s="240"/>
-      <c r="R24" s="241"/>
-      <c r="S24" s="241"/>
-      <c r="T24" s="241"/>
-      <c r="U24" s="241"/>
-      <c r="V24" s="241"/>
-      <c r="W24" s="241"/>
-      <c r="X24" s="241"/>
-      <c r="Y24" s="241"/>
-      <c r="Z24" s="241"/>
-      <c r="AA24" s="241"/>
-      <c r="AB24" s="241"/>
-      <c r="AC24" s="241"/>
-      <c r="AD24" s="241"/>
-      <c r="AE24" s="242"/>
-      <c r="AF24" s="237"/>
-      <c r="AG24" s="238"/>
-      <c r="AH24" s="238"/>
-      <c r="AI24" s="239"/>
+      <c r="B24" s="195"/>
+      <c r="C24" s="196"/>
+      <c r="D24" s="197"/>
+      <c r="E24" s="198"/>
+      <c r="F24" s="199"/>
+      <c r="G24" s="195"/>
+      <c r="H24" s="200"/>
+      <c r="I24" s="196"/>
+      <c r="J24" s="201"/>
+      <c r="K24" s="202"/>
+      <c r="L24" s="202"/>
+      <c r="M24" s="202"/>
+      <c r="N24" s="202"/>
+      <c r="O24" s="202"/>
+      <c r="P24" s="203"/>
+      <c r="Q24" s="204"/>
+      <c r="R24" s="205"/>
+      <c r="S24" s="205"/>
+      <c r="T24" s="205"/>
+      <c r="U24" s="205"/>
+      <c r="V24" s="205"/>
+      <c r="W24" s="205"/>
+      <c r="X24" s="205"/>
+      <c r="Y24" s="205"/>
+      <c r="Z24" s="205"/>
+      <c r="AA24" s="205"/>
+      <c r="AB24" s="205"/>
+      <c r="AC24" s="205"/>
+      <c r="AD24" s="205"/>
+      <c r="AE24" s="206"/>
+      <c r="AF24" s="201"/>
+      <c r="AG24" s="202"/>
+      <c r="AH24" s="202"/>
+      <c r="AI24" s="203"/>
     </row>
     <row r="25" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="21"/>
-      <c r="B25" s="231"/>
-      <c r="C25" s="232"/>
-      <c r="D25" s="233"/>
-      <c r="E25" s="234"/>
-      <c r="F25" s="235"/>
-      <c r="G25" s="231"/>
-      <c r="H25" s="236"/>
-      <c r="I25" s="232"/>
-      <c r="J25" s="237"/>
-      <c r="K25" s="238"/>
-      <c r="L25" s="238"/>
-      <c r="M25" s="238"/>
-      <c r="N25" s="238"/>
-      <c r="O25" s="238"/>
-      <c r="P25" s="239"/>
-      <c r="Q25" s="240"/>
-      <c r="R25" s="241"/>
-      <c r="S25" s="241"/>
-      <c r="T25" s="241"/>
-      <c r="U25" s="241"/>
-      <c r="V25" s="241"/>
-      <c r="W25" s="241"/>
-      <c r="X25" s="241"/>
-      <c r="Y25" s="241"/>
-      <c r="Z25" s="241"/>
-      <c r="AA25" s="241"/>
-      <c r="AB25" s="241"/>
-      <c r="AC25" s="241"/>
-      <c r="AD25" s="241"/>
-      <c r="AE25" s="242"/>
-      <c r="AF25" s="237"/>
-      <c r="AG25" s="238"/>
-      <c r="AH25" s="238"/>
-      <c r="AI25" s="239"/>
+      <c r="B25" s="195"/>
+      <c r="C25" s="196"/>
+      <c r="D25" s="197"/>
+      <c r="E25" s="198"/>
+      <c r="F25" s="199"/>
+      <c r="G25" s="195"/>
+      <c r="H25" s="200"/>
+      <c r="I25" s="196"/>
+      <c r="J25" s="201"/>
+      <c r="K25" s="202"/>
+      <c r="L25" s="202"/>
+      <c r="M25" s="202"/>
+      <c r="N25" s="202"/>
+      <c r="O25" s="202"/>
+      <c r="P25" s="203"/>
+      <c r="Q25" s="204"/>
+      <c r="R25" s="205"/>
+      <c r="S25" s="205"/>
+      <c r="T25" s="205"/>
+      <c r="U25" s="205"/>
+      <c r="V25" s="205"/>
+      <c r="W25" s="205"/>
+      <c r="X25" s="205"/>
+      <c r="Y25" s="205"/>
+      <c r="Z25" s="205"/>
+      <c r="AA25" s="205"/>
+      <c r="AB25" s="205"/>
+      <c r="AC25" s="205"/>
+      <c r="AD25" s="205"/>
+      <c r="AE25" s="206"/>
+      <c r="AF25" s="201"/>
+      <c r="AG25" s="202"/>
+      <c r="AH25" s="202"/>
+      <c r="AI25" s="203"/>
     </row>
     <row r="26" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="21"/>
-      <c r="B26" s="231"/>
-      <c r="C26" s="232"/>
-      <c r="D26" s="233"/>
-      <c r="E26" s="234"/>
-      <c r="F26" s="235"/>
-      <c r="G26" s="231"/>
-      <c r="H26" s="236"/>
-      <c r="I26" s="232"/>
-      <c r="J26" s="237"/>
-      <c r="K26" s="238"/>
-      <c r="L26" s="238"/>
-      <c r="M26" s="238"/>
-      <c r="N26" s="238"/>
-      <c r="O26" s="238"/>
-      <c r="P26" s="239"/>
-      <c r="Q26" s="240"/>
-      <c r="R26" s="241"/>
-      <c r="S26" s="241"/>
-      <c r="T26" s="241"/>
-      <c r="U26" s="241"/>
-      <c r="V26" s="241"/>
-      <c r="W26" s="241"/>
-      <c r="X26" s="241"/>
-      <c r="Y26" s="241"/>
-      <c r="Z26" s="241"/>
-      <c r="AA26" s="241"/>
-      <c r="AB26" s="241"/>
-      <c r="AC26" s="241"/>
-      <c r="AD26" s="241"/>
-      <c r="AE26" s="242"/>
-      <c r="AF26" s="237"/>
-      <c r="AG26" s="238"/>
-      <c r="AH26" s="238"/>
-      <c r="AI26" s="239"/>
+      <c r="B26" s="195"/>
+      <c r="C26" s="196"/>
+      <c r="D26" s="197"/>
+      <c r="E26" s="198"/>
+      <c r="F26" s="199"/>
+      <c r="G26" s="195"/>
+      <c r="H26" s="200"/>
+      <c r="I26" s="196"/>
+      <c r="J26" s="201"/>
+      <c r="K26" s="202"/>
+      <c r="L26" s="202"/>
+      <c r="M26" s="202"/>
+      <c r="N26" s="202"/>
+      <c r="O26" s="202"/>
+      <c r="P26" s="203"/>
+      <c r="Q26" s="204"/>
+      <c r="R26" s="205"/>
+      <c r="S26" s="205"/>
+      <c r="T26" s="205"/>
+      <c r="U26" s="205"/>
+      <c r="V26" s="205"/>
+      <c r="W26" s="205"/>
+      <c r="X26" s="205"/>
+      <c r="Y26" s="205"/>
+      <c r="Z26" s="205"/>
+      <c r="AA26" s="205"/>
+      <c r="AB26" s="205"/>
+      <c r="AC26" s="205"/>
+      <c r="AD26" s="205"/>
+      <c r="AE26" s="206"/>
+      <c r="AF26" s="201"/>
+      <c r="AG26" s="202"/>
+      <c r="AH26" s="202"/>
+      <c r="AI26" s="203"/>
     </row>
     <row r="27" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="21"/>
-      <c r="B27" s="231"/>
-      <c r="C27" s="232"/>
-      <c r="D27" s="233"/>
-      <c r="E27" s="234"/>
-      <c r="F27" s="235"/>
-      <c r="G27" s="231"/>
-      <c r="H27" s="236"/>
-      <c r="I27" s="232"/>
-      <c r="J27" s="237"/>
-      <c r="K27" s="238"/>
-      <c r="L27" s="238"/>
-      <c r="M27" s="238"/>
-      <c r="N27" s="238"/>
-      <c r="O27" s="238"/>
-      <c r="P27" s="239"/>
-      <c r="Q27" s="240"/>
-      <c r="R27" s="241"/>
-      <c r="S27" s="241"/>
-      <c r="T27" s="241"/>
-      <c r="U27" s="241"/>
-      <c r="V27" s="241"/>
-      <c r="W27" s="241"/>
-      <c r="X27" s="241"/>
-      <c r="Y27" s="241"/>
-      <c r="Z27" s="241"/>
-      <c r="AA27" s="241"/>
-      <c r="AB27" s="241"/>
-      <c r="AC27" s="241"/>
-      <c r="AD27" s="241"/>
-      <c r="AE27" s="242"/>
-      <c r="AF27" s="237"/>
-      <c r="AG27" s="238"/>
-      <c r="AH27" s="238"/>
-      <c r="AI27" s="239"/>
+      <c r="B27" s="195"/>
+      <c r="C27" s="196"/>
+      <c r="D27" s="197"/>
+      <c r="E27" s="198"/>
+      <c r="F27" s="199"/>
+      <c r="G27" s="195"/>
+      <c r="H27" s="200"/>
+      <c r="I27" s="196"/>
+      <c r="J27" s="201"/>
+      <c r="K27" s="202"/>
+      <c r="L27" s="202"/>
+      <c r="M27" s="202"/>
+      <c r="N27" s="202"/>
+      <c r="O27" s="202"/>
+      <c r="P27" s="203"/>
+      <c r="Q27" s="204"/>
+      <c r="R27" s="205"/>
+      <c r="S27" s="205"/>
+      <c r="T27" s="205"/>
+      <c r="U27" s="205"/>
+      <c r="V27" s="205"/>
+      <c r="W27" s="205"/>
+      <c r="X27" s="205"/>
+      <c r="Y27" s="205"/>
+      <c r="Z27" s="205"/>
+      <c r="AA27" s="205"/>
+      <c r="AB27" s="205"/>
+      <c r="AC27" s="205"/>
+      <c r="AD27" s="205"/>
+      <c r="AE27" s="206"/>
+      <c r="AF27" s="201"/>
+      <c r="AG27" s="202"/>
+      <c r="AH27" s="202"/>
+      <c r="AI27" s="203"/>
     </row>
     <row r="28" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="231"/>
-      <c r="C28" s="232"/>
-      <c r="D28" s="233"/>
-      <c r="E28" s="234"/>
-      <c r="F28" s="235"/>
-      <c r="G28" s="231"/>
-      <c r="H28" s="236"/>
-      <c r="I28" s="232"/>
-      <c r="J28" s="237"/>
-      <c r="K28" s="238"/>
-      <c r="L28" s="238"/>
-      <c r="M28" s="238"/>
-      <c r="N28" s="238"/>
-      <c r="O28" s="238"/>
-      <c r="P28" s="239"/>
-      <c r="Q28" s="240"/>
-      <c r="R28" s="241"/>
-      <c r="S28" s="241"/>
-      <c r="T28" s="241"/>
-      <c r="U28" s="241"/>
-      <c r="V28" s="241"/>
-      <c r="W28" s="241"/>
-      <c r="X28" s="241"/>
-      <c r="Y28" s="241"/>
-      <c r="Z28" s="241"/>
-      <c r="AA28" s="241"/>
-      <c r="AB28" s="241"/>
-      <c r="AC28" s="241"/>
-      <c r="AD28" s="241"/>
-      <c r="AE28" s="242"/>
-      <c r="AF28" s="237"/>
-      <c r="AG28" s="238"/>
-      <c r="AH28" s="238"/>
-      <c r="AI28" s="239"/>
+      <c r="B28" s="195"/>
+      <c r="C28" s="196"/>
+      <c r="D28" s="197"/>
+      <c r="E28" s="198"/>
+      <c r="F28" s="199"/>
+      <c r="G28" s="195"/>
+      <c r="H28" s="200"/>
+      <c r="I28" s="196"/>
+      <c r="J28" s="201"/>
+      <c r="K28" s="202"/>
+      <c r="L28" s="202"/>
+      <c r="M28" s="202"/>
+      <c r="N28" s="202"/>
+      <c r="O28" s="202"/>
+      <c r="P28" s="203"/>
+      <c r="Q28" s="204"/>
+      <c r="R28" s="205"/>
+      <c r="S28" s="205"/>
+      <c r="T28" s="205"/>
+      <c r="U28" s="205"/>
+      <c r="V28" s="205"/>
+      <c r="W28" s="205"/>
+      <c r="X28" s="205"/>
+      <c r="Y28" s="205"/>
+      <c r="Z28" s="205"/>
+      <c r="AA28" s="205"/>
+      <c r="AB28" s="205"/>
+      <c r="AC28" s="205"/>
+      <c r="AD28" s="205"/>
+      <c r="AE28" s="206"/>
+      <c r="AF28" s="201"/>
+      <c r="AG28" s="202"/>
+      <c r="AH28" s="202"/>
+      <c r="AI28" s="203"/>
     </row>
     <row r="29" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="21"/>
-      <c r="B29" s="231"/>
-      <c r="C29" s="232"/>
-      <c r="D29" s="233"/>
-      <c r="E29" s="234"/>
-      <c r="F29" s="235"/>
-      <c r="G29" s="231"/>
-      <c r="H29" s="236"/>
-      <c r="I29" s="232"/>
-      <c r="J29" s="237"/>
-      <c r="K29" s="238"/>
-      <c r="L29" s="238"/>
-      <c r="M29" s="238"/>
-      <c r="N29" s="238"/>
-      <c r="O29" s="238"/>
-      <c r="P29" s="239"/>
-      <c r="Q29" s="240"/>
-      <c r="R29" s="241"/>
-      <c r="S29" s="241"/>
-      <c r="T29" s="241"/>
-      <c r="U29" s="241"/>
-      <c r="V29" s="241"/>
-      <c r="W29" s="241"/>
-      <c r="X29" s="241"/>
-      <c r="Y29" s="241"/>
-      <c r="Z29" s="241"/>
-      <c r="AA29" s="241"/>
-      <c r="AB29" s="241"/>
-      <c r="AC29" s="241"/>
-      <c r="AD29" s="241"/>
-      <c r="AE29" s="242"/>
-      <c r="AF29" s="237"/>
-      <c r="AG29" s="238"/>
-      <c r="AH29" s="238"/>
-      <c r="AI29" s="239"/>
+      <c r="B29" s="195"/>
+      <c r="C29" s="196"/>
+      <c r="D29" s="197"/>
+      <c r="E29" s="198"/>
+      <c r="F29" s="199"/>
+      <c r="G29" s="195"/>
+      <c r="H29" s="200"/>
+      <c r="I29" s="196"/>
+      <c r="J29" s="201"/>
+      <c r="K29" s="202"/>
+      <c r="L29" s="202"/>
+      <c r="M29" s="202"/>
+      <c r="N29" s="202"/>
+      <c r="O29" s="202"/>
+      <c r="P29" s="203"/>
+      <c r="Q29" s="204"/>
+      <c r="R29" s="205"/>
+      <c r="S29" s="205"/>
+      <c r="T29" s="205"/>
+      <c r="U29" s="205"/>
+      <c r="V29" s="205"/>
+      <c r="W29" s="205"/>
+      <c r="X29" s="205"/>
+      <c r="Y29" s="205"/>
+      <c r="Z29" s="205"/>
+      <c r="AA29" s="205"/>
+      <c r="AB29" s="205"/>
+      <c r="AC29" s="205"/>
+      <c r="AD29" s="205"/>
+      <c r="AE29" s="206"/>
+      <c r="AF29" s="201"/>
+      <c r="AG29" s="202"/>
+      <c r="AH29" s="202"/>
+      <c r="AI29" s="203"/>
     </row>
     <row r="30" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="21"/>
-      <c r="B30" s="231"/>
-      <c r="C30" s="232"/>
-      <c r="D30" s="233"/>
-      <c r="E30" s="234"/>
-      <c r="F30" s="235"/>
-      <c r="G30" s="231"/>
-      <c r="H30" s="236"/>
-      <c r="I30" s="232"/>
-      <c r="J30" s="237"/>
-      <c r="K30" s="238"/>
-      <c r="L30" s="238"/>
-      <c r="M30" s="238"/>
-      <c r="N30" s="238"/>
-      <c r="O30" s="238"/>
-      <c r="P30" s="239"/>
-      <c r="Q30" s="240"/>
-      <c r="R30" s="241"/>
-      <c r="S30" s="241"/>
-      <c r="T30" s="241"/>
-      <c r="U30" s="241"/>
-      <c r="V30" s="241"/>
-      <c r="W30" s="241"/>
-      <c r="X30" s="241"/>
-      <c r="Y30" s="241"/>
-      <c r="Z30" s="241"/>
-      <c r="AA30" s="241"/>
-      <c r="AB30" s="241"/>
-      <c r="AC30" s="241"/>
-      <c r="AD30" s="241"/>
-      <c r="AE30" s="242"/>
-      <c r="AF30" s="237"/>
-      <c r="AG30" s="238"/>
-      <c r="AH30" s="238"/>
-      <c r="AI30" s="239"/>
+      <c r="B30" s="195"/>
+      <c r="C30" s="196"/>
+      <c r="D30" s="197"/>
+      <c r="E30" s="198"/>
+      <c r="F30" s="199"/>
+      <c r="G30" s="195"/>
+      <c r="H30" s="200"/>
+      <c r="I30" s="196"/>
+      <c r="J30" s="201"/>
+      <c r="K30" s="202"/>
+      <c r="L30" s="202"/>
+      <c r="M30" s="202"/>
+      <c r="N30" s="202"/>
+      <c r="O30" s="202"/>
+      <c r="P30" s="203"/>
+      <c r="Q30" s="204"/>
+      <c r="R30" s="205"/>
+      <c r="S30" s="205"/>
+      <c r="T30" s="205"/>
+      <c r="U30" s="205"/>
+      <c r="V30" s="205"/>
+      <c r="W30" s="205"/>
+      <c r="X30" s="205"/>
+      <c r="Y30" s="205"/>
+      <c r="Z30" s="205"/>
+      <c r="AA30" s="205"/>
+      <c r="AB30" s="205"/>
+      <c r="AC30" s="205"/>
+      <c r="AD30" s="205"/>
+      <c r="AE30" s="206"/>
+      <c r="AF30" s="201"/>
+      <c r="AG30" s="202"/>
+      <c r="AH30" s="202"/>
+      <c r="AI30" s="203"/>
     </row>
     <row r="31" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="21"/>
-      <c r="B31" s="231"/>
-      <c r="C31" s="232"/>
-      <c r="D31" s="233"/>
-      <c r="E31" s="234"/>
-      <c r="F31" s="235"/>
-      <c r="G31" s="231"/>
-      <c r="H31" s="236"/>
-      <c r="I31" s="232"/>
-      <c r="J31" s="237"/>
-      <c r="K31" s="238"/>
-      <c r="L31" s="238"/>
-      <c r="M31" s="238"/>
-      <c r="N31" s="238"/>
-      <c r="O31" s="238"/>
-      <c r="P31" s="239"/>
-      <c r="Q31" s="240"/>
-      <c r="R31" s="241"/>
-      <c r="S31" s="241"/>
-      <c r="T31" s="241"/>
-      <c r="U31" s="241"/>
-      <c r="V31" s="241"/>
-      <c r="W31" s="241"/>
-      <c r="X31" s="241"/>
-      <c r="Y31" s="241"/>
-      <c r="Z31" s="241"/>
-      <c r="AA31" s="241"/>
-      <c r="AB31" s="241"/>
-      <c r="AC31" s="241"/>
-      <c r="AD31" s="241"/>
-      <c r="AE31" s="242"/>
-      <c r="AF31" s="237"/>
-      <c r="AG31" s="238"/>
-      <c r="AH31" s="238"/>
-      <c r="AI31" s="239"/>
+      <c r="B31" s="195"/>
+      <c r="C31" s="196"/>
+      <c r="D31" s="197"/>
+      <c r="E31" s="198"/>
+      <c r="F31" s="199"/>
+      <c r="G31" s="195"/>
+      <c r="H31" s="200"/>
+      <c r="I31" s="196"/>
+      <c r="J31" s="201"/>
+      <c r="K31" s="202"/>
+      <c r="L31" s="202"/>
+      <c r="M31" s="202"/>
+      <c r="N31" s="202"/>
+      <c r="O31" s="202"/>
+      <c r="P31" s="203"/>
+      <c r="Q31" s="204"/>
+      <c r="R31" s="205"/>
+      <c r="S31" s="205"/>
+      <c r="T31" s="205"/>
+      <c r="U31" s="205"/>
+      <c r="V31" s="205"/>
+      <c r="W31" s="205"/>
+      <c r="X31" s="205"/>
+      <c r="Y31" s="205"/>
+      <c r="Z31" s="205"/>
+      <c r="AA31" s="205"/>
+      <c r="AB31" s="205"/>
+      <c r="AC31" s="205"/>
+      <c r="AD31" s="205"/>
+      <c r="AE31" s="206"/>
+      <c r="AF31" s="201"/>
+      <c r="AG31" s="202"/>
+      <c r="AH31" s="202"/>
+      <c r="AI31" s="203"/>
     </row>
     <row r="32" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="21"/>
-      <c r="B32" s="231"/>
-      <c r="C32" s="232"/>
-      <c r="D32" s="233"/>
-      <c r="E32" s="234"/>
-      <c r="F32" s="235"/>
-      <c r="G32" s="231"/>
-      <c r="H32" s="236"/>
-      <c r="I32" s="232"/>
-      <c r="J32" s="237"/>
-      <c r="K32" s="252"/>
-      <c r="L32" s="238"/>
-      <c r="M32" s="238"/>
-      <c r="N32" s="238"/>
-      <c r="O32" s="238"/>
-      <c r="P32" s="239"/>
-      <c r="Q32" s="240"/>
-      <c r="R32" s="241"/>
-      <c r="S32" s="241"/>
-      <c r="T32" s="241"/>
-      <c r="U32" s="241"/>
-      <c r="V32" s="241"/>
-      <c r="W32" s="241"/>
-      <c r="X32" s="241"/>
-      <c r="Y32" s="241"/>
-      <c r="Z32" s="241"/>
-      <c r="AA32" s="241"/>
-      <c r="AB32" s="241"/>
-      <c r="AC32" s="241"/>
-      <c r="AD32" s="241"/>
-      <c r="AE32" s="242"/>
-      <c r="AF32" s="237"/>
-      <c r="AG32" s="238"/>
-      <c r="AH32" s="238"/>
-      <c r="AI32" s="239"/>
+      <c r="B32" s="195"/>
+      <c r="C32" s="196"/>
+      <c r="D32" s="197"/>
+      <c r="E32" s="198"/>
+      <c r="F32" s="199"/>
+      <c r="G32" s="195"/>
+      <c r="H32" s="200"/>
+      <c r="I32" s="196"/>
+      <c r="J32" s="201"/>
+      <c r="K32" s="207"/>
+      <c r="L32" s="202"/>
+      <c r="M32" s="202"/>
+      <c r="N32" s="202"/>
+      <c r="O32" s="202"/>
+      <c r="P32" s="203"/>
+      <c r="Q32" s="204"/>
+      <c r="R32" s="205"/>
+      <c r="S32" s="205"/>
+      <c r="T32" s="205"/>
+      <c r="U32" s="205"/>
+      <c r="V32" s="205"/>
+      <c r="W32" s="205"/>
+      <c r="X32" s="205"/>
+      <c r="Y32" s="205"/>
+      <c r="Z32" s="205"/>
+      <c r="AA32" s="205"/>
+      <c r="AB32" s="205"/>
+      <c r="AC32" s="205"/>
+      <c r="AD32" s="205"/>
+      <c r="AE32" s="206"/>
+      <c r="AF32" s="201"/>
+      <c r="AG32" s="202"/>
+      <c r="AH32" s="202"/>
+      <c r="AI32" s="203"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="21"/>
-      <c r="B33" s="231"/>
-      <c r="C33" s="232"/>
-      <c r="D33" s="233"/>
-      <c r="E33" s="234"/>
-      <c r="F33" s="235"/>
-      <c r="G33" s="231"/>
-      <c r="H33" s="236"/>
-      <c r="I33" s="232"/>
-      <c r="J33" s="237"/>
-      <c r="K33" s="238"/>
-      <c r="L33" s="238"/>
-      <c r="M33" s="238"/>
-      <c r="N33" s="238"/>
-      <c r="O33" s="238"/>
-      <c r="P33" s="239"/>
-      <c r="Q33" s="240"/>
-      <c r="R33" s="241"/>
-      <c r="S33" s="241"/>
-      <c r="T33" s="241"/>
-      <c r="U33" s="241"/>
-      <c r="V33" s="241"/>
-      <c r="W33" s="241"/>
-      <c r="X33" s="241"/>
-      <c r="Y33" s="241"/>
-      <c r="Z33" s="241"/>
-      <c r="AA33" s="241"/>
-      <c r="AB33" s="241"/>
-      <c r="AC33" s="241"/>
-      <c r="AD33" s="241"/>
-      <c r="AE33" s="242"/>
-      <c r="AF33" s="237"/>
-      <c r="AG33" s="238"/>
-      <c r="AH33" s="238"/>
-      <c r="AI33" s="239"/>
+      <c r="B33" s="195"/>
+      <c r="C33" s="196"/>
+      <c r="D33" s="197"/>
+      <c r="E33" s="198"/>
+      <c r="F33" s="199"/>
+      <c r="G33" s="195"/>
+      <c r="H33" s="200"/>
+      <c r="I33" s="196"/>
+      <c r="J33" s="201"/>
+      <c r="K33" s="202"/>
+      <c r="L33" s="202"/>
+      <c r="M33" s="202"/>
+      <c r="N33" s="202"/>
+      <c r="O33" s="202"/>
+      <c r="P33" s="203"/>
+      <c r="Q33" s="204"/>
+      <c r="R33" s="205"/>
+      <c r="S33" s="205"/>
+      <c r="T33" s="205"/>
+      <c r="U33" s="205"/>
+      <c r="V33" s="205"/>
+      <c r="W33" s="205"/>
+      <c r="X33" s="205"/>
+      <c r="Y33" s="205"/>
+      <c r="Z33" s="205"/>
+      <c r="AA33" s="205"/>
+      <c r="AB33" s="205"/>
+      <c r="AC33" s="205"/>
+      <c r="AD33" s="205"/>
+      <c r="AE33" s="206"/>
+      <c r="AF33" s="201"/>
+      <c r="AG33" s="202"/>
+      <c r="AH33" s="202"/>
+      <c r="AI33" s="203"/>
     </row>
     <row r="34" spans="1:35" ht="14">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="178">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -11626,6 +11481,161 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
@@ -32151,7 +32161,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="28" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O7" s="28" t="s">
         <v>9</v>
@@ -32161,7 +32171,9 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="11.5" thickBot="1">
-      <c r="A8" s="30"/>
+      <c r="A8" s="30" t="s">
+        <v>562</v>
+      </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
       <c r="D8" s="31"/>
